--- a/팀작업 테이블명세서.xlsx
+++ b/팀작업 테이블명세서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\0721\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="463">
   <si>
     <t>Null허용</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1928,30 +1928,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>미팅가능일시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>전문분야</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>코칭기간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>자격증및수료증</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>코칭경력상세(경험)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지원동기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>가입경로</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1988,10 +1972,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>twhy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>thowjoin</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2005,6 +1985,34 @@
   </si>
   <si>
     <t>대표 소셜미디어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수업가능지역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>twhere</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력*활동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그램소개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tprofile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코치자기소개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*한개삭제됨 twhy</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2012,7 +2020,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2083,6 +2091,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -2267,7 +2289,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2331,16 +2353,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2352,9 +2368,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2362,6 +2375,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2373,22 +2389,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2695,26 +2741,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -3078,15 +3124,15 @@
       <c r="I18" t="s">
         <v>72</v>
       </c>
-      <c r="J18" s="25" t="s">
+      <c r="J18" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="27"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="25"/>
       <c r="Q18" t="s">
         <v>217</v>
       </c>
@@ -3116,15 +3162,15 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
       <c r="J20" s="2">
         <v>1</v>
       </c>
@@ -3168,15 +3214,15 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
       <c r="J22" s="2">
         <v>3</v>
       </c>
@@ -3311,15 +3357,15 @@
         <v>18</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="J26" s="29" t="s">
+      <c r="J26" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="31"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="28"/>
       <c r="Q26" t="s">
         <v>218</v>
       </c>
@@ -3452,24 +3498,24 @@
       <c r="P30" s="2"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="27"/>
-      <c r="J33" s="25" t="s">
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="25"/>
+      <c r="J33" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="27"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="25"/>
       <c r="Q33" t="s">
         <v>219</v>
       </c>
@@ -3779,15 +3825,15 @@
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="27"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="25"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
@@ -3910,27 +3956,27 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="27"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="25"/>
       <c r="H55" t="s">
         <v>136</v>
       </c>
-      <c r="J55" s="25" t="s">
+      <c r="J55" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="26"/>
-      <c r="P55" s="27"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="25"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
@@ -4181,14 +4227,14 @@
       <c r="A63" s="4"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F65" s="28" t="s">
+      <c r="F65" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
-      <c r="K65" s="28"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M66" t="s">
@@ -4196,24 +4242,24 @@
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="27"/>
-      <c r="J67" s="25" t="s">
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="25"/>
+      <c r="J67" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="K67" s="26"/>
-      <c r="L67" s="26"/>
-      <c r="M67" s="26"/>
-      <c r="N67" s="26"/>
-      <c r="O67" s="26"/>
-      <c r="P67" s="27"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="25"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
@@ -4511,6 +4557,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A33:G33"/>
     <mergeCell ref="J67:P67"/>
     <mergeCell ref="J55:P55"/>
     <mergeCell ref="J18:P18"/>
@@ -4520,11 +4571,6 @@
     <mergeCell ref="A55:G55"/>
     <mergeCell ref="A67:G67"/>
     <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A33:G33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4564,39 +4610,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K5" s="9"/>
@@ -4619,16 +4665,16 @@
       <c r="R6" s="8"/>
     </row>
     <row r="7" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="32"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -4835,16 +4881,16 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="K14" s="35" t="s">
+      <c r="K14" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
@@ -5117,26 +5163,26 @@
       <c r="R26" s="8"/>
     </row>
     <row r="27" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="K27" s="32" t="s">
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="K27" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="34"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="32"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B28" s="14"/>
@@ -5313,26 +5359,26 @@
       <c r="R35" s="8"/>
     </row>
     <row r="36" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="34"/>
-      <c r="K36" s="32" t="s">
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="32"/>
+      <c r="K36" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="34"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="32"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B37" s="11" t="s">
@@ -5751,26 +5797,26 @@
     </row>
     <row r="52" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="53" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="34"/>
-      <c r="K53" s="32" t="s">
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="32"/>
+      <c r="K53" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="L53" s="33"/>
-      <c r="M53" s="33"/>
-      <c r="N53" s="33"/>
-      <c r="O53" s="33"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="34"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="32"/>
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
@@ -6157,26 +6203,26 @@
     </row>
     <row r="68" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="69" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="32" t="s">
+      <c r="B69" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="33"/>
-      <c r="H69" s="33"/>
-      <c r="I69" s="34"/>
-      <c r="K69" s="32" t="s">
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="32"/>
+      <c r="K69" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="L69" s="33"/>
-      <c r="M69" s="33"/>
-      <c r="N69" s="33"/>
-      <c r="O69" s="33"/>
-      <c r="P69" s="33"/>
-      <c r="Q69" s="33"/>
-      <c r="R69" s="34"/>
+      <c r="L69" s="31"/>
+      <c r="M69" s="31"/>
+      <c r="N69" s="31"/>
+      <c r="O69" s="31"/>
+      <c r="P69" s="31"/>
+      <c r="Q69" s="31"/>
+      <c r="R69" s="32"/>
       <c r="S69" t="s">
         <v>312</v>
       </c>
@@ -6460,26 +6506,26 @@
     </row>
     <row r="79" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="80" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="32" t="s">
+      <c r="B80" s="30" t="s">
         <v>372</v>
       </c>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="33"/>
-      <c r="G80" s="33"/>
-      <c r="H80" s="33"/>
-      <c r="I80" s="34"/>
-      <c r="K80" s="36" t="s">
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="32"/>
+      <c r="K80" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="L80" s="36"/>
-      <c r="M80" s="36"/>
-      <c r="N80" s="36"/>
-      <c r="O80" s="36"/>
-      <c r="P80" s="36"/>
-      <c r="Q80" s="36"/>
-      <c r="R80" s="36"/>
+      <c r="L80" s="33"/>
+      <c r="M80" s="33"/>
+      <c r="N80" s="33"/>
+      <c r="O80" s="33"/>
+      <c r="P80" s="33"/>
+      <c r="Q80" s="33"/>
+      <c r="R80" s="33"/>
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B81" s="11" t="s">
@@ -6639,26 +6685,26 @@
     </row>
     <row r="87" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="88" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="32" t="s">
+      <c r="B88" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="33"/>
-      <c r="I88" s="34"/>
-      <c r="K88" s="32" t="s">
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="32"/>
+      <c r="K88" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="L88" s="33"/>
-      <c r="M88" s="33"/>
-      <c r="N88" s="33"/>
-      <c r="O88" s="33"/>
-      <c r="P88" s="33"/>
-      <c r="Q88" s="33"/>
-      <c r="R88" s="34"/>
+      <c r="L88" s="31"/>
+      <c r="M88" s="31"/>
+      <c r="N88" s="31"/>
+      <c r="O88" s="31"/>
+      <c r="P88" s="31"/>
+      <c r="Q88" s="31"/>
+      <c r="R88" s="32"/>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B89" s="11" t="s">
@@ -6833,16 +6879,16 @@
       <c r="R93" s="2"/>
     </row>
     <row r="94" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="32" t="s">
+      <c r="B94" s="30" t="s">
         <v>318</v>
       </c>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="33"/>
-      <c r="G94" s="33"/>
-      <c r="H94" s="33"/>
-      <c r="I94" s="34"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="31"/>
+      <c r="I94" s="32"/>
       <c r="K94" s="2">
         <v>5</v>
       </c>
@@ -6932,16 +6978,16 @@
     </row>
     <row r="99" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="100" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="32" t="s">
+      <c r="B100" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="33"/>
-      <c r="F100" s="33"/>
-      <c r="G100" s="33"/>
-      <c r="H100" s="33"/>
-      <c r="I100" s="34"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="31"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="31"/>
+      <c r="I100" s="32"/>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="11" t="s">
@@ -7015,16 +7061,16 @@
     </row>
     <row r="107" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="108" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="32" t="s">
+      <c r="B108" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="C108" s="33"/>
-      <c r="D108" s="33"/>
-      <c r="E108" s="33"/>
-      <c r="F108" s="33"/>
-      <c r="G108" s="33"/>
-      <c r="H108" s="33"/>
-      <c r="I108" s="34"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="31"/>
+      <c r="E108" s="31"/>
+      <c r="F108" s="31"/>
+      <c r="G108" s="31"/>
+      <c r="H108" s="31"/>
+      <c r="I108" s="32"/>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="11" t="s">
@@ -7212,16 +7258,16 @@
     </row>
     <row r="121" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="122" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="32" t="s">
+      <c r="B122" s="30" t="s">
         <v>386</v>
       </c>
-      <c r="C122" s="33"/>
-      <c r="D122" s="33"/>
-      <c r="E122" s="33"/>
-      <c r="F122" s="33"/>
-      <c r="G122" s="33"/>
-      <c r="H122" s="33"/>
-      <c r="I122" s="34"/>
+      <c r="C122" s="31"/>
+      <c r="D122" s="31"/>
+      <c r="E122" s="31"/>
+      <c r="F122" s="31"/>
+      <c r="G122" s="31"/>
+      <c r="H122" s="31"/>
+      <c r="I122" s="32"/>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="11" t="s">
@@ -7349,6 +7395,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B88:I88"/>
+    <mergeCell ref="K69:R69"/>
+    <mergeCell ref="K53:R53"/>
     <mergeCell ref="K36:R36"/>
     <mergeCell ref="K80:R80"/>
     <mergeCell ref="B80:I80"/>
@@ -7365,9 +7414,6 @@
     <mergeCell ref="K27:R27"/>
     <mergeCell ref="B53:I53"/>
     <mergeCell ref="B69:I69"/>
-    <mergeCell ref="B88:I88"/>
-    <mergeCell ref="K69:R69"/>
-    <mergeCell ref="K53:R53"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7377,10 +7423,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S140"/>
+  <dimension ref="A2:S148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7406,39 +7452,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C2" s="28" t="s">
+      <c r="B2">
+        <f ca="1">B2:T132</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K5" s="9"/>
@@ -7461,16 +7511,16 @@
       <c r="R6" s="8"/>
     </row>
     <row r="7" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="32"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -7677,16 +7727,16 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="K14" s="35" t="s">
+      <c r="K14" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
@@ -7959,26 +8009,26 @@
       <c r="R26" s="8"/>
     </row>
     <row r="27" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="K27" s="32" t="s">
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="K27" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="34"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="32"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B28" s="14"/>
@@ -8155,26 +8205,26 @@
       <c r="R35" s="8"/>
     </row>
     <row r="36" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="34"/>
-      <c r="K36" s="32" t="s">
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="32"/>
+      <c r="K36" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="34"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="32"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B37" s="11" t="s">
@@ -8273,1305 +8323,1570 @@
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B39" s="2">
+      <c r="B39" s="46">
         <v>2</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="47" t="s">
         <v>253</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="47" t="s">
         <v>254</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2" t="s">
+      <c r="F39" s="46"/>
+      <c r="G39" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="K39" s="2">
+      <c r="J39" s="42"/>
+      <c r="K39" s="46">
         <v>2</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="L39" s="47" t="s">
         <v>303</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="M39" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="N39" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="O39" s="2" t="s">
+      <c r="O39" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="P39" s="2" t="s">
+      <c r="P39" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="Q39" s="2" t="s">
+      <c r="Q39" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="R39" s="2" t="s">
+      <c r="R39" s="46" t="s">
         <v>260</v>
       </c>
+      <c r="S39" s="42"/>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B40" s="2">
+      <c r="B40" s="46">
         <v>3</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2" t="s">
+      <c r="F40" s="46"/>
+      <c r="G40" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="K40" s="2">
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="46">
         <v>3</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="L40" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="M40" s="47" t="s">
         <v>291</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="N40" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="46"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="46"/>
+      <c r="S40" s="42"/>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B41" s="2">
+      <c r="B41" s="46">
         <v>4</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="K41" s="2">
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="46">
         <v>4</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="L41" s="47" t="s">
         <v>289</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="M41" s="47" t="s">
         <v>292</v>
       </c>
-      <c r="N41" s="3" t="s">
+      <c r="N41" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2" t="s">
+      <c r="O41" s="46"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="R41" s="2" t="s">
+      <c r="R41" s="46" t="s">
         <v>251</v>
       </c>
+      <c r="S41" s="42"/>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B42" s="2">
+      <c r="B42" s="46">
         <v>5</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="K42" s="2">
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="46">
         <v>5</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="L42" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="M42" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="N42" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="42"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B43" s="2">
+      <c r="B43" s="46">
         <v>6</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="47" t="s">
         <v>307</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="47" t="s">
         <v>252</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="K43" s="2">
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="46">
         <v>6</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="L43" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="M43" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="N43" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="46"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="42"/>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B44" s="2">
+      <c r="B44" s="46">
         <v>7</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="47" t="s">
         <v>252</v>
       </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="K44" s="20">
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="40">
         <v>7</v>
       </c>
-      <c r="L44" s="21" t="s">
+      <c r="L44" s="41" t="s">
         <v>406</v>
       </c>
-      <c r="M44" s="22" t="s">
+      <c r="M44" s="41" t="s">
         <v>407</v>
       </c>
-      <c r="N44" s="22" t="s">
+      <c r="N44" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
-      <c r="S44" t="s">
+      <c r="O44" s="40"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="40"/>
+      <c r="S44" s="42" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B45" s="2">
+      <c r="B45" s="46">
         <v>8</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="43"/>
+      <c r="R45" s="43"/>
+      <c r="S45" s="42"/>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B46" s="2">
+      <c r="B46" s="46">
         <v>9</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="43"/>
+      <c r="R46" s="43"/>
+      <c r="S46" s="42"/>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B47" s="2">
+      <c r="B47" s="46">
         <v>10</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="44" t="s">
         <v>258</v>
       </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="43"/>
+      <c r="P47" s="43"/>
+      <c r="Q47" s="43"/>
+      <c r="R47" s="43"/>
+      <c r="S47" s="42"/>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B48" s="2">
+      <c r="B48" s="46">
         <v>11</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="44" t="s">
         <v>280</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="44" t="s">
         <v>278</v>
       </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="43"/>
+      <c r="R48" s="43"/>
+      <c r="S48" s="42"/>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B49" s="2">
+      <c r="B49" s="46">
         <v>12</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="44" t="s">
         <v>365</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="44" t="s">
         <v>278</v>
       </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="43"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="42"/>
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B50" s="2">
+      <c r="B50" s="46">
         <v>13</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="44" t="s">
         <v>365</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="44" t="s">
         <v>366</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="44" t="s">
         <v>278</v>
       </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="52" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="43"/>
+      <c r="Q50" s="43"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="42"/>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="43"/>
+      <c r="P51" s="43"/>
+      <c r="Q51" s="43"/>
+      <c r="R51" s="43"/>
+      <c r="S51" s="42"/>
+    </row>
+    <row r="52" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="43"/>
+      <c r="Q52" s="43"/>
+      <c r="R52" s="43"/>
+      <c r="S52" s="42"/>
+    </row>
     <row r="53" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="37" t="s">
+      <c r="B53" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="39"/>
-      <c r="K53" s="32" t="s">
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="L53" s="33"/>
-      <c r="M53" s="33"/>
-      <c r="N53" s="33"/>
-      <c r="O53" s="33"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="34"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="37"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="38"/>
+      <c r="S53" s="42"/>
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B54" s="24" t="s">
+      <c r="B54" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="24" t="s">
+      <c r="E54" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F54" s="24" t="s">
+      <c r="F54" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="G54" s="24" t="s">
+      <c r="G54" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="H54" s="24" t="s">
+      <c r="H54" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="I54" s="24" t="s">
+      <c r="I54" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="K54" s="11" t="s">
+      <c r="J54" s="42"/>
+      <c r="K54" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="L54" s="11" t="s">
+      <c r="L54" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="M54" s="11" t="s">
+      <c r="M54" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="N54" s="11" t="s">
+      <c r="N54" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="O54" s="11" t="s">
+      <c r="O54" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="P54" s="11" t="s">
+      <c r="P54" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="Q54" s="11" t="s">
+      <c r="Q54" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="R54" s="11" t="s">
+      <c r="R54" s="39" t="s">
         <v>225</v>
       </c>
+      <c r="S54" s="42"/>
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B55" s="23">
+      <c r="B55" s="40">
         <v>1</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="E55" s="22" t="s">
+      <c r="E55" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="F55" s="23" t="s">
+      <c r="F55" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="23" t="s">
+      <c r="G55" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="H55" s="23" t="s">
+      <c r="H55" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="I55" s="23" t="s">
+      <c r="I55" s="40" t="s">
         <v>260</v>
       </c>
-      <c r="K55" s="2">
+      <c r="J55" s="42"/>
+      <c r="K55" s="46">
         <v>1</v>
       </c>
-      <c r="L55" s="3" t="s">
+      <c r="L55" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="M55" s="3" t="s">
+      <c r="M55" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="N55" s="3" t="s">
+      <c r="N55" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2" t="s">
+      <c r="O55" s="46"/>
+      <c r="P55" s="46"/>
+      <c r="Q55" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="R55" s="2" t="s">
+      <c r="R55" s="46" t="s">
         <v>305</v>
       </c>
+      <c r="S55" s="42"/>
     </row>
     <row r="56" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B56" s="23">
+      <c r="B56" s="40">
         <v>2</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D56" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="E56" s="22" t="s">
+      <c r="E56" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23" t="s">
+      <c r="F56" s="40"/>
+      <c r="G56" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="H56" s="23" t="s">
+      <c r="H56" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="I56" s="23" t="s">
+      <c r="I56" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="K56" s="2">
+      <c r="J56" s="42"/>
+      <c r="K56" s="46">
         <v>2</v>
       </c>
-      <c r="L56" s="3" t="s">
+      <c r="L56" s="47" t="s">
         <v>303</v>
       </c>
-      <c r="M56" s="3" t="s">
+      <c r="M56" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="N56" s="3" t="s">
+      <c r="N56" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="O56" s="2" t="s">
+      <c r="O56" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="P56" s="2" t="s">
+      <c r="P56" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="Q56" s="2" t="s">
+      <c r="Q56" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="R56" s="2" t="s">
+      <c r="R56" s="46" t="s">
         <v>260</v>
       </c>
+      <c r="S56" s="42"/>
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B57" s="23">
+      <c r="B57" s="40">
         <v>3</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="41" t="s">
         <v>437</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="D57" s="41" t="s">
+        <v>444</v>
+      </c>
+      <c r="E57" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="46">
+        <v>3</v>
+      </c>
+      <c r="L57" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="M57" s="47" t="s">
+        <v>291</v>
+      </c>
+      <c r="N57" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="O57" s="46"/>
+      <c r="P57" s="46"/>
+      <c r="Q57" s="46"/>
+      <c r="R57" s="46"/>
+      <c r="S57" s="42"/>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B58" s="40">
+        <v>4</v>
+      </c>
+      <c r="C58" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E58" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="40">
+        <v>4</v>
+      </c>
+      <c r="L58" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="M58" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="N58" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="O58" s="40"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="R58" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="S58" s="42"/>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B59" s="40">
+        <v>5</v>
+      </c>
+      <c r="C59" s="41" t="s">
+        <v>438</v>
+      </c>
+      <c r="D59" s="41" t="s">
+        <v>445</v>
+      </c>
+      <c r="E59" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="40">
+        <v>5</v>
+      </c>
+      <c r="L59" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="M59" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="N59" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="O59" s="40"/>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="40"/>
+      <c r="R59" s="40"/>
+      <c r="S59" s="42"/>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B60" s="40">
+        <v>6</v>
+      </c>
+      <c r="C60" s="41" t="s">
+        <v>439</v>
+      </c>
+      <c r="D60" s="41" t="s">
+        <v>446</v>
+      </c>
+      <c r="E60" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="40">
+        <v>6</v>
+      </c>
+      <c r="L60" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="M60" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="N60" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="40"/>
+      <c r="R60" s="40"/>
+      <c r="S60" s="42"/>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B61" s="40">
+        <v>7</v>
+      </c>
+      <c r="C61" s="41" t="s">
+        <v>440</v>
+      </c>
+      <c r="D61" s="41" t="s">
+        <v>447</v>
+      </c>
+      <c r="E61" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="40">
+        <v>7</v>
+      </c>
+      <c r="L61" s="41" t="s">
+        <v>406</v>
+      </c>
+      <c r="M61" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="N61" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="O61" s="40"/>
+      <c r="P61" s="40"/>
+      <c r="Q61" s="40"/>
+      <c r="R61" s="40"/>
+      <c r="S61" s="42" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B62" s="22">
+        <v>8</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="42"/>
+      <c r="M62" s="42"/>
+      <c r="N62" s="42"/>
+      <c r="O62" s="43"/>
+      <c r="P62" s="43"/>
+      <c r="Q62" s="43"/>
+      <c r="R62" s="43"/>
+      <c r="S62" s="42"/>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B63" s="40">
+        <v>9</v>
+      </c>
+      <c r="C63" s="41" t="s">
+        <v>441</v>
+      </c>
+      <c r="D63" s="41" t="s">
         <v>448</v>
       </c>
-      <c r="E57" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="K57" s="2">
+      <c r="E63" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42"/>
+      <c r="M63" s="42"/>
+      <c r="N63" s="42"/>
+      <c r="O63" s="43"/>
+      <c r="P63" s="43"/>
+      <c r="Q63" s="43"/>
+      <c r="R63" s="43"/>
+      <c r="S63" s="42"/>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B64" s="40">
+        <v>10</v>
+      </c>
+      <c r="C64" s="41" t="s">
+        <v>458</v>
+      </c>
+      <c r="D64" s="41" t="s">
+        <v>449</v>
+      </c>
+      <c r="E64" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="H64" s="40"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42"/>
+      <c r="L64" s="42"/>
+      <c r="M64" s="42"/>
+      <c r="N64" s="42"/>
+      <c r="O64" s="43"/>
+      <c r="P64" s="43"/>
+      <c r="Q64" s="43"/>
+      <c r="R64" s="43"/>
+      <c r="S64" s="42"/>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B65" s="40">
+        <v>11</v>
+      </c>
+      <c r="C65" s="44" t="s">
+        <v>459</v>
+      </c>
+      <c r="D65" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="E65" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="F65" s="41"/>
+      <c r="G65" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="42"/>
+      <c r="N65" s="42"/>
+      <c r="O65" s="43"/>
+      <c r="P65" s="43"/>
+      <c r="Q65" s="43"/>
+      <c r="R65" s="43"/>
+      <c r="S65" s="42"/>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B66" s="40">
+        <v>12</v>
+      </c>
+      <c r="C66" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="D66" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="E66" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="F66" s="41"/>
+      <c r="G66" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="H66" s="40"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="42"/>
+      <c r="M66" s="42"/>
+      <c r="N66" s="42"/>
+      <c r="O66" s="43"/>
+      <c r="P66" s="43"/>
+      <c r="Q66" s="43"/>
+      <c r="R66" s="43"/>
+      <c r="S66" s="42"/>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B67" s="40">
+        <v>13</v>
+      </c>
+      <c r="C67" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="D67" s="41" t="s">
+        <v>451</v>
+      </c>
+      <c r="E67" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="F67" s="40"/>
+      <c r="G67" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="H67" s="40"/>
+      <c r="I67" s="40"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="42"/>
+      <c r="N67" s="42"/>
+      <c r="O67" s="43"/>
+      <c r="P67" s="43"/>
+      <c r="Q67" s="43"/>
+      <c r="R67" s="43"/>
+      <c r="S67" s="42"/>
+    </row>
+    <row r="68" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="40">
+        <v>15</v>
+      </c>
+      <c r="C68" s="44" t="s">
+        <v>455</v>
+      </c>
+      <c r="D68" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="E68" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F68" s="41"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="42"/>
+      <c r="K68" s="42"/>
+      <c r="L68" s="42"/>
+      <c r="M68" s="42"/>
+      <c r="N68" s="42"/>
+      <c r="O68" s="43"/>
+      <c r="P68" s="43"/>
+      <c r="Q68" s="43"/>
+      <c r="R68" s="43"/>
+      <c r="S68" s="42"/>
+    </row>
+    <row r="69" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="40">
+        <v>16</v>
+      </c>
+      <c r="C69" s="44" t="s">
+        <v>443</v>
+      </c>
+      <c r="D69" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="E69" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="F69" s="40"/>
+      <c r="G69" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="H69" s="40"/>
+      <c r="I69" s="40"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="L69" s="37"/>
+      <c r="M69" s="37"/>
+      <c r="N69" s="37"/>
+      <c r="O69" s="37"/>
+      <c r="P69" s="37"/>
+      <c r="Q69" s="37"/>
+      <c r="R69" s="38"/>
+      <c r="S69" s="42" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B70" s="40">
+        <v>17</v>
+      </c>
+      <c r="C70" s="44" t="s">
+        <v>453</v>
+      </c>
+      <c r="D70" s="44" t="s">
+        <v>454</v>
+      </c>
+      <c r="E70" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="L70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M70" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="N70" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="O70" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="P70" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q70" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="R70" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="S70" s="42"/>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B71" s="42"/>
+      <c r="C71" s="48" t="s">
+        <v>462</v>
+      </c>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="42"/>
+      <c r="K71" s="40">
+        <v>1</v>
+      </c>
+      <c r="L71" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="M71" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="N71" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="O71" s="40"/>
+      <c r="P71" s="40"/>
+      <c r="Q71" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="R71" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="S71" s="42"/>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B72" s="42"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="40">
+        <v>2</v>
+      </c>
+      <c r="L72" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="M72" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="N72" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="O72" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="P72" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q72" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="R72" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="S72" s="42"/>
+    </row>
+    <row r="73" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="40">
         <v>3</v>
       </c>
-      <c r="L57" s="3" t="s">
+      <c r="L73" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="M57" s="3" t="s">
+      <c r="M73" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="N57" s="3" t="s">
+      <c r="N73" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
-    </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B58" s="23">
+      <c r="O73" s="40"/>
+      <c r="P73" s="40"/>
+      <c r="Q73" s="40"/>
+      <c r="R73" s="40"/>
+      <c r="S73" s="42"/>
+    </row>
+    <row r="74" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="38"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="40">
         <v>4</v>
       </c>
-      <c r="C58" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D58" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="E58" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23" t="s">
+      <c r="L74" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="M74" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="N74" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="O74" s="40"/>
+      <c r="P74" s="40"/>
+      <c r="Q74" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="R74" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="S74" s="42"/>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B75" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G75" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="I75" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="J75" s="42"/>
+      <c r="K75" s="40">
+        <v>5</v>
+      </c>
+      <c r="L75" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="M75" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="N75" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="O75" s="40"/>
+      <c r="P75" s="40"/>
+      <c r="Q75" s="40"/>
+      <c r="R75" s="40"/>
+      <c r="S75" s="42"/>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B76" s="40">
+        <v>1</v>
+      </c>
+      <c r="C76" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="D76" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="E76" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="F76" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="H76" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="I76" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="J76" s="42"/>
+      <c r="K76" s="40">
+        <v>7</v>
+      </c>
+      <c r="L76" s="41" t="s">
+        <v>406</v>
+      </c>
+      <c r="M76" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="N76" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="O76" s="40"/>
+      <c r="P76" s="40"/>
+      <c r="Q76" s="40"/>
+      <c r="R76" s="40"/>
+      <c r="S76" s="42" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B77" s="40">
         <v>2</v>
       </c>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="K58" s="2">
+      <c r="C77" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="D77" s="41" t="s">
+        <v>408</v>
+      </c>
+      <c r="E77" s="41" t="s">
+        <v>409</v>
+      </c>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="42"/>
+      <c r="K77" s="42"/>
+      <c r="L77" s="42"/>
+      <c r="M77" s="42"/>
+      <c r="N77" s="42"/>
+      <c r="O77" s="43"/>
+      <c r="P77" s="43"/>
+      <c r="Q77" s="43"/>
+      <c r="R77" s="43"/>
+      <c r="S77" s="42"/>
+    </row>
+    <row r="78" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B78" s="40">
+        <v>3</v>
+      </c>
+      <c r="C78" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="D78" s="41" t="s">
+        <v>412</v>
+      </c>
+      <c r="E78" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="F78" s="40"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="I78" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="J78" s="42"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="42"/>
+      <c r="O78" s="43"/>
+      <c r="P78" s="43"/>
+      <c r="Q78" s="43"/>
+      <c r="R78" s="43"/>
+      <c r="S78" s="42"/>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B79" s="40">
         <v>4</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="R58" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B59" s="23">
+      <c r="C79" s="41" t="s">
+        <v>415</v>
+      </c>
+      <c r="D79" s="41" t="s">
+        <v>416</v>
+      </c>
+      <c r="E79" s="41" t="s">
+        <v>417</v>
+      </c>
+      <c r="F79" s="40"/>
+      <c r="G79" s="40"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="40"/>
+      <c r="J79" s="42"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="42"/>
+      <c r="M79" s="42"/>
+      <c r="N79" s="42"/>
+      <c r="O79" s="43"/>
+      <c r="P79" s="43"/>
+      <c r="Q79" s="43"/>
+      <c r="R79" s="43"/>
+      <c r="S79" s="42"/>
+    </row>
+    <row r="80" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B80" s="40">
         <v>5</v>
       </c>
-      <c r="C59" s="22" t="s">
-        <v>438</v>
-      </c>
-      <c r="D59" s="22" t="s">
-        <v>449</v>
-      </c>
-      <c r="E59" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="K59" s="2">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
-    </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B60" s="23">
+      <c r="C80" s="41" t="s">
+        <v>418</v>
+      </c>
+      <c r="D80" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="E80" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="40"/>
+    </row>
+    <row r="81" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B81" s="40">
         <v>6</v>
       </c>
-      <c r="C60" s="22" t="s">
-        <v>439</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>450</v>
-      </c>
-      <c r="E60" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="K60" s="2">
-        <v>6</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
-    </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B61" s="23">
+      <c r="C81" s="41" t="s">
+        <v>420</v>
+      </c>
+      <c r="D81" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="E81" s="41" t="s">
+        <v>422</v>
+      </c>
+      <c r="F81" s="40"/>
+      <c r="G81" s="40"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="40"/>
+    </row>
+    <row r="82" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B82" s="40">
         <v>7</v>
       </c>
-      <c r="C61" s="22" t="s">
-        <v>440</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>451</v>
-      </c>
-      <c r="E61" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="K61" s="20">
-        <v>7</v>
-      </c>
-      <c r="L61" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="M61" s="22" t="s">
-        <v>407</v>
-      </c>
-      <c r="N61" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="O61" s="23"/>
-      <c r="P61" s="23"/>
-      <c r="Q61" s="23"/>
-      <c r="R61" s="23"/>
-      <c r="S61" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B62" s="23">
+      <c r="C82" s="41" t="s">
+        <v>413</v>
+      </c>
+      <c r="D82" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="E82" s="41" t="s">
+        <v>414</v>
+      </c>
+      <c r="F82" s="40"/>
+      <c r="G82" s="40"/>
+      <c r="H82" s="40"/>
+      <c r="I82" s="40"/>
+    </row>
+    <row r="83" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B83" s="40">
         <v>8</v>
       </c>
-      <c r="C62" s="22" t="s">
-        <v>441</v>
-      </c>
-      <c r="D62" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="E62" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
-    </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B63" s="23">
+      <c r="C83" s="41" t="s">
+        <v>424</v>
+      </c>
+      <c r="D83" s="41" t="s">
+        <v>425</v>
+      </c>
+      <c r="E83" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="F83" s="40"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="40"/>
+    </row>
+    <row r="84" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B84" s="40">
         <v>9</v>
       </c>
-      <c r="C63" s="22" t="s">
-        <v>442</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="E63" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="H63" s="23"/>
-      <c r="I63" s="23"/>
-    </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B64" s="23">
+      <c r="C84" s="41" t="s">
+        <v>427</v>
+      </c>
+      <c r="D84" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E84" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="F84" s="40"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="40"/>
+    </row>
+    <row r="85" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B85" s="40">
         <v>10</v>
       </c>
-      <c r="C64" s="22" t="s">
-        <v>443</v>
-      </c>
-      <c r="D64" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="E64" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B65" s="23">
+      <c r="C85" s="41" t="s">
+        <v>429</v>
+      </c>
+      <c r="D85" s="41" t="s">
+        <v>430</v>
+      </c>
+      <c r="E85" s="41" t="s">
+        <v>431</v>
+      </c>
+      <c r="F85" s="40"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="40"/>
+      <c r="I85" s="40"/>
+    </row>
+    <row r="86" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B86" s="40">
         <v>11</v>
       </c>
-      <c r="C65" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E65" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="F65" s="22"/>
-      <c r="G65" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B66" s="23">
+      <c r="C86" s="41" t="s">
+        <v>432</v>
+      </c>
+      <c r="D86" s="41" t="s">
+        <v>433</v>
+      </c>
+      <c r="E86" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="K86" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="L86" s="33"/>
+      <c r="M86" s="33"/>
+      <c r="N86" s="33"/>
+      <c r="O86" s="33"/>
+      <c r="P86" s="33"/>
+      <c r="Q86" s="33"/>
+      <c r="R86" s="33"/>
+    </row>
+    <row r="87" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B87" s="40">
         <v>12</v>
       </c>
-      <c r="C66" s="40" t="s">
-        <v>444</v>
-      </c>
-      <c r="D66" s="40" t="s">
-        <v>454</v>
-      </c>
-      <c r="E66" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="F66" s="22"/>
-      <c r="G66" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B67" s="23">
-        <v>13</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>445</v>
-      </c>
-      <c r="D67" s="22" t="s">
-        <v>455</v>
-      </c>
-      <c r="E67" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23"/>
-    </row>
-    <row r="68" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="23">
-        <v>14</v>
-      </c>
-      <c r="C68" s="40" t="s">
-        <v>446</v>
-      </c>
-      <c r="D68" s="22" t="s">
-        <v>456</v>
-      </c>
-      <c r="E68" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="F68" s="22"/>
-      <c r="G68" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="H68" s="22"/>
-      <c r="I68" s="23"/>
-    </row>
-    <row r="69" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="23">
-        <v>15</v>
-      </c>
-      <c r="C69" s="40" t="s">
-        <v>460</v>
-      </c>
-      <c r="D69" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="E69" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="23"/>
-      <c r="K69" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="L69" s="33"/>
-      <c r="M69" s="33"/>
-      <c r="N69" s="33"/>
-      <c r="O69" s="33"/>
-      <c r="P69" s="33"/>
-      <c r="Q69" s="33"/>
-      <c r="R69" s="34"/>
-      <c r="S69" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B70" s="23">
-        <v>16</v>
-      </c>
-      <c r="C70" s="40" t="s">
-        <v>447</v>
-      </c>
-      <c r="D70" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="E70" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="H70" s="23"/>
-      <c r="I70" s="23"/>
-      <c r="K70" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="L70" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M70" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="N70" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="O70" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="P70" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q70" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="R70" s="11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B71" s="23">
-        <v>17</v>
-      </c>
-      <c r="C71" s="40" t="s">
-        <v>458</v>
-      </c>
-      <c r="D71" s="40" t="s">
-        <v>459</v>
-      </c>
-      <c r="E71" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="23"/>
-      <c r="K71" s="2">
-        <v>1</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="M71" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="N71" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="R71" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="K72" s="2">
-        <v>2</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="O72" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P72" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q72" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="R72" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="K73" s="2">
-        <v>3</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="M73" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="N73" s="3" t="s">
+      <c r="C87" s="41" t="s">
+        <v>435</v>
+      </c>
+      <c r="D87" s="41" t="s">
+        <v>436</v>
+      </c>
+      <c r="E87" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
-      <c r="R73" s="2"/>
-    </row>
-    <row r="74" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K74" s="2">
-        <v>4</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="M74" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="N74" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="R74" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="75" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="33"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="33"/>
-      <c r="I75" s="34"/>
-      <c r="K75" s="2">
-        <v>5</v>
-      </c>
-      <c r="L75" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M75" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="N75" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B76" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H76" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I76" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="K76" s="20">
-        <v>7</v>
-      </c>
-      <c r="L76" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="M76" s="22" t="s">
-        <v>407</v>
-      </c>
-      <c r="N76" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="O76" s="23"/>
-      <c r="P76" s="23"/>
-      <c r="Q76" s="23"/>
-      <c r="R76" s="23"/>
-      <c r="S76" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B77" s="2">
-        <v>1</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I77" s="20" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B78" s="2">
-        <v>2</v>
-      </c>
-      <c r="C78" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="D78" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="E78" s="21" t="s">
-        <v>409</v>
-      </c>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23" t="s">
-        <v>410</v>
-      </c>
-      <c r="H78" s="23"/>
-      <c r="I78" s="23"/>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B79" s="2">
-        <v>3</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="D79" s="21" t="s">
-        <v>412</v>
-      </c>
-      <c r="E79" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="I79" s="23" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B80" s="2">
-        <v>4</v>
-      </c>
-      <c r="C80" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="D80" s="21" t="s">
-        <v>416</v>
-      </c>
-      <c r="E80" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="23"/>
-    </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B81" s="2">
-        <v>5</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>418</v>
-      </c>
-      <c r="D81" s="21" t="s">
-        <v>419</v>
-      </c>
-      <c r="E81" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="23"/>
-    </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B82" s="2">
-        <v>6</v>
-      </c>
-      <c r="C82" s="21" t="s">
-        <v>420</v>
-      </c>
-      <c r="D82" s="21" t="s">
-        <v>421</v>
-      </c>
-      <c r="E82" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="23"/>
-      <c r="I82" s="23"/>
-    </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B83" s="2">
-        <v>7</v>
-      </c>
-      <c r="C83" s="21" t="s">
-        <v>413</v>
-      </c>
-      <c r="D83" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="E83" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="23"/>
-      <c r="I83" s="23"/>
-    </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B84" s="2">
-        <v>8</v>
-      </c>
-      <c r="C84" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="D84" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="E84" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="23"/>
-    </row>
-    <row r="85" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B85" s="2">
-        <v>9</v>
-      </c>
-      <c r="C85" s="21" t="s">
-        <v>427</v>
-      </c>
-      <c r="D85" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="E85" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
-      <c r="I85" s="23"/>
-    </row>
-    <row r="86" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B86" s="2">
-        <v>10</v>
-      </c>
-      <c r="C86" s="21" t="s">
-        <v>429</v>
-      </c>
-      <c r="D86" s="21" t="s">
-        <v>430</v>
-      </c>
-      <c r="E86" s="21" t="s">
-        <v>431</v>
-      </c>
-      <c r="F86" s="23"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="23"/>
-      <c r="I86" s="23"/>
-      <c r="K86" s="36" t="s">
-        <v>311</v>
-      </c>
-      <c r="L86" s="36"/>
-      <c r="M86" s="36"/>
-      <c r="N86" s="36"/>
-      <c r="O86" s="36"/>
-      <c r="P86" s="36"/>
-      <c r="Q86" s="36"/>
-      <c r="R86" s="36"/>
-    </row>
-    <row r="87" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B87" s="2">
-        <v>11</v>
-      </c>
-      <c r="C87" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="D87" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="E87" s="21" t="s">
-        <v>434</v>
-      </c>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="23"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="40"/>
       <c r="K87" s="14" t="s">
         <v>124</v>
       </c>
@@ -9598,22 +9913,14 @@
       </c>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B88" s="2">
-        <v>12</v>
-      </c>
-      <c r="C88" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="D88" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="E88" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="23"/>
-      <c r="I88" s="23"/>
+      <c r="B88" s="35"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
       <c r="K88" s="19">
         <v>1</v>
       </c>
@@ -9636,6 +9943,14 @@
       </c>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B89" s="35"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="36"/>
       <c r="K89" s="19">
         <v>2</v>
       </c>
@@ -9657,7 +9972,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="90" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K90" s="19">
         <v>3</v>
       </c>
@@ -9675,57 +9990,78 @@
       <c r="Q90" s="19"/>
       <c r="R90" s="19"/>
     </row>
-    <row r="91" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="92" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="32" t="s">
+    <row r="91" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="30" t="s">
         <v>372</v>
       </c>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="33"/>
-      <c r="I92" s="34"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="31"/>
+      <c r="H91" s="31"/>
+      <c r="I91" s="32"/>
+    </row>
+    <row r="92" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B92" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I92" s="11" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="93" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F93" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G93" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H93" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I93" s="11" t="s">
-        <v>225</v>
+      <c r="B93" s="2">
+        <v>1</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="94" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B94" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>136</v>
+        <v>282</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>209</v>
+        <v>283</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -9733,40 +10069,20 @@
         <v>262</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="K94" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="K94" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="L94" s="33"/>
-      <c r="M94" s="33"/>
-      <c r="N94" s="33"/>
-      <c r="O94" s="33"/>
-      <c r="P94" s="33"/>
-      <c r="Q94" s="33"/>
-      <c r="R94" s="34"/>
+      <c r="L94" s="31"/>
+      <c r="M94" s="31"/>
+      <c r="N94" s="31"/>
+      <c r="O94" s="31"/>
+      <c r="P94" s="31"/>
+      <c r="Q94" s="31"/>
+      <c r="R94" s="32"/>
     </row>
     <row r="95" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B95" s="2">
-        <v>2</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="K95" s="11" t="s">
         <v>379</v>
       </c>
@@ -9838,7 +10154,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="98" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K98" s="2">
         <v>3</v>
       </c>
@@ -9857,6 +10173,16 @@
       <c r="R98" s="2"/>
     </row>
     <row r="99" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B99" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="C99" s="31"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="31"/>
+      <c r="G99" s="31"/>
+      <c r="H99" s="31"/>
+      <c r="I99" s="32"/>
       <c r="K99" s="2">
         <v>4</v>
       </c>
@@ -9874,17 +10200,31 @@
       <c r="Q99" s="2"/>
       <c r="R99" s="2"/>
     </row>
-    <row r="100" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="33"/>
-      <c r="F100" s="33"/>
-      <c r="G100" s="33"/>
-      <c r="H100" s="33"/>
-      <c r="I100" s="34"/>
+    <row r="100" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B100" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I100" s="11" t="s">
+        <v>225</v>
+      </c>
       <c r="K100" s="2">
         <v>5</v>
       </c>
@@ -9903,296 +10243,294 @@
       <c r="R100" s="2"/>
     </row>
     <row r="101" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B101" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E101" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F101" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G101" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H101" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I101" s="11" t="s">
-        <v>225</v>
+      <c r="B101" s="2">
+        <v>1</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="102" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B102" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>315</v>
+        <v>195</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>232</v>
+        <v>139</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="104" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="105" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B105" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="C105" s="31"/>
+      <c r="D105" s="31"/>
+      <c r="E105" s="31"/>
+      <c r="F105" s="31"/>
+      <c r="G105" s="31"/>
+      <c r="H105" s="31"/>
+      <c r="I105" s="32"/>
+    </row>
+    <row r="106" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B106" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I106" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="107" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B107" s="2">
+        <v>1</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="I102" s="2" t="s">
+      <c r="I107" s="2" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="103" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B103" s="2">
-        <v>2</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="105" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="106" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="32" t="s">
-        <v>318</v>
-      </c>
-      <c r="C106" s="33"/>
-      <c r="D106" s="33"/>
-      <c r="E106" s="33"/>
-      <c r="F106" s="33"/>
-      <c r="G106" s="33"/>
-      <c r="H106" s="33"/>
-      <c r="I106" s="34"/>
-    </row>
-    <row r="107" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B107" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E107" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F107" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G107" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H107" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I107" s="11" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="108" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B108" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>315</v>
+        <v>176</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>232</v>
+        <v>139</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="110" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="111" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B111" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="C111" s="31"/>
+      <c r="D111" s="31"/>
+      <c r="E111" s="31"/>
+      <c r="F111" s="31"/>
+      <c r="G111" s="31"/>
+      <c r="H111" s="31"/>
+      <c r="I111" s="32"/>
+    </row>
+    <row r="112" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B112" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I112" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B113" s="2">
+        <v>1</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="I108" s="2" t="s">
+      <c r="I113" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="109" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B109" s="2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B114" s="2">
         <v>2</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C114" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D109" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E109" s="3" t="s">
+      <c r="D114" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E114" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="111" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="112" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B112" s="32" t="s">
-        <v>320</v>
-      </c>
-      <c r="C112" s="33"/>
-      <c r="D112" s="33"/>
-      <c r="E112" s="33"/>
-      <c r="F112" s="33"/>
-      <c r="G112" s="33"/>
-      <c r="H112" s="33"/>
-      <c r="I112" s="34"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B113" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E113" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F113" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G113" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H113" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I113" s="11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B114" s="2">
-        <v>1</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2" t="s">
-        <v>262</v>
+        <v>138</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B115" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="119" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B119" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="C119" s="31"/>
+      <c r="D119" s="31"/>
+      <c r="E119" s="31"/>
+      <c r="F119" s="31"/>
+      <c r="G119" s="31"/>
+      <c r="H119" s="31"/>
+      <c r="I119" s="32"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B120" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I120" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B121" s="2">
+        <v>1</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B122" s="2">
         <v>2</v>
       </c>
-      <c r="C115" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="120" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B120" s="32" t="s">
-        <v>338</v>
-      </c>
-      <c r="C120" s="33"/>
-      <c r="D120" s="33"/>
-      <c r="E120" s="33"/>
-      <c r="F120" s="33"/>
-      <c r="G120" s="33"/>
-      <c r="H120" s="33"/>
-      <c r="I120" s="34"/>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B121" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C121" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E121" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F121" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="G121" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="H121" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="I121" s="11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B122" s="2">
-        <v>1</v>
-      </c>
       <c r="C122" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="F122" s="2"/>
       <c r="G122" s="2" t="s">
         <v>95</v>
       </c>
@@ -10200,42 +10538,36 @@
         <v>138</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B123" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>177</v>
+        <v>342</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="F123" s="2"/>
-      <c r="G123" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I123" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B124" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>342</v>
+        <v>274</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>252</v>
@@ -10245,235 +10577,460 @@
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B125" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>274</v>
+        <v>347</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B126" s="2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B126" s="46">
+        <v>6</v>
+      </c>
+      <c r="C126" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="D126" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="E126" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="F126" s="46"/>
+      <c r="G126" s="46"/>
+      <c r="H126" s="46"/>
+      <c r="I126" s="46"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A127" s="35"/>
+      <c r="B127" s="46">
+        <v>7</v>
+      </c>
+      <c r="C127" s="47" t="s">
+        <v>345</v>
+      </c>
+      <c r="D127" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="E127" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="F127" s="46"/>
+      <c r="G127" s="46"/>
+      <c r="H127" s="46"/>
+      <c r="I127" s="46"/>
+      <c r="J127" s="35"/>
+      <c r="K127" s="35"/>
+      <c r="L127" s="35"/>
+      <c r="M127" s="35"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A128" s="35"/>
+      <c r="B128" s="46">
+        <v>8</v>
+      </c>
+      <c r="C128" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="D128" s="44" t="s">
+        <v>352</v>
+      </c>
+      <c r="E128" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="F128" s="47"/>
+      <c r="G128" s="47"/>
+      <c r="H128" s="47"/>
+      <c r="I128" s="46"/>
+      <c r="J128" s="35"/>
+      <c r="K128" s="35"/>
+      <c r="L128" s="35"/>
+      <c r="M128" s="35"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A129" s="35"/>
+      <c r="B129" s="35"/>
+      <c r="C129" s="35"/>
+      <c r="D129" s="35"/>
+      <c r="E129" s="35"/>
+      <c r="F129" s="43"/>
+      <c r="G129" s="43"/>
+      <c r="H129" s="43"/>
+      <c r="I129" s="43"/>
+      <c r="J129" s="35"/>
+      <c r="K129" s="35"/>
+      <c r="L129" s="35"/>
+      <c r="M129" s="35"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A130" s="35"/>
+      <c r="B130" s="35"/>
+      <c r="C130" s="35"/>
+      <c r="D130" s="35"/>
+      <c r="E130" s="35"/>
+      <c r="F130" s="43"/>
+      <c r="G130" s="43"/>
+      <c r="H130" s="43"/>
+      <c r="I130" s="43"/>
+      <c r="J130" s="35"/>
+      <c r="K130" s="35"/>
+      <c r="L130" s="35"/>
+      <c r="M130" s="35"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A131" s="35"/>
+      <c r="B131" s="35"/>
+      <c r="C131" s="35"/>
+      <c r="D131" s="35"/>
+      <c r="E131" s="35"/>
+      <c r="F131" s="43"/>
+      <c r="G131" s="43"/>
+      <c r="H131" s="43"/>
+      <c r="I131" s="43"/>
+      <c r="J131" s="35"/>
+      <c r="K131" s="35"/>
+      <c r="L131" s="35"/>
+      <c r="M131" s="35"/>
+    </row>
+    <row r="132" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="35"/>
+      <c r="B132" s="35"/>
+      <c r="C132" s="35"/>
+      <c r="D132" s="35"/>
+      <c r="E132" s="35"/>
+      <c r="F132" s="43"/>
+      <c r="G132" s="43"/>
+      <c r="H132" s="43"/>
+      <c r="I132" s="43"/>
+      <c r="J132" s="35"/>
+      <c r="K132" s="35"/>
+      <c r="L132" s="35"/>
+      <c r="M132" s="35"/>
+    </row>
+    <row r="133" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="35"/>
+      <c r="B133" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="C133" s="37"/>
+      <c r="D133" s="37"/>
+      <c r="E133" s="37"/>
+      <c r="F133" s="37"/>
+      <c r="G133" s="37"/>
+      <c r="H133" s="37"/>
+      <c r="I133" s="38"/>
+      <c r="J133" s="35"/>
+      <c r="K133" s="35"/>
+      <c r="L133" s="35"/>
+      <c r="M133" s="35"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A134" s="35"/>
+      <c r="B134" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="C134" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D134" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F134" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G134" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H134" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="I134" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="J134" s="35"/>
+      <c r="K134" s="35"/>
+      <c r="L134" s="35"/>
+      <c r="M134" s="35"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A135" s="35"/>
+      <c r="B135" s="40">
+        <v>1</v>
+      </c>
+      <c r="C135" s="41" t="s">
+        <v>389</v>
+      </c>
+      <c r="D135" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="E135" s="41" t="s">
+        <v>391</v>
+      </c>
+      <c r="F135" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="G135" s="40" t="s">
+        <v>393</v>
+      </c>
+      <c r="H135" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="I135" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="J135" s="35"/>
+      <c r="K135" s="35"/>
+      <c r="L135" s="35"/>
+      <c r="M135" s="35"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A136" s="35"/>
+      <c r="B136" s="40">
+        <v>2</v>
+      </c>
+      <c r="C136" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="D136" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="E136" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="F136" s="40"/>
+      <c r="G136" s="40"/>
+      <c r="H136" s="40"/>
+      <c r="I136" s="40"/>
+      <c r="J136" s="35"/>
+      <c r="K136" s="35"/>
+      <c r="L136" s="35"/>
+      <c r="M136" s="35"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A137" s="35"/>
+      <c r="B137" s="40">
+        <v>3</v>
+      </c>
+      <c r="C137" s="41" t="s">
+        <v>397</v>
+      </c>
+      <c r="D137" s="41" t="s">
+        <v>398</v>
+      </c>
+      <c r="E137" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="F137" s="40"/>
+      <c r="G137" s="40"/>
+      <c r="H137" s="40"/>
+      <c r="I137" s="40"/>
+      <c r="J137" s="35"/>
+      <c r="K137" s="35"/>
+      <c r="L137" s="35"/>
+      <c r="M137" s="35"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A138" s="35"/>
+      <c r="B138" s="40">
+        <v>4</v>
+      </c>
+      <c r="C138" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="D138" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="E138" s="41" t="s">
+        <v>402</v>
+      </c>
+      <c r="F138" s="40"/>
+      <c r="G138" s="40"/>
+      <c r="H138" s="40"/>
+      <c r="I138" s="40"/>
+      <c r="J138" s="35"/>
+      <c r="K138" s="35"/>
+      <c r="L138" s="35"/>
+      <c r="M138" s="35"/>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A139" s="35"/>
+      <c r="B139" s="40">
         <v>5</v>
       </c>
-      <c r="C126" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B127" s="2">
-        <v>6</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B128" s="2">
-        <v>7</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B129" s="2">
-        <v>8</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
-      <c r="I129" s="2"/>
-    </row>
-    <row r="133" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="134" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="37" t="s">
-        <v>386</v>
-      </c>
-      <c r="C134" s="38"/>
-      <c r="D134" s="38"/>
-      <c r="E134" s="38"/>
-      <c r="F134" s="38"/>
-      <c r="G134" s="38"/>
-      <c r="H134" s="38"/>
-      <c r="I134" s="39"/>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B135" s="24" t="s">
-        <v>379</v>
-      </c>
-      <c r="C135" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D135" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E135" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F135" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G135" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H135" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="I135" s="24" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B136" s="23">
-        <v>1</v>
-      </c>
-      <c r="C136" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="D136" s="22" t="s">
-        <v>390</v>
-      </c>
-      <c r="E136" s="22" t="s">
-        <v>391</v>
-      </c>
-      <c r="F136" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="G136" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="H136" s="23" t="s">
-        <v>387</v>
-      </c>
-      <c r="I136" s="23" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B137" s="23">
-        <v>2</v>
-      </c>
-      <c r="C137" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="D137" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="E137" s="22" t="s">
-        <v>396</v>
-      </c>
-      <c r="F137" s="23"/>
-      <c r="G137" s="23"/>
-      <c r="H137" s="23"/>
-      <c r="I137" s="23"/>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B138" s="23">
-        <v>3</v>
-      </c>
-      <c r="C138" s="22" t="s">
-        <v>397</v>
-      </c>
-      <c r="D138" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="E138" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="F138" s="23"/>
-      <c r="G138" s="23"/>
-      <c r="H138" s="23"/>
-      <c r="I138" s="23"/>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B139" s="23">
-        <v>4</v>
-      </c>
-      <c r="C139" s="22" t="s">
-        <v>400</v>
-      </c>
-      <c r="D139" s="22" t="s">
-        <v>401</v>
-      </c>
-      <c r="E139" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="F139" s="23"/>
-      <c r="G139" s="23"/>
-      <c r="H139" s="23"/>
-      <c r="I139" s="23"/>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B140" s="23">
-        <v>5</v>
-      </c>
-      <c r="C140" s="22" t="s">
+      <c r="C139" s="41" t="s">
         <v>403</v>
       </c>
-      <c r="D140" s="22" t="s">
+      <c r="D139" s="41" t="s">
         <v>404</v>
       </c>
-      <c r="E140" s="22" t="s">
+      <c r="E139" s="41" t="s">
         <v>405</v>
       </c>
-      <c r="F140" s="23"/>
-      <c r="G140" s="23"/>
-      <c r="H140" s="23"/>
-      <c r="I140" s="23"/>
+      <c r="F139" s="40"/>
+      <c r="G139" s="40"/>
+      <c r="H139" s="40"/>
+      <c r="I139" s="40"/>
+      <c r="J139" s="35"/>
+      <c r="K139" s="35"/>
+      <c r="L139" s="35"/>
+      <c r="M139" s="35"/>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A140" s="35"/>
+      <c r="B140" s="35"/>
+      <c r="C140" s="35"/>
+      <c r="D140" s="35"/>
+      <c r="E140" s="35"/>
+      <c r="F140" s="43"/>
+      <c r="G140" s="43"/>
+      <c r="H140" s="43"/>
+      <c r="I140" s="43"/>
+      <c r="J140" s="35"/>
+      <c r="K140" s="35"/>
+      <c r="L140" s="35"/>
+      <c r="M140" s="35"/>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A141" s="35"/>
+      <c r="B141" s="35"/>
+      <c r="C141" s="35"/>
+      <c r="D141" s="35"/>
+      <c r="E141" s="35"/>
+      <c r="F141" s="43"/>
+      <c r="G141" s="43"/>
+      <c r="H141" s="43"/>
+      <c r="I141" s="43"/>
+      <c r="J141" s="35"/>
+      <c r="K141" s="35"/>
+      <c r="L141" s="35"/>
+      <c r="M141" s="35"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A142" s="35"/>
+      <c r="B142" s="35"/>
+      <c r="C142" s="35"/>
+      <c r="D142" s="35"/>
+      <c r="E142" s="35"/>
+      <c r="F142" s="43"/>
+      <c r="G142" s="43"/>
+      <c r="H142" s="43"/>
+      <c r="I142" s="43"/>
+      <c r="J142" s="35"/>
+      <c r="K142" s="35"/>
+      <c r="L142" s="35"/>
+      <c r="M142" s="35"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A143" s="35"/>
+      <c r="B143" s="35"/>
+      <c r="C143" s="35"/>
+      <c r="D143" s="35"/>
+      <c r="E143" s="35"/>
+      <c r="F143" s="43"/>
+      <c r="G143" s="43"/>
+      <c r="H143" s="43"/>
+      <c r="I143" s="43"/>
+      <c r="J143" s="35"/>
+      <c r="K143" s="35"/>
+      <c r="L143" s="35"/>
+      <c r="M143" s="35"/>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A144" s="35"/>
+      <c r="B144" s="35"/>
+      <c r="C144" s="35"/>
+      <c r="D144" s="35"/>
+      <c r="E144" s="35"/>
+      <c r="F144" s="43"/>
+      <c r="G144" s="43"/>
+      <c r="H144" s="43"/>
+      <c r="I144" s="43"/>
+      <c r="J144" s="35"/>
+      <c r="K144" s="35"/>
+      <c r="L144" s="35"/>
+      <c r="M144" s="35"/>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A145" s="35"/>
+      <c r="B145" s="35"/>
+      <c r="C145" s="35"/>
+      <c r="D145" s="35"/>
+      <c r="E145" s="35"/>
+      <c r="F145" s="43"/>
+      <c r="G145" s="43"/>
+      <c r="H145" s="43"/>
+      <c r="I145" s="43"/>
+      <c r="J145" s="35"/>
+      <c r="K145" s="35"/>
+      <c r="L145" s="35"/>
+      <c r="M145" s="35"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A146" s="35"/>
+      <c r="B146" s="35"/>
+      <c r="C146" s="35"/>
+      <c r="D146" s="35"/>
+      <c r="E146" s="35"/>
+      <c r="F146" s="43"/>
+      <c r="G146" s="43"/>
+      <c r="H146" s="43"/>
+      <c r="I146" s="43"/>
+      <c r="J146" s="35"/>
+      <c r="K146" s="35"/>
+      <c r="L146" s="35"/>
+      <c r="M146" s="35"/>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A147" s="35"/>
+      <c r="B147" s="35"/>
+      <c r="C147" s="35"/>
+      <c r="D147" s="35"/>
+      <c r="E147" s="35"/>
+      <c r="F147" s="43"/>
+      <c r="G147" s="43"/>
+      <c r="H147" s="43"/>
+      <c r="I147" s="43"/>
+      <c r="J147" s="35"/>
+      <c r="K147" s="35"/>
+      <c r="L147" s="35"/>
+      <c r="M147" s="35"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A148" s="35"/>
+      <c r="J148" s="35"/>
+      <c r="K148" s="35"/>
+      <c r="L148" s="35"/>
+      <c r="M148" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B133:I133"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="K53:R53"/>
+    <mergeCell ref="B74:I74"/>
+    <mergeCell ref="K69:R69"/>
+    <mergeCell ref="B91:I91"/>
+    <mergeCell ref="K86:R86"/>
+    <mergeCell ref="B99:I99"/>
+    <mergeCell ref="K94:R94"/>
+    <mergeCell ref="B105:I105"/>
+    <mergeCell ref="B111:I111"/>
+    <mergeCell ref="B119:I119"/>
     <mergeCell ref="B36:I36"/>
     <mergeCell ref="K36:R36"/>
     <mergeCell ref="C2:K4"/>
@@ -10481,18 +11038,6 @@
     <mergeCell ref="K14:R14"/>
     <mergeCell ref="B27:I27"/>
     <mergeCell ref="K27:R27"/>
-    <mergeCell ref="B134:I134"/>
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="K53:R53"/>
-    <mergeCell ref="B75:I75"/>
-    <mergeCell ref="K69:R69"/>
-    <mergeCell ref="B92:I92"/>
-    <mergeCell ref="K86:R86"/>
-    <mergeCell ref="B100:I100"/>
-    <mergeCell ref="K94:R94"/>
-    <mergeCell ref="B106:I106"/>
-    <mergeCell ref="B112:I112"/>
-    <mergeCell ref="B120:I120"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/팀작업 테이블명세서.xlsx
+++ b/팀작업 테이블명세서.xlsx
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="476">
   <si>
     <t>Null허용</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2013,6 +2013,58 @@
   </si>
   <si>
     <t>*한개삭제됨 twhy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대문 글귀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대문 소글귀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbigtext</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsmalltext</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vachar(200)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬스장 자격증</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그램소개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gcerti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gprogram</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2289,7 +2341,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2359,52 +2411,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2425,9 +2435,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2435,6 +2442,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2720,7 +2778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B11" sqref="B11:F11"/>
     </sheetView>
   </sheetViews>
@@ -2741,26 +2799,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -3124,15 +3182,15 @@
       <c r="I18" t="s">
         <v>72</v>
       </c>
-      <c r="J18" s="23" t="s">
+      <c r="J18" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="25"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="36"/>
       <c r="Q18" t="s">
         <v>217</v>
       </c>
@@ -3162,15 +3220,15 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
       <c r="J20" s="2">
         <v>1</v>
       </c>
@@ -3214,15 +3272,15 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
       <c r="J22" s="2">
         <v>3</v>
       </c>
@@ -3357,15 +3415,15 @@
         <v>18</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="J26" s="26" t="s">
+      <c r="J26" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="28"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="40"/>
       <c r="Q26" t="s">
         <v>218</v>
       </c>
@@ -3498,24 +3556,24 @@
       <c r="P30" s="2"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="25"/>
-      <c r="J33" s="23" t="s">
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="36"/>
+      <c r="J33" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="25"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="36"/>
       <c r="Q33" t="s">
         <v>219</v>
       </c>
@@ -3825,15 +3883,15 @@
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="25"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="36"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
@@ -3956,27 +4014,27 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="25"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="36"/>
       <c r="H55" t="s">
         <v>136</v>
       </c>
-      <c r="J55" s="23" t="s">
+      <c r="J55" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="K55" s="24"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="25"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="36"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
@@ -4227,14 +4285,14 @@
       <c r="A63" s="4"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F65" s="29" t="s">
+      <c r="F65" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="37"/>
+      <c r="K65" s="37"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M66" t="s">
@@ -4242,24 +4300,24 @@
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="25"/>
-      <c r="J67" s="23" t="s">
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="36"/>
+      <c r="J67" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="K67" s="24"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="24"/>
-      <c r="N67" s="24"/>
-      <c r="O67" s="24"/>
-      <c r="P67" s="25"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="36"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
@@ -4557,11 +4615,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A33:G33"/>
     <mergeCell ref="J67:P67"/>
     <mergeCell ref="J55:P55"/>
     <mergeCell ref="J18:P18"/>
@@ -4571,6 +4624,11 @@
     <mergeCell ref="A55:G55"/>
     <mergeCell ref="A67:G67"/>
     <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A33:G33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4583,7 +4641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S128"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -4610,39 +4668,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K5" s="9"/>
@@ -4665,16 +4723,16 @@
       <c r="R6" s="8"/>
     </row>
     <row r="7" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="32"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -4881,16 +4939,16 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="K14" s="34" t="s">
+      <c r="K14" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
@@ -5163,26 +5221,26 @@
       <c r="R26" s="8"/>
     </row>
     <row r="27" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="K27" s="30" t="s">
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="K27" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="32"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="43"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B28" s="14"/>
@@ -5359,26 +5417,26 @@
       <c r="R35" s="8"/>
     </row>
     <row r="36" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="32"/>
-      <c r="K36" s="30" t="s">
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="43"/>
+      <c r="K36" s="41" t="s">
         <v>299</v>
       </c>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="32"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="43"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B37" s="11" t="s">
@@ -5797,26 +5855,26 @@
     </row>
     <row r="52" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="53" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="32"/>
-      <c r="K53" s="30" t="s">
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="43"/>
+      <c r="K53" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="31"/>
-      <c r="Q53" s="31"/>
-      <c r="R53" s="32"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="42"/>
+      <c r="Q53" s="42"/>
+      <c r="R53" s="43"/>
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
@@ -6203,26 +6261,26 @@
     </row>
     <row r="68" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="69" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="32"/>
-      <c r="K69" s="30" t="s">
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="43"/>
+      <c r="K69" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="L69" s="31"/>
-      <c r="M69" s="31"/>
-      <c r="N69" s="31"/>
-      <c r="O69" s="31"/>
-      <c r="P69" s="31"/>
-      <c r="Q69" s="31"/>
-      <c r="R69" s="32"/>
+      <c r="L69" s="42"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="42"/>
+      <c r="O69" s="42"/>
+      <c r="P69" s="42"/>
+      <c r="Q69" s="42"/>
+      <c r="R69" s="43"/>
       <c r="S69" t="s">
         <v>312</v>
       </c>
@@ -6506,26 +6564,26 @@
     </row>
     <row r="79" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="80" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="30" t="s">
+      <c r="B80" s="41" t="s">
         <v>372</v>
       </c>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="32"/>
-      <c r="K80" s="33" t="s">
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="43"/>
+      <c r="K80" s="44" t="s">
         <v>311</v>
       </c>
-      <c r="L80" s="33"/>
-      <c r="M80" s="33"/>
-      <c r="N80" s="33"/>
-      <c r="O80" s="33"/>
-      <c r="P80" s="33"/>
-      <c r="Q80" s="33"/>
-      <c r="R80" s="33"/>
+      <c r="L80" s="44"/>
+      <c r="M80" s="44"/>
+      <c r="N80" s="44"/>
+      <c r="O80" s="44"/>
+      <c r="P80" s="44"/>
+      <c r="Q80" s="44"/>
+      <c r="R80" s="44"/>
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B81" s="11" t="s">
@@ -6685,26 +6743,26 @@
     </row>
     <row r="87" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="88" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="30" t="s">
+      <c r="B88" s="41" t="s">
         <v>313</v>
       </c>
-      <c r="C88" s="31"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="32"/>
-      <c r="K88" s="30" t="s">
+      <c r="C88" s="42"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="43"/>
+      <c r="K88" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="L88" s="31"/>
-      <c r="M88" s="31"/>
-      <c r="N88" s="31"/>
-      <c r="O88" s="31"/>
-      <c r="P88" s="31"/>
-      <c r="Q88" s="31"/>
-      <c r="R88" s="32"/>
+      <c r="L88" s="42"/>
+      <c r="M88" s="42"/>
+      <c r="N88" s="42"/>
+      <c r="O88" s="42"/>
+      <c r="P88" s="42"/>
+      <c r="Q88" s="42"/>
+      <c r="R88" s="43"/>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B89" s="11" t="s">
@@ -6879,16 +6937,16 @@
       <c r="R93" s="2"/>
     </row>
     <row r="94" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="30" t="s">
+      <c r="B94" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="C94" s="31"/>
-      <c r="D94" s="31"/>
-      <c r="E94" s="31"/>
-      <c r="F94" s="31"/>
-      <c r="G94" s="31"/>
-      <c r="H94" s="31"/>
-      <c r="I94" s="32"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="42"/>
+      <c r="G94" s="42"/>
+      <c r="H94" s="42"/>
+      <c r="I94" s="43"/>
       <c r="K94" s="2">
         <v>5</v>
       </c>
@@ -6978,16 +7036,16 @@
     </row>
     <row r="99" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="100" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="30" t="s">
+      <c r="B100" s="41" t="s">
         <v>320</v>
       </c>
-      <c r="C100" s="31"/>
-      <c r="D100" s="31"/>
-      <c r="E100" s="31"/>
-      <c r="F100" s="31"/>
-      <c r="G100" s="31"/>
-      <c r="H100" s="31"/>
-      <c r="I100" s="32"/>
+      <c r="C100" s="42"/>
+      <c r="D100" s="42"/>
+      <c r="E100" s="42"/>
+      <c r="F100" s="42"/>
+      <c r="G100" s="42"/>
+      <c r="H100" s="42"/>
+      <c r="I100" s="43"/>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="11" t="s">
@@ -7061,16 +7119,16 @@
     </row>
     <row r="107" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="108" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="30" t="s">
+      <c r="B108" s="41" t="s">
         <v>338</v>
       </c>
-      <c r="C108" s="31"/>
-      <c r="D108" s="31"/>
-      <c r="E108" s="31"/>
-      <c r="F108" s="31"/>
-      <c r="G108" s="31"/>
-      <c r="H108" s="31"/>
-      <c r="I108" s="32"/>
+      <c r="C108" s="42"/>
+      <c r="D108" s="42"/>
+      <c r="E108" s="42"/>
+      <c r="F108" s="42"/>
+      <c r="G108" s="42"/>
+      <c r="H108" s="42"/>
+      <c r="I108" s="43"/>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="11" t="s">
@@ -7258,16 +7316,16 @@
     </row>
     <row r="121" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="122" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="30" t="s">
+      <c r="B122" s="41" t="s">
         <v>386</v>
       </c>
-      <c r="C122" s="31"/>
-      <c r="D122" s="31"/>
-      <c r="E122" s="31"/>
-      <c r="F122" s="31"/>
-      <c r="G122" s="31"/>
-      <c r="H122" s="31"/>
-      <c r="I122" s="32"/>
+      <c r="C122" s="42"/>
+      <c r="D122" s="42"/>
+      <c r="E122" s="42"/>
+      <c r="F122" s="42"/>
+      <c r="G122" s="42"/>
+      <c r="H122" s="42"/>
+      <c r="I122" s="43"/>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="11" t="s">
@@ -7395,12 +7453,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B88:I88"/>
-    <mergeCell ref="K69:R69"/>
-    <mergeCell ref="K53:R53"/>
-    <mergeCell ref="K36:R36"/>
-    <mergeCell ref="K80:R80"/>
-    <mergeCell ref="B80:I80"/>
     <mergeCell ref="B122:I122"/>
     <mergeCell ref="C2:K4"/>
     <mergeCell ref="B7:I7"/>
@@ -7414,6 +7466,12 @@
     <mergeCell ref="K27:R27"/>
     <mergeCell ref="B53:I53"/>
     <mergeCell ref="B69:I69"/>
+    <mergeCell ref="B88:I88"/>
+    <mergeCell ref="K69:R69"/>
+    <mergeCell ref="K53:R53"/>
+    <mergeCell ref="K36:R36"/>
+    <mergeCell ref="K80:R80"/>
+    <mergeCell ref="B80:I80"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7423,10 +7481,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S148"/>
+  <dimension ref="A2:S152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7456,39 +7514,39 @@
         <f ca="1">B2:T132</f>
         <v>0</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K5" s="9"/>
@@ -7511,16 +7569,16 @@
       <c r="R6" s="8"/>
     </row>
     <row r="7" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="32"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -7727,16 +7785,16 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="K14" s="34" t="s">
+      <c r="K14" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
@@ -8009,26 +8067,26 @@
       <c r="R26" s="8"/>
     </row>
     <row r="27" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="K27" s="30" t="s">
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="K27" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="32"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="43"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B28" s="14"/>
@@ -8205,26 +8263,26 @@
       <c r="R35" s="8"/>
     </row>
     <row r="36" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="32"/>
-      <c r="K36" s="30" t="s">
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="43"/>
+      <c r="K36" s="41" t="s">
         <v>299</v>
       </c>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="32"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="43"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B37" s="11" t="s">
@@ -8323,1570 +8381,1566 @@
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B39" s="46">
+      <c r="B39" s="31">
         <v>2</v>
       </c>
-      <c r="C39" s="47" t="s">
+      <c r="C39" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="D39" s="47" t="s">
+      <c r="D39" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="E39" s="47" t="s">
+      <c r="E39" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46" t="s">
+      <c r="F39" s="31"/>
+      <c r="G39" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="46" t="s">
+      <c r="H39" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="I39" s="46" t="s">
+      <c r="I39" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="J39" s="42"/>
-      <c r="K39" s="46">
+      <c r="J39" s="28"/>
+      <c r="K39" s="31">
         <v>2</v>
       </c>
-      <c r="L39" s="47" t="s">
+      <c r="L39" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="M39" s="47" t="s">
+      <c r="M39" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="N39" s="47" t="s">
+      <c r="N39" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="O39" s="46" t="s">
+      <c r="O39" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="P39" s="46" t="s">
+      <c r="P39" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="Q39" s="46" t="s">
+      <c r="Q39" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="R39" s="46" t="s">
+      <c r="R39" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="S39" s="42"/>
+      <c r="S39" s="28"/>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B40" s="46">
+      <c r="B40" s="31">
         <v>3</v>
       </c>
-      <c r="C40" s="47" t="s">
+      <c r="C40" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="D40" s="47" t="s">
+      <c r="D40" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="E40" s="47" t="s">
+      <c r="E40" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46" t="s">
+      <c r="F40" s="31"/>
+      <c r="G40" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="46">
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="31">
         <v>3</v>
       </c>
-      <c r="L40" s="47" t="s">
+      <c r="L40" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="M40" s="47" t="s">
+      <c r="M40" s="32" t="s">
         <v>291</v>
       </c>
-      <c r="N40" s="47" t="s">
+      <c r="N40" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="O40" s="46"/>
-      <c r="P40" s="46"/>
-      <c r="Q40" s="46"/>
-      <c r="R40" s="46"/>
-      <c r="S40" s="42"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="28"/>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B41" s="46">
+      <c r="B41" s="31">
         <v>4</v>
       </c>
-      <c r="C41" s="47" t="s">
+      <c r="C41" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="D41" s="47" t="s">
+      <c r="D41" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="E41" s="47" t="s">
+      <c r="E41" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="46">
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="31">
         <v>4</v>
       </c>
-      <c r="L41" s="47" t="s">
+      <c r="L41" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="M41" s="47" t="s">
+      <c r="M41" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="N41" s="47" t="s">
+      <c r="N41" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="O41" s="46"/>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="46" t="s">
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="R41" s="46" t="s">
+      <c r="R41" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="S41" s="42"/>
+      <c r="S41" s="28"/>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B42" s="46">
+      <c r="B42" s="31">
         <v>5</v>
       </c>
-      <c r="C42" s="47" t="s">
+      <c r="C42" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="D42" s="47" t="s">
+      <c r="D42" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="E42" s="47" t="s">
+      <c r="E42" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="46">
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="31">
         <v>5</v>
       </c>
-      <c r="L42" s="47" t="s">
+      <c r="L42" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="M42" s="47" t="s">
+      <c r="M42" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="N42" s="47" t="s">
+      <c r="N42" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="O42" s="46"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="46"/>
-      <c r="S42" s="42"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="28"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B43" s="46">
+      <c r="B43" s="31">
         <v>6</v>
       </c>
-      <c r="C43" s="47" t="s">
+      <c r="C43" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D43" s="47" t="s">
+      <c r="D43" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="E43" s="47" t="s">
+      <c r="E43" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="46">
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="31">
         <v>6</v>
       </c>
-      <c r="L43" s="47" t="s">
+      <c r="L43" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="M43" s="47" t="s">
+      <c r="M43" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="N43" s="47" t="s">
+      <c r="N43" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="O43" s="46"/>
-      <c r="P43" s="46"/>
-      <c r="Q43" s="46"/>
-      <c r="R43" s="46"/>
-      <c r="S43" s="42"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="31"/>
+      <c r="S43" s="28"/>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B44" s="46">
+      <c r="B44" s="31">
         <v>7</v>
       </c>
-      <c r="C44" s="47" t="s">
+      <c r="C44" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="47" t="s">
+      <c r="D44" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E44" s="47" t="s">
+      <c r="E44" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="40">
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="26">
         <v>7</v>
       </c>
-      <c r="L44" s="41" t="s">
+      <c r="L44" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="M44" s="41" t="s">
+      <c r="M44" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="N44" s="41" t="s">
+      <c r="N44" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="O44" s="40"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="40"/>
-      <c r="S44" s="42" t="s">
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="28" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B45" s="46">
+      <c r="B45" s="31">
         <v>8</v>
       </c>
-      <c r="C45" s="47" t="s">
+      <c r="C45" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="47" t="s">
+      <c r="D45" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="E45" s="47" t="s">
+      <c r="E45" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="42"/>
-      <c r="N45" s="42"/>
-      <c r="O45" s="43"/>
-      <c r="P45" s="43"/>
-      <c r="Q45" s="43"/>
-      <c r="R45" s="43"/>
-      <c r="S45" s="42"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="28"/>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B46" s="46">
+      <c r="B46" s="31">
         <v>9</v>
       </c>
-      <c r="C46" s="47" t="s">
+      <c r="C46" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="47" t="s">
+      <c r="D46" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="E46" s="47" t="s">
+      <c r="E46" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="42"/>
-      <c r="N46" s="42"/>
-      <c r="O46" s="43"/>
-      <c r="P46" s="43"/>
-      <c r="Q46" s="43"/>
-      <c r="R46" s="43"/>
-      <c r="S46" s="42"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="28"/>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B47" s="46">
+      <c r="B47" s="31">
         <v>10</v>
       </c>
-      <c r="C47" s="44" t="s">
+      <c r="C47" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="D47" s="44" t="s">
+      <c r="D47" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="E47" s="44" t="s">
+      <c r="E47" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="42"/>
-      <c r="N47" s="42"/>
-      <c r="O47" s="43"/>
-      <c r="P47" s="43"/>
-      <c r="Q47" s="43"/>
-      <c r="R47" s="43"/>
-      <c r="S47" s="42"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="28"/>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B48" s="46">
+      <c r="B48" s="31">
         <v>11</v>
       </c>
-      <c r="C48" s="44" t="s">
+      <c r="C48" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="D48" s="44" t="s">
+      <c r="D48" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="E48" s="44" t="s">
+      <c r="E48" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="42"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="42"/>
-      <c r="N48" s="42"/>
-      <c r="O48" s="43"/>
-      <c r="P48" s="43"/>
-      <c r="Q48" s="43"/>
-      <c r="R48" s="43"/>
-      <c r="S48" s="42"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="29"/>
+      <c r="S48" s="28"/>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B49" s="46">
+      <c r="B49" s="20">
         <v>12</v>
       </c>
-      <c r="C49" s="44" t="s">
+      <c r="C49" s="50" t="s">
+        <v>471</v>
+      </c>
+      <c r="D49" s="50" t="s">
+        <v>473</v>
+      </c>
+      <c r="E49" s="50" t="s">
+        <v>475</v>
+      </c>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="29"/>
+      <c r="S49" s="28"/>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B50" s="20">
+        <v>13</v>
+      </c>
+      <c r="C50" s="50" t="s">
+        <v>472</v>
+      </c>
+      <c r="D50" s="50" t="s">
+        <v>474</v>
+      </c>
+      <c r="E50" s="50" t="s">
+        <v>475</v>
+      </c>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
+      <c r="S50" s="28"/>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B51" s="20"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="29"/>
+      <c r="S51" s="28"/>
+    </row>
+    <row r="52" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="31">
+        <v>14</v>
+      </c>
+      <c r="C52" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="D49" s="44" t="s">
+      <c r="D52" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="E49" s="44" t="s">
+      <c r="E52" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="42"/>
-      <c r="L49" s="42"/>
-      <c r="M49" s="42"/>
-      <c r="N49" s="42"/>
-      <c r="O49" s="43"/>
-      <c r="P49" s="43"/>
-      <c r="Q49" s="43"/>
-      <c r="R49" s="43"/>
-      <c r="S49" s="42"/>
-    </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B50" s="46">
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="28"/>
+    </row>
+    <row r="53" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="31">
+        <v>11</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="L53" s="47"/>
+      <c r="M53" s="47"/>
+      <c r="N53" s="47"/>
+      <c r="O53" s="47"/>
+      <c r="P53" s="47"/>
+      <c r="Q53" s="47"/>
+      <c r="R53" s="48"/>
+      <c r="S53" s="28"/>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="L54" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="44" t="s">
-        <v>365</v>
-      </c>
-      <c r="D50" s="44" t="s">
-        <v>366</v>
-      </c>
-      <c r="E50" s="44" t="s">
+      <c r="N54" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="O54" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="P54" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q54" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R54" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="S54" s="28"/>
+    </row>
+    <row r="55" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="31">
+        <v>1</v>
+      </c>
+      <c r="L55" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="M55" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="N55" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="R55" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="S55" s="28"/>
+    </row>
+    <row r="56" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="31">
+        <v>2</v>
+      </c>
+      <c r="L56" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="M56" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="N56" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="O56" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="P56" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q56" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="R56" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="S56" s="28"/>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B57" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I57" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="J57" s="28"/>
+      <c r="K57" s="31">
+        <v>3</v>
+      </c>
+      <c r="L57" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="M57" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="N57" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="28"/>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B58" s="26">
+        <v>1</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="E58" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H58" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="I58" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="J58" s="28"/>
+      <c r="K58" s="26">
+        <v>4</v>
+      </c>
+      <c r="L58" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="M58" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="N58" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="O58" s="26"/>
+      <c r="P58" s="26"/>
+      <c r="Q58" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="R58" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="S58" s="28"/>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B59" s="26">
+        <v>2</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H59" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="I59" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="J59" s="28"/>
+      <c r="K59" s="26">
+        <v>5</v>
+      </c>
+      <c r="L59" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="M59" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="N59" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="O59" s="26"/>
+      <c r="P59" s="26"/>
+      <c r="Q59" s="26"/>
+      <c r="R59" s="26"/>
+      <c r="S59" s="28"/>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B60" s="26">
+        <v>3</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="26">
+        <v>6</v>
+      </c>
+      <c r="L60" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="M60" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="N60" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="O60" s="26"/>
+      <c r="P60" s="26"/>
+      <c r="Q60" s="26"/>
+      <c r="R60" s="26"/>
+      <c r="S60" s="28"/>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B61" s="26">
+        <v>4</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="26">
+        <v>7</v>
+      </c>
+      <c r="L61" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="M61" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="N61" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="O61" s="26"/>
+      <c r="P61" s="26"/>
+      <c r="Q61" s="26"/>
+      <c r="R61" s="26"/>
+      <c r="S61" s="28" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B62" s="26">
+        <v>5</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>445</v>
+      </c>
+      <c r="E62" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="29"/>
+      <c r="P62" s="29"/>
+      <c r="Q62" s="29"/>
+      <c r="R62" s="29"/>
+      <c r="S62" s="28"/>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B63" s="26">
+        <v>6</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="E63" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="29"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="29"/>
+      <c r="S63" s="28"/>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B64" s="26">
+        <v>7</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>440</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="E64" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="29"/>
+      <c r="P64" s="29"/>
+      <c r="Q64" s="29"/>
+      <c r="R64" s="29"/>
+      <c r="S64" s="28"/>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B65" s="22">
+        <v>8</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="29"/>
+      <c r="P65" s="29"/>
+      <c r="Q65" s="29"/>
+      <c r="R65" s="29"/>
+      <c r="S65" s="28"/>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B66" s="26">
+        <v>9</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="29"/>
+      <c r="P66" s="29"/>
+      <c r="Q66" s="29"/>
+      <c r="R66" s="29"/>
+      <c r="S66" s="28"/>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B67" s="26">
+        <v>10</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>458</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>449</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="28"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="29"/>
+      <c r="P67" s="29"/>
+      <c r="Q67" s="29"/>
+      <c r="R67" s="29"/>
+      <c r="S67" s="28"/>
+    </row>
+    <row r="68" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="26">
+        <v>11</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="E68" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="F68" s="27"/>
+      <c r="G68" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="28"/>
+      <c r="O68" s="29"/>
+      <c r="P68" s="29"/>
+      <c r="Q68" s="29"/>
+      <c r="R68" s="29"/>
+      <c r="S68" s="28"/>
+    </row>
+    <row r="69" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="26">
+        <v>12</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="E69" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="F69" s="27"/>
+      <c r="G69" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="L69" s="47"/>
+      <c r="M69" s="47"/>
+      <c r="N69" s="47"/>
+      <c r="O69" s="47"/>
+      <c r="P69" s="47"/>
+      <c r="Q69" s="47"/>
+      <c r="R69" s="48"/>
+      <c r="S69" s="28" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B70" s="26">
+        <v>13</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="D70" s="27" t="s">
+        <v>451</v>
+      </c>
+      <c r="E70" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="L70" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="M70" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="N70" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="O70" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="P70" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q70" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R70" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="S70" s="28"/>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B71" s="26">
+        <v>15</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>455</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="E71" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="26">
+        <v>1</v>
+      </c>
+      <c r="L71" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="M71" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="N71" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="O71" s="26"/>
+      <c r="P71" s="26"/>
+      <c r="Q71" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="R71" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="S71" s="28"/>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B72" s="26">
+        <v>16</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>443</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="26">
+        <v>2</v>
+      </c>
+      <c r="L72" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="M72" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="N72" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="O72" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P72" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q72" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="R72" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="S72" s="28"/>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B73" s="26">
+        <v>17</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>453</v>
+      </c>
+      <c r="D73" s="30" t="s">
+        <v>454</v>
+      </c>
+      <c r="E73" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="26">
+        <v>3</v>
+      </c>
+      <c r="L73" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="M73" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="N73" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="O73" s="26"/>
+      <c r="P73" s="26"/>
+      <c r="Q73" s="26"/>
+      <c r="R73" s="26"/>
+      <c r="S73" s="28"/>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B74" s="22">
+        <v>18</v>
+      </c>
+      <c r="C74" s="49" t="s">
+        <v>463</v>
+      </c>
+      <c r="D74" s="49" t="s">
+        <v>465</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="26">
+        <v>4</v>
+      </c>
+      <c r="L74" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="M74" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="N74" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="O74" s="26"/>
+      <c r="P74" s="26"/>
+      <c r="Q74" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="R74" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="S74" s="28"/>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B75" s="22">
+        <v>19</v>
+      </c>
+      <c r="C75" s="49" t="s">
+        <v>464</v>
+      </c>
+      <c r="D75" s="49" t="s">
+        <v>466</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="26">
+        <v>5</v>
+      </c>
+      <c r="L75" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="M75" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="N75" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="O75" s="26"/>
+      <c r="P75" s="26"/>
+      <c r="Q75" s="26"/>
+      <c r="R75" s="26"/>
+      <c r="S75" s="28"/>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B76" s="28"/>
+      <c r="C76" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="26">
+        <v>7</v>
+      </c>
+      <c r="L76" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="M76" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="N76" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="O76" s="26"/>
+      <c r="P76" s="26"/>
+      <c r="Q76" s="26"/>
+      <c r="R76" s="26"/>
+      <c r="S76" s="28" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B77" s="28"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="28"/>
+      <c r="M77" s="28"/>
+      <c r="N77" s="28"/>
+      <c r="O77" s="29"/>
+      <c r="P77" s="29"/>
+      <c r="Q77" s="29"/>
+      <c r="R77" s="29"/>
+      <c r="S77" s="28"/>
+    </row>
+    <row r="78" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="28"/>
+      <c r="L78" s="28"/>
+      <c r="M78" s="28"/>
+      <c r="N78" s="28"/>
+      <c r="O78" s="29"/>
+      <c r="P78" s="29"/>
+      <c r="Q78" s="29"/>
+      <c r="R78" s="29"/>
+      <c r="S78" s="28"/>
+    </row>
+    <row r="79" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="C79" s="47"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="47"/>
+      <c r="F79" s="47"/>
+      <c r="G79" s="47"/>
+      <c r="H79" s="47"/>
+      <c r="I79" s="48"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="28"/>
+      <c r="L79" s="28"/>
+      <c r="M79" s="28"/>
+      <c r="N79" s="28"/>
+      <c r="O79" s="29"/>
+      <c r="P79" s="29"/>
+      <c r="Q79" s="29"/>
+      <c r="R79" s="29"/>
+      <c r="S79" s="28"/>
+    </row>
+    <row r="80" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B80" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G80" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I80" s="25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B81" s="26">
+        <v>1</v>
+      </c>
+      <c r="C81" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="D81" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="E81" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F81" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H81" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="I81" s="26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="82" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B82" s="26">
+        <v>2</v>
+      </c>
+      <c r="C82" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="D82" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="E82" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
+    </row>
+    <row r="83" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B83" s="26">
+        <v>3</v>
+      </c>
+      <c r="C83" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="D83" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="E83" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="I83" s="26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="84" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B84" s="26">
+        <v>4</v>
+      </c>
+      <c r="C84" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="D84" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="E84" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
+    </row>
+    <row r="85" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B85" s="26">
+        <v>5</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>418</v>
+      </c>
+      <c r="D85" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="E85" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="42"/>
-      <c r="L50" s="42"/>
-      <c r="M50" s="42"/>
-      <c r="N50" s="42"/>
-      <c r="O50" s="43"/>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="43"/>
-      <c r="R50" s="43"/>
-      <c r="S50" s="42"/>
-    </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
-      <c r="L51" s="42"/>
-      <c r="M51" s="42"/>
-      <c r="N51" s="42"/>
-      <c r="O51" s="43"/>
-      <c r="P51" s="43"/>
-      <c r="Q51" s="43"/>
-      <c r="R51" s="43"/>
-      <c r="S51" s="42"/>
-    </row>
-    <row r="52" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="42"/>
-      <c r="L52" s="42"/>
-      <c r="M52" s="42"/>
-      <c r="N52" s="42"/>
-      <c r="O52" s="43"/>
-      <c r="P52" s="43"/>
-      <c r="Q52" s="43"/>
-      <c r="R52" s="43"/>
-      <c r="S52" s="42"/>
-    </row>
-    <row r="53" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="45" t="s">
-        <v>300</v>
-      </c>
-      <c r="L53" s="37"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="38"/>
-      <c r="S53" s="42"/>
-    </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B54" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="C54" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="F54" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="I54" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="J54" s="42"/>
-      <c r="K54" s="39" t="s">
-        <v>383</v>
-      </c>
-      <c r="L54" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M54" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="N54" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="O54" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="P54" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q54" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="R54" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="S54" s="42"/>
-    </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B55" s="40">
-        <v>1</v>
-      </c>
-      <c r="C55" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="D55" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="E55" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="F55" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="H55" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="I55" s="40" t="s">
-        <v>260</v>
-      </c>
-      <c r="J55" s="42"/>
-      <c r="K55" s="46">
-        <v>1</v>
-      </c>
-      <c r="L55" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="M55" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="N55" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="O55" s="46"/>
-      <c r="P55" s="46"/>
-      <c r="Q55" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="R55" s="46" t="s">
-        <v>305</v>
-      </c>
-      <c r="S55" s="42"/>
-    </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B56" s="40">
-        <v>2</v>
-      </c>
-      <c r="C56" s="41" t="s">
-        <v>261</v>
-      </c>
-      <c r="D56" s="41" t="s">
-        <v>206</v>
-      </c>
-      <c r="E56" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="H56" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="I56" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="J56" s="42"/>
-      <c r="K56" s="46">
-        <v>2</v>
-      </c>
-      <c r="L56" s="47" t="s">
-        <v>303</v>
-      </c>
-      <c r="M56" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="N56" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="O56" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="P56" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q56" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="R56" s="46" t="s">
-        <v>260</v>
-      </c>
-      <c r="S56" s="42"/>
-    </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B57" s="40">
-        <v>3</v>
-      </c>
-      <c r="C57" s="41" t="s">
-        <v>437</v>
-      </c>
-      <c r="D57" s="41" t="s">
-        <v>444</v>
-      </c>
-      <c r="E57" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="46">
-        <v>3</v>
-      </c>
-      <c r="L57" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="M57" s="47" t="s">
-        <v>291</v>
-      </c>
-      <c r="N57" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="O57" s="46"/>
-      <c r="P57" s="46"/>
-      <c r="Q57" s="46"/>
-      <c r="R57" s="46"/>
-      <c r="S57" s="42"/>
-    </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B58" s="40">
-        <v>4</v>
-      </c>
-      <c r="C58" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="D58" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="E58" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="H58" s="40"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="40">
-        <v>4</v>
-      </c>
-      <c r="L58" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="M58" s="41" t="s">
-        <v>292</v>
-      </c>
-      <c r="N58" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="O58" s="40"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="R58" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="S58" s="42"/>
-    </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B59" s="40">
-        <v>5</v>
-      </c>
-      <c r="C59" s="41" t="s">
-        <v>438</v>
-      </c>
-      <c r="D59" s="41" t="s">
-        <v>445</v>
-      </c>
-      <c r="E59" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="40">
-        <v>5</v>
-      </c>
-      <c r="L59" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="M59" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="N59" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="O59" s="40"/>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="40"/>
-      <c r="R59" s="40"/>
-      <c r="S59" s="42"/>
-    </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B60" s="40">
+      <c r="F85" s="26"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="26"/>
+    </row>
+    <row r="86" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B86" s="26">
         <v>6</v>
       </c>
-      <c r="C60" s="41" t="s">
-        <v>439</v>
-      </c>
-      <c r="D60" s="41" t="s">
-        <v>446</v>
-      </c>
-      <c r="E60" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="F60" s="40"/>
-      <c r="G60" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="H60" s="40"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="40">
-        <v>6</v>
-      </c>
-      <c r="L60" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="M60" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="N60" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="O60" s="40"/>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="40"/>
-      <c r="R60" s="40"/>
-      <c r="S60" s="42"/>
-    </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B61" s="40">
+      <c r="C86" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="D86" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="E86" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="F86" s="26"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="26"/>
+      <c r="K86" s="44" t="s">
+        <v>311</v>
+      </c>
+      <c r="L86" s="44"/>
+      <c r="M86" s="44"/>
+      <c r="N86" s="44"/>
+      <c r="O86" s="44"/>
+      <c r="P86" s="44"/>
+      <c r="Q86" s="44"/>
+      <c r="R86" s="44"/>
+    </row>
+    <row r="87" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B87" s="26">
         <v>7</v>
       </c>
-      <c r="C61" s="41" t="s">
-        <v>440</v>
-      </c>
-      <c r="D61" s="41" t="s">
-        <v>447</v>
-      </c>
-      <c r="E61" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="F61" s="40"/>
-      <c r="G61" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="H61" s="40"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="40">
-        <v>7</v>
-      </c>
-      <c r="L61" s="41" t="s">
-        <v>406</v>
-      </c>
-      <c r="M61" s="41" t="s">
-        <v>407</v>
-      </c>
-      <c r="N61" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="O61" s="40"/>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="40"/>
-      <c r="R61" s="40"/>
-      <c r="S61" s="42" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B62" s="22">
-        <v>8</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>456</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>457</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="42"/>
-      <c r="L62" s="42"/>
-      <c r="M62" s="42"/>
-      <c r="N62" s="42"/>
-      <c r="O62" s="43"/>
-      <c r="P62" s="43"/>
-      <c r="Q62" s="43"/>
-      <c r="R62" s="43"/>
-      <c r="S62" s="42"/>
-    </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B63" s="40">
-        <v>9</v>
-      </c>
-      <c r="C63" s="41" t="s">
-        <v>441</v>
-      </c>
-      <c r="D63" s="41" t="s">
-        <v>448</v>
-      </c>
-      <c r="E63" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="H63" s="40"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="42"/>
-      <c r="K63" s="42"/>
-      <c r="L63" s="42"/>
-      <c r="M63" s="42"/>
-      <c r="N63" s="42"/>
-      <c r="O63" s="43"/>
-      <c r="P63" s="43"/>
-      <c r="Q63" s="43"/>
-      <c r="R63" s="43"/>
-      <c r="S63" s="42"/>
-    </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B64" s="40">
-        <v>10</v>
-      </c>
-      <c r="C64" s="41" t="s">
-        <v>458</v>
-      </c>
-      <c r="D64" s="41" t="s">
-        <v>449</v>
-      </c>
-      <c r="E64" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="F64" s="40"/>
-      <c r="G64" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="H64" s="40"/>
-      <c r="I64" s="40"/>
-      <c r="J64" s="42"/>
-      <c r="K64" s="42"/>
-      <c r="L64" s="42"/>
-      <c r="M64" s="42"/>
-      <c r="N64" s="42"/>
-      <c r="O64" s="43"/>
-      <c r="P64" s="43"/>
-      <c r="Q64" s="43"/>
-      <c r="R64" s="43"/>
-      <c r="S64" s="42"/>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B65" s="40">
-        <v>11</v>
-      </c>
-      <c r="C65" s="44" t="s">
-        <v>459</v>
-      </c>
-      <c r="D65" s="41" t="s">
-        <v>460</v>
-      </c>
-      <c r="E65" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="F65" s="41"/>
-      <c r="G65" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="H65" s="40"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="42"/>
-      <c r="L65" s="42"/>
-      <c r="M65" s="42"/>
-      <c r="N65" s="42"/>
-      <c r="O65" s="43"/>
-      <c r="P65" s="43"/>
-      <c r="Q65" s="43"/>
-      <c r="R65" s="43"/>
-      <c r="S65" s="42"/>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B66" s="40">
-        <v>12</v>
-      </c>
-      <c r="C66" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="D66" s="44" t="s">
-        <v>450</v>
-      </c>
-      <c r="E66" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="F66" s="41"/>
-      <c r="G66" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="H66" s="40"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="42"/>
-      <c r="K66" s="42"/>
-      <c r="L66" s="42"/>
-      <c r="M66" s="42"/>
-      <c r="N66" s="42"/>
-      <c r="O66" s="43"/>
-      <c r="P66" s="43"/>
-      <c r="Q66" s="43"/>
-      <c r="R66" s="43"/>
-      <c r="S66" s="42"/>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B67" s="40">
-        <v>13</v>
-      </c>
-      <c r="C67" s="41" t="s">
-        <v>461</v>
-      </c>
-      <c r="D67" s="41" t="s">
-        <v>451</v>
-      </c>
-      <c r="E67" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="F67" s="40"/>
-      <c r="G67" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="H67" s="40"/>
-      <c r="I67" s="40"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="42"/>
-      <c r="L67" s="42"/>
-      <c r="M67" s="42"/>
-      <c r="N67" s="42"/>
-      <c r="O67" s="43"/>
-      <c r="P67" s="43"/>
-      <c r="Q67" s="43"/>
-      <c r="R67" s="43"/>
-      <c r="S67" s="42"/>
-    </row>
-    <row r="68" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="40">
-        <v>15</v>
-      </c>
-      <c r="C68" s="44" t="s">
-        <v>455</v>
-      </c>
-      <c r="D68" s="44" t="s">
-        <v>276</v>
-      </c>
-      <c r="E68" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="F68" s="41"/>
-      <c r="G68" s="41"/>
-      <c r="H68" s="41"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="42"/>
-      <c r="K68" s="42"/>
-      <c r="L68" s="42"/>
-      <c r="M68" s="42"/>
-      <c r="N68" s="42"/>
-      <c r="O68" s="43"/>
-      <c r="P68" s="43"/>
-      <c r="Q68" s="43"/>
-      <c r="R68" s="43"/>
-      <c r="S68" s="42"/>
-    </row>
-    <row r="69" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="40">
-        <v>16</v>
-      </c>
-      <c r="C69" s="44" t="s">
-        <v>443</v>
-      </c>
-      <c r="D69" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="E69" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="F69" s="40"/>
-      <c r="G69" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="H69" s="40"/>
-      <c r="I69" s="40"/>
-      <c r="J69" s="42"/>
-      <c r="K69" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="L69" s="37"/>
-      <c r="M69" s="37"/>
-      <c r="N69" s="37"/>
-      <c r="O69" s="37"/>
-      <c r="P69" s="37"/>
-      <c r="Q69" s="37"/>
-      <c r="R69" s="38"/>
-      <c r="S69" s="42" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B70" s="40">
-        <v>17</v>
-      </c>
-      <c r="C70" s="44" t="s">
-        <v>453</v>
-      </c>
-      <c r="D70" s="44" t="s">
-        <v>454</v>
-      </c>
-      <c r="E70" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="F70" s="40"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="40"/>
-      <c r="I70" s="40"/>
-      <c r="J70" s="42"/>
-      <c r="K70" s="39" t="s">
-        <v>378</v>
-      </c>
-      <c r="L70" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M70" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="N70" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="O70" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="P70" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q70" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="R70" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="S70" s="42"/>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B71" s="42"/>
-      <c r="C71" s="48" t="s">
-        <v>462</v>
-      </c>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="43"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="43"/>
-      <c r="J71" s="42"/>
-      <c r="K71" s="40">
-        <v>1</v>
-      </c>
-      <c r="L71" s="41" t="s">
-        <v>287</v>
-      </c>
-      <c r="M71" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="N71" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="O71" s="40"/>
-      <c r="P71" s="40"/>
-      <c r="Q71" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="R71" s="40" t="s">
-        <v>290</v>
-      </c>
-      <c r="S71" s="42"/>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B72" s="42"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="43"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="43"/>
-      <c r="J72" s="42"/>
-      <c r="K72" s="40">
-        <v>2</v>
-      </c>
-      <c r="L72" s="41" t="s">
-        <v>288</v>
-      </c>
-      <c r="M72" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="N72" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="O72" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="P72" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q72" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="R72" s="40" t="s">
-        <v>260</v>
-      </c>
-      <c r="S72" s="42"/>
-    </row>
-    <row r="73" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="43"/>
-      <c r="G73" s="43"/>
-      <c r="H73" s="43"/>
-      <c r="I73" s="43"/>
-      <c r="J73" s="42"/>
-      <c r="K73" s="40">
-        <v>3</v>
-      </c>
-      <c r="L73" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="M73" s="41" t="s">
-        <v>291</v>
-      </c>
-      <c r="N73" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="O73" s="40"/>
-      <c r="P73" s="40"/>
-      <c r="Q73" s="40"/>
-      <c r="R73" s="40"/>
-      <c r="S73" s="42"/>
-    </row>
-    <row r="74" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="45" t="s">
-        <v>182</v>
-      </c>
-      <c r="C74" s="37"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="38"/>
-      <c r="J74" s="42"/>
-      <c r="K74" s="40">
-        <v>4</v>
-      </c>
-      <c r="L74" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="M74" s="41" t="s">
-        <v>292</v>
-      </c>
-      <c r="N74" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="O74" s="40"/>
-      <c r="P74" s="40"/>
-      <c r="Q74" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="R74" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="S74" s="42"/>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B75" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="C75" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="F75" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G75" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="H75" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="I75" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="J75" s="42"/>
-      <c r="K75" s="40">
-        <v>5</v>
-      </c>
-      <c r="L75" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="M75" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="N75" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="O75" s="40"/>
-      <c r="P75" s="40"/>
-      <c r="Q75" s="40"/>
-      <c r="R75" s="40"/>
-      <c r="S75" s="42"/>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B76" s="40">
-        <v>1</v>
-      </c>
-      <c r="C76" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="D76" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="E76" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="F76" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="H76" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="I76" s="40" t="s">
-        <v>260</v>
-      </c>
-      <c r="J76" s="42"/>
-      <c r="K76" s="40">
-        <v>7</v>
-      </c>
-      <c r="L76" s="41" t="s">
-        <v>406</v>
-      </c>
-      <c r="M76" s="41" t="s">
-        <v>407</v>
-      </c>
-      <c r="N76" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="O76" s="40"/>
-      <c r="P76" s="40"/>
-      <c r="Q76" s="40"/>
-      <c r="R76" s="40"/>
-      <c r="S76" s="42" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B77" s="40">
-        <v>2</v>
-      </c>
-      <c r="C77" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="D77" s="41" t="s">
-        <v>408</v>
-      </c>
-      <c r="E77" s="41" t="s">
-        <v>409</v>
-      </c>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40" t="s">
-        <v>410</v>
-      </c>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="42"/>
-      <c r="K77" s="42"/>
-      <c r="L77" s="42"/>
-      <c r="M77" s="42"/>
-      <c r="N77" s="42"/>
-      <c r="O77" s="43"/>
-      <c r="P77" s="43"/>
-      <c r="Q77" s="43"/>
-      <c r="R77" s="43"/>
-      <c r="S77" s="42"/>
-    </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B78" s="40">
-        <v>3</v>
-      </c>
-      <c r="C78" s="41" t="s">
-        <v>411</v>
-      </c>
-      <c r="D78" s="41" t="s">
-        <v>412</v>
-      </c>
-      <c r="E78" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="F78" s="40"/>
-      <c r="G78" s="40"/>
-      <c r="H78" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="I78" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="J78" s="42"/>
-      <c r="K78" s="42"/>
-      <c r="L78" s="42"/>
-      <c r="M78" s="42"/>
-      <c r="N78" s="42"/>
-      <c r="O78" s="43"/>
-      <c r="P78" s="43"/>
-      <c r="Q78" s="43"/>
-      <c r="R78" s="43"/>
-      <c r="S78" s="42"/>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B79" s="40">
-        <v>4</v>
-      </c>
-      <c r="C79" s="41" t="s">
-        <v>415</v>
-      </c>
-      <c r="D79" s="41" t="s">
-        <v>416</v>
-      </c>
-      <c r="E79" s="41" t="s">
-        <v>417</v>
-      </c>
-      <c r="F79" s="40"/>
-      <c r="G79" s="40"/>
-      <c r="H79" s="40"/>
-      <c r="I79" s="40"/>
-      <c r="J79" s="42"/>
-      <c r="K79" s="42"/>
-      <c r="L79" s="42"/>
-      <c r="M79" s="42"/>
-      <c r="N79" s="42"/>
-      <c r="O79" s="43"/>
-      <c r="P79" s="43"/>
-      <c r="Q79" s="43"/>
-      <c r="R79" s="43"/>
-      <c r="S79" s="42"/>
-    </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B80" s="40">
-        <v>5</v>
-      </c>
-      <c r="C80" s="41" t="s">
-        <v>418</v>
-      </c>
-      <c r="D80" s="41" t="s">
-        <v>419</v>
-      </c>
-      <c r="E80" s="41" t="s">
-        <v>278</v>
-      </c>
-      <c r="F80" s="40"/>
-      <c r="G80" s="40"/>
-      <c r="H80" s="40"/>
-      <c r="I80" s="40"/>
-    </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B81" s="40">
-        <v>6</v>
-      </c>
-      <c r="C81" s="41" t="s">
-        <v>420</v>
-      </c>
-      <c r="D81" s="41" t="s">
-        <v>421</v>
-      </c>
-      <c r="E81" s="41" t="s">
-        <v>422</v>
-      </c>
-      <c r="F81" s="40"/>
-      <c r="G81" s="40"/>
-      <c r="H81" s="40"/>
-      <c r="I81" s="40"/>
-    </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B82" s="40">
-        <v>7</v>
-      </c>
-      <c r="C82" s="41" t="s">
+      <c r="C87" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="D82" s="41" t="s">
+      <c r="D87" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="E82" s="41" t="s">
+      <c r="E87" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="F82" s="40"/>
-      <c r="G82" s="40"/>
-      <c r="H82" s="40"/>
-      <c r="I82" s="40"/>
-    </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B83" s="40">
-        <v>8</v>
-      </c>
-      <c r="C83" s="41" t="s">
-        <v>424</v>
-      </c>
-      <c r="D83" s="41" t="s">
-        <v>425</v>
-      </c>
-      <c r="E83" s="41" t="s">
-        <v>426</v>
-      </c>
-      <c r="F83" s="40"/>
-      <c r="G83" s="40"/>
-      <c r="H83" s="40"/>
-      <c r="I83" s="40"/>
-    </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B84" s="40">
-        <v>9</v>
-      </c>
-      <c r="C84" s="41" t="s">
-        <v>427</v>
-      </c>
-      <c r="D84" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="E84" s="41" t="s">
-        <v>428</v>
-      </c>
-      <c r="F84" s="40"/>
-      <c r="G84" s="40"/>
-      <c r="H84" s="40"/>
-      <c r="I84" s="40"/>
-    </row>
-    <row r="85" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B85" s="40">
-        <v>10</v>
-      </c>
-      <c r="C85" s="41" t="s">
-        <v>429</v>
-      </c>
-      <c r="D85" s="41" t="s">
-        <v>430</v>
-      </c>
-      <c r="E85" s="41" t="s">
-        <v>431</v>
-      </c>
-      <c r="F85" s="40"/>
-      <c r="G85" s="40"/>
-      <c r="H85" s="40"/>
-      <c r="I85" s="40"/>
-    </row>
-    <row r="86" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B86" s="40">
-        <v>11</v>
-      </c>
-      <c r="C86" s="41" t="s">
-        <v>432</v>
-      </c>
-      <c r="D86" s="41" t="s">
-        <v>433</v>
-      </c>
-      <c r="E86" s="41" t="s">
-        <v>434</v>
-      </c>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="K86" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="L86" s="33"/>
-      <c r="M86" s="33"/>
-      <c r="N86" s="33"/>
-      <c r="O86" s="33"/>
-      <c r="P86" s="33"/>
-      <c r="Q86" s="33"/>
-      <c r="R86" s="33"/>
-    </row>
-    <row r="87" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B87" s="40">
-        <v>12</v>
-      </c>
-      <c r="C87" s="41" t="s">
-        <v>435</v>
-      </c>
-      <c r="D87" s="41" t="s">
-        <v>436</v>
-      </c>
-      <c r="E87" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="F87" s="40"/>
-      <c r="G87" s="40"/>
-      <c r="H87" s="40"/>
-      <c r="I87" s="40"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="26"/>
       <c r="K87" s="14" t="s">
         <v>124</v>
       </c>
@@ -9913,14 +9967,22 @@
       </c>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B88" s="35"/>
-      <c r="C88" s="35"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
+      <c r="B88" s="26">
+        <v>8</v>
+      </c>
+      <c r="C88" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="D88" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="E88" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="26"/>
       <c r="K88" s="19">
         <v>1</v>
       </c>
@@ -9943,14 +10005,22 @@
       </c>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B89" s="35"/>
-      <c r="C89" s="35"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="35"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
+      <c r="B89" s="26">
+        <v>9</v>
+      </c>
+      <c r="C89" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="D89" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="E89" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="26"/>
       <c r="K89" s="19">
         <v>2</v>
       </c>
@@ -9972,7 +10042,23 @@
         <v>251</v>
       </c>
     </row>
-    <row r="90" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B90" s="26">
+        <v>10</v>
+      </c>
+      <c r="C90" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="D90" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="E90" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="26"/>
       <c r="K90" s="19">
         <v>3</v>
       </c>
@@ -9990,99 +10076,73 @@
       <c r="Q90" s="19"/>
       <c r="R90" s="19"/>
     </row>
-    <row r="91" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="31"/>
-      <c r="F91" s="31"/>
-      <c r="G91" s="31"/>
-      <c r="H91" s="31"/>
-      <c r="I91" s="32"/>
+    <row r="91" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B91" s="26">
+        <v>11</v>
+      </c>
+      <c r="C91" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="D91" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="E91" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="26"/>
     </row>
     <row r="92" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B92" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G92" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H92" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I92" s="11" t="s">
-        <v>225</v>
-      </c>
+      <c r="B92" s="26">
+        <v>12</v>
+      </c>
+      <c r="C92" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="D92" s="27" t="s">
+        <v>436</v>
+      </c>
+      <c r="E92" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
     </row>
     <row r="93" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="2">
-        <v>1</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="B93" s="23"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
     </row>
     <row r="94" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="2">
-        <v>2</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="K94" s="30" t="s">
+      <c r="B94" s="23"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
+      <c r="K94" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="L94" s="31"/>
-      <c r="M94" s="31"/>
-      <c r="N94" s="31"/>
-      <c r="O94" s="31"/>
-      <c r="P94" s="31"/>
-      <c r="Q94" s="31"/>
-      <c r="R94" s="32"/>
-    </row>
-    <row r="95" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="L94" s="42"/>
+      <c r="M94" s="42"/>
+      <c r="N94" s="42"/>
+      <c r="O94" s="42"/>
+      <c r="P94" s="42"/>
+      <c r="Q94" s="42"/>
+      <c r="R94" s="43"/>
+    </row>
+    <row r="95" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K95" s="11" t="s">
         <v>379</v>
       </c>
@@ -10108,7 +10168,17 @@
         <v>225</v>
       </c>
     </row>
-    <row r="96" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="41" t="s">
+        <v>372</v>
+      </c>
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42"/>
+      <c r="G96" s="42"/>
+      <c r="H96" s="42"/>
+      <c r="I96" s="43"/>
       <c r="K96" s="2">
         <v>1</v>
       </c>
@@ -10133,6 +10203,30 @@
       </c>
     </row>
     <row r="97" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B97" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I97" s="11" t="s">
+        <v>225</v>
+      </c>
       <c r="K97" s="2">
         <v>2</v>
       </c>
@@ -10154,7 +10248,27 @@
         <v>251</v>
       </c>
     </row>
-    <row r="98" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B98" s="2">
+        <v>1</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="K98" s="2">
         <v>3</v>
       </c>
@@ -10172,17 +10286,27 @@
       <c r="Q98" s="2"/>
       <c r="R98" s="2"/>
     </row>
-    <row r="99" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="C99" s="31"/>
-      <c r="D99" s="31"/>
-      <c r="E99" s="31"/>
-      <c r="F99" s="31"/>
-      <c r="G99" s="31"/>
-      <c r="H99" s="31"/>
-      <c r="I99" s="32"/>
+    <row r="99" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B99" s="2">
+        <v>2</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>251</v>
+      </c>
       <c r="K99" s="2">
         <v>4</v>
       </c>
@@ -10201,30 +10325,6 @@
       <c r="R99" s="2"/>
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B100" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F100" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G100" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H100" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I100" s="11" t="s">
-        <v>225</v>
-      </c>
       <c r="K100" s="2">
         <v>5</v>
       </c>
@@ -10242,795 +10342,820 @@
       <c r="Q100" s="2"/>
       <c r="R100" s="2"/>
     </row>
-    <row r="101" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B101" s="2">
+    <row r="103" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="104" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B104" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="C104" s="42"/>
+      <c r="D104" s="42"/>
+      <c r="E104" s="42"/>
+      <c r="F104" s="42"/>
+      <c r="G104" s="42"/>
+      <c r="H104" s="42"/>
+      <c r="I104" s="43"/>
+    </row>
+    <row r="105" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B105" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G105" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I105" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="106" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B106" s="2">
         <v>1</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C106" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D106" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E106" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2" t="s">
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="I101" s="2" t="s">
+      <c r="I106" s="2" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="102" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B102" s="2">
-        <v>2</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="104" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="105" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="30" t="s">
-        <v>318</v>
-      </c>
-      <c r="C105" s="31"/>
-      <c r="D105" s="31"/>
-      <c r="E105" s="31"/>
-      <c r="F105" s="31"/>
-      <c r="G105" s="31"/>
-      <c r="H105" s="31"/>
-      <c r="I105" s="32"/>
-    </row>
-    <row r="106" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B106" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E106" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F106" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G106" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H106" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I106" s="11" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="107" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B107" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>315</v>
+        <v>195</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>232</v>
+        <v>139</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="109" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="110" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B110" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="C110" s="42"/>
+      <c r="D110" s="42"/>
+      <c r="E110" s="42"/>
+      <c r="F110" s="42"/>
+      <c r="G110" s="42"/>
+      <c r="H110" s="42"/>
+      <c r="I110" s="43"/>
+    </row>
+    <row r="111" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B111" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H111" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I111" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="112" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B112" s="2">
+        <v>1</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="I107" s="2" t="s">
+      <c r="I112" s="2" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="108" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B108" s="2">
-        <v>2</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="110" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="111" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="30" t="s">
-        <v>320</v>
-      </c>
-      <c r="C111" s="31"/>
-      <c r="D111" s="31"/>
-      <c r="E111" s="31"/>
-      <c r="F111" s="31"/>
-      <c r="G111" s="31"/>
-      <c r="H111" s="31"/>
-      <c r="I111" s="32"/>
-    </row>
-    <row r="112" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B112" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D112" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E112" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F112" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G112" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H112" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I112" s="11" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B113" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>315</v>
+        <v>176</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>232</v>
+        <v>139</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="116" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B116" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="C116" s="42"/>
+      <c r="D116" s="42"/>
+      <c r="E116" s="42"/>
+      <c r="F116" s="42"/>
+      <c r="G116" s="42"/>
+      <c r="H116" s="42"/>
+      <c r="I116" s="43"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B117" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F117" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G117" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H117" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I117" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B118" s="2">
+        <v>1</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="I113" s="2" t="s">
+      <c r="I118" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B114" s="2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B119" s="2">
         <v>2</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C119" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D119" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E119" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2" t="s">
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I114" s="2" t="s">
+      <c r="I119" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="119" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B119" s="30" t="s">
+    <row r="123" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="124" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B124" s="41" t="s">
         <v>338</v>
       </c>
-      <c r="C119" s="31"/>
-      <c r="D119" s="31"/>
-      <c r="E119" s="31"/>
-      <c r="F119" s="31"/>
-      <c r="G119" s="31"/>
-      <c r="H119" s="31"/>
-      <c r="I119" s="32"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B120" s="11" t="s">
+      <c r="C124" s="42"/>
+      <c r="D124" s="42"/>
+      <c r="E124" s="42"/>
+      <c r="F124" s="42"/>
+      <c r="G124" s="42"/>
+      <c r="H124" s="42"/>
+      <c r="I124" s="43"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B125" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C125" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D120" s="11" t="s">
+      <c r="D125" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E120" s="11" t="s">
+      <c r="E125" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F120" s="11" t="s">
+      <c r="F125" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="G120" s="11" t="s">
+      <c r="G125" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="H120" s="11" t="s">
+      <c r="H125" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I120" s="11" t="s">
+      <c r="I125" s="11" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B121" s="2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B126" s="2">
         <v>1</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C126" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D126" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="E126" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F121" s="2" t="s">
+      <c r="F126" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G121" s="2" t="s">
+      <c r="G126" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H121" s="2" t="s">
+      <c r="H126" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I121" s="2" t="s">
+      <c r="I126" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B122" s="2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A127" s="23"/>
+      <c r="B127" s="2">
         <v>2</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C127" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D127" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E127" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2" t="s">
+      <c r="F127" s="2"/>
+      <c r="G127" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H122" s="2" t="s">
+      <c r="H127" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I122" s="2" t="s">
+      <c r="I127" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B123" s="2">
+      <c r="J127" s="23"/>
+      <c r="K127" s="23"/>
+      <c r="L127" s="23"/>
+      <c r="M127" s="23"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A128" s="23"/>
+      <c r="B128" s="2">
         <v>3</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C128" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D128" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="E128" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B124" s="2">
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="23"/>
+      <c r="K128" s="23"/>
+      <c r="L128" s="23"/>
+      <c r="M128" s="23"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A129" s="23"/>
+      <c r="B129" s="2">
         <v>4</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C129" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D129" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="E129" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B125" s="2">
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="23"/>
+      <c r="K129" s="23"/>
+      <c r="L129" s="23"/>
+      <c r="M129" s="23"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A130" s="23"/>
+      <c r="B130" s="2">
         <v>5</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C130" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="D130" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="E130" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B126" s="46">
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="23"/>
+      <c r="K130" s="23"/>
+      <c r="L130" s="23"/>
+      <c r="M130" s="23"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A131" s="23"/>
+      <c r="B131" s="31">
         <v>6</v>
       </c>
-      <c r="C126" s="47" t="s">
+      <c r="C131" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="D126" s="47" t="s">
+      <c r="D131" s="32" t="s">
         <v>350</v>
       </c>
-      <c r="E126" s="47" t="s">
+      <c r="E131" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="F126" s="46"/>
-      <c r="G126" s="46"/>
-      <c r="H126" s="46"/>
-      <c r="I126" s="46"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A127" s="35"/>
-      <c r="B127" s="46">
+      <c r="F131" s="31"/>
+      <c r="G131" s="31"/>
+      <c r="H131" s="31"/>
+      <c r="I131" s="31"/>
+      <c r="J131" s="23"/>
+      <c r="K131" s="23"/>
+      <c r="L131" s="23"/>
+      <c r="M131" s="23"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A132" s="23"/>
+      <c r="B132" s="31">
         <v>7</v>
       </c>
-      <c r="C127" s="47" t="s">
+      <c r="C132" s="32" t="s">
         <v>345</v>
       </c>
-      <c r="D127" s="47" t="s">
+      <c r="D132" s="32" t="s">
         <v>331</v>
       </c>
-      <c r="E127" s="47" t="s">
+      <c r="E132" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="F127" s="46"/>
-      <c r="G127" s="46"/>
-      <c r="H127" s="46"/>
-      <c r="I127" s="46"/>
-      <c r="J127" s="35"/>
-      <c r="K127" s="35"/>
-      <c r="L127" s="35"/>
-      <c r="M127" s="35"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A128" s="35"/>
-      <c r="B128" s="46">
+      <c r="F132" s="31"/>
+      <c r="G132" s="31"/>
+      <c r="H132" s="31"/>
+      <c r="I132" s="31"/>
+      <c r="J132" s="23"/>
+      <c r="K132" s="23"/>
+      <c r="L132" s="23"/>
+      <c r="M132" s="23"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A133" s="23"/>
+      <c r="B133" s="31">
         <v>8</v>
       </c>
-      <c r="C128" s="44" t="s">
+      <c r="C133" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="D128" s="44" t="s">
+      <c r="D133" s="30" t="s">
         <v>352</v>
       </c>
-      <c r="E128" s="47" t="s">
+      <c r="E133" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="F128" s="47"/>
-      <c r="G128" s="47"/>
-      <c r="H128" s="47"/>
-      <c r="I128" s="46"/>
-      <c r="J128" s="35"/>
-      <c r="K128" s="35"/>
-      <c r="L128" s="35"/>
-      <c r="M128" s="35"/>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A129" s="35"/>
-      <c r="B129" s="35"/>
-      <c r="C129" s="35"/>
-      <c r="D129" s="35"/>
-      <c r="E129" s="35"/>
-      <c r="F129" s="43"/>
-      <c r="G129" s="43"/>
-      <c r="H129" s="43"/>
-      <c r="I129" s="43"/>
-      <c r="J129" s="35"/>
-      <c r="K129" s="35"/>
-      <c r="L129" s="35"/>
-      <c r="M129" s="35"/>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A130" s="35"/>
-      <c r="B130" s="35"/>
-      <c r="C130" s="35"/>
-      <c r="D130" s="35"/>
-      <c r="E130" s="35"/>
-      <c r="F130" s="43"/>
-      <c r="G130" s="43"/>
-      <c r="H130" s="43"/>
-      <c r="I130" s="43"/>
-      <c r="J130" s="35"/>
-      <c r="K130" s="35"/>
-      <c r="L130" s="35"/>
-      <c r="M130" s="35"/>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A131" s="35"/>
-      <c r="B131" s="35"/>
-      <c r="C131" s="35"/>
-      <c r="D131" s="35"/>
-      <c r="E131" s="35"/>
-      <c r="F131" s="43"/>
-      <c r="G131" s="43"/>
-      <c r="H131" s="43"/>
-      <c r="I131" s="43"/>
-      <c r="J131" s="35"/>
-      <c r="K131" s="35"/>
-      <c r="L131" s="35"/>
-      <c r="M131" s="35"/>
-    </row>
-    <row r="132" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="35"/>
-      <c r="B132" s="35"/>
-      <c r="C132" s="35"/>
-      <c r="D132" s="35"/>
-      <c r="E132" s="35"/>
-      <c r="F132" s="43"/>
-      <c r="G132" s="43"/>
-      <c r="H132" s="43"/>
-      <c r="I132" s="43"/>
-      <c r="J132" s="35"/>
-      <c r="K132" s="35"/>
-      <c r="L132" s="35"/>
-      <c r="M132" s="35"/>
-    </row>
-    <row r="133" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="35"/>
-      <c r="B133" s="45" t="s">
+      <c r="F133" s="32"/>
+      <c r="G133" s="32"/>
+      <c r="H133" s="32"/>
+      <c r="I133" s="31"/>
+      <c r="J133" s="23"/>
+      <c r="K133" s="23"/>
+      <c r="L133" s="23"/>
+      <c r="M133" s="23"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A134" s="23"/>
+      <c r="B134" s="23"/>
+      <c r="C134" s="23"/>
+      <c r="D134" s="23"/>
+      <c r="E134" s="23"/>
+      <c r="F134" s="29"/>
+      <c r="G134" s="29"/>
+      <c r="H134" s="29"/>
+      <c r="I134" s="29"/>
+      <c r="J134" s="23"/>
+      <c r="K134" s="23"/>
+      <c r="L134" s="23"/>
+      <c r="M134" s="23"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A135" s="23"/>
+      <c r="B135" s="23"/>
+      <c r="C135" s="23"/>
+      <c r="D135" s="23"/>
+      <c r="E135" s="23"/>
+      <c r="F135" s="29"/>
+      <c r="G135" s="29"/>
+      <c r="H135" s="29"/>
+      <c r="I135" s="29"/>
+      <c r="J135" s="23"/>
+      <c r="K135" s="23"/>
+      <c r="L135" s="23"/>
+      <c r="M135" s="23"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A136" s="23"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="23"/>
+      <c r="D136" s="23"/>
+      <c r="E136" s="23"/>
+      <c r="F136" s="29"/>
+      <c r="G136" s="29"/>
+      <c r="H136" s="29"/>
+      <c r="I136" s="29"/>
+      <c r="J136" s="23"/>
+      <c r="K136" s="23"/>
+      <c r="L136" s="23"/>
+      <c r="M136" s="23"/>
+    </row>
+    <row r="137" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="23"/>
+      <c r="B137" s="23"/>
+      <c r="C137" s="23"/>
+      <c r="D137" s="23"/>
+      <c r="E137" s="23"/>
+      <c r="F137" s="29"/>
+      <c r="G137" s="29"/>
+      <c r="H137" s="29"/>
+      <c r="I137" s="29"/>
+      <c r="J137" s="23"/>
+      <c r="K137" s="23"/>
+      <c r="L137" s="23"/>
+      <c r="M137" s="23"/>
+    </row>
+    <row r="138" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="23"/>
+      <c r="B138" s="46" t="s">
         <v>386</v>
       </c>
-      <c r="C133" s="37"/>
-      <c r="D133" s="37"/>
-      <c r="E133" s="37"/>
-      <c r="F133" s="37"/>
-      <c r="G133" s="37"/>
-      <c r="H133" s="37"/>
-      <c r="I133" s="38"/>
-      <c r="J133" s="35"/>
-      <c r="K133" s="35"/>
-      <c r="L133" s="35"/>
-      <c r="M133" s="35"/>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A134" s="35"/>
-      <c r="B134" s="39" t="s">
+      <c r="C138" s="47"/>
+      <c r="D138" s="47"/>
+      <c r="E138" s="47"/>
+      <c r="F138" s="47"/>
+      <c r="G138" s="47"/>
+      <c r="H138" s="47"/>
+      <c r="I138" s="48"/>
+      <c r="J138" s="23"/>
+      <c r="K138" s="23"/>
+      <c r="L138" s="23"/>
+      <c r="M138" s="23"/>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A139" s="23"/>
+      <c r="B139" s="25" t="s">
         <v>379</v>
       </c>
-      <c r="C134" s="39" t="s">
+      <c r="C139" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D134" s="39" t="s">
+      <c r="D139" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E134" s="39" t="s">
+      <c r="E139" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F134" s="39" t="s">
+      <c r="F139" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G134" s="39" t="s">
+      <c r="G139" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H134" s="39" t="s">
+      <c r="H139" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="I134" s="39" t="s">
+      <c r="I139" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="J134" s="35"/>
-      <c r="K134" s="35"/>
-      <c r="L134" s="35"/>
-      <c r="M134" s="35"/>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A135" s="35"/>
-      <c r="B135" s="40">
+      <c r="J139" s="23"/>
+      <c r="K139" s="23"/>
+      <c r="L139" s="23"/>
+      <c r="M139" s="23"/>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A140" s="23"/>
+      <c r="B140" s="26">
         <v>1</v>
       </c>
-      <c r="C135" s="41" t="s">
+      <c r="C140" s="27" t="s">
         <v>389</v>
       </c>
-      <c r="D135" s="41" t="s">
+      <c r="D140" s="27" t="s">
         <v>390</v>
       </c>
-      <c r="E135" s="41" t="s">
+      <c r="E140" s="27" t="s">
         <v>391</v>
       </c>
-      <c r="F135" s="40" t="s">
+      <c r="F140" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="G135" s="40" t="s">
+      <c r="G140" s="26" t="s">
         <v>393</v>
       </c>
-      <c r="H135" s="40" t="s">
+      <c r="H140" s="26" t="s">
         <v>387</v>
       </c>
-      <c r="I135" s="40" t="s">
+      <c r="I140" s="26" t="s">
         <v>388</v>
       </c>
-      <c r="J135" s="35"/>
-      <c r="K135" s="35"/>
-      <c r="L135" s="35"/>
-      <c r="M135" s="35"/>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A136" s="35"/>
-      <c r="B136" s="40">
+      <c r="J140" s="23"/>
+      <c r="K140" s="23"/>
+      <c r="L140" s="23"/>
+      <c r="M140" s="23"/>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A141" s="23"/>
+      <c r="B141" s="26">
         <v>2</v>
       </c>
-      <c r="C136" s="41" t="s">
+      <c r="C141" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="D136" s="41" t="s">
+      <c r="D141" s="27" t="s">
         <v>395</v>
       </c>
-      <c r="E136" s="41" t="s">
+      <c r="E141" s="27" t="s">
         <v>396</v>
       </c>
-      <c r="F136" s="40"/>
-      <c r="G136" s="40"/>
-      <c r="H136" s="40"/>
-      <c r="I136" s="40"/>
-      <c r="J136" s="35"/>
-      <c r="K136" s="35"/>
-      <c r="L136" s="35"/>
-      <c r="M136" s="35"/>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A137" s="35"/>
-      <c r="B137" s="40">
+      <c r="F141" s="26"/>
+      <c r="G141" s="26"/>
+      <c r="H141" s="26"/>
+      <c r="I141" s="26"/>
+      <c r="J141" s="23"/>
+      <c r="K141" s="23"/>
+      <c r="L141" s="23"/>
+      <c r="M141" s="23"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A142" s="23"/>
+      <c r="B142" s="26">
         <v>3</v>
       </c>
-      <c r="C137" s="41" t="s">
+      <c r="C142" s="27" t="s">
         <v>397</v>
       </c>
-      <c r="D137" s="41" t="s">
+      <c r="D142" s="27" t="s">
         <v>398</v>
       </c>
-      <c r="E137" s="41" t="s">
+      <c r="E142" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="F137" s="40"/>
-      <c r="G137" s="40"/>
-      <c r="H137" s="40"/>
-      <c r="I137" s="40"/>
-      <c r="J137" s="35"/>
-      <c r="K137" s="35"/>
-      <c r="L137" s="35"/>
-      <c r="M137" s="35"/>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A138" s="35"/>
-      <c r="B138" s="40">
+      <c r="F142" s="26"/>
+      <c r="G142" s="26"/>
+      <c r="H142" s="26"/>
+      <c r="I142" s="26"/>
+      <c r="J142" s="23"/>
+      <c r="K142" s="23"/>
+      <c r="L142" s="23"/>
+      <c r="M142" s="23"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A143" s="23"/>
+      <c r="B143" s="26">
         <v>4</v>
       </c>
-      <c r="C138" s="41" t="s">
+      <c r="C143" s="27" t="s">
         <v>400</v>
       </c>
-      <c r="D138" s="41" t="s">
+      <c r="D143" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="E138" s="41" t="s">
+      <c r="E143" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="F138" s="40"/>
-      <c r="G138" s="40"/>
-      <c r="H138" s="40"/>
-      <c r="I138" s="40"/>
-      <c r="J138" s="35"/>
-      <c r="K138" s="35"/>
-      <c r="L138" s="35"/>
-      <c r="M138" s="35"/>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A139" s="35"/>
-      <c r="B139" s="40">
+      <c r="F143" s="26"/>
+      <c r="G143" s="26"/>
+      <c r="H143" s="26"/>
+      <c r="I143" s="26"/>
+      <c r="J143" s="23"/>
+      <c r="K143" s="23"/>
+      <c r="L143" s="23"/>
+      <c r="M143" s="23"/>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A144" s="23"/>
+      <c r="B144" s="26">
         <v>5</v>
       </c>
-      <c r="C139" s="41" t="s">
+      <c r="C144" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="D139" s="41" t="s">
+      <c r="D144" s="27" t="s">
         <v>404</v>
       </c>
-      <c r="E139" s="41" t="s">
+      <c r="E144" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="F139" s="40"/>
-      <c r="G139" s="40"/>
-      <c r="H139" s="40"/>
-      <c r="I139" s="40"/>
-      <c r="J139" s="35"/>
-      <c r="K139" s="35"/>
-      <c r="L139" s="35"/>
-      <c r="M139" s="35"/>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A140" s="35"/>
-      <c r="B140" s="35"/>
-      <c r="C140" s="35"/>
-      <c r="D140" s="35"/>
-      <c r="E140" s="35"/>
-      <c r="F140" s="43"/>
-      <c r="G140" s="43"/>
-      <c r="H140" s="43"/>
-      <c r="I140" s="43"/>
-      <c r="J140" s="35"/>
-      <c r="K140" s="35"/>
-      <c r="L140" s="35"/>
-      <c r="M140" s="35"/>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A141" s="35"/>
-      <c r="B141" s="35"/>
-      <c r="C141" s="35"/>
-      <c r="D141" s="35"/>
-      <c r="E141" s="35"/>
-      <c r="F141" s="43"/>
-      <c r="G141" s="43"/>
-      <c r="H141" s="43"/>
-      <c r="I141" s="43"/>
-      <c r="J141" s="35"/>
-      <c r="K141" s="35"/>
-      <c r="L141" s="35"/>
-      <c r="M141" s="35"/>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A142" s="35"/>
-      <c r="B142" s="35"/>
-      <c r="C142" s="35"/>
-      <c r="D142" s="35"/>
-      <c r="E142" s="35"/>
-      <c r="F142" s="43"/>
-      <c r="G142" s="43"/>
-      <c r="H142" s="43"/>
-      <c r="I142" s="43"/>
-      <c r="J142" s="35"/>
-      <c r="K142" s="35"/>
-      <c r="L142" s="35"/>
-      <c r="M142" s="35"/>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A143" s="35"/>
-      <c r="B143" s="35"/>
-      <c r="C143" s="35"/>
-      <c r="D143" s="35"/>
-      <c r="E143" s="35"/>
-      <c r="F143" s="43"/>
-      <c r="G143" s="43"/>
-      <c r="H143" s="43"/>
-      <c r="I143" s="43"/>
-      <c r="J143" s="35"/>
-      <c r="K143" s="35"/>
-      <c r="L143" s="35"/>
-      <c r="M143" s="35"/>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A144" s="35"/>
-      <c r="B144" s="35"/>
-      <c r="C144" s="35"/>
-      <c r="D144" s="35"/>
-      <c r="E144" s="35"/>
-      <c r="F144" s="43"/>
-      <c r="G144" s="43"/>
-      <c r="H144" s="43"/>
-      <c r="I144" s="43"/>
-      <c r="J144" s="35"/>
-      <c r="K144" s="35"/>
-      <c r="L144" s="35"/>
-      <c r="M144" s="35"/>
+      <c r="F144" s="26"/>
+      <c r="G144" s="26"/>
+      <c r="H144" s="26"/>
+      <c r="I144" s="26"/>
+      <c r="J144" s="23"/>
+      <c r="K144" s="23"/>
+      <c r="L144" s="23"/>
+      <c r="M144" s="23"/>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A145" s="35"/>
-      <c r="B145" s="35"/>
-      <c r="C145" s="35"/>
-      <c r="D145" s="35"/>
-      <c r="E145" s="35"/>
-      <c r="F145" s="43"/>
-      <c r="G145" s="43"/>
-      <c r="H145" s="43"/>
-      <c r="I145" s="43"/>
-      <c r="J145" s="35"/>
-      <c r="K145" s="35"/>
-      <c r="L145" s="35"/>
-      <c r="M145" s="35"/>
+      <c r="A145" s="23"/>
+      <c r="B145" s="23"/>
+      <c r="C145" s="23"/>
+      <c r="D145" s="23"/>
+      <c r="E145" s="23"/>
+      <c r="F145" s="29"/>
+      <c r="G145" s="29"/>
+      <c r="H145" s="29"/>
+      <c r="I145" s="29"/>
+      <c r="J145" s="23"/>
+      <c r="K145" s="23"/>
+      <c r="L145" s="23"/>
+      <c r="M145" s="23"/>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A146" s="35"/>
-      <c r="B146" s="35"/>
-      <c r="C146" s="35"/>
-      <c r="D146" s="35"/>
-      <c r="E146" s="35"/>
-      <c r="F146" s="43"/>
-      <c r="G146" s="43"/>
-      <c r="H146" s="43"/>
-      <c r="I146" s="43"/>
-      <c r="J146" s="35"/>
-      <c r="K146" s="35"/>
-      <c r="L146" s="35"/>
-      <c r="M146" s="35"/>
+      <c r="A146" s="23"/>
+      <c r="B146" s="23"/>
+      <c r="C146" s="23"/>
+      <c r="D146" s="23"/>
+      <c r="E146" s="23"/>
+      <c r="F146" s="29"/>
+      <c r="G146" s="29"/>
+      <c r="H146" s="29"/>
+      <c r="I146" s="29"/>
+      <c r="J146" s="23"/>
+      <c r="K146" s="23"/>
+      <c r="L146" s="23"/>
+      <c r="M146" s="23"/>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A147" s="35"/>
-      <c r="B147" s="35"/>
-      <c r="C147" s="35"/>
-      <c r="D147" s="35"/>
-      <c r="E147" s="35"/>
-      <c r="F147" s="43"/>
-      <c r="G147" s="43"/>
-      <c r="H147" s="43"/>
-      <c r="I147" s="43"/>
-      <c r="J147" s="35"/>
-      <c r="K147" s="35"/>
-      <c r="L147" s="35"/>
-      <c r="M147" s="35"/>
+      <c r="A147" s="23"/>
+      <c r="B147" s="23"/>
+      <c r="C147" s="23"/>
+      <c r="D147" s="23"/>
+      <c r="E147" s="23"/>
+      <c r="F147" s="29"/>
+      <c r="G147" s="29"/>
+      <c r="H147" s="29"/>
+      <c r="I147" s="29"/>
+      <c r="J147" s="23"/>
+      <c r="K147" s="23"/>
+      <c r="L147" s="23"/>
+      <c r="M147" s="23"/>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A148" s="35"/>
-      <c r="J148" s="35"/>
-      <c r="K148" s="35"/>
-      <c r="L148" s="35"/>
-      <c r="M148" s="35"/>
+      <c r="A148" s="23"/>
+      <c r="B148" s="23"/>
+      <c r="C148" s="23"/>
+      <c r="D148" s="23"/>
+      <c r="E148" s="23"/>
+      <c r="F148" s="29"/>
+      <c r="G148" s="29"/>
+      <c r="H148" s="29"/>
+      <c r="I148" s="29"/>
+      <c r="J148" s="23"/>
+      <c r="K148" s="23"/>
+      <c r="L148" s="23"/>
+      <c r="M148" s="23"/>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B149" s="23"/>
+      <c r="C149" s="23"/>
+      <c r="D149" s="23"/>
+      <c r="E149" s="23"/>
+      <c r="F149" s="29"/>
+      <c r="G149" s="29"/>
+      <c r="H149" s="29"/>
+      <c r="I149" s="29"/>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B150" s="23"/>
+      <c r="C150" s="23"/>
+      <c r="D150" s="23"/>
+      <c r="E150" s="23"/>
+      <c r="F150" s="29"/>
+      <c r="G150" s="29"/>
+      <c r="H150" s="29"/>
+      <c r="I150" s="29"/>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B151" s="23"/>
+      <c r="C151" s="23"/>
+      <c r="D151" s="23"/>
+      <c r="E151" s="23"/>
+      <c r="F151" s="29"/>
+      <c r="G151" s="29"/>
+      <c r="H151" s="29"/>
+      <c r="I151" s="29"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B152" s="23"/>
+      <c r="C152" s="23"/>
+      <c r="D152" s="23"/>
+      <c r="E152" s="23"/>
+      <c r="F152" s="29"/>
+      <c r="G152" s="29"/>
+      <c r="H152" s="29"/>
+      <c r="I152" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B133:I133"/>
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="K53:R53"/>
-    <mergeCell ref="B74:I74"/>
-    <mergeCell ref="K69:R69"/>
-    <mergeCell ref="B91:I91"/>
-    <mergeCell ref="K86:R86"/>
-    <mergeCell ref="B99:I99"/>
-    <mergeCell ref="K94:R94"/>
-    <mergeCell ref="B105:I105"/>
-    <mergeCell ref="B111:I111"/>
-    <mergeCell ref="B119:I119"/>
     <mergeCell ref="B36:I36"/>
     <mergeCell ref="K36:R36"/>
     <mergeCell ref="C2:K4"/>
@@ -11038,6 +11163,18 @@
     <mergeCell ref="K14:R14"/>
     <mergeCell ref="B27:I27"/>
     <mergeCell ref="K27:R27"/>
+    <mergeCell ref="B138:I138"/>
+    <mergeCell ref="B56:I56"/>
+    <mergeCell ref="K53:R53"/>
+    <mergeCell ref="B79:I79"/>
+    <mergeCell ref="K69:R69"/>
+    <mergeCell ref="B96:I96"/>
+    <mergeCell ref="K86:R86"/>
+    <mergeCell ref="B104:I104"/>
+    <mergeCell ref="K94:R94"/>
+    <mergeCell ref="B110:I110"/>
+    <mergeCell ref="B116:I116"/>
+    <mergeCell ref="B124:I124"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/팀작업 테이블명세서.xlsx
+++ b/팀작업 테이블명세서.xlsx
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="478">
   <si>
     <t>Null허용</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2065,6 +2065,14 @@
   </si>
   <si>
     <t>text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬스장 간단소개문</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gsmalltext</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2072,7 +2080,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2782,7 +2790,7 @@
       <selection activeCell="B11" sqref="B11:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.75" customWidth="1"/>
@@ -2798,7 +2806,7 @@
     <col min="14" max="14" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" s="34" t="s">
         <v>20</v>
       </c>
@@ -2809,7 +2817,7 @@
       <c r="F1" s="35"/>
       <c r="G1" s="36"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" s="34" t="s">
         <v>165</v>
       </c>
@@ -2820,7 +2828,7 @@
       <c r="F2" s="35"/>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>124</v>
       </c>
@@ -2852,7 +2860,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2881,7 +2889,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2906,7 +2914,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2933,7 +2941,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2954,7 +2962,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2973,7 +2981,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -3001,7 +3009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -3024,7 +3032,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -3047,7 +3055,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3070,7 +3078,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3087,7 +3095,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3106,7 +3114,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3125,7 +3133,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -3144,7 +3152,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -3163,7 +3171,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -3195,7 +3203,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" s="4"/>
       <c r="J19" s="1" t="s">
         <v>134</v>
@@ -3219,7 +3227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" s="37" t="s">
         <v>74</v>
       </c>
@@ -3249,7 +3257,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" s="4"/>
       <c r="J21" s="2">
         <v>2</v>
@@ -3271,7 +3279,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" s="34" t="s">
         <v>250</v>
       </c>
@@ -3297,7 +3305,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
         <v>125</v>
       </c>
@@ -3333,7 +3341,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -3371,7 +3379,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="A25" s="2">
         <v>2</v>
       </c>
@@ -3397,7 +3405,7 @@
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="A26" s="2">
         <v>3</v>
       </c>
@@ -3428,7 +3436,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="A27" s="2">
         <v>4</v>
       </c>
@@ -3466,7 +3474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17">
       <c r="A28" s="2">
         <v>5</v>
       </c>
@@ -3502,7 +3510,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17">
       <c r="A29" s="2">
         <v>6</v>
       </c>
@@ -3538,7 +3546,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17">
       <c r="J30" s="2">
         <v>3</v>
       </c>
@@ -3555,7 +3563,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17">
       <c r="A33" s="34" t="s">
         <v>164</v>
       </c>
@@ -3578,7 +3586,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
         <v>126</v>
       </c>
@@ -3622,7 +3630,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -3664,7 +3672,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17">
       <c r="A36" s="2">
         <v>2</v>
       </c>
@@ -3706,7 +3714,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17">
       <c r="A37" s="2">
         <v>3</v>
       </c>
@@ -3738,7 +3746,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17">
       <c r="A38" s="2">
         <v>4</v>
       </c>
@@ -3770,7 +3778,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17">
       <c r="A39" s="2">
         <v>5</v>
       </c>
@@ -3802,7 +3810,7 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17">
       <c r="A40" s="2">
         <v>6</v>
       </c>
@@ -3826,7 +3834,7 @@
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17">
       <c r="A41" s="2">
         <v>7</v>
       </c>
@@ -3843,7 +3851,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17">
       <c r="A42" s="5">
         <v>8</v>
       </c>
@@ -3860,7 +3868,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17">
       <c r="A43" s="5">
         <v>9</v>
       </c>
@@ -3877,12 +3885,12 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17">
       <c r="H45" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17">
       <c r="A46" s="34" t="s">
         <v>163</v>
       </c>
@@ -3893,7 +3901,7 @@
       <c r="F46" s="35"/>
       <c r="G46" s="36"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17">
       <c r="A47" s="1" t="s">
         <v>127</v>
       </c>
@@ -3916,7 +3924,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17">
       <c r="A48" s="2">
         <v>1</v>
       </c>
@@ -3939,7 +3947,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16">
       <c r="A49" s="2">
         <v>2</v>
       </c>
@@ -3956,7 +3964,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16">
       <c r="A50" s="2">
         <v>3</v>
       </c>
@@ -3973,7 +3981,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16">
       <c r="A51" s="2">
         <v>4</v>
       </c>
@@ -3990,7 +3998,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16">
       <c r="A52" s="2">
         <v>5</v>
       </c>
@@ -4007,13 +4015,13 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16">
       <c r="A54" s="4"/>
       <c r="M54" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16">
       <c r="A55" s="34" t="s">
         <v>182</v>
       </c>
@@ -4036,7 +4044,7 @@
       <c r="O55" s="35"/>
       <c r="P55" s="36"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16">
       <c r="A56" s="1" t="s">
         <v>128</v>
       </c>
@@ -4080,7 +4088,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16">
       <c r="A57" s="2">
         <v>1</v>
       </c>
@@ -4124,7 +4132,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16">
       <c r="A58" s="2">
         <v>2</v>
       </c>
@@ -4160,7 +4168,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16">
       <c r="A59" s="2">
         <v>3</v>
       </c>
@@ -4200,7 +4208,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16">
       <c r="A60" s="2">
         <v>4</v>
       </c>
@@ -4232,7 +4240,7 @@
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16">
       <c r="A61" s="2">
         <v>5</v>
       </c>
@@ -4264,7 +4272,7 @@
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16">
       <c r="A62" s="2">
         <v>6</v>
       </c>
@@ -4281,10 +4289,10 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16">
       <c r="A63" s="4"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16">
       <c r="F65" s="37" t="s">
         <v>111</v>
       </c>
@@ -4294,12 +4302,12 @@
       <c r="J65" s="37"/>
       <c r="K65" s="37"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16">
       <c r="M66" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16">
       <c r="A67" s="34" t="s">
         <v>183</v>
       </c>
@@ -4319,7 +4327,7 @@
       <c r="O67" s="35"/>
       <c r="P67" s="36"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16">
       <c r="A68" s="1" t="s">
         <v>129</v>
       </c>
@@ -4363,7 +4371,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16">
       <c r="A69" s="2">
         <v>1</v>
       </c>
@@ -4407,7 +4415,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16">
       <c r="A70" s="2">
         <v>2</v>
       </c>
@@ -4445,7 +4453,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16">
       <c r="A71" s="2">
         <v>3</v>
       </c>
@@ -4481,7 +4489,7 @@
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16">
       <c r="A72" s="2">
         <v>4</v>
       </c>
@@ -4513,7 +4521,7 @@
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16">
       <c r="A73" s="5">
         <v>5</v>
       </c>
@@ -4545,7 +4553,7 @@
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16">
       <c r="J74" s="2">
         <v>6</v>
       </c>
@@ -4562,7 +4570,7 @@
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16">
       <c r="J75" s="2">
         <v>7</v>
       </c>
@@ -4579,7 +4587,7 @@
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16">
       <c r="J76" s="2">
         <v>8</v>
       </c>
@@ -4596,7 +4604,7 @@
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16">
       <c r="J77" s="2">
         <v>9</v>
       </c>
@@ -4645,7 +4653,7 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="0.875" customWidth="1"/>
     <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
@@ -4667,7 +4675,7 @@
     <col min="18" max="18" width="11" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18">
       <c r="C2" s="37" t="s">
         <v>226</v>
       </c>
@@ -4680,7 +4688,7 @@
       <c r="J2" s="37"/>
       <c r="K2" s="37"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18">
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
       <c r="E3" s="37"/>
@@ -4691,7 +4699,7 @@
       <c r="J3" s="37"/>
       <c r="K3" s="37"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18">
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
@@ -4702,7 +4710,7 @@
       <c r="J4" s="37"/>
       <c r="K4" s="37"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18">
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
@@ -4712,7 +4720,7 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:18" ht="17.25" thickBot="1">
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
@@ -4722,7 +4730,7 @@
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
     </row>
-    <row r="7" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:18" ht="17.25" thickBot="1">
       <c r="B7" s="41" t="s">
         <v>165</v>
       </c>
@@ -4742,7 +4750,7 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18">
       <c r="B8" s="11" t="s">
         <v>124</v>
       </c>
@@ -4776,7 +4784,7 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18">
       <c r="B9" s="2">
         <v>1</v>
       </c>
@@ -4808,7 +4816,7 @@
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18">
       <c r="B10" s="2">
         <v>2</v>
       </c>
@@ -4836,7 +4844,7 @@
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18">
       <c r="B11" s="2">
         <v>3</v>
       </c>
@@ -4862,7 +4870,7 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18">
       <c r="B12" s="2">
         <v>4</v>
       </c>
@@ -4892,7 +4900,7 @@
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18">
       <c r="B13" s="2">
         <v>5</v>
       </c>
@@ -4922,7 +4930,7 @@
       <c r="Q13" s="15"/>
       <c r="R13" s="15"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18">
       <c r="B14" s="2">
         <v>6</v>
       </c>
@@ -4950,7 +4958,7 @@
       <c r="Q14" s="45"/>
       <c r="R14" s="45"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18">
       <c r="B15" s="2">
         <v>7</v>
       </c>
@@ -4976,7 +4984,7 @@
       <c r="Q15" s="15"/>
       <c r="R15" s="15"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18">
       <c r="B16" s="2">
         <v>8</v>
       </c>
@@ -5016,7 +5024,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18">
       <c r="B17" s="2">
         <v>9</v>
       </c>
@@ -5056,7 +5064,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18">
       <c r="B18" s="2">
         <v>10</v>
       </c>
@@ -5088,7 +5096,7 @@
       <c r="Q18" s="15"/>
       <c r="R18" s="15"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18">
       <c r="B19" s="2">
         <v>11</v>
       </c>
@@ -5120,7 +5128,7 @@
       <c r="Q19" s="15"/>
       <c r="R19" s="15"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -5144,7 +5152,7 @@
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18">
       <c r="K21" s="15"/>
       <c r="L21" s="17" t="s">
         <v>239</v>
@@ -5160,7 +5168,7 @@
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18">
       <c r="K22" s="8"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
@@ -5170,7 +5178,7 @@
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18">
       <c r="K23" s="8"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
@@ -5180,7 +5188,7 @@
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18">
       <c r="K24" s="8"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
@@ -5190,7 +5198,7 @@
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18">
       <c r="K25" s="8"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
@@ -5200,7 +5208,7 @@
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
     </row>
-    <row r="26" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:18" ht="17.25" thickBot="1">
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -5220,7 +5228,7 @@
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:18" ht="17.25" thickBot="1">
       <c r="B27" s="45" t="s">
         <v>245</v>
       </c>
@@ -5242,7 +5250,7 @@
       <c r="Q27" s="42"/>
       <c r="R27" s="43"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:18">
       <c r="B28" s="14"/>
       <c r="C28" s="14" t="s">
         <v>21</v>
@@ -5290,7 +5298,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:18">
       <c r="B29" s="15"/>
       <c r="C29" s="16" t="s">
         <v>246</v>
@@ -5332,7 +5340,7 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:18">
       <c r="B30" s="15"/>
       <c r="C30" s="16" t="s">
         <v>233</v>
@@ -5366,7 +5374,7 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:18">
       <c r="K31" s="8"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
@@ -5376,7 +5384,7 @@
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:18">
       <c r="K32" s="8"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
@@ -5386,7 +5394,7 @@
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:19">
       <c r="K33" s="8"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
@@ -5396,7 +5404,7 @@
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:19">
       <c r="K34" s="8"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
@@ -5406,7 +5414,7 @@
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
     </row>
-    <row r="35" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:19" ht="17.25" thickBot="1">
       <c r="K35" s="8"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
@@ -5416,7 +5424,7 @@
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
     </row>
-    <row r="36" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:19" ht="17.25" thickBot="1">
       <c r="B36" s="41" t="s">
         <v>250</v>
       </c>
@@ -5438,7 +5446,7 @@
       <c r="Q36" s="42"/>
       <c r="R36" s="43"/>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:19">
       <c r="B37" s="11" t="s">
         <v>125</v>
       </c>
@@ -5488,7 +5496,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:19">
       <c r="B38" s="2">
         <v>1</v>
       </c>
@@ -5534,7 +5542,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:19">
       <c r="B39" s="2">
         <v>2</v>
       </c>
@@ -5582,7 +5590,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:19">
       <c r="B40" s="2">
         <v>3</v>
       </c>
@@ -5618,7 +5626,7 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:19">
       <c r="B41" s="2">
         <v>4</v>
       </c>
@@ -5656,7 +5664,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:19">
       <c r="B42" s="2">
         <v>5</v>
       </c>
@@ -5690,7 +5698,7 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:19">
       <c r="B43" s="2">
         <v>6</v>
       </c>
@@ -5724,7 +5732,7 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:19">
       <c r="B44" s="2">
         <v>7</v>
       </c>
@@ -5745,7 +5753,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:19">
       <c r="B45" s="2">
         <v>8</v>
       </c>
@@ -5763,7 +5771,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:19">
       <c r="B46" s="2">
         <v>9</v>
       </c>
@@ -5781,7 +5789,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:19">
       <c r="B47" s="2">
         <v>10</v>
       </c>
@@ -5799,7 +5807,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:19">
       <c r="B48" s="2">
         <v>11</v>
       </c>
@@ -5817,7 +5825,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:19">
       <c r="B49" s="2">
         <v>12</v>
       </c>
@@ -5835,7 +5843,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:19">
       <c r="B50" s="2">
         <v>13</v>
       </c>
@@ -5853,8 +5861,8 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="52" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="53" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:19" ht="17.25" thickBot="1"/>
+    <row r="53" spans="2:19" ht="17.25" thickBot="1">
       <c r="B53" s="41" t="s">
         <v>164</v>
       </c>
@@ -5876,7 +5884,7 @@
       <c r="Q53" s="42"/>
       <c r="R53" s="43"/>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:19">
       <c r="B54" s="11" t="s">
         <v>126</v>
       </c>
@@ -5926,7 +5934,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:19">
       <c r="B55" s="2">
         <v>1</v>
       </c>
@@ -5972,7 +5980,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:19">
       <c r="B56" s="2">
         <v>2</v>
       </c>
@@ -6020,7 +6028,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:19">
       <c r="B57" s="2">
         <v>3</v>
       </c>
@@ -6056,7 +6064,7 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:19">
       <c r="B58" s="2">
         <v>4</v>
       </c>
@@ -6096,7 +6104,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:19">
       <c r="B59" s="2">
         <v>5</v>
       </c>
@@ -6132,7 +6140,7 @@
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:19">
       <c r="B60" s="2">
         <v>6</v>
       </c>
@@ -6166,7 +6174,7 @@
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:19">
       <c r="B61" s="2">
         <v>7</v>
       </c>
@@ -6187,7 +6195,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:19">
       <c r="B62" s="2">
         <v>8</v>
       </c>
@@ -6205,7 +6213,7 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:19">
       <c r="B63" s="2">
         <v>9</v>
       </c>
@@ -6223,7 +6231,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:19">
       <c r="B64" s="2">
         <v>10</v>
       </c>
@@ -6241,7 +6249,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:19">
       <c r="B65" s="2">
         <v>11</v>
       </c>
@@ -6259,8 +6267,8 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="68" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="69" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:19" ht="17.25" thickBot="1"/>
+    <row r="69" spans="2:19" ht="17.25" thickBot="1">
       <c r="B69" s="41" t="s">
         <v>182</v>
       </c>
@@ -6285,7 +6293,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:19">
       <c r="B70" s="11" t="s">
         <v>127</v>
       </c>
@@ -6335,7 +6343,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:19">
       <c r="B71" s="2">
         <v>1</v>
       </c>
@@ -6381,7 +6389,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:19">
       <c r="B72" s="2">
         <v>2</v>
       </c>
@@ -6423,7 +6431,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:19">
       <c r="B73" s="2">
         <v>3</v>
       </c>
@@ -6463,7 +6471,7 @@
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
     </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:19">
       <c r="B74" s="2">
         <v>4</v>
       </c>
@@ -6503,7 +6511,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:19">
       <c r="B75" s="2">
         <v>5</v>
       </c>
@@ -6539,7 +6547,7 @@
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
     </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:19">
       <c r="B76" s="2">
         <v>6</v>
       </c>
@@ -6562,8 +6570,8 @@
         <v>358</v>
       </c>
     </row>
-    <row r="79" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="80" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:19" ht="17.25" thickBot="1"/>
+    <row r="80" spans="2:19" ht="17.25" thickBot="1">
       <c r="B80" s="41" t="s">
         <v>372</v>
       </c>
@@ -6585,7 +6593,7 @@
       <c r="Q80" s="44"/>
       <c r="R80" s="44"/>
     </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:18">
       <c r="B81" s="11" t="s">
         <v>377</v>
       </c>
@@ -6635,7 +6643,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:18">
       <c r="B82" s="2">
         <v>1</v>
       </c>
@@ -6677,7 +6685,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:18">
       <c r="B83" s="2">
         <v>2</v>
       </c>
@@ -6719,7 +6727,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:18">
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
@@ -6741,8 +6749,8 @@
       <c r="Q84" s="15"/>
       <c r="R84" s="15"/>
     </row>
-    <row r="87" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="88" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:18" ht="17.25" thickBot="1"/>
+    <row r="88" spans="2:18" ht="17.25" thickBot="1">
       <c r="B88" s="41" t="s">
         <v>313</v>
       </c>
@@ -6764,7 +6772,7 @@
       <c r="Q88" s="42"/>
       <c r="R88" s="43"/>
     </row>
-    <row r="89" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:18">
       <c r="B89" s="11" t="s">
         <v>380</v>
       </c>
@@ -6814,7 +6822,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="90" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:18">
       <c r="B90" s="2">
         <v>1</v>
       </c>
@@ -6858,7 +6866,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="91" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:18">
       <c r="B91" s="2">
         <v>2</v>
       </c>
@@ -6900,7 +6908,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="92" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:18">
       <c r="K92" s="2">
         <v>3</v>
       </c>
@@ -6918,7 +6926,7 @@
       <c r="Q92" s="2"/>
       <c r="R92" s="2"/>
     </row>
-    <row r="93" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:18" ht="17.25" thickBot="1">
       <c r="K93" s="2">
         <v>4</v>
       </c>
@@ -6936,7 +6944,7 @@
       <c r="Q93" s="2"/>
       <c r="R93" s="2"/>
     </row>
-    <row r="94" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:18" ht="17.25" thickBot="1">
       <c r="B94" s="41" t="s">
         <v>318</v>
       </c>
@@ -6964,7 +6972,7 @@
       <c r="Q94" s="2"/>
       <c r="R94" s="2"/>
     </row>
-    <row r="95" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:18">
       <c r="B95" s="11" t="s">
         <v>381</v>
       </c>
@@ -6990,7 +6998,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="96" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:18">
       <c r="B96" s="2">
         <v>1</v>
       </c>
@@ -7012,7 +7020,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:9">
       <c r="B97" s="2">
         <v>2</v>
       </c>
@@ -7034,8 +7042,8 @@
         <v>319</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="100" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:9" ht="17.25" thickBot="1"/>
+    <row r="100" spans="2:9" ht="17.25" thickBot="1">
       <c r="B100" s="41" t="s">
         <v>320</v>
       </c>
@@ -7047,7 +7055,7 @@
       <c r="H100" s="42"/>
       <c r="I100" s="43"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:9">
       <c r="B101" s="11" t="s">
         <v>382</v>
       </c>
@@ -7073,7 +7081,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:9">
       <c r="B102" s="2">
         <v>1</v>
       </c>
@@ -7095,7 +7103,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:9">
       <c r="B103" s="2">
         <v>2</v>
       </c>
@@ -7117,8 +7125,8 @@
         <v>322</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="108" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:9" ht="17.25" thickBot="1"/>
+    <row r="108" spans="2:9" ht="17.25" thickBot="1">
       <c r="B108" s="41" t="s">
         <v>338</v>
       </c>
@@ -7130,7 +7138,7 @@
       <c r="H108" s="42"/>
       <c r="I108" s="43"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:9">
       <c r="B109" s="11" t="s">
         <v>124</v>
       </c>
@@ -7156,7 +7164,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:9">
       <c r="B110" s="2">
         <v>1</v>
       </c>
@@ -7182,7 +7190,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:9">
       <c r="B111" s="2">
         <v>2</v>
       </c>
@@ -7206,7 +7214,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:9">
       <c r="B112" s="2">
         <v>3</v>
       </c>
@@ -7224,7 +7232,7 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:9">
       <c r="B113" s="2">
         <v>4</v>
       </c>
@@ -7242,7 +7250,7 @@
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:9">
       <c r="B114" s="2">
         <v>5</v>
       </c>
@@ -7260,7 +7268,7 @@
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:9">
       <c r="B115" s="2">
         <v>6</v>
       </c>
@@ -7278,7 +7286,7 @@
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:9">
       <c r="B116" s="2">
         <v>7</v>
       </c>
@@ -7296,7 +7304,7 @@
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:9">
       <c r="B117" s="2">
         <v>8</v>
       </c>
@@ -7314,8 +7322,8 @@
       <c r="H117" s="3"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="121" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="122" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:9" ht="17.25" thickBot="1"/>
+    <row r="122" spans="2:9" ht="17.25" thickBot="1">
       <c r="B122" s="41" t="s">
         <v>386</v>
       </c>
@@ -7327,7 +7335,7 @@
       <c r="H122" s="42"/>
       <c r="I122" s="43"/>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:9">
       <c r="B123" s="11" t="s">
         <v>379</v>
       </c>
@@ -7353,7 +7361,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:9">
       <c r="B124" s="2">
         <v>1</v>
       </c>
@@ -7379,7 +7387,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:9">
       <c r="B125" s="2">
         <v>2</v>
       </c>
@@ -7397,7 +7405,7 @@
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:9">
       <c r="B126" s="2">
         <v>3</v>
       </c>
@@ -7415,7 +7423,7 @@
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:9">
       <c r="B127" s="2">
         <v>4</v>
       </c>
@@ -7433,7 +7441,7 @@
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:9">
       <c r="B128" s="2">
         <v>5</v>
       </c>
@@ -7484,10 +7492,10 @@
   <dimension ref="A2:S152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:E51"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="0.875" customWidth="1"/>
     <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
@@ -7509,7 +7517,7 @@
     <col min="18" max="18" width="11" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18">
       <c r="B2">
         <f ca="1">B2:T132</f>
         <v>0</v>
@@ -7526,7 +7534,7 @@
       <c r="J2" s="37"/>
       <c r="K2" s="37"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18">
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
       <c r="E3" s="37"/>
@@ -7537,7 +7545,7 @@
       <c r="J3" s="37"/>
       <c r="K3" s="37"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18">
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
@@ -7548,7 +7556,7 @@
       <c r="J4" s="37"/>
       <c r="K4" s="37"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18">
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
@@ -7558,7 +7566,7 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:18" ht="17.25" thickBot="1">
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
@@ -7568,7 +7576,7 @@
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
     </row>
-    <row r="7" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:18" ht="17.25" thickBot="1">
       <c r="B7" s="41" t="s">
         <v>165</v>
       </c>
@@ -7588,7 +7596,7 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18">
       <c r="B8" s="11" t="s">
         <v>124</v>
       </c>
@@ -7622,7 +7630,7 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18">
       <c r="B9" s="2">
         <v>1</v>
       </c>
@@ -7654,7 +7662,7 @@
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18">
       <c r="B10" s="2">
         <v>2</v>
       </c>
@@ -7682,7 +7690,7 @@
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18">
       <c r="B11" s="2">
         <v>3</v>
       </c>
@@ -7708,7 +7716,7 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18">
       <c r="B12" s="2">
         <v>4</v>
       </c>
@@ -7738,7 +7746,7 @@
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18">
       <c r="B13" s="2">
         <v>5</v>
       </c>
@@ -7768,7 +7776,7 @@
       <c r="Q13" s="19"/>
       <c r="R13" s="19"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18">
       <c r="B14" s="2">
         <v>6</v>
       </c>
@@ -7796,7 +7804,7 @@
       <c r="Q14" s="45"/>
       <c r="R14" s="45"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18">
       <c r="B15" s="2">
         <v>7</v>
       </c>
@@ -7822,7 +7830,7 @@
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18">
       <c r="B16" s="2">
         <v>8</v>
       </c>
@@ -7862,7 +7870,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18">
       <c r="B17" s="2">
         <v>9</v>
       </c>
@@ -7902,7 +7910,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18">
       <c r="B18" s="2">
         <v>10</v>
       </c>
@@ -7934,7 +7942,7 @@
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18">
       <c r="B19" s="2">
         <v>11</v>
       </c>
@@ -7966,7 +7974,7 @@
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -7990,7 +7998,7 @@
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18">
       <c r="K21" s="19"/>
       <c r="L21" s="17" t="s">
         <v>239</v>
@@ -8006,7 +8014,7 @@
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18">
       <c r="K22" s="8"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
@@ -8016,7 +8024,7 @@
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18">
       <c r="K23" s="8"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
@@ -8026,7 +8034,7 @@
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18">
       <c r="K24" s="8"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
@@ -8036,7 +8044,7 @@
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18">
       <c r="K25" s="8"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
@@ -8046,7 +8054,7 @@
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
     </row>
-    <row r="26" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:18" ht="17.25" thickBot="1">
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -8066,7 +8074,7 @@
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:18" ht="17.25" thickBot="1">
       <c r="B27" s="45" t="s">
         <v>245</v>
       </c>
@@ -8088,7 +8096,7 @@
       <c r="Q27" s="42"/>
       <c r="R27" s="43"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:18">
       <c r="B28" s="14"/>
       <c r="C28" s="14" t="s">
         <v>21</v>
@@ -8136,7 +8144,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:18">
       <c r="B29" s="19"/>
       <c r="C29" s="16" t="s">
         <v>246</v>
@@ -8178,7 +8186,7 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:18">
       <c r="B30" s="19"/>
       <c r="C30" s="16" t="s">
         <v>233</v>
@@ -8212,7 +8220,7 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:18">
       <c r="K31" s="8"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
@@ -8222,7 +8230,7 @@
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:18">
       <c r="K32" s="8"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
@@ -8232,7 +8240,7 @@
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:19">
       <c r="K33" s="8"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
@@ -8242,7 +8250,7 @@
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:19">
       <c r="K34" s="8"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
@@ -8252,7 +8260,7 @@
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
     </row>
-    <row r="35" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:19" ht="17.25" thickBot="1">
       <c r="K35" s="8"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
@@ -8262,7 +8270,7 @@
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
     </row>
-    <row r="36" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:19" ht="17.25" thickBot="1">
       <c r="B36" s="41" t="s">
         <v>250</v>
       </c>
@@ -8284,7 +8292,7 @@
       <c r="Q36" s="42"/>
       <c r="R36" s="43"/>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:19">
       <c r="B37" s="11" t="s">
         <v>125</v>
       </c>
@@ -8334,7 +8342,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:19">
       <c r="B38" s="2">
         <v>1</v>
       </c>
@@ -8380,7 +8388,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:19">
       <c r="B39" s="31">
         <v>2</v>
       </c>
@@ -8430,7 +8438,7 @@
       </c>
       <c r="S39" s="28"/>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:19">
       <c r="B40" s="31">
         <v>3</v>
       </c>
@@ -8468,7 +8476,7 @@
       <c r="R40" s="31"/>
       <c r="S40" s="28"/>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:19">
       <c r="B41" s="31">
         <v>4</v>
       </c>
@@ -8508,7 +8516,7 @@
       </c>
       <c r="S41" s="28"/>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:19">
       <c r="B42" s="31">
         <v>5</v>
       </c>
@@ -8544,7 +8552,7 @@
       <c r="R42" s="31"/>
       <c r="S42" s="28"/>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:19">
       <c r="B43" s="31">
         <v>6</v>
       </c>
@@ -8580,7 +8588,7 @@
       <c r="R43" s="31"/>
       <c r="S43" s="28"/>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:19">
       <c r="B44" s="31">
         <v>7</v>
       </c>
@@ -8618,7 +8626,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:19">
       <c r="B45" s="31">
         <v>8</v>
       </c>
@@ -8646,7 +8654,7 @@
       <c r="R45" s="29"/>
       <c r="S45" s="28"/>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:19">
       <c r="B46" s="31">
         <v>9</v>
       </c>
@@ -8674,7 +8682,7 @@
       <c r="R46" s="29"/>
       <c r="S46" s="28"/>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:19">
       <c r="B47" s="31">
         <v>10</v>
       </c>
@@ -8702,7 +8710,7 @@
       <c r="R47" s="29"/>
       <c r="S47" s="28"/>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:19">
       <c r="B48" s="31">
         <v>11</v>
       </c>
@@ -8730,7 +8738,7 @@
       <c r="R48" s="29"/>
       <c r="S48" s="28"/>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:19">
       <c r="B49" s="20">
         <v>12</v>
       </c>
@@ -8758,7 +8766,7 @@
       <c r="R49" s="29"/>
       <c r="S49" s="28"/>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:19">
       <c r="B50" s="20">
         <v>13</v>
       </c>
@@ -8786,11 +8794,19 @@
       <c r="R50" s="29"/>
       <c r="S50" s="28"/>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B51" s="20"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
+    <row r="51" spans="2:19" ht="18" customHeight="1">
+      <c r="B51" s="20">
+        <v>14</v>
+      </c>
+      <c r="C51" s="50" t="s">
+        <v>476</v>
+      </c>
+      <c r="D51" s="50" t="s">
+        <v>477</v>
+      </c>
+      <c r="E51" s="50" t="s">
+        <v>468</v>
+      </c>
       <c r="F51" s="20"/>
       <c r="G51" s="20"/>
       <c r="H51" s="20"/>
@@ -8806,9 +8822,9 @@
       <c r="R51" s="29"/>
       <c r="S51" s="28"/>
     </row>
-    <row r="52" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:19" ht="17.25" thickBot="1">
       <c r="B52" s="31">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C52" s="30" t="s">
         <v>365</v>
@@ -8834,9 +8850,9 @@
       <c r="R52" s="29"/>
       <c r="S52" s="28"/>
     </row>
-    <row r="53" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:19" ht="17.25" thickBot="1">
       <c r="B53" s="31">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C53" s="30" t="s">
         <v>365</v>
@@ -8864,7 +8880,7 @@
       <c r="R53" s="48"/>
       <c r="S53" s="28"/>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:19">
       <c r="B54" s="28"/>
       <c r="C54" s="28"/>
       <c r="D54" s="28"/>
@@ -8900,7 +8916,7 @@
       </c>
       <c r="S54" s="28"/>
     </row>
-    <row r="55" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:19" ht="17.25" thickBot="1">
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
       <c r="D55" s="28"/>
@@ -8932,7 +8948,7 @@
       </c>
       <c r="S55" s="28"/>
     </row>
-    <row r="56" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:19" ht="17.25" thickBot="1">
       <c r="B56" s="46" t="s">
         <v>164</v>
       </c>
@@ -8970,7 +8986,7 @@
       </c>
       <c r="S56" s="28"/>
     </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:19">
       <c r="B57" s="25" t="s">
         <v>126</v>
       </c>
@@ -9014,7 +9030,7 @@
       <c r="R57" s="31"/>
       <c r="S57" s="28"/>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:19">
       <c r="B58" s="26">
         <v>1</v>
       </c>
@@ -9062,7 +9078,7 @@
       </c>
       <c r="S58" s="28"/>
     </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:19">
       <c r="B59" s="26">
         <v>2</v>
       </c>
@@ -9104,7 +9120,7 @@
       <c r="R59" s="26"/>
       <c r="S59" s="28"/>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:19">
       <c r="B60" s="26">
         <v>3</v>
       </c>
@@ -9140,7 +9156,7 @@
       <c r="R60" s="26"/>
       <c r="S60" s="28"/>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:19">
       <c r="B61" s="26">
         <v>4</v>
       </c>
@@ -9180,7 +9196,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:19">
       <c r="B62" s="26">
         <v>5</v>
       </c>
@@ -9210,7 +9226,7 @@
       <c r="R62" s="29"/>
       <c r="S62" s="28"/>
     </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:19">
       <c r="B63" s="26">
         <v>6</v>
       </c>
@@ -9240,7 +9256,7 @@
       <c r="R63" s="29"/>
       <c r="S63" s="28"/>
     </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:19">
       <c r="B64" s="26">
         <v>7</v>
       </c>
@@ -9270,7 +9286,7 @@
       <c r="R64" s="29"/>
       <c r="S64" s="28"/>
     </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:19">
       <c r="B65" s="22">
         <v>8</v>
       </c>
@@ -9300,7 +9316,7 @@
       <c r="R65" s="29"/>
       <c r="S65" s="28"/>
     </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:19">
       <c r="B66" s="26">
         <v>9</v>
       </c>
@@ -9330,7 +9346,7 @@
       <c r="R66" s="29"/>
       <c r="S66" s="28"/>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:19">
       <c r="B67" s="26">
         <v>10</v>
       </c>
@@ -9360,7 +9376,7 @@
       <c r="R67" s="29"/>
       <c r="S67" s="28"/>
     </row>
-    <row r="68" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:19" ht="17.25" thickBot="1">
       <c r="B68" s="26">
         <v>11</v>
       </c>
@@ -9390,7 +9406,7 @@
       <c r="R68" s="29"/>
       <c r="S68" s="28"/>
     </row>
-    <row r="69" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:19" ht="17.25" thickBot="1">
       <c r="B69" s="26">
         <v>12</v>
       </c>
@@ -9424,7 +9440,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:19">
       <c r="B70" s="26">
         <v>13</v>
       </c>
@@ -9470,7 +9486,7 @@
       </c>
       <c r="S70" s="28"/>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:19">
       <c r="B71" s="26">
         <v>15</v>
       </c>
@@ -9510,7 +9526,7 @@
       </c>
       <c r="S71" s="28"/>
     </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:19">
       <c r="B72" s="26">
         <v>16</v>
       </c>
@@ -9556,7 +9572,7 @@
       </c>
       <c r="S72" s="28"/>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:19">
       <c r="B73" s="26">
         <v>17</v>
       </c>
@@ -9592,7 +9608,7 @@
       <c r="R73" s="26"/>
       <c r="S73" s="28"/>
     </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:19">
       <c r="B74" s="22">
         <v>18</v>
       </c>
@@ -9634,7 +9650,7 @@
       </c>
       <c r="S74" s="28"/>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:19">
       <c r="B75" s="22">
         <v>19</v>
       </c>
@@ -9672,7 +9688,7 @@
       <c r="R75" s="26"/>
       <c r="S75" s="28"/>
     </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:19">
       <c r="B76" s="28"/>
       <c r="C76" s="33" t="s">
         <v>462</v>
@@ -9704,7 +9720,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:19">
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
       <c r="D77" s="28"/>
@@ -9724,7 +9740,7 @@
       <c r="R77" s="29"/>
       <c r="S77" s="28"/>
     </row>
-    <row r="78" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:19" ht="17.25" thickBot="1">
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
       <c r="D78" s="28"/>
@@ -9744,7 +9760,7 @@
       <c r="R78" s="29"/>
       <c r="S78" s="28"/>
     </row>
-    <row r="79" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:19" ht="17.25" thickBot="1">
       <c r="B79" s="46" t="s">
         <v>182</v>
       </c>
@@ -9766,7 +9782,7 @@
       <c r="R79" s="29"/>
       <c r="S79" s="28"/>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:19">
       <c r="B80" s="25" t="s">
         <v>127</v>
       </c>
@@ -9792,7 +9808,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:18">
       <c r="B81" s="26">
         <v>1</v>
       </c>
@@ -9818,7 +9834,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:18">
       <c r="B82" s="26">
         <v>2</v>
       </c>
@@ -9838,7 +9854,7 @@
       <c r="H82" s="26"/>
       <c r="I82" s="26"/>
     </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:18">
       <c r="B83" s="26">
         <v>3</v>
       </c>
@@ -9860,7 +9876,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:18">
       <c r="B84" s="26">
         <v>4</v>
       </c>
@@ -9878,7 +9894,7 @@
       <c r="H84" s="26"/>
       <c r="I84" s="26"/>
     </row>
-    <row r="85" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:18">
       <c r="B85" s="26">
         <v>5</v>
       </c>
@@ -9896,7 +9912,7 @@
       <c r="H85" s="26"/>
       <c r="I85" s="26"/>
     </row>
-    <row r="86" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:18">
       <c r="B86" s="26">
         <v>6</v>
       </c>
@@ -9924,7 +9940,7 @@
       <c r="Q86" s="44"/>
       <c r="R86" s="44"/>
     </row>
-    <row r="87" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:18">
       <c r="B87" s="26">
         <v>7</v>
       </c>
@@ -9966,7 +9982,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="88" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:18">
       <c r="B88" s="26">
         <v>8</v>
       </c>
@@ -10004,7 +10020,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="89" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:18">
       <c r="B89" s="26">
         <v>9</v>
       </c>
@@ -10042,7 +10058,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="90" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:18">
       <c r="B90" s="26">
         <v>10</v>
       </c>
@@ -10076,7 +10092,7 @@
       <c r="Q90" s="19"/>
       <c r="R90" s="19"/>
     </row>
-    <row r="91" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:18">
       <c r="B91" s="26">
         <v>11</v>
       </c>
@@ -10094,7 +10110,7 @@
       <c r="H91" s="26"/>
       <c r="I91" s="26"/>
     </row>
-    <row r="92" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:18">
       <c r="B92" s="26">
         <v>12</v>
       </c>
@@ -10112,7 +10128,7 @@
       <c r="H92" s="26"/>
       <c r="I92" s="26"/>
     </row>
-    <row r="93" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:18" ht="17.25" thickBot="1">
       <c r="B93" s="23"/>
       <c r="C93" s="23"/>
       <c r="D93" s="23"/>
@@ -10122,7 +10138,7 @@
       <c r="H93" s="24"/>
       <c r="I93" s="24"/>
     </row>
-    <row r="94" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:18" ht="17.25" thickBot="1">
       <c r="B94" s="23"/>
       <c r="C94" s="23"/>
       <c r="D94" s="23"/>
@@ -10142,7 +10158,7 @@
       <c r="Q94" s="42"/>
       <c r="R94" s="43"/>
     </row>
-    <row r="95" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:18" ht="17.25" thickBot="1">
       <c r="K95" s="11" t="s">
         <v>379</v>
       </c>
@@ -10168,7 +10184,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="96" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:18" ht="17.25" thickBot="1">
       <c r="B96" s="41" t="s">
         <v>372</v>
       </c>
@@ -10202,7 +10218,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="97" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:18">
       <c r="B97" s="11" t="s">
         <v>377</v>
       </c>
@@ -10248,7 +10264,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="98" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:18">
       <c r="B98" s="2">
         <v>1</v>
       </c>
@@ -10286,7 +10302,7 @@
       <c r="Q98" s="2"/>
       <c r="R98" s="2"/>
     </row>
-    <row r="99" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:18">
       <c r="B99" s="2">
         <v>2</v>
       </c>
@@ -10324,7 +10340,7 @@
       <c r="Q99" s="2"/>
       <c r="R99" s="2"/>
     </row>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:18">
       <c r="K100" s="2">
         <v>5</v>
       </c>
@@ -10342,8 +10358,8 @@
       <c r="Q100" s="2"/>
       <c r="R100" s="2"/>
     </row>
-    <row r="103" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="104" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:18" ht="17.25" thickBot="1"/>
+    <row r="104" spans="2:18" ht="17.25" thickBot="1">
       <c r="B104" s="41" t="s">
         <v>313</v>
       </c>
@@ -10355,7 +10371,7 @@
       <c r="H104" s="42"/>
       <c r="I104" s="43"/>
     </row>
-    <row r="105" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:18">
       <c r="B105" s="11" t="s">
         <v>380</v>
       </c>
@@ -10381,7 +10397,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="106" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:18">
       <c r="B106" s="2">
         <v>1</v>
       </c>
@@ -10403,7 +10419,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="107" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:18">
       <c r="B107" s="2">
         <v>2</v>
       </c>
@@ -10425,8 +10441,8 @@
         <v>302</v>
       </c>
     </row>
-    <row r="109" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="110" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:18" ht="17.25" thickBot="1"/>
+    <row r="110" spans="2:18" ht="17.25" thickBot="1">
       <c r="B110" s="41" t="s">
         <v>318</v>
       </c>
@@ -10438,7 +10454,7 @@
       <c r="H110" s="42"/>
       <c r="I110" s="43"/>
     </row>
-    <row r="111" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:18">
       <c r="B111" s="11" t="s">
         <v>381</v>
       </c>
@@ -10464,7 +10480,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="112" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:18">
       <c r="B112" s="2">
         <v>1</v>
       </c>
@@ -10486,7 +10502,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13">
       <c r="B113" s="2">
         <v>2</v>
       </c>
@@ -10508,8 +10524,8 @@
         <v>305</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="116" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" ht="17.25" thickBot="1"/>
+    <row r="116" spans="1:13" ht="17.25" thickBot="1">
       <c r="B116" s="41" t="s">
         <v>320</v>
       </c>
@@ -10521,7 +10537,7 @@
       <c r="H116" s="42"/>
       <c r="I116" s="43"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13">
       <c r="B117" s="11" t="s">
         <v>382</v>
       </c>
@@ -10547,7 +10563,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13">
       <c r="B118" s="2">
         <v>1</v>
       </c>
@@ -10569,7 +10585,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13">
       <c r="B119" s="2">
         <v>2</v>
       </c>
@@ -10591,8 +10607,8 @@
         <v>290</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="124" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" ht="17.25" thickBot="1"/>
+    <row r="124" spans="1:13" ht="17.25" thickBot="1">
       <c r="B124" s="41" t="s">
         <v>338</v>
       </c>
@@ -10604,7 +10620,7 @@
       <c r="H124" s="42"/>
       <c r="I124" s="43"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13">
       <c r="B125" s="11" t="s">
         <v>124</v>
       </c>
@@ -10630,7 +10646,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13">
       <c r="B126" s="2">
         <v>1</v>
       </c>
@@ -10656,7 +10672,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13">
       <c r="A127" s="23"/>
       <c r="B127" s="2">
         <v>2</v>
@@ -10685,7 +10701,7 @@
       <c r="L127" s="23"/>
       <c r="M127" s="23"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13">
       <c r="A128" s="23"/>
       <c r="B128" s="2">
         <v>3</v>
@@ -10708,7 +10724,7 @@
       <c r="L128" s="23"/>
       <c r="M128" s="23"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13">
       <c r="A129" s="23"/>
       <c r="B129" s="2">
         <v>4</v>
@@ -10731,7 +10747,7 @@
       <c r="L129" s="23"/>
       <c r="M129" s="23"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13">
       <c r="A130" s="23"/>
       <c r="B130" s="2">
         <v>5</v>
@@ -10754,7 +10770,7 @@
       <c r="L130" s="23"/>
       <c r="M130" s="23"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13">
       <c r="A131" s="23"/>
       <c r="B131" s="31">
         <v>6</v>
@@ -10777,7 +10793,7 @@
       <c r="L131" s="23"/>
       <c r="M131" s="23"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13">
       <c r="A132" s="23"/>
       <c r="B132" s="31">
         <v>7</v>
@@ -10800,7 +10816,7 @@
       <c r="L132" s="23"/>
       <c r="M132" s="23"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13">
       <c r="A133" s="23"/>
       <c r="B133" s="31">
         <v>8</v>
@@ -10823,7 +10839,7 @@
       <c r="L133" s="23"/>
       <c r="M133" s="23"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13">
       <c r="A134" s="23"/>
       <c r="B134" s="23"/>
       <c r="C134" s="23"/>
@@ -10838,7 +10854,7 @@
       <c r="L134" s="23"/>
       <c r="M134" s="23"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13">
       <c r="A135" s="23"/>
       <c r="B135" s="23"/>
       <c r="C135" s="23"/>
@@ -10853,7 +10869,7 @@
       <c r="L135" s="23"/>
       <c r="M135" s="23"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13">
       <c r="A136" s="23"/>
       <c r="B136" s="23"/>
       <c r="C136" s="23"/>
@@ -10868,7 +10884,7 @@
       <c r="L136" s="23"/>
       <c r="M136" s="23"/>
     </row>
-    <row r="137" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" ht="17.25" thickBot="1">
       <c r="A137" s="23"/>
       <c r="B137" s="23"/>
       <c r="C137" s="23"/>
@@ -10883,7 +10899,7 @@
       <c r="L137" s="23"/>
       <c r="M137" s="23"/>
     </row>
-    <row r="138" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" ht="17.25" thickBot="1">
       <c r="A138" s="23"/>
       <c r="B138" s="46" t="s">
         <v>386</v>
@@ -10900,7 +10916,7 @@
       <c r="L138" s="23"/>
       <c r="M138" s="23"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13">
       <c r="A139" s="23"/>
       <c r="B139" s="25" t="s">
         <v>379</v>
@@ -10931,7 +10947,7 @@
       <c r="L139" s="23"/>
       <c r="M139" s="23"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13">
       <c r="A140" s="23"/>
       <c r="B140" s="26">
         <v>1</v>
@@ -10962,7 +10978,7 @@
       <c r="L140" s="23"/>
       <c r="M140" s="23"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13">
       <c r="A141" s="23"/>
       <c r="B141" s="26">
         <v>2</v>
@@ -10985,7 +11001,7 @@
       <c r="L141" s="23"/>
       <c r="M141" s="23"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13">
       <c r="A142" s="23"/>
       <c r="B142" s="26">
         <v>3</v>
@@ -11008,7 +11024,7 @@
       <c r="L142" s="23"/>
       <c r="M142" s="23"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13">
       <c r="A143" s="23"/>
       <c r="B143" s="26">
         <v>4</v>
@@ -11031,7 +11047,7 @@
       <c r="L143" s="23"/>
       <c r="M143" s="23"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13">
       <c r="A144" s="23"/>
       <c r="B144" s="26">
         <v>5</v>
@@ -11054,7 +11070,7 @@
       <c r="L144" s="23"/>
       <c r="M144" s="23"/>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13">
       <c r="A145" s="23"/>
       <c r="B145" s="23"/>
       <c r="C145" s="23"/>
@@ -11069,7 +11085,7 @@
       <c r="L145" s="23"/>
       <c r="M145" s="23"/>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13">
       <c r="A146" s="23"/>
       <c r="B146" s="23"/>
       <c r="C146" s="23"/>
@@ -11084,7 +11100,7 @@
       <c r="L146" s="23"/>
       <c r="M146" s="23"/>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13">
       <c r="A147" s="23"/>
       <c r="B147" s="23"/>
       <c r="C147" s="23"/>
@@ -11099,7 +11115,7 @@
       <c r="L147" s="23"/>
       <c r="M147" s="23"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13">
       <c r="A148" s="23"/>
       <c r="B148" s="23"/>
       <c r="C148" s="23"/>
@@ -11114,7 +11130,7 @@
       <c r="L148" s="23"/>
       <c r="M148" s="23"/>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13">
       <c r="B149" s="23"/>
       <c r="C149" s="23"/>
       <c r="D149" s="23"/>
@@ -11124,7 +11140,7 @@
       <c r="H149" s="29"/>
       <c r="I149" s="29"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13">
       <c r="B150" s="23"/>
       <c r="C150" s="23"/>
       <c r="D150" s="23"/>
@@ -11134,7 +11150,7 @@
       <c r="H150" s="29"/>
       <c r="I150" s="29"/>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13">
       <c r="B151" s="23"/>
       <c r="C151" s="23"/>
       <c r="D151" s="23"/>
@@ -11144,7 +11160,7 @@
       <c r="H151" s="29"/>
       <c r="I151" s="29"/>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13">
       <c r="B152" s="23"/>
       <c r="C152" s="23"/>
       <c r="D152" s="23"/>

--- a/팀작업 테이블명세서.xlsx
+++ b/팀작업 테이블명세서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\NEW_PROJECTS\PROJECT00\team7_project-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5775" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="6930" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="489">
   <si>
     <t>Null허용</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2073,6 +2073,50 @@
   </si>
   <si>
     <t>gsmalltext</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청서의 아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>넘버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto inc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto inc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>edate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enroll_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2080,7 +2124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2165,6 +2209,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -2349,7 +2402,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2452,6 +2505,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2459,9 +2518,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2473,6 +2529,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2482,10 +2541,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2497,10 +2556,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2790,7 +2852,7 @@
       <selection activeCell="B11" sqref="B11:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.75" customWidth="1"/>
@@ -2806,29 +2868,29 @@
     <col min="14" max="14" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="34" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>124</v>
       </c>
@@ -2860,7 +2922,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2889,7 +2951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2914,7 +2976,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2941,7 +3003,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2962,7 +3024,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2981,7 +3043,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -3009,7 +3071,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -3032,7 +3094,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -3055,7 +3117,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3078,7 +3140,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3095,7 +3157,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3114,7 +3176,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3133,7 +3195,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -3152,7 +3214,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -3171,7 +3233,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -3190,20 +3252,20 @@
       <c r="I18" t="s">
         <v>72</v>
       </c>
-      <c r="J18" s="34" t="s">
+      <c r="J18" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="36"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="38"/>
       <c r="Q18" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="J19" s="1" t="s">
         <v>134</v>
@@ -3227,16 +3289,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="37" t="s">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
       <c r="J20" s="2">
         <v>1</v>
       </c>
@@ -3257,7 +3319,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="J21" s="2">
         <v>2</v>
@@ -3279,16 +3341,16 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="34" t="s">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="38"/>
       <c r="J22" s="2">
         <v>3</v>
       </c>
@@ -3305,7 +3367,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>125</v>
       </c>
@@ -3341,7 +3403,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -3379,7 +3441,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>2</v>
       </c>
@@ -3405,7 +3467,7 @@
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>3</v>
       </c>
@@ -3423,20 +3485,20 @@
         <v>18</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="J26" s="38" t="s">
+      <c r="J26" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="41"/>
       <c r="Q26" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>4</v>
       </c>
@@ -3474,7 +3536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>5</v>
       </c>
@@ -3510,7 +3572,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>6</v>
       </c>
@@ -3546,7 +3608,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J30" s="2">
         <v>3</v>
       </c>
@@ -3563,30 +3625,30 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="34" t="s">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="36"/>
-      <c r="J33" s="34" t="s">
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="38"/>
+      <c r="J33" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="36"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="38"/>
       <c r="Q33" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>126</v>
       </c>
@@ -3630,7 +3692,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -3672,7 +3734,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>2</v>
       </c>
@@ -3714,7 +3776,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>3</v>
       </c>
@@ -3746,7 +3808,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>4</v>
       </c>
@@ -3778,7 +3840,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>5</v>
       </c>
@@ -3810,7 +3872,7 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>6</v>
       </c>
@@ -3834,7 +3896,7 @@
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>7</v>
       </c>
@@ -3851,7 +3913,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>8</v>
       </c>
@@ -3868,7 +3930,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>9</v>
       </c>
@@ -3885,23 +3947,23 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="H45" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="34" t="s">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="36"/>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="38"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>127</v>
       </c>
@@ -3924,7 +3986,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>1</v>
       </c>
@@ -3947,7 +4009,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>2</v>
       </c>
@@ -3964,7 +4026,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>3</v>
       </c>
@@ -3981,7 +4043,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>4</v>
       </c>
@@ -3998,7 +4060,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>5</v>
       </c>
@@ -4015,36 +4077,36 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="M54" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
-      <c r="A55" s="34" t="s">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="36"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="38"/>
       <c r="H55" t="s">
         <v>136</v>
       </c>
-      <c r="J55" s="34" t="s">
+      <c r="J55" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="36"/>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="38"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>128</v>
       </c>
@@ -4088,7 +4150,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>1</v>
       </c>
@@ -4132,7 +4194,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>2</v>
       </c>
@@ -4168,7 +4230,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>3</v>
       </c>
@@ -4208,7 +4270,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>4</v>
       </c>
@@ -4240,7 +4302,7 @@
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>5</v>
       </c>
@@ -4272,7 +4334,7 @@
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>6</v>
       </c>
@@ -4289,45 +4351,45 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
     </row>
-    <row r="65" spans="1:16">
-      <c r="F65" s="37" t="s">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F65" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="37"/>
-      <c r="K65" s="37"/>
-    </row>
-    <row r="66" spans="1:16">
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M66" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
-      <c r="A67" s="34" t="s">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A67" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="36"/>
-      <c r="J67" s="34" t="s">
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="38"/>
+      <c r="J67" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="K67" s="35"/>
-      <c r="L67" s="35"/>
-      <c r="M67" s="35"/>
-      <c r="N67" s="35"/>
-      <c r="O67" s="35"/>
-      <c r="P67" s="36"/>
-    </row>
-    <row r="68" spans="1:16">
+      <c r="K67" s="37"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="37"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="38"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>129</v>
       </c>
@@ -4371,7 +4433,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>1</v>
       </c>
@@ -4415,7 +4477,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>2</v>
       </c>
@@ -4453,7 +4515,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>3</v>
       </c>
@@ -4489,7 +4551,7 @@
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>4</v>
       </c>
@@ -4521,7 +4583,7 @@
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>5</v>
       </c>
@@ -4553,7 +4615,7 @@
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J74" s="2">
         <v>6</v>
       </c>
@@ -4570,7 +4632,7 @@
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J75" s="2">
         <v>7</v>
       </c>
@@ -4587,7 +4649,7 @@
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J76" s="2">
         <v>8</v>
       </c>
@@ -4604,7 +4666,7 @@
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J77" s="2">
         <v>9</v>
       </c>
@@ -4623,6 +4685,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A33:G33"/>
     <mergeCell ref="J67:P67"/>
     <mergeCell ref="J55:P55"/>
     <mergeCell ref="J18:P18"/>
@@ -4632,11 +4699,6 @@
     <mergeCell ref="A55:G55"/>
     <mergeCell ref="A67:G67"/>
     <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A33:G33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4653,7 +4715,7 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="0.875" customWidth="1"/>
     <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
@@ -4675,42 +4737,42 @@
     <col min="18" max="18" width="11" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18">
-      <c r="C2" s="37" t="s">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C2" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-    </row>
-    <row r="3" spans="2:18">
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-    </row>
-    <row r="4" spans="2:18">
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-    </row>
-    <row r="5" spans="2:18">
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
@@ -4720,7 +4782,7 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="2:18" ht="17.25" thickBot="1">
+    <row r="6" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
@@ -4730,17 +4792,17 @@
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
     </row>
-    <row r="7" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B7" s="41" t="s">
+    <row r="7" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="45"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -4750,7 +4812,7 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>124</v>
       </c>
@@ -4784,7 +4846,7 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>1</v>
       </c>
@@ -4816,7 +4878,7 @@
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>2</v>
       </c>
@@ -4844,7 +4906,7 @@
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>3</v>
       </c>
@@ -4870,7 +4932,7 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>4</v>
       </c>
@@ -4900,7 +4962,7 @@
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>5</v>
       </c>
@@ -4930,7 +4992,7 @@
       <c r="Q13" s="15"/>
       <c r="R13" s="15"/>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>6</v>
       </c>
@@ -4947,18 +5009,18 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="K14" s="45" t="s">
+      <c r="K14" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-    </row>
-    <row r="15" spans="2:18">
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>7</v>
       </c>
@@ -4984,7 +5046,7 @@
       <c r="Q15" s="15"/>
       <c r="R15" s="15"/>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>8</v>
       </c>
@@ -5024,7 +5086,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="2:18">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>9</v>
       </c>
@@ -5064,7 +5126,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="2:18">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>10</v>
       </c>
@@ -5096,7 +5158,7 @@
       <c r="Q18" s="15"/>
       <c r="R18" s="15"/>
     </row>
-    <row r="19" spans="2:18">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>11</v>
       </c>
@@ -5128,7 +5190,7 @@
       <c r="Q19" s="15"/>
       <c r="R19" s="15"/>
     </row>
-    <row r="20" spans="2:18">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -5152,7 +5214,7 @@
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
     </row>
-    <row r="21" spans="2:18">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K21" s="15"/>
       <c r="L21" s="17" t="s">
         <v>239</v>
@@ -5168,7 +5230,7 @@
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K22" s="8"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
@@ -5178,7 +5240,7 @@
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
     </row>
-    <row r="23" spans="2:18">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K23" s="8"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
@@ -5188,7 +5250,7 @@
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
     </row>
-    <row r="24" spans="2:18">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K24" s="8"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
@@ -5198,7 +5260,7 @@
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
     </row>
-    <row r="25" spans="2:18">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K25" s="8"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
@@ -5208,7 +5270,7 @@
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
     </row>
-    <row r="26" spans="2:18" ht="17.25" thickBot="1">
+    <row r="26" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -5228,29 +5290,29 @@
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B27" s="45" t="s">
+    <row r="27" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="K27" s="41" t="s">
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="K27" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="43"/>
-    </row>
-    <row r="28" spans="2:18">
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="45"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B28" s="14"/>
       <c r="C28" s="14" t="s">
         <v>21</v>
@@ -5298,7 +5360,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="2:18">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B29" s="15"/>
       <c r="C29" s="16" t="s">
         <v>246</v>
@@ -5340,7 +5402,7 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
     </row>
-    <row r="30" spans="2:18">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B30" s="15"/>
       <c r="C30" s="16" t="s">
         <v>233</v>
@@ -5374,7 +5436,7 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
     </row>
-    <row r="31" spans="2:18">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K31" s="8"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
@@ -5384,7 +5446,7 @@
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
     </row>
-    <row r="32" spans="2:18">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K32" s="8"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
@@ -5394,7 +5456,7 @@
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
     </row>
-    <row r="33" spans="2:19">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
       <c r="K33" s="8"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
@@ -5404,7 +5466,7 @@
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
     </row>
-    <row r="34" spans="2:19">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
       <c r="K34" s="8"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
@@ -5414,7 +5476,7 @@
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
     </row>
-    <row r="35" spans="2:19" ht="17.25" thickBot="1">
+    <row r="35" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K35" s="8"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
@@ -5424,29 +5486,29 @@
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
     </row>
-    <row r="36" spans="2:19" ht="17.25" thickBot="1">
-      <c r="B36" s="41" t="s">
+    <row r="36" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="43"/>
-      <c r="K36" s="41" t="s">
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="45"/>
+      <c r="K36" s="43" t="s">
         <v>299</v>
       </c>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="43"/>
-    </row>
-    <row r="37" spans="2:19">
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="45"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B37" s="11" t="s">
         <v>125</v>
       </c>
@@ -5496,7 +5558,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="2:19">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B38" s="2">
         <v>1</v>
       </c>
@@ -5542,7 +5604,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="39" spans="2:19">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B39" s="2">
         <v>2</v>
       </c>
@@ -5590,7 +5652,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="40" spans="2:19">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B40" s="2">
         <v>3</v>
       </c>
@@ -5626,7 +5688,7 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
     </row>
-    <row r="41" spans="2:19">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B41" s="2">
         <v>4</v>
       </c>
@@ -5664,7 +5726,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="42" spans="2:19">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
         <v>5</v>
       </c>
@@ -5698,7 +5760,7 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
     </row>
-    <row r="43" spans="2:19">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
         <v>6</v>
       </c>
@@ -5732,7 +5794,7 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
     </row>
-    <row r="44" spans="2:19">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B44" s="2">
         <v>7</v>
       </c>
@@ -5753,7 +5815,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="45" spans="2:19">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B45" s="2">
         <v>8</v>
       </c>
@@ -5771,7 +5833,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="2:19">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B46" s="2">
         <v>9</v>
       </c>
@@ -5789,7 +5851,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="2:19">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <v>10</v>
       </c>
@@ -5807,7 +5869,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="2:19">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B48" s="2">
         <v>11</v>
       </c>
@@ -5825,7 +5887,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="2:19">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B49" s="2">
         <v>12</v>
       </c>
@@ -5843,7 +5905,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="2:19">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B50" s="2">
         <v>13</v>
       </c>
@@ -5861,30 +5923,30 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="52" spans="2:19" ht="17.25" thickBot="1"/>
-    <row r="53" spans="2:19" ht="17.25" thickBot="1">
-      <c r="B53" s="41" t="s">
+    <row r="52" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="43"/>
-      <c r="K53" s="41" t="s">
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="45"/>
+      <c r="K53" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="L53" s="42"/>
-      <c r="M53" s="42"/>
-      <c r="N53" s="42"/>
-      <c r="O53" s="42"/>
-      <c r="P53" s="42"/>
-      <c r="Q53" s="42"/>
-      <c r="R53" s="43"/>
-    </row>
-    <row r="54" spans="2:19">
+      <c r="L53" s="44"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="44"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="44"/>
+      <c r="Q53" s="44"/>
+      <c r="R53" s="45"/>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
         <v>126</v>
       </c>
@@ -5934,7 +5996,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="55" spans="2:19">
+    <row r="55" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B55" s="2">
         <v>1</v>
       </c>
@@ -5980,7 +6042,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="56" spans="2:19">
+    <row r="56" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B56" s="2">
         <v>2</v>
       </c>
@@ -6028,7 +6090,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="57" spans="2:19">
+    <row r="57" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B57" s="2">
         <v>3</v>
       </c>
@@ -6064,7 +6126,7 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
     </row>
-    <row r="58" spans="2:19">
+    <row r="58" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B58" s="2">
         <v>4</v>
       </c>
@@ -6104,7 +6166,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="59" spans="2:19">
+    <row r="59" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B59" s="2">
         <v>5</v>
       </c>
@@ -6140,7 +6202,7 @@
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
     </row>
-    <row r="60" spans="2:19">
+    <row r="60" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B60" s="2">
         <v>6</v>
       </c>
@@ -6174,7 +6236,7 @@
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
     </row>
-    <row r="61" spans="2:19">
+    <row r="61" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B61" s="2">
         <v>7</v>
       </c>
@@ -6195,7 +6257,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="62" spans="2:19">
+    <row r="62" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B62" s="2">
         <v>8</v>
       </c>
@@ -6213,7 +6275,7 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="2:19">
+    <row r="63" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B63" s="2">
         <v>9</v>
       </c>
@@ -6231,7 +6293,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="2:19">
+    <row r="64" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B64" s="2">
         <v>10</v>
       </c>
@@ -6249,7 +6311,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="2:19">
+    <row r="65" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B65" s="2">
         <v>11</v>
       </c>
@@ -6267,33 +6329,33 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="68" spans="2:19" ht="17.25" thickBot="1"/>
-    <row r="69" spans="2:19" ht="17.25" thickBot="1">
-      <c r="B69" s="41" t="s">
+    <row r="68" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="69" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="C69" s="42"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="43"/>
-      <c r="K69" s="41" t="s">
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="45"/>
+      <c r="K69" s="43" t="s">
         <v>286</v>
       </c>
-      <c r="L69" s="42"/>
-      <c r="M69" s="42"/>
-      <c r="N69" s="42"/>
-      <c r="O69" s="42"/>
-      <c r="P69" s="42"/>
-      <c r="Q69" s="42"/>
-      <c r="R69" s="43"/>
+      <c r="L69" s="44"/>
+      <c r="M69" s="44"/>
+      <c r="N69" s="44"/>
+      <c r="O69" s="44"/>
+      <c r="P69" s="44"/>
+      <c r="Q69" s="44"/>
+      <c r="R69" s="45"/>
       <c r="S69" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="70" spans="2:19">
+    <row r="70" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B70" s="11" t="s">
         <v>127</v>
       </c>
@@ -6343,7 +6405,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="71" spans="2:19">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B71" s="2">
         <v>1</v>
       </c>
@@ -6389,7 +6451,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="72" spans="2:19">
+    <row r="72" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B72" s="2">
         <v>2</v>
       </c>
@@ -6431,7 +6493,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="73" spans="2:19">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B73" s="2">
         <v>3</v>
       </c>
@@ -6471,7 +6533,7 @@
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
     </row>
-    <row r="74" spans="2:19">
+    <row r="74" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B74" s="2">
         <v>4</v>
       </c>
@@ -6511,7 +6573,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="75" spans="2:19">
+    <row r="75" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B75" s="2">
         <v>5</v>
       </c>
@@ -6547,7 +6609,7 @@
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
     </row>
-    <row r="76" spans="2:19">
+    <row r="76" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B76" s="2">
         <v>6</v>
       </c>
@@ -6570,30 +6632,30 @@
         <v>358</v>
       </c>
     </row>
-    <row r="79" spans="2:19" ht="17.25" thickBot="1"/>
-    <row r="80" spans="2:19" ht="17.25" thickBot="1">
-      <c r="B80" s="41" t="s">
+    <row r="79" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="43" t="s">
         <v>372</v>
       </c>
-      <c r="C80" s="42"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="42"/>
-      <c r="G80" s="42"/>
-      <c r="H80" s="42"/>
-      <c r="I80" s="43"/>
-      <c r="K80" s="44" t="s">
+      <c r="C80" s="44"/>
+      <c r="D80" s="44"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="44"/>
+      <c r="I80" s="45"/>
+      <c r="K80" s="47" t="s">
         <v>311</v>
       </c>
-      <c r="L80" s="44"/>
-      <c r="M80" s="44"/>
-      <c r="N80" s="44"/>
-      <c r="O80" s="44"/>
-      <c r="P80" s="44"/>
-      <c r="Q80" s="44"/>
-      <c r="R80" s="44"/>
-    </row>
-    <row r="81" spans="2:18">
+      <c r="L80" s="47"/>
+      <c r="M80" s="47"/>
+      <c r="N80" s="47"/>
+      <c r="O80" s="47"/>
+      <c r="P80" s="47"/>
+      <c r="Q80" s="47"/>
+      <c r="R80" s="47"/>
+    </row>
+    <row r="81" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B81" s="11" t="s">
         <v>377</v>
       </c>
@@ -6643,7 +6705,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="2:18">
+    <row r="82" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B82" s="2">
         <v>1</v>
       </c>
@@ -6685,7 +6747,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="83" spans="2:18">
+    <row r="83" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B83" s="2">
         <v>2</v>
       </c>
@@ -6727,7 +6789,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="84" spans="2:18">
+    <row r="84" spans="2:18" x14ac:dyDescent="0.3">
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
@@ -6749,30 +6811,30 @@
       <c r="Q84" s="15"/>
       <c r="R84" s="15"/>
     </row>
-    <row r="87" spans="2:18" ht="17.25" thickBot="1"/>
-    <row r="88" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B88" s="41" t="s">
+    <row r="87" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="88" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="43" t="s">
         <v>313</v>
       </c>
-      <c r="C88" s="42"/>
-      <c r="D88" s="42"/>
-      <c r="E88" s="42"/>
-      <c r="F88" s="42"/>
-      <c r="G88" s="42"/>
-      <c r="H88" s="42"/>
-      <c r="I88" s="43"/>
-      <c r="K88" s="41" t="s">
+      <c r="C88" s="44"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="45"/>
+      <c r="K88" s="43" t="s">
         <v>323</v>
       </c>
-      <c r="L88" s="42"/>
-      <c r="M88" s="42"/>
-      <c r="N88" s="42"/>
-      <c r="O88" s="42"/>
-      <c r="P88" s="42"/>
-      <c r="Q88" s="42"/>
-      <c r="R88" s="43"/>
-    </row>
-    <row r="89" spans="2:18">
+      <c r="L88" s="44"/>
+      <c r="M88" s="44"/>
+      <c r="N88" s="44"/>
+      <c r="O88" s="44"/>
+      <c r="P88" s="44"/>
+      <c r="Q88" s="44"/>
+      <c r="R88" s="45"/>
+    </row>
+    <row r="89" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B89" s="11" t="s">
         <v>380</v>
       </c>
@@ -6822,7 +6884,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="90" spans="2:18">
+    <row r="90" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B90" s="2">
         <v>1</v>
       </c>
@@ -6866,7 +6928,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="91" spans="2:18">
+    <row r="91" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B91" s="2">
         <v>2</v>
       </c>
@@ -6908,7 +6970,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="92" spans="2:18">
+    <row r="92" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K92" s="2">
         <v>3</v>
       </c>
@@ -6926,7 +6988,7 @@
       <c r="Q92" s="2"/>
       <c r="R92" s="2"/>
     </row>
-    <row r="93" spans="2:18" ht="17.25" thickBot="1">
+    <row r="93" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K93" s="2">
         <v>4</v>
       </c>
@@ -6944,17 +7006,17 @@
       <c r="Q93" s="2"/>
       <c r="R93" s="2"/>
     </row>
-    <row r="94" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B94" s="41" t="s">
+    <row r="94" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="43" t="s">
         <v>318</v>
       </c>
-      <c r="C94" s="42"/>
-      <c r="D94" s="42"/>
-      <c r="E94" s="42"/>
-      <c r="F94" s="42"/>
-      <c r="G94" s="42"/>
-      <c r="H94" s="42"/>
-      <c r="I94" s="43"/>
+      <c r="C94" s="44"/>
+      <c r="D94" s="44"/>
+      <c r="E94" s="44"/>
+      <c r="F94" s="44"/>
+      <c r="G94" s="44"/>
+      <c r="H94" s="44"/>
+      <c r="I94" s="45"/>
       <c r="K94" s="2">
         <v>5</v>
       </c>
@@ -6972,7 +7034,7 @@
       <c r="Q94" s="2"/>
       <c r="R94" s="2"/>
     </row>
-    <row r="95" spans="2:18">
+    <row r="95" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B95" s="11" t="s">
         <v>381</v>
       </c>
@@ -6998,7 +7060,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="96" spans="2:18">
+    <row r="96" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B96" s="2">
         <v>1</v>
       </c>
@@ -7020,7 +7082,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="97" spans="2:9">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="2">
         <v>2</v>
       </c>
@@ -7042,20 +7104,20 @@
         <v>319</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="17.25" thickBot="1"/>
-    <row r="100" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B100" s="41" t="s">
+    <row r="99" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="100" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="43" t="s">
         <v>320</v>
       </c>
-      <c r="C100" s="42"/>
-      <c r="D100" s="42"/>
-      <c r="E100" s="42"/>
-      <c r="F100" s="42"/>
-      <c r="G100" s="42"/>
-      <c r="H100" s="42"/>
-      <c r="I100" s="43"/>
-    </row>
-    <row r="101" spans="2:9">
+      <c r="C100" s="44"/>
+      <c r="D100" s="44"/>
+      <c r="E100" s="44"/>
+      <c r="F100" s="44"/>
+      <c r="G100" s="44"/>
+      <c r="H100" s="44"/>
+      <c r="I100" s="45"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="11" t="s">
         <v>382</v>
       </c>
@@ -7081,7 +7143,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="102" spans="2:9">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="2">
         <v>1</v>
       </c>
@@ -7103,7 +7165,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="103" spans="2:9">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="2">
         <v>2</v>
       </c>
@@ -7125,20 +7187,20 @@
         <v>322</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="17.25" thickBot="1"/>
-    <row r="108" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B108" s="41" t="s">
+    <row r="107" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="108" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B108" s="43" t="s">
         <v>338</v>
       </c>
-      <c r="C108" s="42"/>
-      <c r="D108" s="42"/>
-      <c r="E108" s="42"/>
-      <c r="F108" s="42"/>
-      <c r="G108" s="42"/>
-      <c r="H108" s="42"/>
-      <c r="I108" s="43"/>
-    </row>
-    <row r="109" spans="2:9">
+      <c r="C108" s="44"/>
+      <c r="D108" s="44"/>
+      <c r="E108" s="44"/>
+      <c r="F108" s="44"/>
+      <c r="G108" s="44"/>
+      <c r="H108" s="44"/>
+      <c r="I108" s="45"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="11" t="s">
         <v>124</v>
       </c>
@@ -7164,7 +7226,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="110" spans="2:9">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="2">
         <v>1</v>
       </c>
@@ -7190,7 +7252,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="111" spans="2:9">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="2">
         <v>2</v>
       </c>
@@ -7214,7 +7276,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="112" spans="2:9">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="2">
         <v>3</v>
       </c>
@@ -7232,7 +7294,7 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="2:9">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="2">
         <v>4</v>
       </c>
@@ -7250,7 +7312,7 @@
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="2:9">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="2">
         <v>5</v>
       </c>
@@ -7268,7 +7330,7 @@
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="2:9">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="2">
         <v>6</v>
       </c>
@@ -7286,7 +7348,7 @@
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="2:9">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="2">
         <v>7</v>
       </c>
@@ -7304,7 +7366,7 @@
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="2:9">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="2">
         <v>8</v>
       </c>
@@ -7322,20 +7384,20 @@
       <c r="H117" s="3"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="121" spans="2:9" ht="17.25" thickBot="1"/>
-    <row r="122" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B122" s="41" t="s">
+    <row r="121" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B122" s="43" t="s">
         <v>386</v>
       </c>
-      <c r="C122" s="42"/>
-      <c r="D122" s="42"/>
-      <c r="E122" s="42"/>
-      <c r="F122" s="42"/>
-      <c r="G122" s="42"/>
-      <c r="H122" s="42"/>
-      <c r="I122" s="43"/>
-    </row>
-    <row r="123" spans="2:9">
+      <c r="C122" s="44"/>
+      <c r="D122" s="44"/>
+      <c r="E122" s="44"/>
+      <c r="F122" s="44"/>
+      <c r="G122" s="44"/>
+      <c r="H122" s="44"/>
+      <c r="I122" s="45"/>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="11" t="s">
         <v>379</v>
       </c>
@@ -7361,7 +7423,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="124" spans="2:9">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="2">
         <v>1</v>
       </c>
@@ -7387,7 +7449,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="125" spans="2:9">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="2">
         <v>2</v>
       </c>
@@ -7405,7 +7467,7 @@
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="2:9">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="2">
         <v>3</v>
       </c>
@@ -7423,7 +7485,7 @@
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
     </row>
-    <row r="127" spans="2:9">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="2">
         <v>4</v>
       </c>
@@ -7441,7 +7503,7 @@
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="2:9">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="2">
         <v>5</v>
       </c>
@@ -7461,6 +7523,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K36:R36"/>
+    <mergeCell ref="K80:R80"/>
+    <mergeCell ref="B80:I80"/>
     <mergeCell ref="B122:I122"/>
     <mergeCell ref="C2:K4"/>
     <mergeCell ref="B7:I7"/>
@@ -7477,9 +7542,6 @@
     <mergeCell ref="B88:I88"/>
     <mergeCell ref="K69:R69"/>
     <mergeCell ref="K53:R53"/>
-    <mergeCell ref="K36:R36"/>
-    <mergeCell ref="K80:R80"/>
-    <mergeCell ref="B80:I80"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7491,11 +7553,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q106" sqref="Q106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="0.875" customWidth="1"/>
     <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
@@ -7517,46 +7579,46 @@
     <col min="18" max="18" width="11" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2">
         <f ca="1">B2:T132</f>
         <v>0</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-    </row>
-    <row r="3" spans="2:18">
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-    </row>
-    <row r="4" spans="2:18">
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-    </row>
-    <row r="5" spans="2:18">
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
@@ -7566,7 +7628,7 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="2:18" ht="17.25" thickBot="1">
+    <row r="6" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
@@ -7576,17 +7638,17 @@
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
     </row>
-    <row r="7" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B7" s="41" t="s">
+    <row r="7" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="45"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -7596,7 +7658,7 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>124</v>
       </c>
@@ -7630,7 +7692,7 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>1</v>
       </c>
@@ -7662,7 +7724,7 @@
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>2</v>
       </c>
@@ -7690,7 +7752,7 @@
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>3</v>
       </c>
@@ -7716,7 +7778,7 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>4</v>
       </c>
@@ -7746,7 +7808,7 @@
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>5</v>
       </c>
@@ -7776,7 +7838,7 @@
       <c r="Q13" s="19"/>
       <c r="R13" s="19"/>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>6</v>
       </c>
@@ -7793,18 +7855,18 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="K14" s="45" t="s">
+      <c r="K14" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-    </row>
-    <row r="15" spans="2:18">
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>7</v>
       </c>
@@ -7830,7 +7892,7 @@
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>8</v>
       </c>
@@ -7870,7 +7932,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="2:18">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>9</v>
       </c>
@@ -7910,7 +7972,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="2:18">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>10</v>
       </c>
@@ -7942,7 +8004,7 @@
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
     </row>
-    <row r="19" spans="2:18">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>11</v>
       </c>
@@ -7974,7 +8036,7 @@
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
     </row>
-    <row r="20" spans="2:18">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -7998,7 +8060,7 @@
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
     </row>
-    <row r="21" spans="2:18">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K21" s="19"/>
       <c r="L21" s="17" t="s">
         <v>239</v>
@@ -8014,7 +8076,7 @@
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K22" s="8"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
@@ -8024,7 +8086,7 @@
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
     </row>
-    <row r="23" spans="2:18">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K23" s="8"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
@@ -8034,7 +8096,7 @@
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
     </row>
-    <row r="24" spans="2:18">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K24" s="8"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
@@ -8044,7 +8106,7 @@
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
     </row>
-    <row r="25" spans="2:18">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K25" s="8"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
@@ -8054,7 +8116,7 @@
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
     </row>
-    <row r="26" spans="2:18" ht="17.25" thickBot="1">
+    <row r="26" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -8074,29 +8136,29 @@
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B27" s="45" t="s">
+    <row r="27" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="K27" s="41" t="s">
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="K27" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="43"/>
-    </row>
-    <row r="28" spans="2:18">
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="45"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B28" s="14"/>
       <c r="C28" s="14" t="s">
         <v>21</v>
@@ -8144,7 +8206,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="2:18">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B29" s="19"/>
       <c r="C29" s="16" t="s">
         <v>246</v>
@@ -8167,26 +8229,30 @@
       <c r="I29" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="52">
         <v>1</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2" t="s">
+      <c r="L29" s="53" t="s">
+        <v>479</v>
+      </c>
+      <c r="M29" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="N29" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-    </row>
-    <row r="30" spans="2:18">
+      <c r="Q29" s="52" t="s">
+        <v>487</v>
+      </c>
+      <c r="R29" s="52" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B30" s="19"/>
       <c r="C30" s="16" t="s">
         <v>233</v>
@@ -8207,30 +8273,40 @@
         <v>2</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>248</v>
+        <v>16</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
+      <c r="P30" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
     </row>
-    <row r="31" spans="2:18">
-      <c r="K31" s="8"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-    </row>
-    <row r="32" spans="2:18">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="K31" s="2">
+        <v>3</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K32" s="8"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
@@ -8240,7 +8316,7 @@
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
     </row>
-    <row r="33" spans="2:19">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
       <c r="K33" s="8"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
@@ -8250,7 +8326,7 @@
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
     </row>
-    <row r="34" spans="2:19">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
       <c r="K34" s="8"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
@@ -8260,7 +8336,7 @@
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
     </row>
-    <row r="35" spans="2:19" ht="17.25" thickBot="1">
+    <row r="35" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K35" s="8"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
@@ -8270,29 +8346,29 @@
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
     </row>
-    <row r="36" spans="2:19" ht="17.25" thickBot="1">
-      <c r="B36" s="41" t="s">
+    <row r="36" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="43"/>
-      <c r="K36" s="41" t="s">
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="45"/>
+      <c r="K36" s="43" t="s">
         <v>299</v>
       </c>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="43"/>
-    </row>
-    <row r="37" spans="2:19">
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="45"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B37" s="11" t="s">
         <v>125</v>
       </c>
@@ -8342,7 +8418,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="2:19">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B38" s="2">
         <v>1</v>
       </c>
@@ -8388,7 +8464,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="39" spans="2:19">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B39" s="31">
         <v>2</v>
       </c>
@@ -8438,7 +8514,7 @@
       </c>
       <c r="S39" s="28"/>
     </row>
-    <row r="40" spans="2:19">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B40" s="31">
         <v>3</v>
       </c>
@@ -8476,7 +8552,7 @@
       <c r="R40" s="31"/>
       <c r="S40" s="28"/>
     </row>
-    <row r="41" spans="2:19">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B41" s="31">
         <v>4</v>
       </c>
@@ -8516,7 +8592,7 @@
       </c>
       <c r="S41" s="28"/>
     </row>
-    <row r="42" spans="2:19">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B42" s="31">
         <v>5</v>
       </c>
@@ -8552,7 +8628,7 @@
       <c r="R42" s="31"/>
       <c r="S42" s="28"/>
     </row>
-    <row r="43" spans="2:19">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B43" s="31">
         <v>6</v>
       </c>
@@ -8588,7 +8664,7 @@
       <c r="R43" s="31"/>
       <c r="S43" s="28"/>
     </row>
-    <row r="44" spans="2:19">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B44" s="31">
         <v>7</v>
       </c>
@@ -8626,7 +8702,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="45" spans="2:19">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B45" s="31">
         <v>8</v>
       </c>
@@ -8654,7 +8730,7 @@
       <c r="R45" s="29"/>
       <c r="S45" s="28"/>
     </row>
-    <row r="46" spans="2:19">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B46" s="31">
         <v>9</v>
       </c>
@@ -8682,7 +8758,7 @@
       <c r="R46" s="29"/>
       <c r="S46" s="28"/>
     </row>
-    <row r="47" spans="2:19">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B47" s="31">
         <v>10</v>
       </c>
@@ -8710,7 +8786,7 @@
       <c r="R47" s="29"/>
       <c r="S47" s="28"/>
     </row>
-    <row r="48" spans="2:19">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B48" s="31">
         <v>11</v>
       </c>
@@ -8738,17 +8814,17 @@
       <c r="R48" s="29"/>
       <c r="S48" s="28"/>
     </row>
-    <row r="49" spans="2:19">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B49" s="20">
         <v>12</v>
       </c>
-      <c r="C49" s="50" t="s">
+      <c r="C49" s="35" t="s">
         <v>471</v>
       </c>
-      <c r="D49" s="50" t="s">
+      <c r="D49" s="35" t="s">
         <v>473</v>
       </c>
-      <c r="E49" s="50" t="s">
+      <c r="E49" s="35" t="s">
         <v>475</v>
       </c>
       <c r="F49" s="20"/>
@@ -8766,17 +8842,17 @@
       <c r="R49" s="29"/>
       <c r="S49" s="28"/>
     </row>
-    <row r="50" spans="2:19">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B50" s="20">
         <v>13</v>
       </c>
-      <c r="C50" s="50" t="s">
+      <c r="C50" s="35" t="s">
         <v>472</v>
       </c>
-      <c r="D50" s="50" t="s">
+      <c r="D50" s="35" t="s">
         <v>474</v>
       </c>
-      <c r="E50" s="50" t="s">
+      <c r="E50" s="35" t="s">
         <v>475</v>
       </c>
       <c r="F50" s="20"/>
@@ -8794,17 +8870,17 @@
       <c r="R50" s="29"/>
       <c r="S50" s="28"/>
     </row>
-    <row r="51" spans="2:19" ht="18" customHeight="1">
+    <row r="51" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="20">
         <v>14</v>
       </c>
-      <c r="C51" s="50" t="s">
+      <c r="C51" s="35" t="s">
         <v>476</v>
       </c>
-      <c r="D51" s="50" t="s">
+      <c r="D51" s="35" t="s">
         <v>477</v>
       </c>
-      <c r="E51" s="50" t="s">
+      <c r="E51" s="35" t="s">
         <v>468</v>
       </c>
       <c r="F51" s="20"/>
@@ -8822,7 +8898,7 @@
       <c r="R51" s="29"/>
       <c r="S51" s="28"/>
     </row>
-    <row r="52" spans="2:19" ht="17.25" thickBot="1">
+    <row r="52" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="31">
         <v>15</v>
       </c>
@@ -8850,7 +8926,7 @@
       <c r="R52" s="29"/>
       <c r="S52" s="28"/>
     </row>
-    <row r="53" spans="2:19" ht="17.25" thickBot="1">
+    <row r="53" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="31">
         <v>16</v>
       </c>
@@ -8868,19 +8944,19 @@
       <c r="H53" s="31"/>
       <c r="I53" s="31"/>
       <c r="J53" s="28"/>
-      <c r="K53" s="46" t="s">
+      <c r="K53" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="L53" s="47"/>
-      <c r="M53" s="47"/>
-      <c r="N53" s="47"/>
-      <c r="O53" s="47"/>
-      <c r="P53" s="47"/>
-      <c r="Q53" s="47"/>
-      <c r="R53" s="48"/>
+      <c r="L53" s="49"/>
+      <c r="M53" s="49"/>
+      <c r="N53" s="49"/>
+      <c r="O53" s="49"/>
+      <c r="P53" s="49"/>
+      <c r="Q53" s="49"/>
+      <c r="R53" s="50"/>
       <c r="S53" s="28"/>
     </row>
-    <row r="54" spans="2:19">
+    <row r="54" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B54" s="28"/>
       <c r="C54" s="28"/>
       <c r="D54" s="28"/>
@@ -8916,7 +8992,7 @@
       </c>
       <c r="S54" s="28"/>
     </row>
-    <row r="55" spans="2:19" ht="17.25" thickBot="1">
+    <row r="55" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
       <c r="D55" s="28"/>
@@ -8948,17 +9024,17 @@
       </c>
       <c r="S55" s="28"/>
     </row>
-    <row r="56" spans="2:19" ht="17.25" thickBot="1">
-      <c r="B56" s="46" t="s">
+    <row r="56" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="48"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="50"/>
       <c r="J56" s="28"/>
       <c r="K56" s="31">
         <v>2</v>
@@ -8986,7 +9062,7 @@
       </c>
       <c r="S56" s="28"/>
     </row>
-    <row r="57" spans="2:19">
+    <row r="57" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B57" s="25" t="s">
         <v>126</v>
       </c>
@@ -9030,7 +9106,7 @@
       <c r="R57" s="31"/>
       <c r="S57" s="28"/>
     </row>
-    <row r="58" spans="2:19">
+    <row r="58" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B58" s="26">
         <v>1</v>
       </c>
@@ -9078,7 +9154,7 @@
       </c>
       <c r="S58" s="28"/>
     </row>
-    <row r="59" spans="2:19">
+    <row r="59" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B59" s="26">
         <v>2</v>
       </c>
@@ -9120,7 +9196,7 @@
       <c r="R59" s="26"/>
       <c r="S59" s="28"/>
     </row>
-    <row r="60" spans="2:19">
+    <row r="60" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B60" s="26">
         <v>3</v>
       </c>
@@ -9156,7 +9232,7 @@
       <c r="R60" s="26"/>
       <c r="S60" s="28"/>
     </row>
-    <row r="61" spans="2:19">
+    <row r="61" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B61" s="26">
         <v>4</v>
       </c>
@@ -9196,7 +9272,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="62" spans="2:19">
+    <row r="62" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B62" s="26">
         <v>5</v>
       </c>
@@ -9226,7 +9302,7 @@
       <c r="R62" s="29"/>
       <c r="S62" s="28"/>
     </row>
-    <row r="63" spans="2:19">
+    <row r="63" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B63" s="26">
         <v>6</v>
       </c>
@@ -9256,7 +9332,7 @@
       <c r="R63" s="29"/>
       <c r="S63" s="28"/>
     </row>
-    <row r="64" spans="2:19">
+    <row r="64" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B64" s="26">
         <v>7</v>
       </c>
@@ -9286,7 +9362,7 @@
       <c r="R64" s="29"/>
       <c r="S64" s="28"/>
     </row>
-    <row r="65" spans="2:19">
+    <row r="65" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B65" s="22">
         <v>8</v>
       </c>
@@ -9316,7 +9392,7 @@
       <c r="R65" s="29"/>
       <c r="S65" s="28"/>
     </row>
-    <row r="66" spans="2:19">
+    <row r="66" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B66" s="26">
         <v>9</v>
       </c>
@@ -9346,7 +9422,7 @@
       <c r="R66" s="29"/>
       <c r="S66" s="28"/>
     </row>
-    <row r="67" spans="2:19">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B67" s="26">
         <v>10</v>
       </c>
@@ -9376,7 +9452,7 @@
       <c r="R67" s="29"/>
       <c r="S67" s="28"/>
     </row>
-    <row r="68" spans="2:19" ht="17.25" thickBot="1">
+    <row r="68" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B68" s="26">
         <v>11</v>
       </c>
@@ -9406,7 +9482,7 @@
       <c r="R68" s="29"/>
       <c r="S68" s="28"/>
     </row>
-    <row r="69" spans="2:19" ht="17.25" thickBot="1">
+    <row r="69" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="26">
         <v>12</v>
       </c>
@@ -9426,21 +9502,21 @@
       <c r="H69" s="26"/>
       <c r="I69" s="26"/>
       <c r="J69" s="28"/>
-      <c r="K69" s="46" t="s">
+      <c r="K69" s="48" t="s">
         <v>286</v>
       </c>
-      <c r="L69" s="47"/>
-      <c r="M69" s="47"/>
-      <c r="N69" s="47"/>
-      <c r="O69" s="47"/>
-      <c r="P69" s="47"/>
-      <c r="Q69" s="47"/>
-      <c r="R69" s="48"/>
+      <c r="L69" s="49"/>
+      <c r="M69" s="49"/>
+      <c r="N69" s="49"/>
+      <c r="O69" s="49"/>
+      <c r="P69" s="49"/>
+      <c r="Q69" s="49"/>
+      <c r="R69" s="50"/>
       <c r="S69" s="28" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="70" spans="2:19">
+    <row r="70" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B70" s="26">
         <v>13</v>
       </c>
@@ -9486,7 +9562,7 @@
       </c>
       <c r="S70" s="28"/>
     </row>
-    <row r="71" spans="2:19">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B71" s="26">
         <v>15</v>
       </c>
@@ -9526,7 +9602,7 @@
       </c>
       <c r="S71" s="28"/>
     </row>
-    <row r="72" spans="2:19">
+    <row r="72" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B72" s="26">
         <v>16</v>
       </c>
@@ -9572,7 +9648,7 @@
       </c>
       <c r="S72" s="28"/>
     </row>
-    <row r="73" spans="2:19">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B73" s="26">
         <v>17</v>
       </c>
@@ -9608,14 +9684,14 @@
       <c r="R73" s="26"/>
       <c r="S73" s="28"/>
     </row>
-    <row r="74" spans="2:19">
+    <row r="74" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B74" s="22">
         <v>18</v>
       </c>
-      <c r="C74" s="49" t="s">
+      <c r="C74" s="34" t="s">
         <v>463</v>
       </c>
-      <c r="D74" s="49" t="s">
+      <c r="D74" s="34" t="s">
         <v>465</v>
       </c>
       <c r="E74" s="21" t="s">
@@ -9650,14 +9726,14 @@
       </c>
       <c r="S74" s="28"/>
     </row>
-    <row r="75" spans="2:19">
+    <row r="75" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B75" s="22">
         <v>19</v>
       </c>
-      <c r="C75" s="49" t="s">
+      <c r="C75" s="34" t="s">
         <v>464</v>
       </c>
-      <c r="D75" s="49" t="s">
+      <c r="D75" s="34" t="s">
         <v>466</v>
       </c>
       <c r="E75" s="21" t="s">
@@ -9688,7 +9764,7 @@
       <c r="R75" s="26"/>
       <c r="S75" s="28"/>
     </row>
-    <row r="76" spans="2:19">
+    <row r="76" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B76" s="28"/>
       <c r="C76" s="33" t="s">
         <v>462</v>
@@ -9720,7 +9796,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="77" spans="2:19">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
       <c r="D77" s="28"/>
@@ -9740,7 +9816,7 @@
       <c r="R77" s="29"/>
       <c r="S77" s="28"/>
     </row>
-    <row r="78" spans="2:19" ht="17.25" thickBot="1">
+    <row r="78" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
       <c r="D78" s="28"/>
@@ -9760,17 +9836,17 @@
       <c r="R78" s="29"/>
       <c r="S78" s="28"/>
     </row>
-    <row r="79" spans="2:19" ht="17.25" thickBot="1">
-      <c r="B79" s="46" t="s">
+    <row r="79" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="C79" s="47"/>
-      <c r="D79" s="47"/>
-      <c r="E79" s="47"/>
-      <c r="F79" s="47"/>
-      <c r="G79" s="47"/>
-      <c r="H79" s="47"/>
-      <c r="I79" s="48"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="49"/>
+      <c r="F79" s="49"/>
+      <c r="G79" s="49"/>
+      <c r="H79" s="49"/>
+      <c r="I79" s="50"/>
       <c r="J79" s="28"/>
       <c r="K79" s="28"/>
       <c r="L79" s="28"/>
@@ -9782,7 +9858,7 @@
       <c r="R79" s="29"/>
       <c r="S79" s="28"/>
     </row>
-    <row r="80" spans="2:19">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B80" s="25" t="s">
         <v>127</v>
       </c>
@@ -9808,7 +9884,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="81" spans="2:18">
+    <row r="81" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B81" s="26">
         <v>1</v>
       </c>
@@ -9834,7 +9910,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="82" spans="2:18">
+    <row r="82" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B82" s="26">
         <v>2</v>
       </c>
@@ -9854,7 +9930,7 @@
       <c r="H82" s="26"/>
       <c r="I82" s="26"/>
     </row>
-    <row r="83" spans="2:18">
+    <row r="83" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B83" s="26">
         <v>3</v>
       </c>
@@ -9876,7 +9952,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="84" spans="2:18">
+    <row r="84" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B84" s="26">
         <v>4</v>
       </c>
@@ -9894,7 +9970,7 @@
       <c r="H84" s="26"/>
       <c r="I84" s="26"/>
     </row>
-    <row r="85" spans="2:18">
+    <row r="85" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B85" s="26">
         <v>5</v>
       </c>
@@ -9912,7 +9988,7 @@
       <c r="H85" s="26"/>
       <c r="I85" s="26"/>
     </row>
-    <row r="86" spans="2:18">
+    <row r="86" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B86" s="26">
         <v>6</v>
       </c>
@@ -9929,18 +10005,18 @@
       <c r="G86" s="26"/>
       <c r="H86" s="26"/>
       <c r="I86" s="26"/>
-      <c r="K86" s="44" t="s">
+      <c r="K86" s="47" t="s">
         <v>311</v>
       </c>
-      <c r="L86" s="44"/>
-      <c r="M86" s="44"/>
-      <c r="N86" s="44"/>
-      <c r="O86" s="44"/>
-      <c r="P86" s="44"/>
-      <c r="Q86" s="44"/>
-      <c r="R86" s="44"/>
-    </row>
-    <row r="87" spans="2:18">
+      <c r="L86" s="47"/>
+      <c r="M86" s="47"/>
+      <c r="N86" s="47"/>
+      <c r="O86" s="47"/>
+      <c r="P86" s="47"/>
+      <c r="Q86" s="47"/>
+      <c r="R86" s="47"/>
+    </row>
+    <row r="87" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B87" s="26">
         <v>7</v>
       </c>
@@ -9982,7 +10058,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="88" spans="2:18">
+    <row r="88" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B88" s="26">
         <v>8</v>
       </c>
@@ -10020,7 +10096,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="89" spans="2:18">
+    <row r="89" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B89" s="26">
         <v>9</v>
       </c>
@@ -10058,7 +10134,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="90" spans="2:18">
+    <row r="90" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B90" s="26">
         <v>10</v>
       </c>
@@ -10092,7 +10168,7 @@
       <c r="Q90" s="19"/>
       <c r="R90" s="19"/>
     </row>
-    <row r="91" spans="2:18">
+    <row r="91" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B91" s="26">
         <v>11</v>
       </c>
@@ -10110,7 +10186,7 @@
       <c r="H91" s="26"/>
       <c r="I91" s="26"/>
     </row>
-    <row r="92" spans="2:18">
+    <row r="92" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B92" s="26">
         <v>12</v>
       </c>
@@ -10128,7 +10204,7 @@
       <c r="H92" s="26"/>
       <c r="I92" s="26"/>
     </row>
-    <row r="93" spans="2:18" ht="17.25" thickBot="1">
+    <row r="93" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B93" s="23"/>
       <c r="C93" s="23"/>
       <c r="D93" s="23"/>
@@ -10138,7 +10214,7 @@
       <c r="H93" s="24"/>
       <c r="I93" s="24"/>
     </row>
-    <row r="94" spans="2:18" ht="17.25" thickBot="1">
+    <row r="94" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B94" s="23"/>
       <c r="C94" s="23"/>
       <c r="D94" s="23"/>
@@ -10147,18 +10223,18 @@
       <c r="G94" s="24"/>
       <c r="H94" s="24"/>
       <c r="I94" s="24"/>
-      <c r="K94" s="41" t="s">
+      <c r="K94" s="43" t="s">
         <v>323</v>
       </c>
-      <c r="L94" s="42"/>
-      <c r="M94" s="42"/>
-      <c r="N94" s="42"/>
-      <c r="O94" s="42"/>
-      <c r="P94" s="42"/>
-      <c r="Q94" s="42"/>
-      <c r="R94" s="43"/>
-    </row>
-    <row r="95" spans="2:18" ht="17.25" thickBot="1">
+      <c r="L94" s="44"/>
+      <c r="M94" s="44"/>
+      <c r="N94" s="44"/>
+      <c r="O94" s="44"/>
+      <c r="P94" s="44"/>
+      <c r="Q94" s="44"/>
+      <c r="R94" s="45"/>
+    </row>
+    <row r="95" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K95" s="11" t="s">
         <v>379</v>
       </c>
@@ -10184,41 +10260,39 @@
         <v>225</v>
       </c>
     </row>
-    <row r="96" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B96" s="41" t="s">
+    <row r="96" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="43" t="s">
         <v>372</v>
       </c>
-      <c r="C96" s="42"/>
-      <c r="D96" s="42"/>
-      <c r="E96" s="42"/>
-      <c r="F96" s="42"/>
-      <c r="G96" s="42"/>
-      <c r="H96" s="42"/>
-      <c r="I96" s="43"/>
-      <c r="K96" s="2">
+      <c r="C96" s="44"/>
+      <c r="D96" s="44"/>
+      <c r="E96" s="44"/>
+      <c r="F96" s="44"/>
+      <c r="G96" s="44"/>
+      <c r="H96" s="44"/>
+      <c r="I96" s="45"/>
+      <c r="K96" s="20">
         <v>1</v>
       </c>
-      <c r="L96" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="M96" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="N96" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="O96" s="2"/>
-      <c r="P96" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q96" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="R96" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="97" spans="2:18">
+      <c r="L96" s="51" t="s">
+        <v>478</v>
+      </c>
+      <c r="M96" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="N96" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="O96" s="22"/>
+      <c r="P96" s="22"/>
+      <c r="Q96" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="R96" s="22" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="97" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B97" s="11" t="s">
         <v>377</v>
       </c>
@@ -10243,135 +10317,197 @@
       <c r="I97" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="K97" s="2">
+      <c r="K97" s="22">
         <v>2</v>
       </c>
-      <c r="L97" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="M97" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="N97" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="O97" s="2"/>
-      <c r="P97" s="2"/>
-      <c r="Q97" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="R97" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="98" spans="2:18">
-      <c r="B98" s="2">
+      <c r="L97" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="M97" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="N97" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="O97" s="22"/>
+      <c r="P97" s="22"/>
+      <c r="Q97" s="22"/>
+      <c r="R97" s="22"/>
+    </row>
+    <row r="98" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B98" s="20">
         <v>1</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E98" s="3" t="s">
+      <c r="C98" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E98" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>290</v>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="I98" s="22" t="s">
+        <v>260</v>
       </c>
       <c r="K98" s="2">
         <v>3</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>335</v>
+        <v>209</v>
       </c>
       <c r="N98" s="3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="O98" s="2"/>
-      <c r="P98" s="2"/>
-      <c r="Q98" s="2"/>
-      <c r="R98" s="2"/>
-    </row>
-    <row r="99" spans="2:18">
+      <c r="P98" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q98" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R98" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="99" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B99" s="2">
         <v>2</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>282</v>
+        <v>136</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>283</v>
+        <v>209</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>232</v>
+        <v>139</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2" t="s">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>251</v>
+        <v>290</v>
       </c>
       <c r="K99" s="2">
         <v>4</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="N99" s="3" t="s">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
-      <c r="Q99" s="2"/>
-      <c r="R99" s="2"/>
-    </row>
-    <row r="100" spans="2:18">
+      <c r="Q99" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R99" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="100" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B100" s="2">
+        <v>3</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>251</v>
+      </c>
       <c r="K100" s="2">
         <v>5</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="N100" s="3" t="s">
-        <v>258</v>
+        <v>53</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
       <c r="R100" s="2"/>
     </row>
-    <row r="103" spans="2:18" ht="17.25" thickBot="1"/>
-    <row r="104" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B104" s="41" t="s">
+    <row r="101" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="K101" s="2">
+        <v>6</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="2"/>
+    </row>
+    <row r="102" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="K102" s="2">
+        <v>7</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="2"/>
+      <c r="R102" s="2"/>
+    </row>
+    <row r="103" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="104" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B104" s="43" t="s">
         <v>313</v>
       </c>
-      <c r="C104" s="42"/>
-      <c r="D104" s="42"/>
-      <c r="E104" s="42"/>
-      <c r="F104" s="42"/>
-      <c r="G104" s="42"/>
-      <c r="H104" s="42"/>
-      <c r="I104" s="43"/>
-    </row>
-    <row r="105" spans="2:18">
+      <c r="C104" s="44"/>
+      <c r="D104" s="44"/>
+      <c r="E104" s="44"/>
+      <c r="F104" s="44"/>
+      <c r="G104" s="44"/>
+      <c r="H104" s="44"/>
+      <c r="I104" s="45"/>
+    </row>
+    <row r="105" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B105" s="11" t="s">
         <v>380</v>
       </c>
@@ -10397,7 +10533,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="106" spans="2:18">
+    <row r="106" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B106" s="2">
         <v>1</v>
       </c>
@@ -10419,7 +10555,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="107" spans="2:18">
+    <row r="107" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B107" s="2">
         <v>2</v>
       </c>
@@ -10441,20 +10577,20 @@
         <v>302</v>
       </c>
     </row>
-    <row r="109" spans="2:18" ht="17.25" thickBot="1"/>
-    <row r="110" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B110" s="41" t="s">
+    <row r="109" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="110" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B110" s="43" t="s">
         <v>318</v>
       </c>
-      <c r="C110" s="42"/>
-      <c r="D110" s="42"/>
-      <c r="E110" s="42"/>
-      <c r="F110" s="42"/>
-      <c r="G110" s="42"/>
-      <c r="H110" s="42"/>
-      <c r="I110" s="43"/>
-    </row>
-    <row r="111" spans="2:18">
+      <c r="C110" s="44"/>
+      <c r="D110" s="44"/>
+      <c r="E110" s="44"/>
+      <c r="F110" s="44"/>
+      <c r="G110" s="44"/>
+      <c r="H110" s="44"/>
+      <c r="I110" s="45"/>
+    </row>
+    <row r="111" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B111" s="11" t="s">
         <v>381</v>
       </c>
@@ -10480,7 +10616,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="112" spans="2:18">
+    <row r="112" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B112" s="2">
         <v>1</v>
       </c>
@@ -10502,7 +10638,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B113" s="2">
         <v>2</v>
       </c>
@@ -10524,20 +10660,20 @@
         <v>305</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="17.25" thickBot="1"/>
-    <row r="116" spans="1:13" ht="17.25" thickBot="1">
-      <c r="B116" s="41" t="s">
+    <row r="115" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="116" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B116" s="43" t="s">
         <v>320</v>
       </c>
-      <c r="C116" s="42"/>
-      <c r="D116" s="42"/>
-      <c r="E116" s="42"/>
-      <c r="F116" s="42"/>
-      <c r="G116" s="42"/>
-      <c r="H116" s="42"/>
-      <c r="I116" s="43"/>
-    </row>
-    <row r="117" spans="1:13">
+      <c r="C116" s="44"/>
+      <c r="D116" s="44"/>
+      <c r="E116" s="44"/>
+      <c r="F116" s="44"/>
+      <c r="G116" s="44"/>
+      <c r="H116" s="44"/>
+      <c r="I116" s="45"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B117" s="11" t="s">
         <v>382</v>
       </c>
@@ -10563,7 +10699,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B118" s="2">
         <v>1</v>
       </c>
@@ -10585,7 +10721,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B119" s="2">
         <v>2</v>
       </c>
@@ -10607,20 +10743,20 @@
         <v>290</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="17.25" thickBot="1"/>
-    <row r="124" spans="1:13" ht="17.25" thickBot="1">
-      <c r="B124" s="41" t="s">
+    <row r="123" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="124" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B124" s="43" t="s">
         <v>338</v>
       </c>
-      <c r="C124" s="42"/>
-      <c r="D124" s="42"/>
-      <c r="E124" s="42"/>
-      <c r="F124" s="42"/>
-      <c r="G124" s="42"/>
-      <c r="H124" s="42"/>
-      <c r="I124" s="43"/>
-    </row>
-    <row r="125" spans="1:13">
+      <c r="C124" s="44"/>
+      <c r="D124" s="44"/>
+      <c r="E124" s="44"/>
+      <c r="F124" s="44"/>
+      <c r="G124" s="44"/>
+      <c r="H124" s="44"/>
+      <c r="I124" s="45"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B125" s="11" t="s">
         <v>124</v>
       </c>
@@ -10646,7 +10782,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B126" s="2">
         <v>1</v>
       </c>
@@ -10672,7 +10808,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="23"/>
       <c r="B127" s="2">
         <v>2</v>
@@ -10701,7 +10837,7 @@
       <c r="L127" s="23"/>
       <c r="M127" s="23"/>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="23"/>
       <c r="B128" s="2">
         <v>3</v>
@@ -10724,7 +10860,7 @@
       <c r="L128" s="23"/>
       <c r="M128" s="23"/>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="23"/>
       <c r="B129" s="2">
         <v>4</v>
@@ -10747,7 +10883,7 @@
       <c r="L129" s="23"/>
       <c r="M129" s="23"/>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="23"/>
       <c r="B130" s="2">
         <v>5</v>
@@ -10770,7 +10906,7 @@
       <c r="L130" s="23"/>
       <c r="M130" s="23"/>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="23"/>
       <c r="B131" s="31">
         <v>6</v>
@@ -10793,7 +10929,7 @@
       <c r="L131" s="23"/>
       <c r="M131" s="23"/>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="23"/>
       <c r="B132" s="31">
         <v>7</v>
@@ -10816,7 +10952,7 @@
       <c r="L132" s="23"/>
       <c r="M132" s="23"/>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="23"/>
       <c r="B133" s="31">
         <v>8</v>
@@ -10839,7 +10975,7 @@
       <c r="L133" s="23"/>
       <c r="M133" s="23"/>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="23"/>
       <c r="B134" s="23"/>
       <c r="C134" s="23"/>
@@ -10854,7 +10990,7 @@
       <c r="L134" s="23"/>
       <c r="M134" s="23"/>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" s="23"/>
       <c r="B135" s="23"/>
       <c r="C135" s="23"/>
@@ -10869,7 +11005,7 @@
       <c r="L135" s="23"/>
       <c r="M135" s="23"/>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" s="23"/>
       <c r="B136" s="23"/>
       <c r="C136" s="23"/>
@@ -10884,7 +11020,7 @@
       <c r="L136" s="23"/>
       <c r="M136" s="23"/>
     </row>
-    <row r="137" spans="1:13" ht="17.25" thickBot="1">
+    <row r="137" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="23"/>
       <c r="B137" s="23"/>
       <c r="C137" s="23"/>
@@ -10899,24 +11035,24 @@
       <c r="L137" s="23"/>
       <c r="M137" s="23"/>
     </row>
-    <row r="138" spans="1:13" ht="17.25" thickBot="1">
+    <row r="138" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="23"/>
-      <c r="B138" s="46" t="s">
+      <c r="B138" s="48" t="s">
         <v>386</v>
       </c>
-      <c r="C138" s="47"/>
-      <c r="D138" s="47"/>
-      <c r="E138" s="47"/>
-      <c r="F138" s="47"/>
-      <c r="G138" s="47"/>
-      <c r="H138" s="47"/>
-      <c r="I138" s="48"/>
+      <c r="C138" s="49"/>
+      <c r="D138" s="49"/>
+      <c r="E138" s="49"/>
+      <c r="F138" s="49"/>
+      <c r="G138" s="49"/>
+      <c r="H138" s="49"/>
+      <c r="I138" s="50"/>
       <c r="J138" s="23"/>
       <c r="K138" s="23"/>
       <c r="L138" s="23"/>
       <c r="M138" s="23"/>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="23"/>
       <c r="B139" s="25" t="s">
         <v>379</v>
@@ -10947,7 +11083,7 @@
       <c r="L139" s="23"/>
       <c r="M139" s="23"/>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="23"/>
       <c r="B140" s="26">
         <v>1</v>
@@ -10978,7 +11114,7 @@
       <c r="L140" s="23"/>
       <c r="M140" s="23"/>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="23"/>
       <c r="B141" s="26">
         <v>2</v>
@@ -11001,7 +11137,7 @@
       <c r="L141" s="23"/>
       <c r="M141" s="23"/>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="23"/>
       <c r="B142" s="26">
         <v>3</v>
@@ -11024,7 +11160,7 @@
       <c r="L142" s="23"/>
       <c r="M142" s="23"/>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="23"/>
       <c r="B143" s="26">
         <v>4</v>
@@ -11047,7 +11183,7 @@
       <c r="L143" s="23"/>
       <c r="M143" s="23"/>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" s="23"/>
       <c r="B144" s="26">
         <v>5</v>
@@ -11070,7 +11206,7 @@
       <c r="L144" s="23"/>
       <c r="M144" s="23"/>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" s="23"/>
       <c r="B145" s="23"/>
       <c r="C145" s="23"/>
@@ -11085,7 +11221,7 @@
       <c r="L145" s="23"/>
       <c r="M145" s="23"/>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" s="23"/>
       <c r="B146" s="23"/>
       <c r="C146" s="23"/>
@@ -11100,7 +11236,7 @@
       <c r="L146" s="23"/>
       <c r="M146" s="23"/>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" s="23"/>
       <c r="B147" s="23"/>
       <c r="C147" s="23"/>
@@ -11115,7 +11251,7 @@
       <c r="L147" s="23"/>
       <c r="M147" s="23"/>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" s="23"/>
       <c r="B148" s="23"/>
       <c r="C148" s="23"/>
@@ -11130,7 +11266,7 @@
       <c r="L148" s="23"/>
       <c r="M148" s="23"/>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B149" s="23"/>
       <c r="C149" s="23"/>
       <c r="D149" s="23"/>
@@ -11140,7 +11276,7 @@
       <c r="H149" s="29"/>
       <c r="I149" s="29"/>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B150" s="23"/>
       <c r="C150" s="23"/>
       <c r="D150" s="23"/>
@@ -11150,7 +11286,7 @@
       <c r="H150" s="29"/>
       <c r="I150" s="29"/>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B151" s="23"/>
       <c r="C151" s="23"/>
       <c r="D151" s="23"/>
@@ -11160,7 +11296,7 @@
       <c r="H151" s="29"/>
       <c r="I151" s="29"/>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B152" s="23"/>
       <c r="C152" s="23"/>
       <c r="D152" s="23"/>
@@ -11172,13 +11308,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="K36:R36"/>
-    <mergeCell ref="C2:K4"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="K14:R14"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="K27:R27"/>
     <mergeCell ref="B138:I138"/>
     <mergeCell ref="B56:I56"/>
     <mergeCell ref="K53:R53"/>
@@ -11191,6 +11320,13 @@
     <mergeCell ref="B110:I110"/>
     <mergeCell ref="B116:I116"/>
     <mergeCell ref="B124:I124"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="K36:R36"/>
+    <mergeCell ref="C2:K4"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="K14:R14"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="K27:R27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/팀작업 테이블명세서.xlsx
+++ b/팀작업 테이블명세서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6930" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="8085" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="493">
   <si>
     <t>Null허용</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2117,6 +2117,22 @@
   </si>
   <si>
     <t>pk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찜 아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2402,7 +2418,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2511,6 +2527,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2518,6 +2546,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2529,9 +2560,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2541,10 +2569,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2555,15 +2583,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2869,26 +2888,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -3252,15 +3271,15 @@
       <c r="I18" t="s">
         <v>72</v>
       </c>
-      <c r="J18" s="36" t="s">
+      <c r="J18" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="38"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="42"/>
       <c r="Q18" t="s">
         <v>217</v>
       </c>
@@ -3290,15 +3309,15 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
       <c r="J20" s="2">
         <v>1</v>
       </c>
@@ -3342,15 +3361,15 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="38"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
       <c r="J22" s="2">
         <v>3</v>
       </c>
@@ -3485,15 +3504,15 @@
         <v>18</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="J26" s="39" t="s">
+      <c r="J26" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="41"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="46"/>
       <c r="Q26" t="s">
         <v>218</v>
       </c>
@@ -3626,24 +3645,24 @@
       <c r="P30" s="2"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="38"/>
-      <c r="J33" s="36" t="s">
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="42"/>
+      <c r="J33" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="38"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="42"/>
       <c r="Q33" t="s">
         <v>219</v>
       </c>
@@ -3953,15 +3972,15 @@
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="38"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="42"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
@@ -4084,27 +4103,27 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="36" t="s">
+      <c r="A55" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="38"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="42"/>
       <c r="H55" t="s">
         <v>136</v>
       </c>
-      <c r="J55" s="36" t="s">
+      <c r="J55" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="37"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="38"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="41"/>
+      <c r="N55" s="41"/>
+      <c r="O55" s="41"/>
+      <c r="P55" s="42"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
@@ -4355,14 +4374,14 @@
       <c r="A63" s="4"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F65" s="42" t="s">
+      <c r="F65" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="42"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="43"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M66" t="s">
@@ -4370,24 +4389,24 @@
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A67" s="36" t="s">
+      <c r="A67" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="B67" s="37"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="38"/>
-      <c r="J67" s="36" t="s">
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="42"/>
+      <c r="J67" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="K67" s="37"/>
-      <c r="L67" s="37"/>
-      <c r="M67" s="37"/>
-      <c r="N67" s="37"/>
-      <c r="O67" s="37"/>
-      <c r="P67" s="38"/>
+      <c r="K67" s="41"/>
+      <c r="L67" s="41"/>
+      <c r="M67" s="41"/>
+      <c r="N67" s="41"/>
+      <c r="O67" s="41"/>
+      <c r="P67" s="42"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
@@ -4685,11 +4704,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A33:G33"/>
     <mergeCell ref="J67:P67"/>
     <mergeCell ref="J55:P55"/>
     <mergeCell ref="J18:P18"/>
@@ -4699,6 +4713,11 @@
     <mergeCell ref="A55:G55"/>
     <mergeCell ref="A67:G67"/>
     <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A33:G33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4738,39 +4757,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K5" s="9"/>
@@ -4793,16 +4812,16 @@
       <c r="R6" s="8"/>
     </row>
     <row r="7" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="45"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="49"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -5009,16 +5028,16 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="K14" s="46" t="s">
+      <c r="K14" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
@@ -5291,26 +5310,26 @@
       <c r="R26" s="8"/>
     </row>
     <row r="27" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="K27" s="43" t="s">
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="K27" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="45"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="49"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B28" s="14"/>
@@ -5487,26 +5506,26 @@
       <c r="R35" s="8"/>
     </row>
     <row r="36" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="45"/>
-      <c r="K36" s="43" t="s">
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="49"/>
+      <c r="K36" s="47" t="s">
         <v>299</v>
       </c>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="44"/>
-      <c r="Q36" s="44"/>
-      <c r="R36" s="45"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="49"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B37" s="11" t="s">
@@ -5925,26 +5944,26 @@
     </row>
     <row r="52" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="53" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="45"/>
-      <c r="K53" s="43" t="s">
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="49"/>
+      <c r="K53" s="47" t="s">
         <v>300</v>
       </c>
-      <c r="L53" s="44"/>
-      <c r="M53" s="44"/>
-      <c r="N53" s="44"/>
-      <c r="O53" s="44"/>
-      <c r="P53" s="44"/>
-      <c r="Q53" s="44"/>
-      <c r="R53" s="45"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="48"/>
+      <c r="Q53" s="48"/>
+      <c r="R53" s="49"/>
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
@@ -6331,26 +6350,26 @@
     </row>
     <row r="68" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="69" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="43" t="s">
+      <c r="B69" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="45"/>
-      <c r="K69" s="43" t="s">
+      <c r="C69" s="48"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="49"/>
+      <c r="K69" s="47" t="s">
         <v>286</v>
       </c>
-      <c r="L69" s="44"/>
-      <c r="M69" s="44"/>
-      <c r="N69" s="44"/>
-      <c r="O69" s="44"/>
-      <c r="P69" s="44"/>
-      <c r="Q69" s="44"/>
-      <c r="R69" s="45"/>
+      <c r="L69" s="48"/>
+      <c r="M69" s="48"/>
+      <c r="N69" s="48"/>
+      <c r="O69" s="48"/>
+      <c r="P69" s="48"/>
+      <c r="Q69" s="48"/>
+      <c r="R69" s="49"/>
       <c r="S69" t="s">
         <v>312</v>
       </c>
@@ -6634,26 +6653,26 @@
     </row>
     <row r="79" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="80" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="43" t="s">
+      <c r="B80" s="47" t="s">
         <v>372</v>
       </c>
-      <c r="C80" s="44"/>
-      <c r="D80" s="44"/>
-      <c r="E80" s="44"/>
-      <c r="F80" s="44"/>
-      <c r="G80" s="44"/>
-      <c r="H80" s="44"/>
-      <c r="I80" s="45"/>
-      <c r="K80" s="47" t="s">
+      <c r="C80" s="48"/>
+      <c r="D80" s="48"/>
+      <c r="E80" s="48"/>
+      <c r="F80" s="48"/>
+      <c r="G80" s="48"/>
+      <c r="H80" s="48"/>
+      <c r="I80" s="49"/>
+      <c r="K80" s="50" t="s">
         <v>311</v>
       </c>
-      <c r="L80" s="47"/>
-      <c r="M80" s="47"/>
-      <c r="N80" s="47"/>
-      <c r="O80" s="47"/>
-      <c r="P80" s="47"/>
-      <c r="Q80" s="47"/>
-      <c r="R80" s="47"/>
+      <c r="L80" s="50"/>
+      <c r="M80" s="50"/>
+      <c r="N80" s="50"/>
+      <c r="O80" s="50"/>
+      <c r="P80" s="50"/>
+      <c r="Q80" s="50"/>
+      <c r="R80" s="50"/>
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B81" s="11" t="s">
@@ -6813,26 +6832,26 @@
     </row>
     <row r="87" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="88" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="43" t="s">
+      <c r="B88" s="47" t="s">
         <v>313</v>
       </c>
-      <c r="C88" s="44"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="44"/>
-      <c r="F88" s="44"/>
-      <c r="G88" s="44"/>
-      <c r="H88" s="44"/>
-      <c r="I88" s="45"/>
-      <c r="K88" s="43" t="s">
+      <c r="C88" s="48"/>
+      <c r="D88" s="48"/>
+      <c r="E88" s="48"/>
+      <c r="F88" s="48"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="49"/>
+      <c r="K88" s="47" t="s">
         <v>323</v>
       </c>
-      <c r="L88" s="44"/>
-      <c r="M88" s="44"/>
-      <c r="N88" s="44"/>
-      <c r="O88" s="44"/>
-      <c r="P88" s="44"/>
-      <c r="Q88" s="44"/>
-      <c r="R88" s="45"/>
+      <c r="L88" s="48"/>
+      <c r="M88" s="48"/>
+      <c r="N88" s="48"/>
+      <c r="O88" s="48"/>
+      <c r="P88" s="48"/>
+      <c r="Q88" s="48"/>
+      <c r="R88" s="49"/>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B89" s="11" t="s">
@@ -7007,16 +7026,16 @@
       <c r="R93" s="2"/>
     </row>
     <row r="94" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="43" t="s">
+      <c r="B94" s="47" t="s">
         <v>318</v>
       </c>
-      <c r="C94" s="44"/>
-      <c r="D94" s="44"/>
-      <c r="E94" s="44"/>
-      <c r="F94" s="44"/>
-      <c r="G94" s="44"/>
-      <c r="H94" s="44"/>
-      <c r="I94" s="45"/>
+      <c r="C94" s="48"/>
+      <c r="D94" s="48"/>
+      <c r="E94" s="48"/>
+      <c r="F94" s="48"/>
+      <c r="G94" s="48"/>
+      <c r="H94" s="48"/>
+      <c r="I94" s="49"/>
       <c r="K94" s="2">
         <v>5</v>
       </c>
@@ -7106,16 +7125,16 @@
     </row>
     <row r="99" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="100" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="43" t="s">
+      <c r="B100" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="C100" s="44"/>
-      <c r="D100" s="44"/>
-      <c r="E100" s="44"/>
-      <c r="F100" s="44"/>
-      <c r="G100" s="44"/>
-      <c r="H100" s="44"/>
-      <c r="I100" s="45"/>
+      <c r="C100" s="48"/>
+      <c r="D100" s="48"/>
+      <c r="E100" s="48"/>
+      <c r="F100" s="48"/>
+      <c r="G100" s="48"/>
+      <c r="H100" s="48"/>
+      <c r="I100" s="49"/>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="11" t="s">
@@ -7189,16 +7208,16 @@
     </row>
     <row r="107" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="108" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="43" t="s">
+      <c r="B108" s="47" t="s">
         <v>338</v>
       </c>
-      <c r="C108" s="44"/>
-      <c r="D108" s="44"/>
-      <c r="E108" s="44"/>
-      <c r="F108" s="44"/>
-      <c r="G108" s="44"/>
-      <c r="H108" s="44"/>
-      <c r="I108" s="45"/>
+      <c r="C108" s="48"/>
+      <c r="D108" s="48"/>
+      <c r="E108" s="48"/>
+      <c r="F108" s="48"/>
+      <c r="G108" s="48"/>
+      <c r="H108" s="48"/>
+      <c r="I108" s="49"/>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="11" t="s">
@@ -7386,16 +7405,16 @@
     </row>
     <row r="121" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="122" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="43" t="s">
+      <c r="B122" s="47" t="s">
         <v>386</v>
       </c>
-      <c r="C122" s="44"/>
-      <c r="D122" s="44"/>
-      <c r="E122" s="44"/>
-      <c r="F122" s="44"/>
-      <c r="G122" s="44"/>
-      <c r="H122" s="44"/>
-      <c r="I122" s="45"/>
+      <c r="C122" s="48"/>
+      <c r="D122" s="48"/>
+      <c r="E122" s="48"/>
+      <c r="F122" s="48"/>
+      <c r="G122" s="48"/>
+      <c r="H122" s="48"/>
+      <c r="I122" s="49"/>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="11" t="s">
@@ -7523,6 +7542,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B88:I88"/>
+    <mergeCell ref="K69:R69"/>
+    <mergeCell ref="K53:R53"/>
     <mergeCell ref="K36:R36"/>
     <mergeCell ref="K80:R80"/>
     <mergeCell ref="B80:I80"/>
@@ -7539,9 +7561,6 @@
     <mergeCell ref="K27:R27"/>
     <mergeCell ref="B53:I53"/>
     <mergeCell ref="B69:I69"/>
-    <mergeCell ref="B88:I88"/>
-    <mergeCell ref="K69:R69"/>
-    <mergeCell ref="K53:R53"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7551,10 +7570,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S152"/>
+  <dimension ref="A2:S154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q106" sqref="Q106"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7581,42 +7600,42 @@
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2">
-        <f ca="1">B2:T132</f>
+        <f ca="1">B2:T134</f>
         <v>0</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K5" s="9"/>
@@ -7639,16 +7658,16 @@
       <c r="R6" s="8"/>
     </row>
     <row r="7" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="45"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="49"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -7855,16 +7874,16 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="K14" s="46" t="s">
+      <c r="K14" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
@@ -8137,26 +8156,26 @@
       <c r="R26" s="8"/>
     </row>
     <row r="27" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="K27" s="43" t="s">
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="K27" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="45"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="49"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B28" s="14"/>
@@ -8229,26 +8248,26 @@
       <c r="I29" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="K29" s="52">
+      <c r="K29" s="38">
         <v>1</v>
       </c>
-      <c r="L29" s="53" t="s">
+      <c r="L29" s="39" t="s">
         <v>479</v>
       </c>
-      <c r="M29" s="53" t="s">
+      <c r="M29" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="N29" s="53" t="s">
+      <c r="N29" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52" t="s">
+      <c r="O29" s="38"/>
+      <c r="P29" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="52" t="s">
+      <c r="Q29" s="38" t="s">
         <v>487</v>
       </c>
-      <c r="R29" s="52" t="s">
+      <c r="R29" s="38" t="s">
         <v>480</v>
       </c>
     </row>
@@ -8347,26 +8366,26 @@
       <c r="R35" s="8"/>
     </row>
     <row r="36" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="45"/>
-      <c r="K36" s="43" t="s">
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="49"/>
+      <c r="K36" s="47" t="s">
         <v>299</v>
       </c>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="44"/>
-      <c r="Q36" s="44"/>
-      <c r="R36" s="45"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="49"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B37" s="11" t="s">
@@ -8944,16 +8963,16 @@
       <c r="H53" s="31"/>
       <c r="I53" s="31"/>
       <c r="J53" s="28"/>
-      <c r="K53" s="48" t="s">
+      <c r="K53" s="52" t="s">
         <v>300</v>
       </c>
-      <c r="L53" s="49"/>
-      <c r="M53" s="49"/>
-      <c r="N53" s="49"/>
-      <c r="O53" s="49"/>
-      <c r="P53" s="49"/>
-      <c r="Q53" s="49"/>
-      <c r="R53" s="50"/>
+      <c r="L53" s="53"/>
+      <c r="M53" s="53"/>
+      <c r="N53" s="53"/>
+      <c r="O53" s="53"/>
+      <c r="P53" s="53"/>
+      <c r="Q53" s="53"/>
+      <c r="R53" s="54"/>
       <c r="S53" s="28"/>
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.3">
@@ -9025,16 +9044,16 @@
       <c r="S55" s="28"/>
     </row>
     <row r="56" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="48" t="s">
+      <c r="B56" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="50"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="54"/>
       <c r="J56" s="28"/>
       <c r="K56" s="31">
         <v>2</v>
@@ -9164,8 +9183,8 @@
       <c r="D59" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="E59" s="27" t="s">
-        <v>28</v>
+      <c r="E59" s="21" t="s">
+        <v>252</v>
       </c>
       <c r="F59" s="26"/>
       <c r="G59" s="26" t="s">
@@ -9197,22 +9216,22 @@
       <c r="S59" s="28"/>
     </row>
     <row r="60" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B60" s="26">
+      <c r="B60" s="22">
         <v>3</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="D60" s="27" t="s">
+      <c r="D60" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="E60" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
+      <c r="E60" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
       <c r="J60" s="28"/>
       <c r="K60" s="26">
         <v>6</v>
@@ -9242,8 +9261,8 @@
       <c r="D61" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="E61" s="27" t="s">
-        <v>28</v>
+      <c r="E61" s="21" t="s">
+        <v>252</v>
       </c>
       <c r="F61" s="26"/>
       <c r="G61" s="26" t="s">
@@ -9282,8 +9301,8 @@
       <c r="D62" s="27" t="s">
         <v>445</v>
       </c>
-      <c r="E62" s="27" t="s">
-        <v>28</v>
+      <c r="E62" s="21" t="s">
+        <v>492</v>
       </c>
       <c r="F62" s="26"/>
       <c r="G62" s="26" t="s">
@@ -9312,8 +9331,8 @@
       <c r="D63" s="27" t="s">
         <v>446</v>
       </c>
-      <c r="E63" s="27" t="s">
-        <v>37</v>
+      <c r="E63" s="21" t="s">
+        <v>252</v>
       </c>
       <c r="F63" s="26"/>
       <c r="G63" s="26" t="s">
@@ -9502,16 +9521,16 @@
       <c r="H69" s="26"/>
       <c r="I69" s="26"/>
       <c r="J69" s="28"/>
-      <c r="K69" s="48" t="s">
+      <c r="K69" s="52" t="s">
         <v>286</v>
       </c>
-      <c r="L69" s="49"/>
-      <c r="M69" s="49"/>
-      <c r="N69" s="49"/>
-      <c r="O69" s="49"/>
-      <c r="P69" s="49"/>
-      <c r="Q69" s="49"/>
-      <c r="R69" s="50"/>
+      <c r="L69" s="53"/>
+      <c r="M69" s="53"/>
+      <c r="N69" s="53"/>
+      <c r="O69" s="53"/>
+      <c r="P69" s="53"/>
+      <c r="Q69" s="53"/>
+      <c r="R69" s="54"/>
       <c r="S69" s="28" t="s">
         <v>312</v>
       </c>
@@ -9837,16 +9856,16 @@
       <c r="S78" s="28"/>
     </row>
     <row r="79" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="48" t="s">
+      <c r="B79" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="C79" s="49"/>
-      <c r="D79" s="49"/>
-      <c r="E79" s="49"/>
-      <c r="F79" s="49"/>
-      <c r="G79" s="49"/>
-      <c r="H79" s="49"/>
-      <c r="I79" s="50"/>
+      <c r="C79" s="53"/>
+      <c r="D79" s="53"/>
+      <c r="E79" s="53"/>
+      <c r="F79" s="53"/>
+      <c r="G79" s="53"/>
+      <c r="H79" s="53"/>
+      <c r="I79" s="54"/>
       <c r="J79" s="28"/>
       <c r="K79" s="28"/>
       <c r="L79" s="28"/>
@@ -10005,16 +10024,16 @@
       <c r="G86" s="26"/>
       <c r="H86" s="26"/>
       <c r="I86" s="26"/>
-      <c r="K86" s="47" t="s">
+      <c r="K86" s="50" t="s">
         <v>311</v>
       </c>
-      <c r="L86" s="47"/>
-      <c r="M86" s="47"/>
-      <c r="N86" s="47"/>
-      <c r="O86" s="47"/>
-      <c r="P86" s="47"/>
-      <c r="Q86" s="47"/>
-      <c r="R86" s="47"/>
+      <c r="L86" s="50"/>
+      <c r="M86" s="50"/>
+      <c r="N86" s="50"/>
+      <c r="O86" s="50"/>
+      <c r="P86" s="50"/>
+      <c r="Q86" s="50"/>
+      <c r="R86" s="50"/>
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B87" s="26">
@@ -10223,16 +10242,16 @@
       <c r="G94" s="24"/>
       <c r="H94" s="24"/>
       <c r="I94" s="24"/>
-      <c r="K94" s="43" t="s">
+      <c r="K94" s="47" t="s">
         <v>323</v>
       </c>
-      <c r="L94" s="44"/>
-      <c r="M94" s="44"/>
-      <c r="N94" s="44"/>
-      <c r="O94" s="44"/>
-      <c r="P94" s="44"/>
-      <c r="Q94" s="44"/>
-      <c r="R94" s="45"/>
+      <c r="L94" s="48"/>
+      <c r="M94" s="48"/>
+      <c r="N94" s="48"/>
+      <c r="O94" s="48"/>
+      <c r="P94" s="48"/>
+      <c r="Q94" s="48"/>
+      <c r="R94" s="49"/>
     </row>
     <row r="95" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K95" s="11" t="s">
@@ -10261,20 +10280,20 @@
       </c>
     </row>
     <row r="96" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="43" t="s">
+      <c r="B96" s="47" t="s">
         <v>372</v>
       </c>
-      <c r="C96" s="44"/>
-      <c r="D96" s="44"/>
-      <c r="E96" s="44"/>
-      <c r="F96" s="44"/>
-      <c r="G96" s="44"/>
-      <c r="H96" s="44"/>
-      <c r="I96" s="45"/>
+      <c r="C96" s="48"/>
+      <c r="D96" s="48"/>
+      <c r="E96" s="48"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="48"/>
+      <c r="H96" s="48"/>
+      <c r="I96" s="49"/>
       <c r="K96" s="20">
         <v>1</v>
       </c>
-      <c r="L96" s="51" t="s">
+      <c r="L96" s="37" t="s">
         <v>478</v>
       </c>
       <c r="M96" s="21" t="s">
@@ -10338,7 +10357,7 @@
       <c r="B98" s="20">
         <v>1</v>
       </c>
-      <c r="C98" s="51" t="s">
+      <c r="C98" s="37" t="s">
         <v>16</v>
       </c>
       <c r="D98" s="21" t="s">
@@ -10496,16 +10515,16 @@
     </row>
     <row r="103" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="104" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="43" t="s">
+      <c r="B104" s="47" t="s">
         <v>313</v>
       </c>
-      <c r="C104" s="44"/>
-      <c r="D104" s="44"/>
-      <c r="E104" s="44"/>
-      <c r="F104" s="44"/>
-      <c r="G104" s="44"/>
-      <c r="H104" s="44"/>
-      <c r="I104" s="45"/>
+      <c r="C104" s="48"/>
+      <c r="D104" s="48"/>
+      <c r="E104" s="48"/>
+      <c r="F104" s="48"/>
+      <c r="G104" s="48"/>
+      <c r="H104" s="48"/>
+      <c r="I104" s="49"/>
     </row>
     <row r="105" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B105" s="11" t="s">
@@ -10534,25 +10553,25 @@
       </c>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B106" s="2">
+      <c r="B106" s="20">
         <v>1</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>251</v>
+      <c r="C106" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="D106" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="E106" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="F106" s="22"/>
+      <c r="G106" s="22"/>
+      <c r="H106" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="I106" s="22" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="107" spans="2:18" x14ac:dyDescent="0.3">
@@ -10560,13 +10579,13 @@
         <v>2</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>195</v>
+        <v>315</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
@@ -10574,310 +10593,338 @@
         <v>138</v>
       </c>
       <c r="I107" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="108" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B108" s="2">
+        <v>3</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I108" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="109" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="110" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="43" t="s">
+      <c r="O108" s="36"/>
+      <c r="P108" s="36"/>
+      <c r="Q108" s="36"/>
+      <c r="R108" s="36"/>
+    </row>
+    <row r="110" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="111" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B111" s="47" t="s">
         <v>318</v>
       </c>
-      <c r="C110" s="44"/>
-      <c r="D110" s="44"/>
-      <c r="E110" s="44"/>
-      <c r="F110" s="44"/>
-      <c r="G110" s="44"/>
-      <c r="H110" s="44"/>
-      <c r="I110" s="45"/>
-    </row>
-    <row r="111" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B111" s="11" t="s">
+      <c r="C111" s="48"/>
+      <c r="D111" s="48"/>
+      <c r="E111" s="48"/>
+      <c r="F111" s="48"/>
+      <c r="G111" s="48"/>
+      <c r="H111" s="48"/>
+      <c r="I111" s="49"/>
+    </row>
+    <row r="112" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B112" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="C111" s="11" t="s">
+      <c r="C112" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D111" s="11" t="s">
+      <c r="D112" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E111" s="11" t="s">
+      <c r="E112" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F111" s="11" t="s">
+      <c r="F112" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G111" s="11" t="s">
+      <c r="G112" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H111" s="11" t="s">
+      <c r="H112" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I111" s="11" t="s">
+      <c r="I112" s="11" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="112" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B112" s="2">
+    <row r="113" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B113" s="20">
         <v>1</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C113" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="D113" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="E113" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="F113" s="22"/>
+      <c r="G113" s="22"/>
+      <c r="H113" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="I113" s="22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="114" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B114" s="2">
+        <v>2</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D114" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="E114" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I112" s="2" t="s">
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I114" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B113" s="2">
+    <row r="115" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B115" s="2">
+        <v>3</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="O115" s="36"/>
+      <c r="P115" s="36"/>
+      <c r="Q115" s="36"/>
+      <c r="R115" s="36"/>
+    </row>
+    <row r="117" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="118" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B118" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="C118" s="48"/>
+      <c r="D118" s="48"/>
+      <c r="E118" s="48"/>
+      <c r="F118" s="48"/>
+      <c r="G118" s="48"/>
+      <c r="H118" s="48"/>
+      <c r="I118" s="49"/>
+    </row>
+    <row r="119" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B119" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G119" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I119" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="120" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B120" s="20">
+        <v>1</v>
+      </c>
+      <c r="C120" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="D120" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="E120" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="F120" s="22"/>
+      <c r="G120" s="22"/>
+      <c r="H120" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="I120" s="22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="121" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B121" s="2">
         <v>2</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C121" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="122" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B122" s="2">
+        <v>3</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D122" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="125" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="126" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B126" s="47" t="s">
+        <v>338</v>
+      </c>
+      <c r="C126" s="48"/>
+      <c r="D126" s="48"/>
+      <c r="E126" s="48"/>
+      <c r="F126" s="48"/>
+      <c r="G126" s="48"/>
+      <c r="H126" s="48"/>
+      <c r="I126" s="49"/>
+    </row>
+    <row r="127" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B127" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F127" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="G127" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H127" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I127" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="128" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B128" s="2">
+        <v>1</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D128" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="E128" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2" t="s">
+      <c r="F128" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H128" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I113" s="2" t="s">
+      <c r="I128" s="2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="116" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="43" t="s">
-        <v>320</v>
-      </c>
-      <c r="C116" s="44"/>
-      <c r="D116" s="44"/>
-      <c r="E116" s="44"/>
-      <c r="F116" s="44"/>
-      <c r="G116" s="44"/>
-      <c r="H116" s="44"/>
-      <c r="I116" s="45"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B117" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="C117" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D117" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E117" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F117" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G117" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H117" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I117" s="11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B118" s="2">
-        <v>1</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B119" s="2">
-        <v>2</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="124" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B124" s="43" t="s">
-        <v>338</v>
-      </c>
-      <c r="C124" s="44"/>
-      <c r="D124" s="44"/>
-      <c r="E124" s="44"/>
-      <c r="F124" s="44"/>
-      <c r="G124" s="44"/>
-      <c r="H124" s="44"/>
-      <c r="I124" s="45"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B125" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C125" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E125" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F125" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="G125" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="H125" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="I125" s="11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B126" s="2">
-        <v>1</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A127" s="23"/>
-      <c r="B127" s="2">
-        <v>2</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="J127" s="23"/>
-      <c r="K127" s="23"/>
-      <c r="L127" s="23"/>
-      <c r="M127" s="23"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A128" s="23"/>
-      <c r="B128" s="2">
-        <v>3</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
-      <c r="J128" s="23"/>
-      <c r="K128" s="23"/>
-      <c r="L128" s="23"/>
-      <c r="M128" s="23"/>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="23"/>
       <c r="B129" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>274</v>
+        <v>177</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
+      <c r="G129" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>251</v>
+      </c>
       <c r="J129" s="23"/>
       <c r="K129" s="23"/>
       <c r="L129" s="23"/>
@@ -10886,16 +10933,16 @@
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="23"/>
       <c r="B130" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
@@ -10908,22 +10955,22 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="23"/>
-      <c r="B131" s="31">
-        <v>6</v>
-      </c>
-      <c r="C131" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="D131" s="32" t="s">
-        <v>350</v>
-      </c>
-      <c r="E131" s="32" t="s">
+      <c r="B131" s="2">
+        <v>4</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E131" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="F131" s="31"/>
-      <c r="G131" s="31"/>
-      <c r="H131" s="31"/>
-      <c r="I131" s="31"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
       <c r="J131" s="23"/>
       <c r="K131" s="23"/>
       <c r="L131" s="23"/>
@@ -10931,22 +10978,22 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="23"/>
-      <c r="B132" s="31">
-        <v>7</v>
-      </c>
-      <c r="C132" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="D132" s="32" t="s">
-        <v>331</v>
-      </c>
-      <c r="E132" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="F132" s="31"/>
-      <c r="G132" s="31"/>
-      <c r="H132" s="31"/>
-      <c r="I132" s="31"/>
+      <c r="B132" s="2">
+        <v>5</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
       <c r="J132" s="23"/>
       <c r="K132" s="23"/>
       <c r="L132" s="23"/>
@@ -10955,20 +11002,20 @@
     <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="23"/>
       <c r="B133" s="31">
-        <v>8</v>
-      </c>
-      <c r="C133" s="30" t="s">
-        <v>346</v>
-      </c>
-      <c r="D133" s="30" t="s">
-        <v>352</v>
+        <v>6</v>
+      </c>
+      <c r="C133" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D133" s="32" t="s">
+        <v>350</v>
       </c>
       <c r="E133" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="F133" s="32"/>
-      <c r="G133" s="32"/>
-      <c r="H133" s="32"/>
+        <v>252</v>
+      </c>
+      <c r="F133" s="31"/>
+      <c r="G133" s="31"/>
+      <c r="H133" s="31"/>
       <c r="I133" s="31"/>
       <c r="J133" s="23"/>
       <c r="K133" s="23"/>
@@ -10977,14 +11024,22 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="23"/>
-      <c r="B134" s="23"/>
-      <c r="C134" s="23"/>
-      <c r="D134" s="23"/>
-      <c r="E134" s="23"/>
-      <c r="F134" s="29"/>
-      <c r="G134" s="29"/>
-      <c r="H134" s="29"/>
-      <c r="I134" s="29"/>
+      <c r="B134" s="31">
+        <v>7</v>
+      </c>
+      <c r="C134" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="D134" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="E134" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="F134" s="31"/>
+      <c r="G134" s="31"/>
+      <c r="H134" s="31"/>
+      <c r="I134" s="31"/>
       <c r="J134" s="23"/>
       <c r="K134" s="23"/>
       <c r="L134" s="23"/>
@@ -10992,14 +11047,22 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" s="23"/>
-      <c r="B135" s="23"/>
-      <c r="C135" s="23"/>
-      <c r="D135" s="23"/>
-      <c r="E135" s="23"/>
-      <c r="F135" s="29"/>
-      <c r="G135" s="29"/>
-      <c r="H135" s="29"/>
-      <c r="I135" s="29"/>
+      <c r="B135" s="31">
+        <v>8</v>
+      </c>
+      <c r="C135" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="D135" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="E135" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="F135" s="32"/>
+      <c r="G135" s="32"/>
+      <c r="H135" s="32"/>
+      <c r="I135" s="31"/>
       <c r="J135" s="23"/>
       <c r="K135" s="23"/>
       <c r="L135" s="23"/>
@@ -11020,7 +11083,7 @@
       <c r="L136" s="23"/>
       <c r="M136" s="23"/>
     </row>
-    <row r="137" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="23"/>
       <c r="B137" s="23"/>
       <c r="C137" s="23"/>
@@ -11035,80 +11098,48 @@
       <c r="L137" s="23"/>
       <c r="M137" s="23"/>
     </row>
-    <row r="138" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="23"/>
-      <c r="B138" s="48" t="s">
-        <v>386</v>
-      </c>
-      <c r="C138" s="49"/>
-      <c r="D138" s="49"/>
-      <c r="E138" s="49"/>
-      <c r="F138" s="49"/>
-      <c r="G138" s="49"/>
-      <c r="H138" s="49"/>
-      <c r="I138" s="50"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="23"/>
+      <c r="D138" s="23"/>
+      <c r="E138" s="23"/>
+      <c r="F138" s="29"/>
+      <c r="G138" s="29"/>
+      <c r="H138" s="29"/>
+      <c r="I138" s="29"/>
       <c r="J138" s="23"/>
       <c r="K138" s="23"/>
       <c r="L138" s="23"/>
       <c r="M138" s="23"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="23"/>
-      <c r="B139" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="C139" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D139" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E139" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F139" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G139" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H139" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="I139" s="25" t="s">
-        <v>225</v>
-      </c>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
+      <c r="D139" s="23"/>
+      <c r="E139" s="23"/>
+      <c r="F139" s="29"/>
+      <c r="G139" s="29"/>
+      <c r="H139" s="29"/>
+      <c r="I139" s="29"/>
       <c r="J139" s="23"/>
       <c r="K139" s="23"/>
       <c r="L139" s="23"/>
       <c r="M139" s="23"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="23"/>
-      <c r="B140" s="26">
-        <v>1</v>
-      </c>
-      <c r="C140" s="27" t="s">
-        <v>389</v>
-      </c>
-      <c r="D140" s="27" t="s">
-        <v>390</v>
-      </c>
-      <c r="E140" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="F140" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="G140" s="26" t="s">
-        <v>393</v>
-      </c>
-      <c r="H140" s="26" t="s">
-        <v>387</v>
-      </c>
-      <c r="I140" s="26" t="s">
-        <v>388</v>
-      </c>
+      <c r="B140" s="52" t="s">
+        <v>386</v>
+      </c>
+      <c r="C140" s="53"/>
+      <c r="D140" s="53"/>
+      <c r="E140" s="53"/>
+      <c r="F140" s="53"/>
+      <c r="G140" s="53"/>
+      <c r="H140" s="53"/>
+      <c r="I140" s="54"/>
       <c r="J140" s="23"/>
       <c r="K140" s="23"/>
       <c r="L140" s="23"/>
@@ -11116,22 +11147,30 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="23"/>
-      <c r="B141" s="26">
-        <v>2</v>
-      </c>
-      <c r="C141" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="D141" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="E141" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="F141" s="26"/>
-      <c r="G141" s="26"/>
-      <c r="H141" s="26"/>
-      <c r="I141" s="26"/>
+      <c r="B141" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="C141" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D141" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E141" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F141" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G141" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H141" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I141" s="25" t="s">
+        <v>225</v>
+      </c>
       <c r="J141" s="23"/>
       <c r="K141" s="23"/>
       <c r="L141" s="23"/>
@@ -11140,21 +11179,29 @@
     <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="23"/>
       <c r="B142" s="26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C142" s="27" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D142" s="27" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="E142" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="F142" s="26"/>
-      <c r="G142" s="26"/>
-      <c r="H142" s="26"/>
-      <c r="I142" s="26"/>
+        <v>391</v>
+      </c>
+      <c r="F142" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="G142" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="H142" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="I142" s="26" t="s">
+        <v>388</v>
+      </c>
       <c r="J142" s="23"/>
       <c r="K142" s="23"/>
       <c r="L142" s="23"/>
@@ -11163,16 +11210,16 @@
     <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="23"/>
       <c r="B143" s="26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C143" s="27" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D143" s="27" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="E143" s="27" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="F143" s="26"/>
       <c r="G143" s="26"/>
@@ -11186,16 +11233,16 @@
     <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" s="23"/>
       <c r="B144" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C144" s="27" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D144" s="27" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="E144" s="27" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F144" s="26"/>
       <c r="G144" s="26"/>
@@ -11208,14 +11255,22 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" s="23"/>
-      <c r="B145" s="23"/>
-      <c r="C145" s="23"/>
-      <c r="D145" s="23"/>
-      <c r="E145" s="23"/>
-      <c r="F145" s="29"/>
-      <c r="G145" s="29"/>
-      <c r="H145" s="29"/>
-      <c r="I145" s="29"/>
+      <c r="B145" s="26">
+        <v>4</v>
+      </c>
+      <c r="C145" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="D145" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E145" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F145" s="26"/>
+      <c r="G145" s="26"/>
+      <c r="H145" s="26"/>
+      <c r="I145" s="26"/>
       <c r="J145" s="23"/>
       <c r="K145" s="23"/>
       <c r="L145" s="23"/>
@@ -11223,14 +11278,22 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" s="23"/>
-      <c r="B146" s="23"/>
-      <c r="C146" s="23"/>
-      <c r="D146" s="23"/>
-      <c r="E146" s="23"/>
-      <c r="F146" s="29"/>
-      <c r="G146" s="29"/>
-      <c r="H146" s="29"/>
-      <c r="I146" s="29"/>
+      <c r="B146" s="26">
+        <v>5</v>
+      </c>
+      <c r="C146" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="D146" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="E146" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="F146" s="26"/>
+      <c r="G146" s="26"/>
+      <c r="H146" s="26"/>
+      <c r="I146" s="26"/>
       <c r="J146" s="23"/>
       <c r="K146" s="23"/>
       <c r="L146" s="23"/>
@@ -11267,6 +11330,7 @@
       <c r="M148" s="23"/>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A149" s="23"/>
       <c r="B149" s="23"/>
       <c r="C149" s="23"/>
       <c r="D149" s="23"/>
@@ -11275,8 +11339,13 @@
       <c r="G149" s="29"/>
       <c r="H149" s="29"/>
       <c r="I149" s="29"/>
+      <c r="J149" s="23"/>
+      <c r="K149" s="23"/>
+      <c r="L149" s="23"/>
+      <c r="M149" s="23"/>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A150" s="23"/>
       <c r="B150" s="23"/>
       <c r="C150" s="23"/>
       <c r="D150" s="23"/>
@@ -11285,6 +11354,10 @@
       <c r="G150" s="29"/>
       <c r="H150" s="29"/>
       <c r="I150" s="29"/>
+      <c r="J150" s="23"/>
+      <c r="K150" s="23"/>
+      <c r="L150" s="23"/>
+      <c r="M150" s="23"/>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B151" s="23"/>
@@ -11306,9 +11379,36 @@
       <c r="H152" s="29"/>
       <c r="I152" s="29"/>
     </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B153" s="23"/>
+      <c r="C153" s="23"/>
+      <c r="D153" s="23"/>
+      <c r="E153" s="23"/>
+      <c r="F153" s="29"/>
+      <c r="G153" s="29"/>
+      <c r="H153" s="29"/>
+      <c r="I153" s="29"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B154" s="23"/>
+      <c r="C154" s="23"/>
+      <c r="D154" s="23"/>
+      <c r="E154" s="23"/>
+      <c r="F154" s="29"/>
+      <c r="G154" s="29"/>
+      <c r="H154" s="29"/>
+      <c r="I154" s="29"/>
+    </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B138:I138"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="K36:R36"/>
+    <mergeCell ref="C2:K4"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="K14:R14"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="K27:R27"/>
+    <mergeCell ref="B140:I140"/>
     <mergeCell ref="B56:I56"/>
     <mergeCell ref="K53:R53"/>
     <mergeCell ref="B79:I79"/>
@@ -11317,16 +11417,9 @@
     <mergeCell ref="K86:R86"/>
     <mergeCell ref="B104:I104"/>
     <mergeCell ref="K94:R94"/>
-    <mergeCell ref="B110:I110"/>
-    <mergeCell ref="B116:I116"/>
-    <mergeCell ref="B124:I124"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="K36:R36"/>
-    <mergeCell ref="C2:K4"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="K14:R14"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="K27:R27"/>
+    <mergeCell ref="B111:I111"/>
+    <mergeCell ref="B118:I118"/>
+    <mergeCell ref="B126:I126"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/팀작업 테이블명세서.xlsx
+++ b/팀작업 테이블명세서.xlsx
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="496">
   <si>
     <t>Null허용</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2133,6 +2133,18 @@
   </si>
   <si>
     <t>varchar(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴 예정자, 탈퇴일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>outatDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -7572,8 +7584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10478,6 +10490,22 @@
       <c r="R100" s="2"/>
     </row>
     <row r="101" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B101" s="2">
+        <v>4</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
       <c r="K101" s="2">
         <v>6</v>
       </c>

--- a/팀작업 테이블명세서.xlsx
+++ b/팀작업 테이블명세서.xlsx
@@ -7585,7 +7585,7 @@
   <dimension ref="A2:S154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I101" sqref="I101"/>
+      <selection activeCell="B101" sqref="B101:I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10490,22 +10490,22 @@
       <c r="R100" s="2"/>
     </row>
     <row r="101" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B101" s="2">
+      <c r="B101" s="20">
         <v>4</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="37" t="s">
         <v>493</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="21" t="s">
         <v>494</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E101" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="22"/>
+      <c r="I101" s="22"/>
       <c r="K101" s="2">
         <v>6</v>
       </c>

--- a/팀작업 테이블명세서.xlsx
+++ b/팀작업 테이블명세서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8085" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="9225" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="503">
   <si>
     <t>Null허용</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2145,6 +2145,34 @@
   </si>
   <si>
     <t>Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스트 종류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스트 공개성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(45)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a, b, c로 이루어져 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">자랑, 후기, 모집으로 이루어져 있다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2560,9 +2588,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2570,6 +2595,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3321,15 +3349,15 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
       <c r="J20" s="2">
         <v>1</v>
       </c>
@@ -3516,15 +3544,15 @@
         <v>18</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="J26" s="44" t="s">
+      <c r="J26" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="46"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="45"/>
       <c r="Q26" t="s">
         <v>218</v>
       </c>
@@ -4386,14 +4414,14 @@
       <c r="A63" s="4"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F65" s="43" t="s">
+      <c r="F65" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="G65" s="43"/>
-      <c r="H65" s="43"/>
-      <c r="I65" s="43"/>
-      <c r="J65" s="43"/>
-      <c r="K65" s="43"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="46"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M66" t="s">
@@ -4716,6 +4744,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A33:G33"/>
     <mergeCell ref="J67:P67"/>
     <mergeCell ref="J55:P55"/>
     <mergeCell ref="J18:P18"/>
@@ -4725,11 +4758,6 @@
     <mergeCell ref="A55:G55"/>
     <mergeCell ref="A67:G67"/>
     <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A33:G33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4769,39 +4797,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K5" s="9"/>
@@ -7554,12 +7582,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B88:I88"/>
-    <mergeCell ref="K69:R69"/>
-    <mergeCell ref="K53:R53"/>
-    <mergeCell ref="K36:R36"/>
-    <mergeCell ref="K80:R80"/>
-    <mergeCell ref="B80:I80"/>
     <mergeCell ref="B122:I122"/>
     <mergeCell ref="C2:K4"/>
     <mergeCell ref="B7:I7"/>
@@ -7573,6 +7595,12 @@
     <mergeCell ref="K27:R27"/>
     <mergeCell ref="B53:I53"/>
     <mergeCell ref="B69:I69"/>
+    <mergeCell ref="B88:I88"/>
+    <mergeCell ref="K69:R69"/>
+    <mergeCell ref="K53:R53"/>
+    <mergeCell ref="K36:R36"/>
+    <mergeCell ref="K80:R80"/>
+    <mergeCell ref="B80:I80"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7584,8 +7612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101:I101"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R76" sqref="R76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7615,39 +7643,39 @@
         <f ca="1">B2:T134</f>
         <v>0</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K5" s="9"/>
@@ -9744,8 +9772,8 @@
       <c r="M74" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="N74" s="27" t="s">
-        <v>232</v>
+      <c r="N74" s="21" t="s">
+        <v>500</v>
       </c>
       <c r="O74" s="26"/>
       <c r="P74" s="26"/>
@@ -9807,25 +9835,25 @@
       <c r="H76" s="29"/>
       <c r="I76" s="29"/>
       <c r="J76" s="28"/>
-      <c r="K76" s="26">
-        <v>7</v>
-      </c>
-      <c r="L76" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="M76" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="N76" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="O76" s="26"/>
-      <c r="P76" s="26"/>
-      <c r="Q76" s="26"/>
-      <c r="R76" s="26"/>
-      <c r="S76" s="28" t="s">
-        <v>358</v>
-      </c>
+      <c r="K76" s="22">
+        <v>6</v>
+      </c>
+      <c r="L76" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="M76" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="N76" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="O76" s="22"/>
+      <c r="P76" s="22"/>
+      <c r="Q76" s="22"/>
+      <c r="R76" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="S76" s="28"/>
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B77" s="28"/>
@@ -9837,14 +9865,24 @@
       <c r="H77" s="29"/>
       <c r="I77" s="29"/>
       <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="28"/>
-      <c r="M77" s="28"/>
-      <c r="N77" s="28"/>
-      <c r="O77" s="29"/>
-      <c r="P77" s="29"/>
-      <c r="Q77" s="29"/>
-      <c r="R77" s="29"/>
+      <c r="K77" s="22">
+        <v>7</v>
+      </c>
+      <c r="L77" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="M77" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="N77" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="O77" s="22"/>
+      <c r="P77" s="22"/>
+      <c r="Q77" s="22"/>
+      <c r="R77" s="22" t="s">
+        <v>501</v>
+      </c>
       <c r="S77" s="28"/>
     </row>
     <row r="78" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -11429,13 +11467,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="K36:R36"/>
-    <mergeCell ref="C2:K4"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="K14:R14"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="K27:R27"/>
     <mergeCell ref="B140:I140"/>
     <mergeCell ref="B56:I56"/>
     <mergeCell ref="K53:R53"/>
@@ -11448,6 +11479,13 @@
     <mergeCell ref="B111:I111"/>
     <mergeCell ref="B118:I118"/>
     <mergeCell ref="B126:I126"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="K36:R36"/>
+    <mergeCell ref="C2:K4"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="K14:R14"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="K27:R27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/팀작업 테이블명세서.xlsx
+++ b/팀작업 테이블명세서.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9225" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="10380" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -165,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="547">
   <si>
     <t>Null허용</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1912,10 +1913,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>핸드폰번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2173,6 +2170,189 @@
   </si>
   <si>
     <t xml:space="preserve">자랑, 후기, 모집으로 이루어져 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름 (본명)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 확인 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">나의 페이지 정리 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 게시글 페이지 정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 페이지 뼈대 완성, 스타일 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈대 완성, 스타일 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">김윤영 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 클릭 메뉴 - (회원정보 / 예약관리)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모임 태그, 헬스장 태그 정리 (지역별 / 운동별)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">포스트(덧글 시스템) jspp 페이지 따로 분리. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈대 완성. 각 종류별 나누기 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료 시기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일러스트 정리
+(메뉴 / 로그인 / 로그아웃)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬스장 찾기, 트레이너 찾기, 소모임 찾기 페이지 검색 시스템 완성 
+(이름 검색, 지역 검색, 운동 검색 등)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찾기 기능 페이징?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도 API 이용, 헬스장 위치 정보 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬스장 등록/관리 페이지
+(등록, 관리로 들어가기 전 페이지)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트레이너 관련</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모임 관련</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬스장 관련</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 관련</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진 올리기 / 받기 관련</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찜하기 관련</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">트레이너 개인 페이지 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모임 찾기 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">소모임 메인 페이지 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">트레이너 - 1:1상담요청 기능 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트레이너 ㅡ 바로 등록하기 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모임 관리 페이지 - 사진 적용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬스장 찾기 페이지 스타일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬스장 메인 페이지 스타일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">헬스장 메인 페이지 후기 등록 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 전반 (공지사항 게시글 스타일 제외)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모임 개설 및 수정 페이지 - 리뉴얼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료 (기능 추가시 기능 붙이기만 하면 된다)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작완료 ㅡ 기능 추가시 기능 붙이기만 하면 된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">소모임 메인 페이지  - 찜하기 넣기 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">소모임 메인 페이지 - 사진 적용 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">헬스장 - 1:1상담요청 기능 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬스장 ㅡ 바로 등록하기 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">로그인 / 회원가입 / 회원정보 수정 관련 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2180,6 +2360,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2458,7 +2641,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2588,6 +2771,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2595,9 +2781,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2609,10 +2792,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2623,6 +2806,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3349,15 +3538,15 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
       <c r="J20" s="2">
         <v>1</v>
       </c>
@@ -3544,15 +3733,15 @@
         <v>18</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="J26" s="43" t="s">
+      <c r="J26" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="46"/>
       <c r="Q26" t="s">
         <v>218</v>
       </c>
@@ -4414,14 +4603,14 @@
       <c r="A63" s="4"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F65" s="46" t="s">
+      <c r="F65" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
-      <c r="I65" s="46"/>
-      <c r="J65" s="46"/>
-      <c r="K65" s="46"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="43"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M66" t="s">
@@ -4744,11 +4933,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A33:G33"/>
     <mergeCell ref="J67:P67"/>
     <mergeCell ref="J55:P55"/>
     <mergeCell ref="J18:P18"/>
@@ -4758,6 +4942,11 @@
     <mergeCell ref="A55:G55"/>
     <mergeCell ref="A67:G67"/>
     <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A33:G33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4797,39 +4986,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K5" s="9"/>
@@ -5068,16 +5257,16 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="K14" s="51" t="s">
+      <c r="K14" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
@@ -5350,16 +5539,16 @@
       <c r="R26" s="8"/>
     </row>
     <row r="27" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
       <c r="K27" s="47" t="s">
         <v>247</v>
       </c>
@@ -6703,16 +6892,16 @@
       <c r="G80" s="48"/>
       <c r="H80" s="48"/>
       <c r="I80" s="49"/>
-      <c r="K80" s="50" t="s">
+      <c r="K80" s="51" t="s">
         <v>311</v>
       </c>
-      <c r="L80" s="50"/>
-      <c r="M80" s="50"/>
-      <c r="N80" s="50"/>
-      <c r="O80" s="50"/>
-      <c r="P80" s="50"/>
-      <c r="Q80" s="50"/>
-      <c r="R80" s="50"/>
+      <c r="L80" s="51"/>
+      <c r="M80" s="51"/>
+      <c r="N80" s="51"/>
+      <c r="O80" s="51"/>
+      <c r="P80" s="51"/>
+      <c r="Q80" s="51"/>
+      <c r="R80" s="51"/>
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B81" s="11" t="s">
@@ -7582,6 +7771,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K36:R36"/>
+    <mergeCell ref="K80:R80"/>
+    <mergeCell ref="B80:I80"/>
     <mergeCell ref="B122:I122"/>
     <mergeCell ref="C2:K4"/>
     <mergeCell ref="B7:I7"/>
@@ -7598,9 +7790,6 @@
     <mergeCell ref="B88:I88"/>
     <mergeCell ref="K69:R69"/>
     <mergeCell ref="K53:R53"/>
-    <mergeCell ref="K36:R36"/>
-    <mergeCell ref="K80:R80"/>
-    <mergeCell ref="B80:I80"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7612,8 +7801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R76" sqref="R76"/>
+    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7643,39 +7832,39 @@
         <f ca="1">B2:T134</f>
         <v>0</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K5" s="9"/>
@@ -7914,16 +8103,16 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="K14" s="51" t="s">
+      <c r="K14" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
@@ -8196,16 +8385,16 @@
       <c r="R26" s="8"/>
     </row>
     <row r="27" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
       <c r="K27" s="47" t="s">
         <v>247</v>
       </c>
@@ -8292,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="39" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M29" s="39" t="s">
         <v>140</v>
@@ -8305,10 +8494,10 @@
         <v>18</v>
       </c>
       <c r="Q29" s="38" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="R29" s="38" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.3">
@@ -8878,13 +9067,13 @@
         <v>12</v>
       </c>
       <c r="C49" s="35" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
@@ -8906,13 +9095,13 @@
         <v>13</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D50" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="E50" s="35" t="s">
         <v>474</v>
-      </c>
-      <c r="E50" s="35" t="s">
-        <v>475</v>
       </c>
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
@@ -8934,13 +9123,13 @@
         <v>14</v>
       </c>
       <c r="C51" s="35" t="s">
+        <v>475</v>
+      </c>
+      <c r="D51" s="35" t="s">
         <v>476</v>
       </c>
-      <c r="D51" s="35" t="s">
-        <v>477</v>
-      </c>
       <c r="E51" s="35" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F51" s="20"/>
       <c r="G51" s="20"/>
@@ -9260,10 +9449,10 @@
         <v>3</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>437</v>
+        <v>502</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E60" s="21" t="s">
         <v>252</v>
@@ -9336,13 +9525,13 @@
         <v>5</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F62" s="26"/>
       <c r="G62" s="26" t="s">
@@ -9366,10 +9555,10 @@
         <v>6</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E63" s="21" t="s">
         <v>252</v>
@@ -9396,10 +9585,10 @@
         <v>7</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E64" s="27" t="s">
         <v>143</v>
@@ -9426,10 +9615,10 @@
         <v>8</v>
       </c>
       <c r="C65" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="D65" s="21" t="s">
         <v>456</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>457</v>
       </c>
       <c r="E65" s="21" t="s">
         <v>258</v>
@@ -9456,10 +9645,10 @@
         <v>9</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E66" s="27" t="s">
         <v>258</v>
@@ -9486,10 +9675,10 @@
         <v>10</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E67" s="27" t="s">
         <v>258</v>
@@ -9516,10 +9705,10 @@
         <v>11</v>
       </c>
       <c r="C68" s="30" t="s">
+        <v>458</v>
+      </c>
+      <c r="D68" s="27" t="s">
         <v>459</v>
-      </c>
-      <c r="D68" s="27" t="s">
-        <v>460</v>
       </c>
       <c r="E68" s="27" t="s">
         <v>258</v>
@@ -9546,10 +9735,10 @@
         <v>12</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E69" s="27" t="s">
         <v>258</v>
@@ -9580,10 +9769,10 @@
         <v>13</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E70" s="27" t="s">
         <v>258</v>
@@ -9626,7 +9815,7 @@
         <v>15</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D71" s="30" t="s">
         <v>276</v>
@@ -9666,10 +9855,10 @@
         <v>16</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E72" s="27" t="s">
         <v>258</v>
@@ -9712,10 +9901,10 @@
         <v>17</v>
       </c>
       <c r="C73" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="D73" s="30" t="s">
         <v>453</v>
-      </c>
-      <c r="D73" s="30" t="s">
-        <v>454</v>
       </c>
       <c r="E73" s="27" t="s">
         <v>139</v>
@@ -9748,17 +9937,17 @@
         <v>18</v>
       </c>
       <c r="C74" s="34" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D74" s="34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F74" s="22"/>
       <c r="G74" s="22" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H74" s="22"/>
       <c r="I74" s="22"/>
@@ -9773,7 +9962,7 @@
         <v>292</v>
       </c>
       <c r="N74" s="21" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O74" s="26"/>
       <c r="P74" s="26"/>
@@ -9790,17 +9979,17 @@
         <v>19</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D75" s="34" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F75" s="22"/>
       <c r="G75" s="22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H75" s="22"/>
       <c r="I75" s="22"/>
@@ -9826,7 +10015,7 @@
     <row r="76" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B76" s="28"/>
       <c r="C76" s="33" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D76" s="28"/>
       <c r="E76" s="28"/>
@@ -9839,19 +10028,19 @@
         <v>6</v>
       </c>
       <c r="L76" s="21" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M76" s="21" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N76" s="21" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O76" s="22"/>
       <c r="P76" s="22"/>
       <c r="Q76" s="22"/>
       <c r="R76" s="22" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="S76" s="28"/>
     </row>
@@ -9869,19 +10058,19 @@
         <v>7</v>
       </c>
       <c r="L77" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="M77" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="N77" s="21" t="s">
         <v>499</v>
-      </c>
-      <c r="M77" s="21" t="s">
-        <v>497</v>
-      </c>
-      <c r="N77" s="21" t="s">
-        <v>500</v>
       </c>
       <c r="O77" s="22"/>
       <c r="P77" s="22"/>
       <c r="Q77" s="22"/>
       <c r="R77" s="22" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="S77" s="28"/>
     </row>
@@ -10074,16 +10263,16 @@
       <c r="G86" s="26"/>
       <c r="H86" s="26"/>
       <c r="I86" s="26"/>
-      <c r="K86" s="50" t="s">
+      <c r="K86" s="51" t="s">
         <v>311</v>
       </c>
-      <c r="L86" s="50"/>
-      <c r="M86" s="50"/>
-      <c r="N86" s="50"/>
-      <c r="O86" s="50"/>
-      <c r="P86" s="50"/>
-      <c r="Q86" s="50"/>
-      <c r="R86" s="50"/>
+      <c r="L86" s="51"/>
+      <c r="M86" s="51"/>
+      <c r="N86" s="51"/>
+      <c r="O86" s="51"/>
+      <c r="P86" s="51"/>
+      <c r="Q86" s="51"/>
+      <c r="R86" s="51"/>
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B87" s="26">
@@ -10344,21 +10533,21 @@
         <v>1</v>
       </c>
       <c r="L96" s="37" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M96" s="21" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="N96" s="21" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="O96" s="22"/>
       <c r="P96" s="22"/>
       <c r="Q96" s="22" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="R96" s="22" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="97" spans="2:18" x14ac:dyDescent="0.3">
@@ -10390,13 +10579,13 @@
         <v>2</v>
       </c>
       <c r="L97" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="M97" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="M97" s="21" t="s">
+      <c r="N97" s="21" t="s">
         <v>484</v>
-      </c>
-      <c r="N97" s="21" t="s">
-        <v>485</v>
       </c>
       <c r="O97" s="22"/>
       <c r="P97" s="22"/>
@@ -10419,7 +10608,7 @@
       <c r="F98" s="22"/>
       <c r="G98" s="22"/>
       <c r="H98" s="22" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I98" s="22" t="s">
         <v>260</v>
@@ -10532,13 +10721,13 @@
         <v>4</v>
       </c>
       <c r="C101" s="37" t="s">
+        <v>492</v>
+      </c>
+      <c r="D101" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="D101" s="21" t="s">
+      <c r="E101" s="21" t="s">
         <v>494</v>
-      </c>
-      <c r="E101" s="21" t="s">
-        <v>495</v>
       </c>
       <c r="F101" s="22"/>
       <c r="G101" s="22"/>
@@ -10623,18 +10812,18 @@
         <v>1</v>
       </c>
       <c r="C106" s="37" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D106" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="E106" s="21" t="s">
         <v>489</v>
-      </c>
-      <c r="E106" s="21" t="s">
-        <v>490</v>
       </c>
       <c r="F106" s="22"/>
       <c r="G106" s="22"/>
       <c r="H106" s="22" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I106" s="22" t="s">
         <v>260</v>
@@ -10732,18 +10921,18 @@
         <v>1</v>
       </c>
       <c r="C113" s="37" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D113" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="E113" s="21" t="s">
         <v>489</v>
-      </c>
-      <c r="E113" s="21" t="s">
-        <v>490</v>
       </c>
       <c r="F113" s="22"/>
       <c r="G113" s="22"/>
       <c r="H113" s="22" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I113" s="22" t="s">
         <v>260</v>
@@ -10841,18 +11030,18 @@
         <v>1</v>
       </c>
       <c r="C120" s="37" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D120" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="E120" s="21" t="s">
         <v>489</v>
-      </c>
-      <c r="E120" s="21" t="s">
-        <v>490</v>
       </c>
       <c r="F120" s="22"/>
       <c r="G120" s="22"/>
       <c r="H120" s="22" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I120" s="22" t="s">
         <v>260</v>
@@ -11467,6 +11656,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="K36:R36"/>
+    <mergeCell ref="C2:K4"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="K14:R14"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="K27:R27"/>
     <mergeCell ref="B140:I140"/>
     <mergeCell ref="B56:I56"/>
     <mergeCell ref="K53:R53"/>
@@ -11479,16 +11675,339 @@
     <mergeCell ref="B111:I111"/>
     <mergeCell ref="B118:I118"/>
     <mergeCell ref="B126:I126"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="K36:R36"/>
-    <mergeCell ref="C2:K4"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="K14:R14"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="K27:R27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:F64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="43.25" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E5" t="s">
+        <v>514</v>
+      </c>
+      <c r="F5" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" s="55">
+        <v>44054</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>517</v>
+      </c>
+      <c r="D7" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="55">
+        <v>44054</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>521</v>
+      </c>
+      <c r="D8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="55">
+        <v>44054</v>
+      </c>
+      <c r="B9" t="s">
+        <v>503</v>
+      </c>
+      <c r="D9" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="55">
+        <v>44054</v>
+      </c>
+      <c r="B10" t="s">
+        <v>504</v>
+      </c>
+      <c r="C10" t="s">
+        <v>507</v>
+      </c>
+      <c r="D10" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="55">
+        <v>44054</v>
+      </c>
+      <c r="B11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C11" t="s">
+        <v>508</v>
+      </c>
+      <c r="D11" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="55"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="55"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="55">
+        <v>44054</v>
+      </c>
+      <c r="B14" t="s">
+        <v>510</v>
+      </c>
+      <c r="D14" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="55">
+        <v>44054</v>
+      </c>
+      <c r="B15" t="s">
+        <v>511</v>
+      </c>
+      <c r="C15" t="s">
+        <v>513</v>
+      </c>
+      <c r="D15" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="55">
+        <v>44054</v>
+      </c>
+      <c r="B16" t="s">
+        <v>512</v>
+      </c>
+      <c r="D16" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="55">
+        <v>44054</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>518</v>
+      </c>
+      <c r="D17" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="55"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="55">
+        <v>44054</v>
+      </c>
+      <c r="B21" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="55">
+        <v>44054</v>
+      </c>
+      <c r="B22" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="55">
+        <v>44054</v>
+      </c>
+      <c r="B24" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="55">
+        <v>44054</v>
+      </c>
+      <c r="B25" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>523</v>
+      </c>
+      <c r="C41" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>529</v>
+      </c>
+      <c r="C42" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>524</v>
+      </c>
+      <c r="C45" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>530</v>
+      </c>
+      <c r="C46" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>531</v>
+      </c>
+      <c r="C47" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>525</v>
+      </c>
+      <c r="C50" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>535</v>
+      </c>
+      <c r="C51" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>536</v>
+      </c>
+      <c r="C52" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>537</v>
+      </c>
+      <c r="C53" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>526</v>
+      </c>
+      <c r="C55" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>538</v>
+      </c>
+      <c r="C56" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>527</v>
+      </c>
+      <c r="C58" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>528</v>
+      </c>
+      <c r="C62" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>546</v>
+      </c>
+      <c r="C64" t="s">
+        <v>522</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/팀작업 테이블명세서.xlsx
+++ b/팀작업 테이블명세서.xlsx
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="548">
   <si>
     <t>Null허용</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2353,6 +2353,10 @@
   </si>
   <si>
     <t xml:space="preserve">로그인 / 회원가입 / 회원정보 수정 관련 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덱스 페이지 - 최근 글 게시글 끌어오기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -11686,8 +11690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11831,6 +11835,12 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="55"/>
+      <c r="B18" t="s">
+        <v>547</v>
+      </c>
+      <c r="D18" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="55">

--- a/팀작업 테이블명세서.xlsx
+++ b/팀작업 테이블명세서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10380" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="3"/>
+    <workbookView xWindow="12690" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="555">
   <si>
     <t>Null허용</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2357,6 +2357,34 @@
   </si>
   <si>
     <t>인덱스 페이지 - 최근 글 게시글 끌어오기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>..</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모임 사진 수정 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모임 삭제하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모임 인원 탈퇴시키기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 위해선 자신 빼고 아무도 없어야 한다 =&gt; 탈퇴시키기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2367,7 +2395,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2461,6 +2489,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -2645,7 +2689,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2766,6 +2810,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2796,10 +2846,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2811,11 +2861,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3104,7 +3157,7 @@
       <selection activeCell="B11" sqref="B11:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.75" customWidth="1"/>
@@ -3120,29 +3173,29 @@
     <col min="14" max="14" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>124</v>
       </c>
@@ -3174,7 +3227,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -3203,7 +3256,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -3228,7 +3281,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -3255,7 +3308,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -3276,7 +3329,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -3295,7 +3348,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -3323,7 +3376,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -3346,7 +3399,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -3369,7 +3422,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3392,7 +3445,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3409,7 +3462,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3428,7 +3481,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3447,7 +3500,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -3466,7 +3519,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -3485,7 +3538,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -3504,20 +3557,20 @@
       <c r="I18" t="s">
         <v>72</v>
       </c>
-      <c r="J18" s="40" t="s">
+      <c r="J18" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="42"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="44"/>
       <c r="Q18" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" s="4"/>
       <c r="J19" s="1" t="s">
         <v>134</v>
@@ -3541,16 +3594,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="43" t="s">
+    <row r="20" spans="1:17">
+      <c r="A20" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
       <c r="J20" s="2">
         <v>1</v>
       </c>
@@ -3571,7 +3624,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" s="4"/>
       <c r="J21" s="2">
         <v>2</v>
@@ -3593,16 +3646,16 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="40" t="s">
+    <row r="22" spans="1:17">
+      <c r="A22" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="44"/>
       <c r="J22" s="2">
         <v>3</v>
       </c>
@@ -3619,7 +3672,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
         <v>125</v>
       </c>
@@ -3655,7 +3708,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -3693,7 +3746,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="A25" s="2">
         <v>2</v>
       </c>
@@ -3719,7 +3772,7 @@
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="A26" s="2">
         <v>3</v>
       </c>
@@ -3737,20 +3790,20 @@
         <v>18</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="J26" s="44" t="s">
+      <c r="J26" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="46"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="48"/>
       <c r="Q26" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="A27" s="2">
         <v>4</v>
       </c>
@@ -3788,7 +3841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17">
       <c r="A28" s="2">
         <v>5</v>
       </c>
@@ -3824,7 +3877,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17">
       <c r="A29" s="2">
         <v>6</v>
       </c>
@@ -3860,7 +3913,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17">
       <c r="J30" s="2">
         <v>3</v>
       </c>
@@ -3877,30 +3930,30 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="40" t="s">
+    <row r="33" spans="1:17">
+      <c r="A33" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="42"/>
-      <c r="J33" s="40" t="s">
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="44"/>
+      <c r="J33" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="42"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="44"/>
       <c r="Q33" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
         <v>126</v>
       </c>
@@ -3944,7 +3997,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -3986,7 +4039,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17">
       <c r="A36" s="2">
         <v>2</v>
       </c>
@@ -4028,7 +4081,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17">
       <c r="A37" s="2">
         <v>3</v>
       </c>
@@ -4060,7 +4113,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17">
       <c r="A38" s="2">
         <v>4</v>
       </c>
@@ -4092,7 +4145,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17">
       <c r="A39" s="2">
         <v>5</v>
       </c>
@@ -4124,7 +4177,7 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17">
       <c r="A40" s="2">
         <v>6</v>
       </c>
@@ -4148,7 +4201,7 @@
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17">
       <c r="A41" s="2">
         <v>7</v>
       </c>
@@ -4165,7 +4218,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17">
       <c r="A42" s="5">
         <v>8</v>
       </c>
@@ -4182,7 +4235,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17">
       <c r="A43" s="5">
         <v>9</v>
       </c>
@@ -4199,23 +4252,23 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17">
       <c r="H45" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" s="40" t="s">
+    <row r="46" spans="1:17">
+      <c r="A46" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="42"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="44"/>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="1" t="s">
         <v>127</v>
       </c>
@@ -4238,7 +4291,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17">
       <c r="A48" s="2">
         <v>1</v>
       </c>
@@ -4261,7 +4314,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16">
       <c r="A49" s="2">
         <v>2</v>
       </c>
@@ -4278,7 +4331,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16">
       <c r="A50" s="2">
         <v>3</v>
       </c>
@@ -4295,7 +4348,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16">
       <c r="A51" s="2">
         <v>4</v>
       </c>
@@ -4312,7 +4365,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16">
       <c r="A52" s="2">
         <v>5</v>
       </c>
@@ -4329,36 +4382,36 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16">
       <c r="A54" s="4"/>
       <c r="M54" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="40" t="s">
+    <row r="55" spans="1:16">
+      <c r="A55" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="42"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="44"/>
       <c r="H55" t="s">
         <v>136</v>
       </c>
-      <c r="J55" s="40" t="s">
+      <c r="J55" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="K55" s="41"/>
-      <c r="L55" s="41"/>
-      <c r="M55" s="41"/>
-      <c r="N55" s="41"/>
-      <c r="O55" s="41"/>
-      <c r="P55" s="42"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="43"/>
+      <c r="P55" s="44"/>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" s="1" t="s">
         <v>128</v>
       </c>
@@ -4402,7 +4455,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16">
       <c r="A57" s="2">
         <v>1</v>
       </c>
@@ -4446,7 +4499,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16">
       <c r="A58" s="2">
         <v>2</v>
       </c>
@@ -4482,7 +4535,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16">
       <c r="A59" s="2">
         <v>3</v>
       </c>
@@ -4522,7 +4575,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16">
       <c r="A60" s="2">
         <v>4</v>
       </c>
@@ -4554,7 +4607,7 @@
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16">
       <c r="A61" s="2">
         <v>5</v>
       </c>
@@ -4586,7 +4639,7 @@
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16">
       <c r="A62" s="2">
         <v>6</v>
       </c>
@@ -4603,45 +4656,45 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16">
       <c r="A63" s="4"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F65" s="43" t="s">
+    <row r="65" spans="1:16">
+      <c r="F65" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="G65" s="43"/>
-      <c r="H65" s="43"/>
-      <c r="I65" s="43"/>
-      <c r="J65" s="43"/>
-      <c r="K65" s="43"/>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G65" s="45"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="45"/>
+      <c r="J65" s="45"/>
+      <c r="K65" s="45"/>
+    </row>
+    <row r="66" spans="1:16">
       <c r="M66" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A67" s="40" t="s">
+    <row r="67" spans="1:16">
+      <c r="A67" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="42"/>
-      <c r="J67" s="40" t="s">
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="44"/>
+      <c r="J67" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="K67" s="41"/>
-      <c r="L67" s="41"/>
-      <c r="M67" s="41"/>
-      <c r="N67" s="41"/>
-      <c r="O67" s="41"/>
-      <c r="P67" s="42"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K67" s="43"/>
+      <c r="L67" s="43"/>
+      <c r="M67" s="43"/>
+      <c r="N67" s="43"/>
+      <c r="O67" s="43"/>
+      <c r="P67" s="44"/>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" s="1" t="s">
         <v>129</v>
       </c>
@@ -4685,7 +4738,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16">
       <c r="A69" s="2">
         <v>1</v>
       </c>
@@ -4729,7 +4782,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16">
       <c r="A70" s="2">
         <v>2</v>
       </c>
@@ -4767,7 +4820,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16">
       <c r="A71" s="2">
         <v>3</v>
       </c>
@@ -4803,7 +4856,7 @@
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16">
       <c r="A72" s="2">
         <v>4</v>
       </c>
@@ -4835,7 +4888,7 @@
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16">
       <c r="A73" s="5">
         <v>5</v>
       </c>
@@ -4867,7 +4920,7 @@
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16">
       <c r="J74" s="2">
         <v>6</v>
       </c>
@@ -4884,7 +4937,7 @@
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16">
       <c r="J75" s="2">
         <v>7</v>
       </c>
@@ -4901,7 +4954,7 @@
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16">
       <c r="J76" s="2">
         <v>8</v>
       </c>
@@ -4918,7 +4971,7 @@
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16">
       <c r="J77" s="2">
         <v>9</v>
       </c>
@@ -4967,7 +5020,7 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="0.875" customWidth="1"/>
     <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
@@ -4989,42 +5042,42 @@
     <col min="18" max="18" width="11" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C2" s="43" t="s">
+    <row r="2" spans="2:18">
+      <c r="C2" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+    </row>
+    <row r="3" spans="2:18">
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+    </row>
+    <row r="5" spans="2:18">
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
@@ -5034,7 +5087,7 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:18" ht="17.25" thickBot="1">
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
@@ -5044,17 +5097,17 @@
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
     </row>
-    <row r="7" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="47" t="s">
+    <row r="7" spans="2:18" ht="17.25" thickBot="1">
+      <c r="B7" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -5064,7 +5117,7 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18">
       <c r="B8" s="11" t="s">
         <v>124</v>
       </c>
@@ -5098,7 +5151,7 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18">
       <c r="B9" s="2">
         <v>1</v>
       </c>
@@ -5130,7 +5183,7 @@
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18">
       <c r="B10" s="2">
         <v>2</v>
       </c>
@@ -5158,7 +5211,7 @@
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18">
       <c r="B11" s="2">
         <v>3</v>
       </c>
@@ -5184,7 +5237,7 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18">
       <c r="B12" s="2">
         <v>4</v>
       </c>
@@ -5214,7 +5267,7 @@
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18">
       <c r="B13" s="2">
         <v>5</v>
       </c>
@@ -5244,7 +5297,7 @@
       <c r="Q13" s="15"/>
       <c r="R13" s="15"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18">
       <c r="B14" s="2">
         <v>6</v>
       </c>
@@ -5261,18 +5314,18 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="K14" s="50" t="s">
+      <c r="K14" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+    </row>
+    <row r="15" spans="2:18">
       <c r="B15" s="2">
         <v>7</v>
       </c>
@@ -5298,7 +5351,7 @@
       <c r="Q15" s="15"/>
       <c r="R15" s="15"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18">
       <c r="B16" s="2">
         <v>8</v>
       </c>
@@ -5338,7 +5391,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18">
       <c r="B17" s="2">
         <v>9</v>
       </c>
@@ -5378,7 +5431,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18">
       <c r="B18" s="2">
         <v>10</v>
       </c>
@@ -5410,7 +5463,7 @@
       <c r="Q18" s="15"/>
       <c r="R18" s="15"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18">
       <c r="B19" s="2">
         <v>11</v>
       </c>
@@ -5442,7 +5495,7 @@
       <c r="Q19" s="15"/>
       <c r="R19" s="15"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -5466,7 +5519,7 @@
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18">
       <c r="K21" s="15"/>
       <c r="L21" s="17" t="s">
         <v>239</v>
@@ -5482,7 +5535,7 @@
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18">
       <c r="K22" s="8"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
@@ -5492,7 +5545,7 @@
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18">
       <c r="K23" s="8"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
@@ -5502,7 +5555,7 @@
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18">
       <c r="K24" s="8"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
@@ -5512,7 +5565,7 @@
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18">
       <c r="K25" s="8"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
@@ -5522,7 +5575,7 @@
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
     </row>
-    <row r="26" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:18" ht="17.25" thickBot="1">
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -5542,29 +5595,29 @@
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="50" t="s">
+    <row r="27" spans="2:18" ht="17.25" thickBot="1">
+      <c r="B27" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="K27" s="47" t="s">
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="K27" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="49"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="51"/>
+    </row>
+    <row r="28" spans="2:18">
       <c r="B28" s="14"/>
       <c r="C28" s="14" t="s">
         <v>21</v>
@@ -5612,7 +5665,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:18">
       <c r="B29" s="15"/>
       <c r="C29" s="16" t="s">
         <v>246</v>
@@ -5654,7 +5707,7 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:18">
       <c r="B30" s="15"/>
       <c r="C30" s="16" t="s">
         <v>233</v>
@@ -5688,7 +5741,7 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:18">
       <c r="K31" s="8"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
@@ -5698,7 +5751,7 @@
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:18">
       <c r="K32" s="8"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
@@ -5708,7 +5761,7 @@
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:19">
       <c r="K33" s="8"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
@@ -5718,7 +5771,7 @@
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:19">
       <c r="K34" s="8"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
@@ -5728,7 +5781,7 @@
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
     </row>
-    <row r="35" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:19" ht="17.25" thickBot="1">
       <c r="K35" s="8"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
@@ -5738,29 +5791,29 @@
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
     </row>
-    <row r="36" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="47" t="s">
+    <row r="36" spans="2:19" ht="17.25" thickBot="1">
+      <c r="B36" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="49"/>
-      <c r="K36" s="47" t="s">
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="51"/>
+      <c r="K36" s="49" t="s">
         <v>299</v>
       </c>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="49"/>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="51"/>
+    </row>
+    <row r="37" spans="2:19">
       <c r="B37" s="11" t="s">
         <v>125</v>
       </c>
@@ -5810,7 +5863,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:19">
       <c r="B38" s="2">
         <v>1</v>
       </c>
@@ -5856,7 +5909,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:19">
       <c r="B39" s="2">
         <v>2</v>
       </c>
@@ -5904,7 +5957,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:19">
       <c r="B40" s="2">
         <v>3</v>
       </c>
@@ -5940,7 +5993,7 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:19">
       <c r="B41" s="2">
         <v>4</v>
       </c>
@@ -5978,7 +6031,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:19">
       <c r="B42" s="2">
         <v>5</v>
       </c>
@@ -6012,7 +6065,7 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:19">
       <c r="B43" s="2">
         <v>6</v>
       </c>
@@ -6046,7 +6099,7 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:19">
       <c r="B44" s="2">
         <v>7</v>
       </c>
@@ -6067,7 +6120,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:19">
       <c r="B45" s="2">
         <v>8</v>
       </c>
@@ -6085,7 +6138,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:19">
       <c r="B46" s="2">
         <v>9</v>
       </c>
@@ -6103,7 +6156,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:19">
       <c r="B47" s="2">
         <v>10</v>
       </c>
@@ -6121,7 +6174,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:19">
       <c r="B48" s="2">
         <v>11</v>
       </c>
@@ -6139,7 +6192,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:19">
       <c r="B49" s="2">
         <v>12</v>
       </c>
@@ -6157,7 +6210,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:19">
       <c r="B50" s="2">
         <v>13</v>
       </c>
@@ -6175,30 +6228,30 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="52" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="53" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="47" t="s">
+    <row r="52" spans="2:19" ht="17.25" thickBot="1"/>
+    <row r="53" spans="2:19" ht="17.25" thickBot="1">
+      <c r="B53" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="C53" s="48"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="49"/>
-      <c r="K53" s="47" t="s">
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="51"/>
+      <c r="K53" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="L53" s="48"/>
-      <c r="M53" s="48"/>
-      <c r="N53" s="48"/>
-      <c r="O53" s="48"/>
-      <c r="P53" s="48"/>
-      <c r="Q53" s="48"/>
-      <c r="R53" s="49"/>
-    </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="L53" s="50"/>
+      <c r="M53" s="50"/>
+      <c r="N53" s="50"/>
+      <c r="O53" s="50"/>
+      <c r="P53" s="50"/>
+      <c r="Q53" s="50"/>
+      <c r="R53" s="51"/>
+    </row>
+    <row r="54" spans="2:19">
       <c r="B54" s="11" t="s">
         <v>126</v>
       </c>
@@ -6248,7 +6301,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:19">
       <c r="B55" s="2">
         <v>1</v>
       </c>
@@ -6294,7 +6347,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:19">
       <c r="B56" s="2">
         <v>2</v>
       </c>
@@ -6342,7 +6395,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:19">
       <c r="B57" s="2">
         <v>3</v>
       </c>
@@ -6378,7 +6431,7 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:19">
       <c r="B58" s="2">
         <v>4</v>
       </c>
@@ -6418,7 +6471,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:19">
       <c r="B59" s="2">
         <v>5</v>
       </c>
@@ -6454,7 +6507,7 @@
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:19">
       <c r="B60" s="2">
         <v>6</v>
       </c>
@@ -6488,7 +6541,7 @@
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:19">
       <c r="B61" s="2">
         <v>7</v>
       </c>
@@ -6509,7 +6562,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:19">
       <c r="B62" s="2">
         <v>8</v>
       </c>
@@ -6527,7 +6580,7 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:19">
       <c r="B63" s="2">
         <v>9</v>
       </c>
@@ -6545,7 +6598,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:19">
       <c r="B64" s="2">
         <v>10</v>
       </c>
@@ -6563,7 +6616,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:19">
       <c r="B65" s="2">
         <v>11</v>
       </c>
@@ -6581,33 +6634,33 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="68" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="69" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="47" t="s">
+    <row r="68" spans="2:19" ht="17.25" thickBot="1"/>
+    <row r="69" spans="2:19" ht="17.25" thickBot="1">
+      <c r="B69" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="C69" s="48"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="48"/>
-      <c r="F69" s="48"/>
-      <c r="G69" s="48"/>
-      <c r="H69" s="48"/>
-      <c r="I69" s="49"/>
-      <c r="K69" s="47" t="s">
+      <c r="C69" s="50"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="51"/>
+      <c r="K69" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="L69" s="48"/>
-      <c r="M69" s="48"/>
-      <c r="N69" s="48"/>
-      <c r="O69" s="48"/>
-      <c r="P69" s="48"/>
-      <c r="Q69" s="48"/>
-      <c r="R69" s="49"/>
+      <c r="L69" s="50"/>
+      <c r="M69" s="50"/>
+      <c r="N69" s="50"/>
+      <c r="O69" s="50"/>
+      <c r="P69" s="50"/>
+      <c r="Q69" s="50"/>
+      <c r="R69" s="51"/>
       <c r="S69" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:19">
       <c r="B70" s="11" t="s">
         <v>127</v>
       </c>
@@ -6657,7 +6710,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:19">
       <c r="B71" s="2">
         <v>1</v>
       </c>
@@ -6703,7 +6756,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:19">
       <c r="B72" s="2">
         <v>2</v>
       </c>
@@ -6745,7 +6798,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:19">
       <c r="B73" s="2">
         <v>3</v>
       </c>
@@ -6785,7 +6838,7 @@
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
     </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:19">
       <c r="B74" s="2">
         <v>4</v>
       </c>
@@ -6825,7 +6878,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:19">
       <c r="B75" s="2">
         <v>5</v>
       </c>
@@ -6861,7 +6914,7 @@
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
     </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:19">
       <c r="B76" s="2">
         <v>6</v>
       </c>
@@ -6884,30 +6937,30 @@
         <v>358</v>
       </c>
     </row>
-    <row r="79" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="80" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="47" t="s">
+    <row r="79" spans="2:19" ht="17.25" thickBot="1"/>
+    <row r="80" spans="2:19" ht="17.25" thickBot="1">
+      <c r="B80" s="49" t="s">
         <v>372</v>
       </c>
-      <c r="C80" s="48"/>
-      <c r="D80" s="48"/>
-      <c r="E80" s="48"/>
-      <c r="F80" s="48"/>
-      <c r="G80" s="48"/>
-      <c r="H80" s="48"/>
-      <c r="I80" s="49"/>
-      <c r="K80" s="51" t="s">
+      <c r="C80" s="50"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="50"/>
+      <c r="F80" s="50"/>
+      <c r="G80" s="50"/>
+      <c r="H80" s="50"/>
+      <c r="I80" s="51"/>
+      <c r="K80" s="52" t="s">
         <v>311</v>
       </c>
-      <c r="L80" s="51"/>
-      <c r="M80" s="51"/>
-      <c r="N80" s="51"/>
-      <c r="O80" s="51"/>
-      <c r="P80" s="51"/>
-      <c r="Q80" s="51"/>
-      <c r="R80" s="51"/>
-    </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="L80" s="52"/>
+      <c r="M80" s="52"/>
+      <c r="N80" s="52"/>
+      <c r="O80" s="52"/>
+      <c r="P80" s="52"/>
+      <c r="Q80" s="52"/>
+      <c r="R80" s="52"/>
+    </row>
+    <row r="81" spans="2:18">
       <c r="B81" s="11" t="s">
         <v>377</v>
       </c>
@@ -6957,7 +7010,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:18">
       <c r="B82" s="2">
         <v>1</v>
       </c>
@@ -6999,7 +7052,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:18">
       <c r="B83" s="2">
         <v>2</v>
       </c>
@@ -7041,7 +7094,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:18">
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
@@ -7063,30 +7116,30 @@
       <c r="Q84" s="15"/>
       <c r="R84" s="15"/>
     </row>
-    <row r="87" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="88" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="47" t="s">
+    <row r="87" spans="2:18" ht="17.25" thickBot="1"/>
+    <row r="88" spans="2:18" ht="17.25" thickBot="1">
+      <c r="B88" s="49" t="s">
         <v>313</v>
       </c>
-      <c r="C88" s="48"/>
-      <c r="D88" s="48"/>
-      <c r="E88" s="48"/>
-      <c r="F88" s="48"/>
-      <c r="G88" s="48"/>
-      <c r="H88" s="48"/>
-      <c r="I88" s="49"/>
-      <c r="K88" s="47" t="s">
+      <c r="C88" s="50"/>
+      <c r="D88" s="50"/>
+      <c r="E88" s="50"/>
+      <c r="F88" s="50"/>
+      <c r="G88" s="50"/>
+      <c r="H88" s="50"/>
+      <c r="I88" s="51"/>
+      <c r="K88" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="L88" s="48"/>
-      <c r="M88" s="48"/>
-      <c r="N88" s="48"/>
-      <c r="O88" s="48"/>
-      <c r="P88" s="48"/>
-      <c r="Q88" s="48"/>
-      <c r="R88" s="49"/>
-    </row>
-    <row r="89" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="L88" s="50"/>
+      <c r="M88" s="50"/>
+      <c r="N88" s="50"/>
+      <c r="O88" s="50"/>
+      <c r="P88" s="50"/>
+      <c r="Q88" s="50"/>
+      <c r="R88" s="51"/>
+    </row>
+    <row r="89" spans="2:18">
       <c r="B89" s="11" t="s">
         <v>380</v>
       </c>
@@ -7136,7 +7189,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="90" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:18">
       <c r="B90" s="2">
         <v>1</v>
       </c>
@@ -7180,7 +7233,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="91" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:18">
       <c r="B91" s="2">
         <v>2</v>
       </c>
@@ -7222,7 +7275,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="92" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:18">
       <c r="K92" s="2">
         <v>3</v>
       </c>
@@ -7240,7 +7293,7 @@
       <c r="Q92" s="2"/>
       <c r="R92" s="2"/>
     </row>
-    <row r="93" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:18" ht="17.25" thickBot="1">
       <c r="K93" s="2">
         <v>4</v>
       </c>
@@ -7258,17 +7311,17 @@
       <c r="Q93" s="2"/>
       <c r="R93" s="2"/>
     </row>
-    <row r="94" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="47" t="s">
+    <row r="94" spans="2:18" ht="17.25" thickBot="1">
+      <c r="B94" s="49" t="s">
         <v>318</v>
       </c>
-      <c r="C94" s="48"/>
-      <c r="D94" s="48"/>
-      <c r="E94" s="48"/>
-      <c r="F94" s="48"/>
-      <c r="G94" s="48"/>
-      <c r="H94" s="48"/>
-      <c r="I94" s="49"/>
+      <c r="C94" s="50"/>
+      <c r="D94" s="50"/>
+      <c r="E94" s="50"/>
+      <c r="F94" s="50"/>
+      <c r="G94" s="50"/>
+      <c r="H94" s="50"/>
+      <c r="I94" s="51"/>
       <c r="K94" s="2">
         <v>5</v>
       </c>
@@ -7286,7 +7339,7 @@
       <c r="Q94" s="2"/>
       <c r="R94" s="2"/>
     </row>
-    <row r="95" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:18">
       <c r="B95" s="11" t="s">
         <v>381</v>
       </c>
@@ -7312,7 +7365,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="96" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:18">
       <c r="B96" s="2">
         <v>1</v>
       </c>
@@ -7334,7 +7387,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:9">
       <c r="B97" s="2">
         <v>2</v>
       </c>
@@ -7356,20 +7409,20 @@
         <v>319</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="100" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="47" t="s">
+    <row r="99" spans="2:9" ht="17.25" thickBot="1"/>
+    <row r="100" spans="2:9" ht="17.25" thickBot="1">
+      <c r="B100" s="49" t="s">
         <v>320</v>
       </c>
-      <c r="C100" s="48"/>
-      <c r="D100" s="48"/>
-      <c r="E100" s="48"/>
-      <c r="F100" s="48"/>
-      <c r="G100" s="48"/>
-      <c r="H100" s="48"/>
-      <c r="I100" s="49"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C100" s="50"/>
+      <c r="D100" s="50"/>
+      <c r="E100" s="50"/>
+      <c r="F100" s="50"/>
+      <c r="G100" s="50"/>
+      <c r="H100" s="50"/>
+      <c r="I100" s="51"/>
+    </row>
+    <row r="101" spans="2:9">
       <c r="B101" s="11" t="s">
         <v>382</v>
       </c>
@@ -7395,7 +7448,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:9">
       <c r="B102" s="2">
         <v>1</v>
       </c>
@@ -7417,7 +7470,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:9">
       <c r="B103" s="2">
         <v>2</v>
       </c>
@@ -7439,20 +7492,20 @@
         <v>322</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="108" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="47" t="s">
+    <row r="107" spans="2:9" ht="17.25" thickBot="1"/>
+    <row r="108" spans="2:9" ht="17.25" thickBot="1">
+      <c r="B108" s="49" t="s">
         <v>338</v>
       </c>
-      <c r="C108" s="48"/>
-      <c r="D108" s="48"/>
-      <c r="E108" s="48"/>
-      <c r="F108" s="48"/>
-      <c r="G108" s="48"/>
-      <c r="H108" s="48"/>
-      <c r="I108" s="49"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C108" s="50"/>
+      <c r="D108" s="50"/>
+      <c r="E108" s="50"/>
+      <c r="F108" s="50"/>
+      <c r="G108" s="50"/>
+      <c r="H108" s="50"/>
+      <c r="I108" s="51"/>
+    </row>
+    <row r="109" spans="2:9">
       <c r="B109" s="11" t="s">
         <v>124</v>
       </c>
@@ -7478,7 +7531,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:9">
       <c r="B110" s="2">
         <v>1</v>
       </c>
@@ -7504,7 +7557,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:9">
       <c r="B111" s="2">
         <v>2</v>
       </c>
@@ -7528,7 +7581,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:9">
       <c r="B112" s="2">
         <v>3</v>
       </c>
@@ -7546,7 +7599,7 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:9">
       <c r="B113" s="2">
         <v>4</v>
       </c>
@@ -7564,7 +7617,7 @@
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:9">
       <c r="B114" s="2">
         <v>5</v>
       </c>
@@ -7582,7 +7635,7 @@
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:9">
       <c r="B115" s="2">
         <v>6</v>
       </c>
@@ -7600,7 +7653,7 @@
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:9">
       <c r="B116" s="2">
         <v>7</v>
       </c>
@@ -7618,7 +7671,7 @@
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:9">
       <c r="B117" s="2">
         <v>8</v>
       </c>
@@ -7636,20 +7689,20 @@
       <c r="H117" s="3"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="121" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="122" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="47" t="s">
+    <row r="121" spans="2:9" ht="17.25" thickBot="1"/>
+    <row r="122" spans="2:9" ht="17.25" thickBot="1">
+      <c r="B122" s="49" t="s">
         <v>386</v>
       </c>
-      <c r="C122" s="48"/>
-      <c r="D122" s="48"/>
-      <c r="E122" s="48"/>
-      <c r="F122" s="48"/>
-      <c r="G122" s="48"/>
-      <c r="H122" s="48"/>
-      <c r="I122" s="49"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C122" s="50"/>
+      <c r="D122" s="50"/>
+      <c r="E122" s="50"/>
+      <c r="F122" s="50"/>
+      <c r="G122" s="50"/>
+      <c r="H122" s="50"/>
+      <c r="I122" s="51"/>
+    </row>
+    <row r="123" spans="2:9">
       <c r="B123" s="11" t="s">
         <v>379</v>
       </c>
@@ -7675,7 +7728,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:9">
       <c r="B124" s="2">
         <v>1</v>
       </c>
@@ -7701,7 +7754,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:9">
       <c r="B125" s="2">
         <v>2</v>
       </c>
@@ -7719,7 +7772,7 @@
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:9">
       <c r="B126" s="2">
         <v>3</v>
       </c>
@@ -7737,7 +7790,7 @@
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:9">
       <c r="B127" s="2">
         <v>4</v>
       </c>
@@ -7755,7 +7808,7 @@
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:9">
       <c r="B128" s="2">
         <v>5</v>
       </c>
@@ -7775,9 +7828,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K36:R36"/>
-    <mergeCell ref="K80:R80"/>
-    <mergeCell ref="B80:I80"/>
     <mergeCell ref="B122:I122"/>
     <mergeCell ref="C2:K4"/>
     <mergeCell ref="B7:I7"/>
@@ -7794,6 +7844,9 @@
     <mergeCell ref="B88:I88"/>
     <mergeCell ref="K69:R69"/>
     <mergeCell ref="K53:R53"/>
+    <mergeCell ref="K36:R36"/>
+    <mergeCell ref="K80:R80"/>
+    <mergeCell ref="B80:I80"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7809,7 +7862,7 @@
       <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="0.875" customWidth="1"/>
     <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
@@ -7831,46 +7884,46 @@
     <col min="18" max="18" width="11" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18">
       <c r="B2">
         <f ca="1">B2:T134</f>
         <v>0</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+    </row>
+    <row r="3" spans="2:18">
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+    </row>
+    <row r="5" spans="2:18">
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
@@ -7880,7 +7933,7 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:18" ht="17.25" thickBot="1">
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
@@ -7890,17 +7943,17 @@
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
     </row>
-    <row r="7" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="47" t="s">
+    <row r="7" spans="2:18" ht="17.25" thickBot="1">
+      <c r="B7" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -7910,7 +7963,7 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18">
       <c r="B8" s="11" t="s">
         <v>124</v>
       </c>
@@ -7944,7 +7997,7 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18">
       <c r="B9" s="2">
         <v>1</v>
       </c>
@@ -7976,7 +8029,7 @@
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18">
       <c r="B10" s="2">
         <v>2</v>
       </c>
@@ -8004,7 +8057,7 @@
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18">
       <c r="B11" s="2">
         <v>3</v>
       </c>
@@ -8030,7 +8083,7 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18">
       <c r="B12" s="2">
         <v>4</v>
       </c>
@@ -8060,7 +8113,7 @@
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18">
       <c r="B13" s="2">
         <v>5</v>
       </c>
@@ -8090,7 +8143,7 @@
       <c r="Q13" s="19"/>
       <c r="R13" s="19"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18">
       <c r="B14" s="2">
         <v>6</v>
       </c>
@@ -8107,18 +8160,18 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="K14" s="50" t="s">
+      <c r="K14" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+    </row>
+    <row r="15" spans="2:18">
       <c r="B15" s="2">
         <v>7</v>
       </c>
@@ -8144,7 +8197,7 @@
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18">
       <c r="B16" s="2">
         <v>8</v>
       </c>
@@ -8184,7 +8237,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18">
       <c r="B17" s="2">
         <v>9</v>
       </c>
@@ -8224,7 +8277,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18">
       <c r="B18" s="2">
         <v>10</v>
       </c>
@@ -8256,7 +8309,7 @@
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18">
       <c r="B19" s="2">
         <v>11</v>
       </c>
@@ -8288,7 +8341,7 @@
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -8312,7 +8365,7 @@
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18">
       <c r="K21" s="19"/>
       <c r="L21" s="17" t="s">
         <v>239</v>
@@ -8328,7 +8381,7 @@
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18">
       <c r="K22" s="8"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
@@ -8338,7 +8391,7 @@
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18">
       <c r="K23" s="8"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
@@ -8348,7 +8401,7 @@
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18">
       <c r="K24" s="8"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
@@ -8358,7 +8411,7 @@
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18">
       <c r="K25" s="8"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
@@ -8368,7 +8421,7 @@
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
     </row>
-    <row r="26" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:18" ht="17.25" thickBot="1">
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -8388,29 +8441,29 @@
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="50" t="s">
+    <row r="27" spans="2:18" ht="17.25" thickBot="1">
+      <c r="B27" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="K27" s="47" t="s">
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="K27" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="49"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="51"/>
+    </row>
+    <row r="28" spans="2:18">
       <c r="B28" s="14"/>
       <c r="C28" s="14" t="s">
         <v>21</v>
@@ -8458,7 +8511,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:18">
       <c r="B29" s="19"/>
       <c r="C29" s="16" t="s">
         <v>246</v>
@@ -8504,7 +8557,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:18">
       <c r="B30" s="19"/>
       <c r="C30" s="16" t="s">
         <v>233</v>
@@ -8540,7 +8593,7 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:18">
       <c r="K31" s="2">
         <v>3</v>
       </c>
@@ -8558,7 +8611,7 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:18">
       <c r="K32" s="8"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
@@ -8568,7 +8621,7 @@
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:19">
       <c r="K33" s="8"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
@@ -8578,7 +8631,7 @@
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:19">
       <c r="K34" s="8"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
@@ -8588,7 +8641,7 @@
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
     </row>
-    <row r="35" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:19" ht="17.25" thickBot="1">
       <c r="K35" s="8"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
@@ -8598,29 +8651,29 @@
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
     </row>
-    <row r="36" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="47" t="s">
+    <row r="36" spans="2:19" ht="17.25" thickBot="1">
+      <c r="B36" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="49"/>
-      <c r="K36" s="47" t="s">
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="51"/>
+      <c r="K36" s="49" t="s">
         <v>299</v>
       </c>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="49"/>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="51"/>
+    </row>
+    <row r="37" spans="2:19">
       <c r="B37" s="11" t="s">
         <v>125</v>
       </c>
@@ -8670,7 +8723,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:19">
       <c r="B38" s="2">
         <v>1</v>
       </c>
@@ -8716,7 +8769,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:19">
       <c r="B39" s="31">
         <v>2</v>
       </c>
@@ -8766,7 +8819,7 @@
       </c>
       <c r="S39" s="28"/>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:19">
       <c r="B40" s="31">
         <v>3</v>
       </c>
@@ -8804,7 +8857,7 @@
       <c r="R40" s="31"/>
       <c r="S40" s="28"/>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:19">
       <c r="B41" s="31">
         <v>4</v>
       </c>
@@ -8844,7 +8897,7 @@
       </c>
       <c r="S41" s="28"/>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:19">
       <c r="B42" s="31">
         <v>5</v>
       </c>
@@ -8880,7 +8933,7 @@
       <c r="R42" s="31"/>
       <c r="S42" s="28"/>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:19">
       <c r="B43" s="31">
         <v>6</v>
       </c>
@@ -8916,7 +8969,7 @@
       <c r="R43" s="31"/>
       <c r="S43" s="28"/>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:19">
       <c r="B44" s="31">
         <v>7</v>
       </c>
@@ -8954,7 +9007,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:19">
       <c r="B45" s="31">
         <v>8</v>
       </c>
@@ -8982,7 +9035,7 @@
       <c r="R45" s="29"/>
       <c r="S45" s="28"/>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:19">
       <c r="B46" s="31">
         <v>9</v>
       </c>
@@ -9010,7 +9063,7 @@
       <c r="R46" s="29"/>
       <c r="S46" s="28"/>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:19">
       <c r="B47" s="31">
         <v>10</v>
       </c>
@@ -9038,7 +9091,7 @@
       <c r="R47" s="29"/>
       <c r="S47" s="28"/>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:19">
       <c r="B48" s="31">
         <v>11</v>
       </c>
@@ -9066,7 +9119,7 @@
       <c r="R48" s="29"/>
       <c r="S48" s="28"/>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:19">
       <c r="B49" s="20">
         <v>12</v>
       </c>
@@ -9094,7 +9147,7 @@
       <c r="R49" s="29"/>
       <c r="S49" s="28"/>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:19">
       <c r="B50" s="20">
         <v>13</v>
       </c>
@@ -9122,7 +9175,7 @@
       <c r="R50" s="29"/>
       <c r="S50" s="28"/>
     </row>
-    <row r="51" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:19" ht="18" customHeight="1">
       <c r="B51" s="20">
         <v>14</v>
       </c>
@@ -9150,7 +9203,7 @@
       <c r="R51" s="29"/>
       <c r="S51" s="28"/>
     </row>
-    <row r="52" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:19" ht="17.25" thickBot="1">
       <c r="B52" s="31">
         <v>15</v>
       </c>
@@ -9178,7 +9231,7 @@
       <c r="R52" s="29"/>
       <c r="S52" s="28"/>
     </row>
-    <row r="53" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:19" ht="17.25" thickBot="1">
       <c r="B53" s="31">
         <v>16</v>
       </c>
@@ -9196,19 +9249,19 @@
       <c r="H53" s="31"/>
       <c r="I53" s="31"/>
       <c r="J53" s="28"/>
-      <c r="K53" s="52" t="s">
+      <c r="K53" s="54" t="s">
         <v>300</v>
       </c>
-      <c r="L53" s="53"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="53"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="53"/>
-      <c r="Q53" s="53"/>
-      <c r="R53" s="54"/>
+      <c r="L53" s="55"/>
+      <c r="M53" s="55"/>
+      <c r="N53" s="55"/>
+      <c r="O53" s="55"/>
+      <c r="P53" s="55"/>
+      <c r="Q53" s="55"/>
+      <c r="R53" s="56"/>
       <c r="S53" s="28"/>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:19">
       <c r="B54" s="28"/>
       <c r="C54" s="28"/>
       <c r="D54" s="28"/>
@@ -9244,7 +9297,7 @@
       </c>
       <c r="S54" s="28"/>
     </row>
-    <row r="55" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:19" ht="17.25" thickBot="1">
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
       <c r="D55" s="28"/>
@@ -9276,17 +9329,17 @@
       </c>
       <c r="S55" s="28"/>
     </row>
-    <row r="56" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="52" t="s">
+    <row r="56" spans="2:19" ht="17.25" thickBot="1">
+      <c r="B56" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="54"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="56"/>
       <c r="J56" s="28"/>
       <c r="K56" s="31">
         <v>2</v>
@@ -9314,7 +9367,7 @@
       </c>
       <c r="S56" s="28"/>
     </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:19">
       <c r="B57" s="25" t="s">
         <v>126</v>
       </c>
@@ -9358,7 +9411,7 @@
       <c r="R57" s="31"/>
       <c r="S57" s="28"/>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:19">
       <c r="B58" s="26">
         <v>1</v>
       </c>
@@ -9406,7 +9459,7 @@
       </c>
       <c r="S58" s="28"/>
     </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:19">
       <c r="B59" s="26">
         <v>2</v>
       </c>
@@ -9448,7 +9501,7 @@
       <c r="R59" s="26"/>
       <c r="S59" s="28"/>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:19">
       <c r="B60" s="22">
         <v>3</v>
       </c>
@@ -9484,7 +9537,7 @@
       <c r="R60" s="26"/>
       <c r="S60" s="28"/>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:19">
       <c r="B61" s="26">
         <v>4</v>
       </c>
@@ -9524,7 +9577,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:19">
       <c r="B62" s="26">
         <v>5</v>
       </c>
@@ -9554,7 +9607,7 @@
       <c r="R62" s="29"/>
       <c r="S62" s="28"/>
     </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:19">
       <c r="B63" s="26">
         <v>6</v>
       </c>
@@ -9584,7 +9637,7 @@
       <c r="R63" s="29"/>
       <c r="S63" s="28"/>
     </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:19">
       <c r="B64" s="26">
         <v>7</v>
       </c>
@@ -9614,7 +9667,7 @@
       <c r="R64" s="29"/>
       <c r="S64" s="28"/>
     </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:19">
       <c r="B65" s="22">
         <v>8</v>
       </c>
@@ -9644,7 +9697,7 @@
       <c r="R65" s="29"/>
       <c r="S65" s="28"/>
     </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:19">
       <c r="B66" s="26">
         <v>9</v>
       </c>
@@ -9674,7 +9727,7 @@
       <c r="R66" s="29"/>
       <c r="S66" s="28"/>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:19">
       <c r="B67" s="26">
         <v>10</v>
       </c>
@@ -9704,7 +9757,7 @@
       <c r="R67" s="29"/>
       <c r="S67" s="28"/>
     </row>
-    <row r="68" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:19" ht="17.25" thickBot="1">
       <c r="B68" s="26">
         <v>11</v>
       </c>
@@ -9734,7 +9787,7 @@
       <c r="R68" s="29"/>
       <c r="S68" s="28"/>
     </row>
-    <row r="69" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:19" ht="17.25" thickBot="1">
       <c r="B69" s="26">
         <v>12</v>
       </c>
@@ -9754,21 +9807,21 @@
       <c r="H69" s="26"/>
       <c r="I69" s="26"/>
       <c r="J69" s="28"/>
-      <c r="K69" s="52" t="s">
+      <c r="K69" s="54" t="s">
         <v>286</v>
       </c>
-      <c r="L69" s="53"/>
-      <c r="M69" s="53"/>
-      <c r="N69" s="53"/>
-      <c r="O69" s="53"/>
-      <c r="P69" s="53"/>
-      <c r="Q69" s="53"/>
-      <c r="R69" s="54"/>
+      <c r="L69" s="55"/>
+      <c r="M69" s="55"/>
+      <c r="N69" s="55"/>
+      <c r="O69" s="55"/>
+      <c r="P69" s="55"/>
+      <c r="Q69" s="55"/>
+      <c r="R69" s="56"/>
       <c r="S69" s="28" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:19">
       <c r="B70" s="26">
         <v>13</v>
       </c>
@@ -9814,7 +9867,7 @@
       </c>
       <c r="S70" s="28"/>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:19">
       <c r="B71" s="26">
         <v>15</v>
       </c>
@@ -9854,7 +9907,7 @@
       </c>
       <c r="S71" s="28"/>
     </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:19">
       <c r="B72" s="26">
         <v>16</v>
       </c>
@@ -9900,7 +9953,7 @@
       </c>
       <c r="S72" s="28"/>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:19">
       <c r="B73" s="26">
         <v>17</v>
       </c>
@@ -9936,7 +9989,7 @@
       <c r="R73" s="26"/>
       <c r="S73" s="28"/>
     </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:19">
       <c r="B74" s="22">
         <v>18</v>
       </c>
@@ -9978,7 +10031,7 @@
       </c>
       <c r="S74" s="28"/>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:19">
       <c r="B75" s="22">
         <v>19</v>
       </c>
@@ -10016,7 +10069,7 @@
       <c r="R75" s="26"/>
       <c r="S75" s="28"/>
     </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:19">
       <c r="B76" s="28"/>
       <c r="C76" s="33" t="s">
         <v>461</v>
@@ -10048,7 +10101,7 @@
       </c>
       <c r="S76" s="28"/>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:19">
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
       <c r="D77" s="28"/>
@@ -10078,7 +10131,7 @@
       </c>
       <c r="S77" s="28"/>
     </row>
-    <row r="78" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:19" ht="17.25" thickBot="1">
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
       <c r="D78" s="28"/>
@@ -10098,17 +10151,17 @@
       <c r="R78" s="29"/>
       <c r="S78" s="28"/>
     </row>
-    <row r="79" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="52" t="s">
+    <row r="79" spans="2:19" ht="17.25" thickBot="1">
+      <c r="B79" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="C79" s="53"/>
-      <c r="D79" s="53"/>
-      <c r="E79" s="53"/>
-      <c r="F79" s="53"/>
-      <c r="G79" s="53"/>
-      <c r="H79" s="53"/>
-      <c r="I79" s="54"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="55"/>
+      <c r="H79" s="55"/>
+      <c r="I79" s="56"/>
       <c r="J79" s="28"/>
       <c r="K79" s="28"/>
       <c r="L79" s="28"/>
@@ -10120,7 +10173,7 @@
       <c r="R79" s="29"/>
       <c r="S79" s="28"/>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:19">
       <c r="B80" s="25" t="s">
         <v>127</v>
       </c>
@@ -10146,7 +10199,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:18">
       <c r="B81" s="26">
         <v>1</v>
       </c>
@@ -10172,7 +10225,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:18">
       <c r="B82" s="26">
         <v>2</v>
       </c>
@@ -10192,7 +10245,7 @@
       <c r="H82" s="26"/>
       <c r="I82" s="26"/>
     </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:18">
       <c r="B83" s="26">
         <v>3</v>
       </c>
@@ -10214,7 +10267,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:18">
       <c r="B84" s="26">
         <v>4</v>
       </c>
@@ -10232,7 +10285,7 @@
       <c r="H84" s="26"/>
       <c r="I84" s="26"/>
     </row>
-    <row r="85" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:18">
       <c r="B85" s="26">
         <v>5</v>
       </c>
@@ -10250,7 +10303,7 @@
       <c r="H85" s="26"/>
       <c r="I85" s="26"/>
     </row>
-    <row r="86" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:18">
       <c r="B86" s="26">
         <v>6</v>
       </c>
@@ -10267,18 +10320,18 @@
       <c r="G86" s="26"/>
       <c r="H86" s="26"/>
       <c r="I86" s="26"/>
-      <c r="K86" s="51" t="s">
+      <c r="K86" s="52" t="s">
         <v>311</v>
       </c>
-      <c r="L86" s="51"/>
-      <c r="M86" s="51"/>
-      <c r="N86" s="51"/>
-      <c r="O86" s="51"/>
-      <c r="P86" s="51"/>
-      <c r="Q86" s="51"/>
-      <c r="R86" s="51"/>
-    </row>
-    <row r="87" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="L86" s="52"/>
+      <c r="M86" s="52"/>
+      <c r="N86" s="52"/>
+      <c r="O86" s="52"/>
+      <c r="P86" s="52"/>
+      <c r="Q86" s="52"/>
+      <c r="R86" s="52"/>
+    </row>
+    <row r="87" spans="2:18">
       <c r="B87" s="26">
         <v>7</v>
       </c>
@@ -10320,7 +10373,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="88" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:18">
       <c r="B88" s="26">
         <v>8</v>
       </c>
@@ -10358,7 +10411,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="89" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:18">
       <c r="B89" s="26">
         <v>9</v>
       </c>
@@ -10396,7 +10449,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="90" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:18">
       <c r="B90" s="26">
         <v>10</v>
       </c>
@@ -10430,7 +10483,7 @@
       <c r="Q90" s="19"/>
       <c r="R90" s="19"/>
     </row>
-    <row r="91" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:18">
       <c r="B91" s="26">
         <v>11</v>
       </c>
@@ -10448,7 +10501,7 @@
       <c r="H91" s="26"/>
       <c r="I91" s="26"/>
     </row>
-    <row r="92" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:18">
       <c r="B92" s="26">
         <v>12</v>
       </c>
@@ -10466,7 +10519,7 @@
       <c r="H92" s="26"/>
       <c r="I92" s="26"/>
     </row>
-    <row r="93" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:18" ht="17.25" thickBot="1">
       <c r="B93" s="23"/>
       <c r="C93" s="23"/>
       <c r="D93" s="23"/>
@@ -10476,7 +10529,7 @@
       <c r="H93" s="24"/>
       <c r="I93" s="24"/>
     </row>
-    <row r="94" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:18" ht="17.25" thickBot="1">
       <c r="B94" s="23"/>
       <c r="C94" s="23"/>
       <c r="D94" s="23"/>
@@ -10485,18 +10538,18 @@
       <c r="G94" s="24"/>
       <c r="H94" s="24"/>
       <c r="I94" s="24"/>
-      <c r="K94" s="47" t="s">
+      <c r="K94" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="L94" s="48"/>
-      <c r="M94" s="48"/>
-      <c r="N94" s="48"/>
-      <c r="O94" s="48"/>
-      <c r="P94" s="48"/>
-      <c r="Q94" s="48"/>
-      <c r="R94" s="49"/>
-    </row>
-    <row r="95" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L94" s="50"/>
+      <c r="M94" s="50"/>
+      <c r="N94" s="50"/>
+      <c r="O94" s="50"/>
+      <c r="P94" s="50"/>
+      <c r="Q94" s="50"/>
+      <c r="R94" s="51"/>
+    </row>
+    <row r="95" spans="2:18" ht="17.25" thickBot="1">
       <c r="K95" s="11" t="s">
         <v>379</v>
       </c>
@@ -10522,17 +10575,17 @@
         <v>225</v>
       </c>
     </row>
-    <row r="96" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="47" t="s">
+    <row r="96" spans="2:18" ht="17.25" thickBot="1">
+      <c r="B96" s="49" t="s">
         <v>372</v>
       </c>
-      <c r="C96" s="48"/>
-      <c r="D96" s="48"/>
-      <c r="E96" s="48"/>
-      <c r="F96" s="48"/>
-      <c r="G96" s="48"/>
-      <c r="H96" s="48"/>
-      <c r="I96" s="49"/>
+      <c r="C96" s="50"/>
+      <c r="D96" s="50"/>
+      <c r="E96" s="50"/>
+      <c r="F96" s="50"/>
+      <c r="G96" s="50"/>
+      <c r="H96" s="50"/>
+      <c r="I96" s="51"/>
       <c r="K96" s="20">
         <v>1</v>
       </c>
@@ -10554,7 +10607,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="97" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:18">
       <c r="B97" s="11" t="s">
         <v>377</v>
       </c>
@@ -10596,7 +10649,7 @@
       <c r="Q97" s="22"/>
       <c r="R97" s="22"/>
     </row>
-    <row r="98" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:18">
       <c r="B98" s="20">
         <v>1</v>
       </c>
@@ -10640,7 +10693,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="99" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:18">
       <c r="B99" s="2">
         <v>2</v>
       </c>
@@ -10682,7 +10735,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:18">
       <c r="B100" s="2">
         <v>3</v>
       </c>
@@ -10720,7 +10773,7 @@
       <c r="Q100" s="2"/>
       <c r="R100" s="2"/>
     </row>
-    <row r="101" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:18">
       <c r="B101" s="20">
         <v>4</v>
       </c>
@@ -10754,7 +10807,7 @@
       <c r="Q101" s="2"/>
       <c r="R101" s="2"/>
     </row>
-    <row r="102" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:18">
       <c r="K102" s="2">
         <v>7</v>
       </c>
@@ -10772,20 +10825,20 @@
       <c r="Q102" s="2"/>
       <c r="R102" s="2"/>
     </row>
-    <row r="103" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="104" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="47" t="s">
+    <row r="103" spans="2:18" ht="17.25" thickBot="1"/>
+    <row r="104" spans="2:18" ht="17.25" thickBot="1">
+      <c r="B104" s="49" t="s">
         <v>313</v>
       </c>
-      <c r="C104" s="48"/>
-      <c r="D104" s="48"/>
-      <c r="E104" s="48"/>
-      <c r="F104" s="48"/>
-      <c r="G104" s="48"/>
-      <c r="H104" s="48"/>
-      <c r="I104" s="49"/>
-    </row>
-    <row r="105" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C104" s="50"/>
+      <c r="D104" s="50"/>
+      <c r="E104" s="50"/>
+      <c r="F104" s="50"/>
+      <c r="G104" s="50"/>
+      <c r="H104" s="50"/>
+      <c r="I104" s="51"/>
+    </row>
+    <row r="105" spans="2:18">
       <c r="B105" s="11" t="s">
         <v>380</v>
       </c>
@@ -10811,7 +10864,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="106" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:18">
       <c r="B106" s="20">
         <v>1</v>
       </c>
@@ -10833,7 +10886,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="107" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:18">
       <c r="B107" s="2">
         <v>2</v>
       </c>
@@ -10855,7 +10908,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="108" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:18">
       <c r="B108" s="2">
         <v>3</v>
       </c>
@@ -10881,20 +10934,20 @@
       <c r="Q108" s="36"/>
       <c r="R108" s="36"/>
     </row>
-    <row r="110" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="111" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="47" t="s">
+    <row r="110" spans="2:18" ht="17.25" thickBot="1"/>
+    <row r="111" spans="2:18" ht="17.25" thickBot="1">
+      <c r="B111" s="49" t="s">
         <v>318</v>
       </c>
-      <c r="C111" s="48"/>
-      <c r="D111" s="48"/>
-      <c r="E111" s="48"/>
-      <c r="F111" s="48"/>
-      <c r="G111" s="48"/>
-      <c r="H111" s="48"/>
-      <c r="I111" s="49"/>
-    </row>
-    <row r="112" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C111" s="50"/>
+      <c r="D111" s="50"/>
+      <c r="E111" s="50"/>
+      <c r="F111" s="50"/>
+      <c r="G111" s="50"/>
+      <c r="H111" s="50"/>
+      <c r="I111" s="51"/>
+    </row>
+    <row r="112" spans="2:18">
       <c r="B112" s="11" t="s">
         <v>381</v>
       </c>
@@ -10920,7 +10973,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="113" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:18">
       <c r="B113" s="20">
         <v>1</v>
       </c>
@@ -10942,7 +10995,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="114" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:18">
       <c r="B114" s="2">
         <v>2</v>
       </c>
@@ -10964,7 +11017,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="115" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:18">
       <c r="B115" s="2">
         <v>3</v>
       </c>
@@ -10990,20 +11043,20 @@
       <c r="Q115" s="36"/>
       <c r="R115" s="36"/>
     </row>
-    <row r="117" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="118" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B118" s="47" t="s">
+    <row r="117" spans="2:18" ht="17.25" thickBot="1"/>
+    <row r="118" spans="2:18" ht="17.25" thickBot="1">
+      <c r="B118" s="49" t="s">
         <v>320</v>
       </c>
-      <c r="C118" s="48"/>
-      <c r="D118" s="48"/>
-      <c r="E118" s="48"/>
-      <c r="F118" s="48"/>
-      <c r="G118" s="48"/>
-      <c r="H118" s="48"/>
-      <c r="I118" s="49"/>
-    </row>
-    <row r="119" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C118" s="50"/>
+      <c r="D118" s="50"/>
+      <c r="E118" s="50"/>
+      <c r="F118" s="50"/>
+      <c r="G118" s="50"/>
+      <c r="H118" s="50"/>
+      <c r="I118" s="51"/>
+    </row>
+    <row r="119" spans="2:18">
       <c r="B119" s="11" t="s">
         <v>382</v>
       </c>
@@ -11029,7 +11082,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="120" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:18">
       <c r="B120" s="20">
         <v>1</v>
       </c>
@@ -11051,7 +11104,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="121" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:18">
       <c r="B121" s="2">
         <v>2</v>
       </c>
@@ -11073,7 +11126,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="122" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:18">
       <c r="B122" s="2">
         <v>3</v>
       </c>
@@ -11095,20 +11148,20 @@
         <v>290</v>
       </c>
     </row>
-    <row r="125" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="126" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="47" t="s">
+    <row r="125" spans="2:18" ht="17.25" thickBot="1"/>
+    <row r="126" spans="2:18" ht="17.25" thickBot="1">
+      <c r="B126" s="49" t="s">
         <v>338</v>
       </c>
-      <c r="C126" s="48"/>
-      <c r="D126" s="48"/>
-      <c r="E126" s="48"/>
-      <c r="F126" s="48"/>
-      <c r="G126" s="48"/>
-      <c r="H126" s="48"/>
-      <c r="I126" s="49"/>
-    </row>
-    <row r="127" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C126" s="50"/>
+      <c r="D126" s="50"/>
+      <c r="E126" s="50"/>
+      <c r="F126" s="50"/>
+      <c r="G126" s="50"/>
+      <c r="H126" s="50"/>
+      <c r="I126" s="51"/>
+    </row>
+    <row r="127" spans="2:18">
       <c r="B127" s="11" t="s">
         <v>124</v>
       </c>
@@ -11134,7 +11187,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="128" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:18">
       <c r="B128" s="2">
         <v>1</v>
       </c>
@@ -11160,7 +11213,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13">
       <c r="A129" s="23"/>
       <c r="B129" s="2">
         <v>2</v>
@@ -11189,7 +11242,7 @@
       <c r="L129" s="23"/>
       <c r="M129" s="23"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13">
       <c r="A130" s="23"/>
       <c r="B130" s="2">
         <v>3</v>
@@ -11212,7 +11265,7 @@
       <c r="L130" s="23"/>
       <c r="M130" s="23"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13">
       <c r="A131" s="23"/>
       <c r="B131" s="2">
         <v>4</v>
@@ -11235,7 +11288,7 @@
       <c r="L131" s="23"/>
       <c r="M131" s="23"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13">
       <c r="A132" s="23"/>
       <c r="B132" s="2">
         <v>5</v>
@@ -11258,7 +11311,7 @@
       <c r="L132" s="23"/>
       <c r="M132" s="23"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13">
       <c r="A133" s="23"/>
       <c r="B133" s="31">
         <v>6</v>
@@ -11281,7 +11334,7 @@
       <c r="L133" s="23"/>
       <c r="M133" s="23"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13">
       <c r="A134" s="23"/>
       <c r="B134" s="31">
         <v>7</v>
@@ -11304,7 +11357,7 @@
       <c r="L134" s="23"/>
       <c r="M134" s="23"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13">
       <c r="A135" s="23"/>
       <c r="B135" s="31">
         <v>8</v>
@@ -11327,7 +11380,7 @@
       <c r="L135" s="23"/>
       <c r="M135" s="23"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13">
       <c r="A136" s="23"/>
       <c r="B136" s="23"/>
       <c r="C136" s="23"/>
@@ -11342,7 +11395,7 @@
       <c r="L136" s="23"/>
       <c r="M136" s="23"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13">
       <c r="A137" s="23"/>
       <c r="B137" s="23"/>
       <c r="C137" s="23"/>
@@ -11357,7 +11410,7 @@
       <c r="L137" s="23"/>
       <c r="M137" s="23"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13">
       <c r="A138" s="23"/>
       <c r="B138" s="23"/>
       <c r="C138" s="23"/>
@@ -11372,7 +11425,7 @@
       <c r="L138" s="23"/>
       <c r="M138" s="23"/>
     </row>
-    <row r="139" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" ht="17.25" thickBot="1">
       <c r="A139" s="23"/>
       <c r="B139" s="23"/>
       <c r="C139" s="23"/>
@@ -11387,24 +11440,24 @@
       <c r="L139" s="23"/>
       <c r="M139" s="23"/>
     </row>
-    <row r="140" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" ht="17.25" thickBot="1">
       <c r="A140" s="23"/>
-      <c r="B140" s="52" t="s">
+      <c r="B140" s="54" t="s">
         <v>386</v>
       </c>
-      <c r="C140" s="53"/>
-      <c r="D140" s="53"/>
-      <c r="E140" s="53"/>
-      <c r="F140" s="53"/>
-      <c r="G140" s="53"/>
-      <c r="H140" s="53"/>
-      <c r="I140" s="54"/>
+      <c r="C140" s="55"/>
+      <c r="D140" s="55"/>
+      <c r="E140" s="55"/>
+      <c r="F140" s="55"/>
+      <c r="G140" s="55"/>
+      <c r="H140" s="55"/>
+      <c r="I140" s="56"/>
       <c r="J140" s="23"/>
       <c r="K140" s="23"/>
       <c r="L140" s="23"/>
       <c r="M140" s="23"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13">
       <c r="A141" s="23"/>
       <c r="B141" s="25" t="s">
         <v>379</v>
@@ -11435,7 +11488,7 @@
       <c r="L141" s="23"/>
       <c r="M141" s="23"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13">
       <c r="A142" s="23"/>
       <c r="B142" s="26">
         <v>1</v>
@@ -11466,7 +11519,7 @@
       <c r="L142" s="23"/>
       <c r="M142" s="23"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13">
       <c r="A143" s="23"/>
       <c r="B143" s="26">
         <v>2</v>
@@ -11489,7 +11542,7 @@
       <c r="L143" s="23"/>
       <c r="M143" s="23"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13">
       <c r="A144" s="23"/>
       <c r="B144" s="26">
         <v>3</v>
@@ -11512,7 +11565,7 @@
       <c r="L144" s="23"/>
       <c r="M144" s="23"/>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13">
       <c r="A145" s="23"/>
       <c r="B145" s="26">
         <v>4</v>
@@ -11535,7 +11588,7 @@
       <c r="L145" s="23"/>
       <c r="M145" s="23"/>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13">
       <c r="A146" s="23"/>
       <c r="B146" s="26">
         <v>5</v>
@@ -11558,7 +11611,7 @@
       <c r="L146" s="23"/>
       <c r="M146" s="23"/>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13">
       <c r="A147" s="23"/>
       <c r="B147" s="23"/>
       <c r="C147" s="23"/>
@@ -11573,7 +11626,7 @@
       <c r="L147" s="23"/>
       <c r="M147" s="23"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13">
       <c r="A148" s="23"/>
       <c r="B148" s="23"/>
       <c r="C148" s="23"/>
@@ -11588,7 +11641,7 @@
       <c r="L148" s="23"/>
       <c r="M148" s="23"/>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13">
       <c r="A149" s="23"/>
       <c r="B149" s="23"/>
       <c r="C149" s="23"/>
@@ -11603,7 +11656,7 @@
       <c r="L149" s="23"/>
       <c r="M149" s="23"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13">
       <c r="A150" s="23"/>
       <c r="B150" s="23"/>
       <c r="C150" s="23"/>
@@ -11618,7 +11671,7 @@
       <c r="L150" s="23"/>
       <c r="M150" s="23"/>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13">
       <c r="B151" s="23"/>
       <c r="C151" s="23"/>
       <c r="D151" s="23"/>
@@ -11628,7 +11681,7 @@
       <c r="H151" s="29"/>
       <c r="I151" s="29"/>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13">
       <c r="B152" s="23"/>
       <c r="C152" s="23"/>
       <c r="D152" s="23"/>
@@ -11638,7 +11691,7 @@
       <c r="H152" s="29"/>
       <c r="I152" s="29"/>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13">
       <c r="B153" s="23"/>
       <c r="C153" s="23"/>
       <c r="D153" s="23"/>
@@ -11648,7 +11701,7 @@
       <c r="H153" s="29"/>
       <c r="I153" s="29"/>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13">
       <c r="B154" s="23"/>
       <c r="C154" s="23"/>
       <c r="D154" s="23"/>
@@ -11690,11 +11743,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -11702,7 +11755,7 @@
     <col min="4" max="4" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -11719,30 +11772,30 @@
         <v>515</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="55">
+    <row r="7" spans="1:6" ht="33">
+      <c r="A7" s="40">
         <v>44054</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="41" t="s">
         <v>517</v>
       </c>
       <c r="D7" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="55">
+    <row r="8" spans="1:6" ht="33">
+      <c r="A8" s="40">
         <v>44054</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="41" t="s">
         <v>521</v>
       </c>
       <c r="D8" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="55">
+    <row r="9" spans="1:6">
+      <c r="A9" s="40">
         <v>44054</v>
       </c>
       <c r="B9" t="s">
@@ -11752,8 +11805,8 @@
         <v>509</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="55">
+    <row r="10" spans="1:6">
+      <c r="A10" s="40">
         <v>44054</v>
       </c>
       <c r="B10" t="s">
@@ -11766,8 +11819,8 @@
         <v>509</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="55">
+    <row r="11" spans="1:6">
+      <c r="A11" s="40">
         <v>44054</v>
       </c>
       <c r="B11" t="s">
@@ -11780,14 +11833,14 @@
         <v>509</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="55"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="55">
+    <row r="12" spans="1:6">
+      <c r="A12" s="40"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="40"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="40">
         <v>44054</v>
       </c>
       <c r="B14" t="s">
@@ -11797,8 +11850,8 @@
         <v>516</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="55">
+    <row r="15" spans="1:6">
+      <c r="A15" s="40">
         <v>44054</v>
       </c>
       <c r="B15" t="s">
@@ -11810,9 +11863,12 @@
       <c r="D15" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="55">
+      <c r="E15" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="40">
         <v>44054</v>
       </c>
       <c r="B16" t="s">
@@ -11821,20 +11877,23 @@
       <c r="D16" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="55">
+      <c r="E16" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="49.5">
+      <c r="A17" s="40">
         <v>44054</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="41" t="s">
         <v>518</v>
       </c>
       <c r="D17" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="55"/>
+    <row r="18" spans="1:5">
+      <c r="A18" s="40"/>
       <c r="B18" t="s">
         <v>547</v>
       </c>
@@ -11842,69 +11901,124 @@
         <v>516</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="55">
+    <row r="21" spans="1:5">
+      <c r="A21" s="40">
         <v>44054</v>
       </c>
       <c r="B21" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="55">
+    <row r="22" spans="1:5">
+      <c r="A22" s="40">
         <v>44054</v>
       </c>
       <c r="B22" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="55">
+    <row r="24" spans="1:5">
+      <c r="A24" s="40">
         <v>44054</v>
       </c>
       <c r="B24" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="55">
+    <row r="25" spans="1:5">
+      <c r="A25" s="40">
         <v>44054</v>
       </c>
       <c r="B25" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
+      <c r="A27" s="40">
+        <v>44054</v>
+      </c>
       <c r="B27" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
+      <c r="A28" s="40">
+        <v>44054</v>
+      </c>
       <c r="B28" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
+      <c r="A30" s="40">
+        <v>44054</v>
+      </c>
       <c r="B30" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="40">
+        <v>44054</v>
+      </c>
       <c r="B31" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" s="57">
+        <v>44054</v>
+      </c>
+      <c r="B32" s="58" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="59"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="40">
+        <v>44054</v>
+      </c>
       <c r="B33" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="40">
+        <v>44054</v>
+      </c>
+      <c r="B34" t="s">
+        <v>550</v>
+      </c>
+      <c r="E34" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="49.5">
+      <c r="A35" s="40">
+        <v>44054</v>
+      </c>
+      <c r="B35" t="s">
+        <v>551</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="40">
+        <v>44054</v>
+      </c>
+      <c r="B36" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="B41" t="s">
         <v>523</v>
       </c>
@@ -11912,7 +12026,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="B42" t="s">
         <v>529</v>
       </c>
@@ -11920,7 +12034,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5">
       <c r="B45" t="s">
         <v>524</v>
       </c>
@@ -11928,7 +12042,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5">
       <c r="B46" t="s">
         <v>530</v>
       </c>
@@ -11936,7 +12050,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5">
       <c r="B47" t="s">
         <v>531</v>
       </c>
@@ -11944,7 +12058,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3">
       <c r="B50" t="s">
         <v>525</v>
       </c>
@@ -11952,7 +12066,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3">
       <c r="B51" t="s">
         <v>535</v>
       </c>
@@ -11960,7 +12074,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3">
       <c r="B52" t="s">
         <v>536</v>
       </c>
@@ -11968,7 +12082,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3">
       <c r="B53" t="s">
         <v>537</v>
       </c>
@@ -11976,7 +12090,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3">
       <c r="B55" t="s">
         <v>526</v>
       </c>
@@ -11984,7 +12098,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3">
       <c r="B56" t="s">
         <v>538</v>
       </c>
@@ -11992,7 +12106,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:3">
       <c r="B58" t="s">
         <v>527</v>
       </c>
@@ -12000,7 +12114,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:3">
       <c r="B62" t="s">
         <v>528</v>
       </c>
@@ -12008,7 +12122,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:3">
       <c r="B64" t="s">
         <v>546</v>
       </c>

--- a/팀작업 테이블명세서.xlsx
+++ b/팀작업 테이블명세서.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12690" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="3"/>
+    <workbookView xWindow="13845" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -166,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="636">
   <si>
     <t>Null허용</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2385,6 +2386,332 @@
   </si>
   <si>
     <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬스장 찾기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대분류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 상세설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그에 따라 재정렬
+태그  : 운동 종류 / 장소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이 헬스장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지
+완료 여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬스장 등록 / 관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬스장 등록하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬스장 관리하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진 올리기 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도 위치 붙이기 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트레이너 찾기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그에 따라 재정렬 태그: 운동 종류 / 장소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소 검색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>별점, 리뷰순</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>별점, 리뷰순</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이 트레이너</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트레이너 등록 / 관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트레이너 등록하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트레이너 관리하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김윤영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김윤영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김윤영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문가 메뉴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문가 등록이란(소개페이지)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약시스템 매칭, 확인 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모임이란(소개페이지)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모임 찾기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모임 개설/ 관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이재형 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인원수, 찜하기 수 카운팅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그에 따른 정렬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이징…?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모임 사진 불러오기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모임 메인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모임 찜하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파도타기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 소모임으로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입신청/인원관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입신청 페이지 / 인원관리 페이지로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스트 쓰기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀글, 종류 등</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스트에 사진 붙이기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새 소모임 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새 소모임 생성 페이지로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모임 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모임 수정 페이지로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모임 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모임 삭제하기. 모든 인원 탈퇴 필요 (자기만 있는, 인원수 1만 가능)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모임 생성 / 소모임 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30%(리뉴얼 필요)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이 소모임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레임 적 요소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤더</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 페이지 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40%(스타일 필요)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 정보 보기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 정보 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 쓴 글 보기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덱스 메인 포스트 가져오기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5%(리뉴얼 필요)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40%(스타일 리뉴얼 필요)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(공지 관련 모든 기능 : 페이징, 글 보기, 권한자의 글쓰기, 수정하기, 삭제하기)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주하는 질문</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데일리 헬스란(소개페이지)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2395,7 +2722,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2510,6 +2837,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2524,7 +2869,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2680,16 +3025,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2816,6 +3173,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2823,9 +3189,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2837,6 +3200,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2846,10 +3212,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2861,18 +3227,25 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="메모" xfId="1" builtinId="10"/>
+    <cellStyle name="제목 2" xfId="2" builtinId="17"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3157,7 +3530,7 @@
       <selection activeCell="B11" sqref="B11:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.75" customWidth="1"/>
@@ -3173,29 +3546,29 @@
     <col min="14" max="14" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="42" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>124</v>
       </c>
@@ -3227,7 +3600,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -3256,7 +3629,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -3281,7 +3654,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -3308,7 +3681,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -3329,7 +3702,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -3348,7 +3721,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -3376,7 +3749,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -3399,7 +3772,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -3422,7 +3795,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3445,7 +3818,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3462,7 +3835,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3481,7 +3854,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3500,7 +3873,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -3519,7 +3892,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -3538,7 +3911,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -3557,20 +3930,20 @@
       <c r="I18" t="s">
         <v>72</v>
       </c>
-      <c r="J18" s="42" t="s">
+      <c r="J18" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="44"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="47"/>
       <c r="Q18" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="J19" s="1" t="s">
         <v>134</v>
@@ -3594,16 +3967,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="45" t="s">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
       <c r="J20" s="2">
         <v>1</v>
       </c>
@@ -3624,7 +3997,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="J21" s="2">
         <v>2</v>
@@ -3646,16 +4019,16 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="42" t="s">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="44"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="47"/>
       <c r="J22" s="2">
         <v>3</v>
       </c>
@@ -3672,7 +4045,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>125</v>
       </c>
@@ -3708,7 +4081,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -3746,7 +4119,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>2</v>
       </c>
@@ -3772,7 +4145,7 @@
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>3</v>
       </c>
@@ -3790,20 +4163,20 @@
         <v>18</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="J26" s="46" t="s">
+      <c r="J26" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="48"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="50"/>
       <c r="Q26" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>4</v>
       </c>
@@ -3841,7 +4214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>5</v>
       </c>
@@ -3877,7 +4250,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>6</v>
       </c>
@@ -3913,7 +4286,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J30" s="2">
         <v>3</v>
       </c>
@@ -3930,30 +4303,30 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="42" t="s">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="44"/>
-      <c r="J33" s="42" t="s">
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="47"/>
+      <c r="J33" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="44"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="47"/>
       <c r="Q33" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>126</v>
       </c>
@@ -3997,7 +4370,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -4039,7 +4412,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>2</v>
       </c>
@@ -4081,7 +4454,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>3</v>
       </c>
@@ -4113,7 +4486,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>4</v>
       </c>
@@ -4145,7 +4518,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>5</v>
       </c>
@@ -4177,7 +4550,7 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>6</v>
       </c>
@@ -4201,7 +4574,7 @@
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>7</v>
       </c>
@@ -4218,7 +4591,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>8</v>
       </c>
@@ -4235,7 +4608,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>9</v>
       </c>
@@ -4252,23 +4625,23 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="H45" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="42" t="s">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="44"/>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="47"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>127</v>
       </c>
@@ -4291,7 +4664,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>1</v>
       </c>
@@ -4314,7 +4687,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>2</v>
       </c>
@@ -4331,7 +4704,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>3</v>
       </c>
@@ -4348,7 +4721,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>4</v>
       </c>
@@ -4365,7 +4738,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>5</v>
       </c>
@@ -4382,36 +4755,36 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="M54" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
-      <c r="A55" s="42" t="s">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="44"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="47"/>
       <c r="H55" t="s">
         <v>136</v>
       </c>
-      <c r="J55" s="42" t="s">
+      <c r="J55" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="K55" s="43"/>
-      <c r="L55" s="43"/>
-      <c r="M55" s="43"/>
-      <c r="N55" s="43"/>
-      <c r="O55" s="43"/>
-      <c r="P55" s="44"/>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="K55" s="46"/>
+      <c r="L55" s="46"/>
+      <c r="M55" s="46"/>
+      <c r="N55" s="46"/>
+      <c r="O55" s="46"/>
+      <c r="P55" s="47"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>128</v>
       </c>
@@ -4455,7 +4828,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>1</v>
       </c>
@@ -4499,7 +4872,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>2</v>
       </c>
@@ -4535,7 +4908,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>3</v>
       </c>
@@ -4575,7 +4948,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>4</v>
       </c>
@@ -4607,7 +4980,7 @@
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>5</v>
       </c>
@@ -4639,7 +5012,7 @@
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>6</v>
       </c>
@@ -4656,45 +5029,45 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
     </row>
-    <row r="65" spans="1:16">
-      <c r="F65" s="45" t="s">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F65" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="G65" s="45"/>
-      <c r="H65" s="45"/>
-      <c r="I65" s="45"/>
-      <c r="J65" s="45"/>
-      <c r="K65" s="45"/>
-    </row>
-    <row r="66" spans="1:16">
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="51"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M66" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
-      <c r="A67" s="42" t="s">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A67" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="44"/>
-      <c r="J67" s="42" t="s">
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="47"/>
+      <c r="J67" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="K67" s="43"/>
-      <c r="L67" s="43"/>
-      <c r="M67" s="43"/>
-      <c r="N67" s="43"/>
-      <c r="O67" s="43"/>
-      <c r="P67" s="44"/>
-    </row>
-    <row r="68" spans="1:16">
+      <c r="K67" s="46"/>
+      <c r="L67" s="46"/>
+      <c r="M67" s="46"/>
+      <c r="N67" s="46"/>
+      <c r="O67" s="46"/>
+      <c r="P67" s="47"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>129</v>
       </c>
@@ -4738,7 +5111,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>1</v>
       </c>
@@ -4782,7 +5155,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>2</v>
       </c>
@@ -4820,7 +5193,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>3</v>
       </c>
@@ -4856,7 +5229,7 @@
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>4</v>
       </c>
@@ -4888,7 +5261,7 @@
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>5</v>
       </c>
@@ -4920,7 +5293,7 @@
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J74" s="2">
         <v>6</v>
       </c>
@@ -4937,7 +5310,7 @@
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J75" s="2">
         <v>7</v>
       </c>
@@ -4954,7 +5327,7 @@
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J76" s="2">
         <v>8</v>
       </c>
@@ -4971,7 +5344,7 @@
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J77" s="2">
         <v>9</v>
       </c>
@@ -4990,6 +5363,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A33:G33"/>
     <mergeCell ref="J67:P67"/>
     <mergeCell ref="J55:P55"/>
     <mergeCell ref="J18:P18"/>
@@ -4999,11 +5377,6 @@
     <mergeCell ref="A55:G55"/>
     <mergeCell ref="A67:G67"/>
     <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A33:G33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5020,7 +5393,7 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="0.875" customWidth="1"/>
     <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
@@ -5042,42 +5415,42 @@
     <col min="18" max="18" width="11" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18">
-      <c r="C2" s="45" t="s">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C2" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-    </row>
-    <row r="3" spans="2:18">
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-    </row>
-    <row r="4" spans="2:18">
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-    </row>
-    <row r="5" spans="2:18">
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
@@ -5087,7 +5460,7 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="2:18" ht="17.25" thickBot="1">
+    <row r="6" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
@@ -5097,17 +5470,17 @@
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
     </row>
-    <row r="7" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B7" s="49" t="s">
+    <row r="7" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -5117,7 +5490,7 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>124</v>
       </c>
@@ -5151,7 +5524,7 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>1</v>
       </c>
@@ -5183,7 +5556,7 @@
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>2</v>
       </c>
@@ -5211,7 +5584,7 @@
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>3</v>
       </c>
@@ -5237,7 +5610,7 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>4</v>
       </c>
@@ -5267,7 +5640,7 @@
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>5</v>
       </c>
@@ -5297,7 +5670,7 @@
       <c r="Q13" s="15"/>
       <c r="R13" s="15"/>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>6</v>
       </c>
@@ -5314,18 +5687,18 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="K14" s="53" t="s">
+      <c r="K14" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-    </row>
-    <row r="15" spans="2:18">
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>7</v>
       </c>
@@ -5351,7 +5724,7 @@
       <c r="Q15" s="15"/>
       <c r="R15" s="15"/>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>8</v>
       </c>
@@ -5391,7 +5764,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="2:18">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>9</v>
       </c>
@@ -5431,7 +5804,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="2:18">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>10</v>
       </c>
@@ -5463,7 +5836,7 @@
       <c r="Q18" s="15"/>
       <c r="R18" s="15"/>
     </row>
-    <row r="19" spans="2:18">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>11</v>
       </c>
@@ -5495,7 +5868,7 @@
       <c r="Q19" s="15"/>
       <c r="R19" s="15"/>
     </row>
-    <row r="20" spans="2:18">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -5519,7 +5892,7 @@
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
     </row>
-    <row r="21" spans="2:18">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K21" s="15"/>
       <c r="L21" s="17" t="s">
         <v>239</v>
@@ -5535,7 +5908,7 @@
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K22" s="8"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
@@ -5545,7 +5918,7 @@
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
     </row>
-    <row r="23" spans="2:18">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K23" s="8"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
@@ -5555,7 +5928,7 @@
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
     </row>
-    <row r="24" spans="2:18">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K24" s="8"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
@@ -5565,7 +5938,7 @@
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
     </row>
-    <row r="25" spans="2:18">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K25" s="8"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
@@ -5575,7 +5948,7 @@
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
     </row>
-    <row r="26" spans="2:18" ht="17.25" thickBot="1">
+    <row r="26" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -5595,29 +5968,29 @@
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B27" s="53" t="s">
+    <row r="27" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="K27" s="49" t="s">
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="K27" s="52" t="s">
         <v>247</v>
       </c>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="51"/>
-    </row>
-    <row r="28" spans="2:18">
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="54"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B28" s="14"/>
       <c r="C28" s="14" t="s">
         <v>21</v>
@@ -5665,7 +6038,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="2:18">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B29" s="15"/>
       <c r="C29" s="16" t="s">
         <v>246</v>
@@ -5707,7 +6080,7 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
     </row>
-    <row r="30" spans="2:18">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B30" s="15"/>
       <c r="C30" s="16" t="s">
         <v>233</v>
@@ -5741,7 +6114,7 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
     </row>
-    <row r="31" spans="2:18">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K31" s="8"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
@@ -5751,7 +6124,7 @@
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
     </row>
-    <row r="32" spans="2:18">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K32" s="8"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
@@ -5761,7 +6134,7 @@
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
     </row>
-    <row r="33" spans="2:19">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
       <c r="K33" s="8"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
@@ -5771,7 +6144,7 @@
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
     </row>
-    <row r="34" spans="2:19">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
       <c r="K34" s="8"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
@@ -5781,7 +6154,7 @@
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
     </row>
-    <row r="35" spans="2:19" ht="17.25" thickBot="1">
+    <row r="35" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K35" s="8"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
@@ -5791,29 +6164,29 @@
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
     </row>
-    <row r="36" spans="2:19" ht="17.25" thickBot="1">
-      <c r="B36" s="49" t="s">
+    <row r="36" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="52" t="s">
         <v>250</v>
       </c>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="51"/>
-      <c r="K36" s="49" t="s">
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="54"/>
+      <c r="K36" s="52" t="s">
         <v>299</v>
       </c>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="51"/>
-    </row>
-    <row r="37" spans="2:19">
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="54"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B37" s="11" t="s">
         <v>125</v>
       </c>
@@ -5863,7 +6236,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="2:19">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B38" s="2">
         <v>1</v>
       </c>
@@ -5909,7 +6282,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="39" spans="2:19">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B39" s="2">
         <v>2</v>
       </c>
@@ -5957,7 +6330,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="40" spans="2:19">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B40" s="2">
         <v>3</v>
       </c>
@@ -5993,7 +6366,7 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
     </row>
-    <row r="41" spans="2:19">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B41" s="2">
         <v>4</v>
       </c>
@@ -6031,7 +6404,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="42" spans="2:19">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
         <v>5</v>
       </c>
@@ -6065,7 +6438,7 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
     </row>
-    <row r="43" spans="2:19">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
         <v>6</v>
       </c>
@@ -6099,7 +6472,7 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
     </row>
-    <row r="44" spans="2:19">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B44" s="2">
         <v>7</v>
       </c>
@@ -6120,7 +6493,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="45" spans="2:19">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B45" s="2">
         <v>8</v>
       </c>
@@ -6138,7 +6511,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="2:19">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B46" s="2">
         <v>9</v>
       </c>
@@ -6156,7 +6529,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="2:19">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <v>10</v>
       </c>
@@ -6174,7 +6547,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="2:19">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B48" s="2">
         <v>11</v>
       </c>
@@ -6192,7 +6565,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="2:19">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B49" s="2">
         <v>12</v>
       </c>
@@ -6210,7 +6583,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="2:19">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B50" s="2">
         <v>13</v>
       </c>
@@ -6228,30 +6601,30 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="52" spans="2:19" ht="17.25" thickBot="1"/>
-    <row r="53" spans="2:19" ht="17.25" thickBot="1">
-      <c r="B53" s="49" t="s">
+    <row r="52" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="51"/>
-      <c r="K53" s="49" t="s">
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="54"/>
+      <c r="K53" s="52" t="s">
         <v>300</v>
       </c>
-      <c r="L53" s="50"/>
-      <c r="M53" s="50"/>
-      <c r="N53" s="50"/>
-      <c r="O53" s="50"/>
-      <c r="P53" s="50"/>
-      <c r="Q53" s="50"/>
-      <c r="R53" s="51"/>
-    </row>
-    <row r="54" spans="2:19">
+      <c r="L53" s="53"/>
+      <c r="M53" s="53"/>
+      <c r="N53" s="53"/>
+      <c r="O53" s="53"/>
+      <c r="P53" s="53"/>
+      <c r="Q53" s="53"/>
+      <c r="R53" s="54"/>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
         <v>126</v>
       </c>
@@ -6301,7 +6674,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="55" spans="2:19">
+    <row r="55" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B55" s="2">
         <v>1</v>
       </c>
@@ -6347,7 +6720,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="56" spans="2:19">
+    <row r="56" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B56" s="2">
         <v>2</v>
       </c>
@@ -6395,7 +6768,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="57" spans="2:19">
+    <row r="57" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B57" s="2">
         <v>3</v>
       </c>
@@ -6431,7 +6804,7 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
     </row>
-    <row r="58" spans="2:19">
+    <row r="58" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B58" s="2">
         <v>4</v>
       </c>
@@ -6471,7 +6844,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="59" spans="2:19">
+    <row r="59" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B59" s="2">
         <v>5</v>
       </c>
@@ -6507,7 +6880,7 @@
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
     </row>
-    <row r="60" spans="2:19">
+    <row r="60" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B60" s="2">
         <v>6</v>
       </c>
@@ -6541,7 +6914,7 @@
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
     </row>
-    <row r="61" spans="2:19">
+    <row r="61" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B61" s="2">
         <v>7</v>
       </c>
@@ -6562,7 +6935,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="62" spans="2:19">
+    <row r="62" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B62" s="2">
         <v>8</v>
       </c>
@@ -6580,7 +6953,7 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="2:19">
+    <row r="63" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B63" s="2">
         <v>9</v>
       </c>
@@ -6598,7 +6971,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="2:19">
+    <row r="64" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B64" s="2">
         <v>10</v>
       </c>
@@ -6616,7 +6989,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="2:19">
+    <row r="65" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B65" s="2">
         <v>11</v>
       </c>
@@ -6634,33 +7007,33 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="68" spans="2:19" ht="17.25" thickBot="1"/>
-    <row r="69" spans="2:19" ht="17.25" thickBot="1">
-      <c r="B69" s="49" t="s">
+    <row r="68" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="69" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="C69" s="50"/>
-      <c r="D69" s="50"/>
-      <c r="E69" s="50"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="50"/>
-      <c r="I69" s="51"/>
-      <c r="K69" s="49" t="s">
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="53"/>
+      <c r="I69" s="54"/>
+      <c r="K69" s="52" t="s">
         <v>286</v>
       </c>
-      <c r="L69" s="50"/>
-      <c r="M69" s="50"/>
-      <c r="N69" s="50"/>
-      <c r="O69" s="50"/>
-      <c r="P69" s="50"/>
-      <c r="Q69" s="50"/>
-      <c r="R69" s="51"/>
+      <c r="L69" s="53"/>
+      <c r="M69" s="53"/>
+      <c r="N69" s="53"/>
+      <c r="O69" s="53"/>
+      <c r="P69" s="53"/>
+      <c r="Q69" s="53"/>
+      <c r="R69" s="54"/>
       <c r="S69" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="70" spans="2:19">
+    <row r="70" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B70" s="11" t="s">
         <v>127</v>
       </c>
@@ -6710,7 +7083,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="71" spans="2:19">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B71" s="2">
         <v>1</v>
       </c>
@@ -6756,7 +7129,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="72" spans="2:19">
+    <row r="72" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B72" s="2">
         <v>2</v>
       </c>
@@ -6798,7 +7171,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="73" spans="2:19">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B73" s="2">
         <v>3</v>
       </c>
@@ -6838,7 +7211,7 @@
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
     </row>
-    <row r="74" spans="2:19">
+    <row r="74" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B74" s="2">
         <v>4</v>
       </c>
@@ -6878,7 +7251,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="75" spans="2:19">
+    <row r="75" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B75" s="2">
         <v>5</v>
       </c>
@@ -6914,7 +7287,7 @@
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
     </row>
-    <row r="76" spans="2:19">
+    <row r="76" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B76" s="2">
         <v>6</v>
       </c>
@@ -6937,30 +7310,30 @@
         <v>358</v>
       </c>
     </row>
-    <row r="79" spans="2:19" ht="17.25" thickBot="1"/>
-    <row r="80" spans="2:19" ht="17.25" thickBot="1">
-      <c r="B80" s="49" t="s">
+    <row r="79" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="52" t="s">
         <v>372</v>
       </c>
-      <c r="C80" s="50"/>
-      <c r="D80" s="50"/>
-      <c r="E80" s="50"/>
-      <c r="F80" s="50"/>
-      <c r="G80" s="50"/>
-      <c r="H80" s="50"/>
-      <c r="I80" s="51"/>
-      <c r="K80" s="52" t="s">
+      <c r="C80" s="53"/>
+      <c r="D80" s="53"/>
+      <c r="E80" s="53"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="53"/>
+      <c r="I80" s="54"/>
+      <c r="K80" s="56" t="s">
         <v>311</v>
       </c>
-      <c r="L80" s="52"/>
-      <c r="M80" s="52"/>
-      <c r="N80" s="52"/>
-      <c r="O80" s="52"/>
-      <c r="P80" s="52"/>
-      <c r="Q80" s="52"/>
-      <c r="R80" s="52"/>
-    </row>
-    <row r="81" spans="2:18">
+      <c r="L80" s="56"/>
+      <c r="M80" s="56"/>
+      <c r="N80" s="56"/>
+      <c r="O80" s="56"/>
+      <c r="P80" s="56"/>
+      <c r="Q80" s="56"/>
+      <c r="R80" s="56"/>
+    </row>
+    <row r="81" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B81" s="11" t="s">
         <v>377</v>
       </c>
@@ -7010,7 +7383,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="2:18">
+    <row r="82" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B82" s="2">
         <v>1</v>
       </c>
@@ -7052,7 +7425,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="83" spans="2:18">
+    <row r="83" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B83" s="2">
         <v>2</v>
       </c>
@@ -7094,7 +7467,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="84" spans="2:18">
+    <row r="84" spans="2:18" x14ac:dyDescent="0.3">
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
@@ -7116,30 +7489,30 @@
       <c r="Q84" s="15"/>
       <c r="R84" s="15"/>
     </row>
-    <row r="87" spans="2:18" ht="17.25" thickBot="1"/>
-    <row r="88" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B88" s="49" t="s">
+    <row r="87" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="88" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="52" t="s">
         <v>313</v>
       </c>
-      <c r="C88" s="50"/>
-      <c r="D88" s="50"/>
-      <c r="E88" s="50"/>
-      <c r="F88" s="50"/>
-      <c r="G88" s="50"/>
-      <c r="H88" s="50"/>
-      <c r="I88" s="51"/>
-      <c r="K88" s="49" t="s">
+      <c r="C88" s="53"/>
+      <c r="D88" s="53"/>
+      <c r="E88" s="53"/>
+      <c r="F88" s="53"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="53"/>
+      <c r="I88" s="54"/>
+      <c r="K88" s="52" t="s">
         <v>323</v>
       </c>
-      <c r="L88" s="50"/>
-      <c r="M88" s="50"/>
-      <c r="N88" s="50"/>
-      <c r="O88" s="50"/>
-      <c r="P88" s="50"/>
-      <c r="Q88" s="50"/>
-      <c r="R88" s="51"/>
-    </row>
-    <row r="89" spans="2:18">
+      <c r="L88" s="53"/>
+      <c r="M88" s="53"/>
+      <c r="N88" s="53"/>
+      <c r="O88" s="53"/>
+      <c r="P88" s="53"/>
+      <c r="Q88" s="53"/>
+      <c r="R88" s="54"/>
+    </row>
+    <row r="89" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B89" s="11" t="s">
         <v>380</v>
       </c>
@@ -7189,7 +7562,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="90" spans="2:18">
+    <row r="90" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B90" s="2">
         <v>1</v>
       </c>
@@ -7233,7 +7606,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="91" spans="2:18">
+    <row r="91" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B91" s="2">
         <v>2</v>
       </c>
@@ -7275,7 +7648,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="92" spans="2:18">
+    <row r="92" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K92" s="2">
         <v>3</v>
       </c>
@@ -7293,7 +7666,7 @@
       <c r="Q92" s="2"/>
       <c r="R92" s="2"/>
     </row>
-    <row r="93" spans="2:18" ht="17.25" thickBot="1">
+    <row r="93" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K93" s="2">
         <v>4</v>
       </c>
@@ -7311,17 +7684,17 @@
       <c r="Q93" s="2"/>
       <c r="R93" s="2"/>
     </row>
-    <row r="94" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B94" s="49" t="s">
+    <row r="94" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="52" t="s">
         <v>318</v>
       </c>
-      <c r="C94" s="50"/>
-      <c r="D94" s="50"/>
-      <c r="E94" s="50"/>
-      <c r="F94" s="50"/>
-      <c r="G94" s="50"/>
-      <c r="H94" s="50"/>
-      <c r="I94" s="51"/>
+      <c r="C94" s="53"/>
+      <c r="D94" s="53"/>
+      <c r="E94" s="53"/>
+      <c r="F94" s="53"/>
+      <c r="G94" s="53"/>
+      <c r="H94" s="53"/>
+      <c r="I94" s="54"/>
       <c r="K94" s="2">
         <v>5</v>
       </c>
@@ -7339,7 +7712,7 @@
       <c r="Q94" s="2"/>
       <c r="R94" s="2"/>
     </row>
-    <row r="95" spans="2:18">
+    <row r="95" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B95" s="11" t="s">
         <v>381</v>
       </c>
@@ -7365,7 +7738,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="96" spans="2:18">
+    <row r="96" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B96" s="2">
         <v>1</v>
       </c>
@@ -7387,7 +7760,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="97" spans="2:9">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="2">
         <v>2</v>
       </c>
@@ -7409,20 +7782,20 @@
         <v>319</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="17.25" thickBot="1"/>
-    <row r="100" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B100" s="49" t="s">
+    <row r="99" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="100" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="52" t="s">
         <v>320</v>
       </c>
-      <c r="C100" s="50"/>
-      <c r="D100" s="50"/>
-      <c r="E100" s="50"/>
-      <c r="F100" s="50"/>
-      <c r="G100" s="50"/>
-      <c r="H100" s="50"/>
-      <c r="I100" s="51"/>
-    </row>
-    <row r="101" spans="2:9">
+      <c r="C100" s="53"/>
+      <c r="D100" s="53"/>
+      <c r="E100" s="53"/>
+      <c r="F100" s="53"/>
+      <c r="G100" s="53"/>
+      <c r="H100" s="53"/>
+      <c r="I100" s="54"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="11" t="s">
         <v>382</v>
       </c>
@@ -7448,7 +7821,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="102" spans="2:9">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="2">
         <v>1</v>
       </c>
@@ -7470,7 +7843,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="103" spans="2:9">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="2">
         <v>2</v>
       </c>
@@ -7492,20 +7865,20 @@
         <v>322</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="17.25" thickBot="1"/>
-    <row r="108" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B108" s="49" t="s">
+    <row r="107" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="108" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B108" s="52" t="s">
         <v>338</v>
       </c>
-      <c r="C108" s="50"/>
-      <c r="D108" s="50"/>
-      <c r="E108" s="50"/>
-      <c r="F108" s="50"/>
-      <c r="G108" s="50"/>
-      <c r="H108" s="50"/>
-      <c r="I108" s="51"/>
-    </row>
-    <row r="109" spans="2:9">
+      <c r="C108" s="53"/>
+      <c r="D108" s="53"/>
+      <c r="E108" s="53"/>
+      <c r="F108" s="53"/>
+      <c r="G108" s="53"/>
+      <c r="H108" s="53"/>
+      <c r="I108" s="54"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="11" t="s">
         <v>124</v>
       </c>
@@ -7531,7 +7904,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="110" spans="2:9">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="2">
         <v>1</v>
       </c>
@@ -7557,7 +7930,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="111" spans="2:9">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="2">
         <v>2</v>
       </c>
@@ -7581,7 +7954,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="112" spans="2:9">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="2">
         <v>3</v>
       </c>
@@ -7599,7 +7972,7 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="2:9">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="2">
         <v>4</v>
       </c>
@@ -7617,7 +7990,7 @@
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="2:9">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="2">
         <v>5</v>
       </c>
@@ -7635,7 +8008,7 @@
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="2:9">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="2">
         <v>6</v>
       </c>
@@ -7653,7 +8026,7 @@
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="2:9">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="2">
         <v>7</v>
       </c>
@@ -7671,7 +8044,7 @@
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="2:9">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="2">
         <v>8</v>
       </c>
@@ -7689,20 +8062,20 @@
       <c r="H117" s="3"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="121" spans="2:9" ht="17.25" thickBot="1"/>
-    <row r="122" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B122" s="49" t="s">
+    <row r="121" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B122" s="52" t="s">
         <v>386</v>
       </c>
-      <c r="C122" s="50"/>
-      <c r="D122" s="50"/>
-      <c r="E122" s="50"/>
-      <c r="F122" s="50"/>
-      <c r="G122" s="50"/>
-      <c r="H122" s="50"/>
-      <c r="I122" s="51"/>
-    </row>
-    <row r="123" spans="2:9">
+      <c r="C122" s="53"/>
+      <c r="D122" s="53"/>
+      <c r="E122" s="53"/>
+      <c r="F122" s="53"/>
+      <c r="G122" s="53"/>
+      <c r="H122" s="53"/>
+      <c r="I122" s="54"/>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="11" t="s">
         <v>379</v>
       </c>
@@ -7728,7 +8101,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="124" spans="2:9">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="2">
         <v>1</v>
       </c>
@@ -7754,7 +8127,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="125" spans="2:9">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="2">
         <v>2</v>
       </c>
@@ -7772,7 +8145,7 @@
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="2:9">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="2">
         <v>3</v>
       </c>
@@ -7790,7 +8163,7 @@
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
     </row>
-    <row r="127" spans="2:9">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="2">
         <v>4</v>
       </c>
@@ -7808,7 +8181,7 @@
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="2:9">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="2">
         <v>5</v>
       </c>
@@ -7828,6 +8201,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K36:R36"/>
+    <mergeCell ref="K80:R80"/>
+    <mergeCell ref="B80:I80"/>
     <mergeCell ref="B122:I122"/>
     <mergeCell ref="C2:K4"/>
     <mergeCell ref="B7:I7"/>
@@ -7844,9 +8220,6 @@
     <mergeCell ref="B88:I88"/>
     <mergeCell ref="K69:R69"/>
     <mergeCell ref="K53:R53"/>
-    <mergeCell ref="K36:R36"/>
-    <mergeCell ref="K80:R80"/>
-    <mergeCell ref="B80:I80"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7858,11 +8231,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S154"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="0.875" customWidth="1"/>
     <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
@@ -7884,46 +8257,42 @@
     <col min="18" max="18" width="11" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18">
-      <c r="B2">
-        <f ca="1">B2:T134</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="45" t="s">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C2" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-    </row>
-    <row r="3" spans="2:18">
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-    </row>
-    <row r="4" spans="2:18">
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-    </row>
-    <row r="5" spans="2:18">
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
@@ -7933,7 +8302,7 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="2:18" ht="17.25" thickBot="1">
+    <row r="6" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
@@ -7943,17 +8312,17 @@
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
     </row>
-    <row r="7" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B7" s="49" t="s">
+    <row r="7" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -7963,7 +8332,7 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>124</v>
       </c>
@@ -7997,7 +8366,7 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>1</v>
       </c>
@@ -8029,7 +8398,7 @@
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>2</v>
       </c>
@@ -8057,7 +8426,7 @@
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>3</v>
       </c>
@@ -8083,7 +8452,7 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>4</v>
       </c>
@@ -8113,7 +8482,7 @@
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>5</v>
       </c>
@@ -8143,7 +8512,7 @@
       <c r="Q13" s="19"/>
       <c r="R13" s="19"/>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>6</v>
       </c>
@@ -8160,18 +8529,18 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="K14" s="53" t="s">
+      <c r="K14" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-    </row>
-    <row r="15" spans="2:18">
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>7</v>
       </c>
@@ -8197,7 +8566,7 @@
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>8</v>
       </c>
@@ -8237,7 +8606,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="2:18">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>9</v>
       </c>
@@ -8277,7 +8646,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="2:18">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>10</v>
       </c>
@@ -8309,7 +8678,7 @@
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
     </row>
-    <row r="19" spans="2:18">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>11</v>
       </c>
@@ -8341,7 +8710,7 @@
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
     </row>
-    <row r="20" spans="2:18">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -8365,7 +8734,7 @@
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
     </row>
-    <row r="21" spans="2:18">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K21" s="19"/>
       <c r="L21" s="17" t="s">
         <v>239</v>
@@ -8381,7 +8750,7 @@
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K22" s="8"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
@@ -8391,7 +8760,7 @@
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
     </row>
-    <row r="23" spans="2:18">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K23" s="8"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
@@ -8401,7 +8770,7 @@
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
     </row>
-    <row r="24" spans="2:18">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K24" s="8"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
@@ -8411,7 +8780,7 @@
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
     </row>
-    <row r="25" spans="2:18">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K25" s="8"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
@@ -8421,7 +8790,7 @@
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
     </row>
-    <row r="26" spans="2:18" ht="17.25" thickBot="1">
+    <row r="26" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -8441,29 +8810,29 @@
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B27" s="53" t="s">
+    <row r="27" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="K27" s="49" t="s">
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="K27" s="52" t="s">
         <v>247</v>
       </c>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="51"/>
-    </row>
-    <row r="28" spans="2:18">
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="54"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B28" s="14"/>
       <c r="C28" s="14" t="s">
         <v>21</v>
@@ -8511,7 +8880,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="2:18">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B29" s="19"/>
       <c r="C29" s="16" t="s">
         <v>246</v>
@@ -8557,7 +8926,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="30" spans="2:18">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B30" s="19"/>
       <c r="C30" s="16" t="s">
         <v>233</v>
@@ -8593,7 +8962,7 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
     </row>
-    <row r="31" spans="2:18">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K31" s="2">
         <v>3</v>
       </c>
@@ -8611,7 +8980,7 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
     </row>
-    <row r="32" spans="2:18">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K32" s="8"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
@@ -8621,7 +8990,7 @@
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
     </row>
-    <row r="33" spans="2:19">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
       <c r="K33" s="8"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
@@ -8631,7 +9000,7 @@
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
     </row>
-    <row r="34" spans="2:19">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
       <c r="K34" s="8"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
@@ -8641,7 +9010,7 @@
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
     </row>
-    <row r="35" spans="2:19" ht="17.25" thickBot="1">
+    <row r="35" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K35" s="8"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
@@ -8651,29 +9020,29 @@
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
     </row>
-    <row r="36" spans="2:19" ht="17.25" thickBot="1">
-      <c r="B36" s="49" t="s">
+    <row r="36" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="52" t="s">
         <v>250</v>
       </c>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="51"/>
-      <c r="K36" s="49" t="s">
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="54"/>
+      <c r="K36" s="52" t="s">
         <v>299</v>
       </c>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="51"/>
-    </row>
-    <row r="37" spans="2:19">
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="54"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B37" s="11" t="s">
         <v>125</v>
       </c>
@@ -8723,7 +9092,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="2:19">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B38" s="2">
         <v>1</v>
       </c>
@@ -8769,7 +9138,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="39" spans="2:19">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B39" s="31">
         <v>2</v>
       </c>
@@ -8819,7 +9188,7 @@
       </c>
       <c r="S39" s="28"/>
     </row>
-    <row r="40" spans="2:19">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B40" s="31">
         <v>3</v>
       </c>
@@ -8857,7 +9226,7 @@
       <c r="R40" s="31"/>
       <c r="S40" s="28"/>
     </row>
-    <row r="41" spans="2:19">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B41" s="31">
         <v>4</v>
       </c>
@@ -8897,7 +9266,7 @@
       </c>
       <c r="S41" s="28"/>
     </row>
-    <row r="42" spans="2:19">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B42" s="31">
         <v>5</v>
       </c>
@@ -8933,7 +9302,7 @@
       <c r="R42" s="31"/>
       <c r="S42" s="28"/>
     </row>
-    <row r="43" spans="2:19">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B43" s="31">
         <v>6</v>
       </c>
@@ -8969,7 +9338,7 @@
       <c r="R43" s="31"/>
       <c r="S43" s="28"/>
     </row>
-    <row r="44" spans="2:19">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B44" s="31">
         <v>7</v>
       </c>
@@ -9007,7 +9376,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="45" spans="2:19">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B45" s="31">
         <v>8</v>
       </c>
@@ -9035,7 +9404,7 @@
       <c r="R45" s="29"/>
       <c r="S45" s="28"/>
     </row>
-    <row r="46" spans="2:19">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B46" s="31">
         <v>9</v>
       </c>
@@ -9063,7 +9432,7 @@
       <c r="R46" s="29"/>
       <c r="S46" s="28"/>
     </row>
-    <row r="47" spans="2:19">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B47" s="31">
         <v>10</v>
       </c>
@@ -9091,7 +9460,7 @@
       <c r="R47" s="29"/>
       <c r="S47" s="28"/>
     </row>
-    <row r="48" spans="2:19">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B48" s="31">
         <v>11</v>
       </c>
@@ -9119,7 +9488,7 @@
       <c r="R48" s="29"/>
       <c r="S48" s="28"/>
     </row>
-    <row r="49" spans="2:19">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B49" s="20">
         <v>12</v>
       </c>
@@ -9147,7 +9516,7 @@
       <c r="R49" s="29"/>
       <c r="S49" s="28"/>
     </row>
-    <row r="50" spans="2:19">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B50" s="20">
         <v>13</v>
       </c>
@@ -9175,7 +9544,7 @@
       <c r="R50" s="29"/>
       <c r="S50" s="28"/>
     </row>
-    <row r="51" spans="2:19" ht="18" customHeight="1">
+    <row r="51" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="20">
         <v>14</v>
       </c>
@@ -9203,7 +9572,7 @@
       <c r="R51" s="29"/>
       <c r="S51" s="28"/>
     </row>
-    <row r="52" spans="2:19" ht="17.25" thickBot="1">
+    <row r="52" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="31">
         <v>15</v>
       </c>
@@ -9231,7 +9600,7 @@
       <c r="R52" s="29"/>
       <c r="S52" s="28"/>
     </row>
-    <row r="53" spans="2:19" ht="17.25" thickBot="1">
+    <row r="53" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="31">
         <v>16</v>
       </c>
@@ -9249,19 +9618,19 @@
       <c r="H53" s="31"/>
       <c r="I53" s="31"/>
       <c r="J53" s="28"/>
-      <c r="K53" s="54" t="s">
+      <c r="K53" s="57" t="s">
         <v>300</v>
       </c>
-      <c r="L53" s="55"/>
-      <c r="M53" s="55"/>
-      <c r="N53" s="55"/>
-      <c r="O53" s="55"/>
-      <c r="P53" s="55"/>
-      <c r="Q53" s="55"/>
-      <c r="R53" s="56"/>
+      <c r="L53" s="58"/>
+      <c r="M53" s="58"/>
+      <c r="N53" s="58"/>
+      <c r="O53" s="58"/>
+      <c r="P53" s="58"/>
+      <c r="Q53" s="58"/>
+      <c r="R53" s="59"/>
       <c r="S53" s="28"/>
     </row>
-    <row r="54" spans="2:19">
+    <row r="54" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B54" s="28"/>
       <c r="C54" s="28"/>
       <c r="D54" s="28"/>
@@ -9297,7 +9666,7 @@
       </c>
       <c r="S54" s="28"/>
     </row>
-    <row r="55" spans="2:19" ht="17.25" thickBot="1">
+    <row r="55" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
       <c r="D55" s="28"/>
@@ -9329,17 +9698,17 @@
       </c>
       <c r="S55" s="28"/>
     </row>
-    <row r="56" spans="2:19" ht="17.25" thickBot="1">
-      <c r="B56" s="54" t="s">
+    <row r="56" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="56"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="59"/>
       <c r="J56" s="28"/>
       <c r="K56" s="31">
         <v>2</v>
@@ -9367,7 +9736,7 @@
       </c>
       <c r="S56" s="28"/>
     </row>
-    <row r="57" spans="2:19">
+    <row r="57" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B57" s="25" t="s">
         <v>126</v>
       </c>
@@ -9411,7 +9780,7 @@
       <c r="R57" s="31"/>
       <c r="S57" s="28"/>
     </row>
-    <row r="58" spans="2:19">
+    <row r="58" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B58" s="26">
         <v>1</v>
       </c>
@@ -9459,7 +9828,7 @@
       </c>
       <c r="S58" s="28"/>
     </row>
-    <row r="59" spans="2:19">
+    <row r="59" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B59" s="26">
         <v>2</v>
       </c>
@@ -9501,7 +9870,7 @@
       <c r="R59" s="26"/>
       <c r="S59" s="28"/>
     </row>
-    <row r="60" spans="2:19">
+    <row r="60" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B60" s="22">
         <v>3</v>
       </c>
@@ -9537,7 +9906,7 @@
       <c r="R60" s="26"/>
       <c r="S60" s="28"/>
     </row>
-    <row r="61" spans="2:19">
+    <row r="61" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B61" s="26">
         <v>4</v>
       </c>
@@ -9577,7 +9946,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="62" spans="2:19">
+    <row r="62" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B62" s="26">
         <v>5</v>
       </c>
@@ -9607,7 +9976,7 @@
       <c r="R62" s="29"/>
       <c r="S62" s="28"/>
     </row>
-    <row r="63" spans="2:19">
+    <row r="63" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B63" s="26">
         <v>6</v>
       </c>
@@ -9637,7 +10006,7 @@
       <c r="R63" s="29"/>
       <c r="S63" s="28"/>
     </row>
-    <row r="64" spans="2:19">
+    <row r="64" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B64" s="26">
         <v>7</v>
       </c>
@@ -9667,7 +10036,7 @@
       <c r="R64" s="29"/>
       <c r="S64" s="28"/>
     </row>
-    <row r="65" spans="2:19">
+    <row r="65" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B65" s="22">
         <v>8</v>
       </c>
@@ -9697,7 +10066,7 @@
       <c r="R65" s="29"/>
       <c r="S65" s="28"/>
     </row>
-    <row r="66" spans="2:19">
+    <row r="66" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B66" s="26">
         <v>9</v>
       </c>
@@ -9727,7 +10096,7 @@
       <c r="R66" s="29"/>
       <c r="S66" s="28"/>
     </row>
-    <row r="67" spans="2:19">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B67" s="26">
         <v>10</v>
       </c>
@@ -9757,7 +10126,7 @@
       <c r="R67" s="29"/>
       <c r="S67" s="28"/>
     </row>
-    <row r="68" spans="2:19" ht="17.25" thickBot="1">
+    <row r="68" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B68" s="26">
         <v>11</v>
       </c>
@@ -9787,7 +10156,7 @@
       <c r="R68" s="29"/>
       <c r="S68" s="28"/>
     </row>
-    <row r="69" spans="2:19" ht="17.25" thickBot="1">
+    <row r="69" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="26">
         <v>12</v>
       </c>
@@ -9807,21 +10176,21 @@
       <c r="H69" s="26"/>
       <c r="I69" s="26"/>
       <c r="J69" s="28"/>
-      <c r="K69" s="54" t="s">
+      <c r="K69" s="57" t="s">
         <v>286</v>
       </c>
-      <c r="L69" s="55"/>
-      <c r="M69" s="55"/>
-      <c r="N69" s="55"/>
-      <c r="O69" s="55"/>
-      <c r="P69" s="55"/>
-      <c r="Q69" s="55"/>
-      <c r="R69" s="56"/>
+      <c r="L69" s="58"/>
+      <c r="M69" s="58"/>
+      <c r="N69" s="58"/>
+      <c r="O69" s="58"/>
+      <c r="P69" s="58"/>
+      <c r="Q69" s="58"/>
+      <c r="R69" s="59"/>
       <c r="S69" s="28" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="70" spans="2:19">
+    <row r="70" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B70" s="26">
         <v>13</v>
       </c>
@@ -9867,7 +10236,7 @@
       </c>
       <c r="S70" s="28"/>
     </row>
-    <row r="71" spans="2:19">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B71" s="26">
         <v>15</v>
       </c>
@@ -9907,7 +10276,7 @@
       </c>
       <c r="S71" s="28"/>
     </row>
-    <row r="72" spans="2:19">
+    <row r="72" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B72" s="26">
         <v>16</v>
       </c>
@@ -9953,7 +10322,7 @@
       </c>
       <c r="S72" s="28"/>
     </row>
-    <row r="73" spans="2:19">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B73" s="26">
         <v>17</v>
       </c>
@@ -9989,7 +10358,7 @@
       <c r="R73" s="26"/>
       <c r="S73" s="28"/>
     </row>
-    <row r="74" spans="2:19">
+    <row r="74" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B74" s="22">
         <v>18</v>
       </c>
@@ -10031,7 +10400,7 @@
       </c>
       <c r="S74" s="28"/>
     </row>
-    <row r="75" spans="2:19">
+    <row r="75" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B75" s="22">
         <v>19</v>
       </c>
@@ -10069,7 +10438,7 @@
       <c r="R75" s="26"/>
       <c r="S75" s="28"/>
     </row>
-    <row r="76" spans="2:19">
+    <row r="76" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B76" s="28"/>
       <c r="C76" s="33" t="s">
         <v>461</v>
@@ -10101,7 +10470,7 @@
       </c>
       <c r="S76" s="28"/>
     </row>
-    <row r="77" spans="2:19">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
       <c r="D77" s="28"/>
@@ -10131,7 +10500,7 @@
       </c>
       <c r="S77" s="28"/>
     </row>
-    <row r="78" spans="2:19" ht="17.25" thickBot="1">
+    <row r="78" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
       <c r="D78" s="28"/>
@@ -10151,17 +10520,17 @@
       <c r="R78" s="29"/>
       <c r="S78" s="28"/>
     </row>
-    <row r="79" spans="2:19" ht="17.25" thickBot="1">
-      <c r="B79" s="54" t="s">
+    <row r="79" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="C79" s="55"/>
-      <c r="D79" s="55"/>
-      <c r="E79" s="55"/>
-      <c r="F79" s="55"/>
-      <c r="G79" s="55"/>
-      <c r="H79" s="55"/>
-      <c r="I79" s="56"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="58"/>
+      <c r="E79" s="58"/>
+      <c r="F79" s="58"/>
+      <c r="G79" s="58"/>
+      <c r="H79" s="58"/>
+      <c r="I79" s="59"/>
       <c r="J79" s="28"/>
       <c r="K79" s="28"/>
       <c r="L79" s="28"/>
@@ -10173,7 +10542,7 @@
       <c r="R79" s="29"/>
       <c r="S79" s="28"/>
     </row>
-    <row r="80" spans="2:19">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B80" s="25" t="s">
         <v>127</v>
       </c>
@@ -10199,7 +10568,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="81" spans="2:18">
+    <row r="81" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B81" s="26">
         <v>1</v>
       </c>
@@ -10225,7 +10594,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="82" spans="2:18">
+    <row r="82" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B82" s="26">
         <v>2</v>
       </c>
@@ -10245,7 +10614,7 @@
       <c r="H82" s="26"/>
       <c r="I82" s="26"/>
     </row>
-    <row r="83" spans="2:18">
+    <row r="83" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B83" s="26">
         <v>3</v>
       </c>
@@ -10267,7 +10636,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="84" spans="2:18">
+    <row r="84" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B84" s="26">
         <v>4</v>
       </c>
@@ -10285,7 +10654,7 @@
       <c r="H84" s="26"/>
       <c r="I84" s="26"/>
     </row>
-    <row r="85" spans="2:18">
+    <row r="85" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B85" s="26">
         <v>5</v>
       </c>
@@ -10303,7 +10672,7 @@
       <c r="H85" s="26"/>
       <c r="I85" s="26"/>
     </row>
-    <row r="86" spans="2:18">
+    <row r="86" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B86" s="26">
         <v>6</v>
       </c>
@@ -10320,18 +10689,18 @@
       <c r="G86" s="26"/>
       <c r="H86" s="26"/>
       <c r="I86" s="26"/>
-      <c r="K86" s="52" t="s">
+      <c r="K86" s="56" t="s">
         <v>311</v>
       </c>
-      <c r="L86" s="52"/>
-      <c r="M86" s="52"/>
-      <c r="N86" s="52"/>
-      <c r="O86" s="52"/>
-      <c r="P86" s="52"/>
-      <c r="Q86" s="52"/>
-      <c r="R86" s="52"/>
-    </row>
-    <row r="87" spans="2:18">
+      <c r="L86" s="56"/>
+      <c r="M86" s="56"/>
+      <c r="N86" s="56"/>
+      <c r="O86" s="56"/>
+      <c r="P86" s="56"/>
+      <c r="Q86" s="56"/>
+      <c r="R86" s="56"/>
+    </row>
+    <row r="87" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B87" s="26">
         <v>7</v>
       </c>
@@ -10373,7 +10742,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="88" spans="2:18">
+    <row r="88" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B88" s="26">
         <v>8</v>
       </c>
@@ -10411,7 +10780,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="89" spans="2:18">
+    <row r="89" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B89" s="26">
         <v>9</v>
       </c>
@@ -10449,7 +10818,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="90" spans="2:18">
+    <row r="90" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B90" s="26">
         <v>10</v>
       </c>
@@ -10483,7 +10852,7 @@
       <c r="Q90" s="19"/>
       <c r="R90" s="19"/>
     </row>
-    <row r="91" spans="2:18">
+    <row r="91" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B91" s="26">
         <v>11</v>
       </c>
@@ -10501,7 +10870,7 @@
       <c r="H91" s="26"/>
       <c r="I91" s="26"/>
     </row>
-    <row r="92" spans="2:18">
+    <row r="92" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B92" s="26">
         <v>12</v>
       </c>
@@ -10519,7 +10888,7 @@
       <c r="H92" s="26"/>
       <c r="I92" s="26"/>
     </row>
-    <row r="93" spans="2:18" ht="17.25" thickBot="1">
+    <row r="93" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B93" s="23"/>
       <c r="C93" s="23"/>
       <c r="D93" s="23"/>
@@ -10529,7 +10898,7 @@
       <c r="H93" s="24"/>
       <c r="I93" s="24"/>
     </row>
-    <row r="94" spans="2:18" ht="17.25" thickBot="1">
+    <row r="94" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B94" s="23"/>
       <c r="C94" s="23"/>
       <c r="D94" s="23"/>
@@ -10538,18 +10907,18 @@
       <c r="G94" s="24"/>
       <c r="H94" s="24"/>
       <c r="I94" s="24"/>
-      <c r="K94" s="49" t="s">
+      <c r="K94" s="52" t="s">
         <v>323</v>
       </c>
-      <c r="L94" s="50"/>
-      <c r="M94" s="50"/>
-      <c r="N94" s="50"/>
-      <c r="O94" s="50"/>
-      <c r="P94" s="50"/>
-      <c r="Q94" s="50"/>
-      <c r="R94" s="51"/>
-    </row>
-    <row r="95" spans="2:18" ht="17.25" thickBot="1">
+      <c r="L94" s="53"/>
+      <c r="M94" s="53"/>
+      <c r="N94" s="53"/>
+      <c r="O94" s="53"/>
+      <c r="P94" s="53"/>
+      <c r="Q94" s="53"/>
+      <c r="R94" s="54"/>
+    </row>
+    <row r="95" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K95" s="11" t="s">
         <v>379</v>
       </c>
@@ -10575,17 +10944,17 @@
         <v>225</v>
       </c>
     </row>
-    <row r="96" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B96" s="49" t="s">
+    <row r="96" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="52" t="s">
         <v>372</v>
       </c>
-      <c r="C96" s="50"/>
-      <c r="D96" s="50"/>
-      <c r="E96" s="50"/>
-      <c r="F96" s="50"/>
-      <c r="G96" s="50"/>
-      <c r="H96" s="50"/>
-      <c r="I96" s="51"/>
+      <c r="C96" s="53"/>
+      <c r="D96" s="53"/>
+      <c r="E96" s="53"/>
+      <c r="F96" s="53"/>
+      <c r="G96" s="53"/>
+      <c r="H96" s="53"/>
+      <c r="I96" s="54"/>
       <c r="K96" s="20">
         <v>1</v>
       </c>
@@ -10607,7 +10976,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="97" spans="2:18">
+    <row r="97" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B97" s="11" t="s">
         <v>377</v>
       </c>
@@ -10649,7 +11018,7 @@
       <c r="Q97" s="22"/>
       <c r="R97" s="22"/>
     </row>
-    <row r="98" spans="2:18">
+    <row r="98" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B98" s="20">
         <v>1</v>
       </c>
@@ -10693,7 +11062,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="99" spans="2:18">
+    <row r="99" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B99" s="2">
         <v>2</v>
       </c>
@@ -10735,7 +11104,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="100" spans="2:18">
+    <row r="100" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B100" s="2">
         <v>3</v>
       </c>
@@ -10773,7 +11142,7 @@
       <c r="Q100" s="2"/>
       <c r="R100" s="2"/>
     </row>
-    <row r="101" spans="2:18">
+    <row r="101" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B101" s="20">
         <v>4</v>
       </c>
@@ -10807,7 +11176,7 @@
       <c r="Q101" s="2"/>
       <c r="R101" s="2"/>
     </row>
-    <row r="102" spans="2:18">
+    <row r="102" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K102" s="2">
         <v>7</v>
       </c>
@@ -10825,20 +11194,20 @@
       <c r="Q102" s="2"/>
       <c r="R102" s="2"/>
     </row>
-    <row r="103" spans="2:18" ht="17.25" thickBot="1"/>
-    <row r="104" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B104" s="49" t="s">
+    <row r="103" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="104" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B104" s="52" t="s">
         <v>313</v>
       </c>
-      <c r="C104" s="50"/>
-      <c r="D104" s="50"/>
-      <c r="E104" s="50"/>
-      <c r="F104" s="50"/>
-      <c r="G104" s="50"/>
-      <c r="H104" s="50"/>
-      <c r="I104" s="51"/>
-    </row>
-    <row r="105" spans="2:18">
+      <c r="C104" s="53"/>
+      <c r="D104" s="53"/>
+      <c r="E104" s="53"/>
+      <c r="F104" s="53"/>
+      <c r="G104" s="53"/>
+      <c r="H104" s="53"/>
+      <c r="I104" s="54"/>
+    </row>
+    <row r="105" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B105" s="11" t="s">
         <v>380</v>
       </c>
@@ -10864,7 +11233,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="106" spans="2:18">
+    <row r="106" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B106" s="20">
         <v>1</v>
       </c>
@@ -10886,7 +11255,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="107" spans="2:18">
+    <row r="107" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B107" s="2">
         <v>2</v>
       </c>
@@ -10908,7 +11277,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="108" spans="2:18">
+    <row r="108" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B108" s="2">
         <v>3</v>
       </c>
@@ -10934,20 +11303,20 @@
       <c r="Q108" s="36"/>
       <c r="R108" s="36"/>
     </row>
-    <row r="110" spans="2:18" ht="17.25" thickBot="1"/>
-    <row r="111" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B111" s="49" t="s">
+    <row r="110" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="111" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B111" s="52" t="s">
         <v>318</v>
       </c>
-      <c r="C111" s="50"/>
-      <c r="D111" s="50"/>
-      <c r="E111" s="50"/>
-      <c r="F111" s="50"/>
-      <c r="G111" s="50"/>
-      <c r="H111" s="50"/>
-      <c r="I111" s="51"/>
-    </row>
-    <row r="112" spans="2:18">
+      <c r="C111" s="53"/>
+      <c r="D111" s="53"/>
+      <c r="E111" s="53"/>
+      <c r="F111" s="53"/>
+      <c r="G111" s="53"/>
+      <c r="H111" s="53"/>
+      <c r="I111" s="54"/>
+    </row>
+    <row r="112" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B112" s="11" t="s">
         <v>381</v>
       </c>
@@ -10973,7 +11342,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="113" spans="2:18">
+    <row r="113" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B113" s="20">
         <v>1</v>
       </c>
@@ -10995,7 +11364,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="114" spans="2:18">
+    <row r="114" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B114" s="2">
         <v>2</v>
       </c>
@@ -11017,7 +11386,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="115" spans="2:18">
+    <row r="115" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B115" s="2">
         <v>3</v>
       </c>
@@ -11043,20 +11412,20 @@
       <c r="Q115" s="36"/>
       <c r="R115" s="36"/>
     </row>
-    <row r="117" spans="2:18" ht="17.25" thickBot="1"/>
-    <row r="118" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B118" s="49" t="s">
+    <row r="117" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="118" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B118" s="52" t="s">
         <v>320</v>
       </c>
-      <c r="C118" s="50"/>
-      <c r="D118" s="50"/>
-      <c r="E118" s="50"/>
-      <c r="F118" s="50"/>
-      <c r="G118" s="50"/>
-      <c r="H118" s="50"/>
-      <c r="I118" s="51"/>
-    </row>
-    <row r="119" spans="2:18">
+      <c r="C118" s="53"/>
+      <c r="D118" s="53"/>
+      <c r="E118" s="53"/>
+      <c r="F118" s="53"/>
+      <c r="G118" s="53"/>
+      <c r="H118" s="53"/>
+      <c r="I118" s="54"/>
+    </row>
+    <row r="119" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B119" s="11" t="s">
         <v>382</v>
       </c>
@@ -11082,7 +11451,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="120" spans="2:18">
+    <row r="120" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B120" s="20">
         <v>1</v>
       </c>
@@ -11104,7 +11473,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="121" spans="2:18">
+    <row r="121" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B121" s="2">
         <v>2</v>
       </c>
@@ -11126,7 +11495,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="122" spans="2:18">
+    <row r="122" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B122" s="2">
         <v>3</v>
       </c>
@@ -11148,20 +11517,20 @@
         <v>290</v>
       </c>
     </row>
-    <row r="125" spans="2:18" ht="17.25" thickBot="1"/>
-    <row r="126" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B126" s="49" t="s">
+    <row r="125" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="126" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B126" s="52" t="s">
         <v>338</v>
       </c>
-      <c r="C126" s="50"/>
-      <c r="D126" s="50"/>
-      <c r="E126" s="50"/>
-      <c r="F126" s="50"/>
-      <c r="G126" s="50"/>
-      <c r="H126" s="50"/>
-      <c r="I126" s="51"/>
-    </row>
-    <row r="127" spans="2:18">
+      <c r="C126" s="53"/>
+      <c r="D126" s="53"/>
+      <c r="E126" s="53"/>
+      <c r="F126" s="53"/>
+      <c r="G126" s="53"/>
+      <c r="H126" s="53"/>
+      <c r="I126" s="54"/>
+    </row>
+    <row r="127" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B127" s="11" t="s">
         <v>124</v>
       </c>
@@ -11187,7 +11556,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="128" spans="2:18">
+    <row r="128" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B128" s="2">
         <v>1</v>
       </c>
@@ -11213,7 +11582,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="23"/>
       <c r="B129" s="2">
         <v>2</v>
@@ -11242,7 +11611,7 @@
       <c r="L129" s="23"/>
       <c r="M129" s="23"/>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="23"/>
       <c r="B130" s="2">
         <v>3</v>
@@ -11265,7 +11634,7 @@
       <c r="L130" s="23"/>
       <c r="M130" s="23"/>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="23"/>
       <c r="B131" s="2">
         <v>4</v>
@@ -11288,7 +11657,7 @@
       <c r="L131" s="23"/>
       <c r="M131" s="23"/>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="23"/>
       <c r="B132" s="2">
         <v>5</v>
@@ -11311,7 +11680,7 @@
       <c r="L132" s="23"/>
       <c r="M132" s="23"/>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="23"/>
       <c r="B133" s="31">
         <v>6</v>
@@ -11334,7 +11703,7 @@
       <c r="L133" s="23"/>
       <c r="M133" s="23"/>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="23"/>
       <c r="B134" s="31">
         <v>7</v>
@@ -11357,7 +11726,7 @@
       <c r="L134" s="23"/>
       <c r="M134" s="23"/>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" s="23"/>
       <c r="B135" s="31">
         <v>8</v>
@@ -11380,7 +11749,7 @@
       <c r="L135" s="23"/>
       <c r="M135" s="23"/>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" s="23"/>
       <c r="B136" s="23"/>
       <c r="C136" s="23"/>
@@ -11395,7 +11764,7 @@
       <c r="L136" s="23"/>
       <c r="M136" s="23"/>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="23"/>
       <c r="B137" s="23"/>
       <c r="C137" s="23"/>
@@ -11410,7 +11779,7 @@
       <c r="L137" s="23"/>
       <c r="M137" s="23"/>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="23"/>
       <c r="B138" s="23"/>
       <c r="C138" s="23"/>
@@ -11425,7 +11794,7 @@
       <c r="L138" s="23"/>
       <c r="M138" s="23"/>
     </row>
-    <row r="139" spans="1:13" ht="17.25" thickBot="1">
+    <row r="139" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="23"/>
       <c r="B139" s="23"/>
       <c r="C139" s="23"/>
@@ -11440,24 +11809,24 @@
       <c r="L139" s="23"/>
       <c r="M139" s="23"/>
     </row>
-    <row r="140" spans="1:13" ht="17.25" thickBot="1">
+    <row r="140" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="23"/>
-      <c r="B140" s="54" t="s">
+      <c r="B140" s="57" t="s">
         <v>386</v>
       </c>
-      <c r="C140" s="55"/>
-      <c r="D140" s="55"/>
-      <c r="E140" s="55"/>
-      <c r="F140" s="55"/>
-      <c r="G140" s="55"/>
-      <c r="H140" s="55"/>
-      <c r="I140" s="56"/>
+      <c r="C140" s="58"/>
+      <c r="D140" s="58"/>
+      <c r="E140" s="58"/>
+      <c r="F140" s="58"/>
+      <c r="G140" s="58"/>
+      <c r="H140" s="58"/>
+      <c r="I140" s="59"/>
       <c r="J140" s="23"/>
       <c r="K140" s="23"/>
       <c r="L140" s="23"/>
       <c r="M140" s="23"/>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="23"/>
       <c r="B141" s="25" t="s">
         <v>379</v>
@@ -11488,7 +11857,7 @@
       <c r="L141" s="23"/>
       <c r="M141" s="23"/>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="23"/>
       <c r="B142" s="26">
         <v>1</v>
@@ -11519,7 +11888,7 @@
       <c r="L142" s="23"/>
       <c r="M142" s="23"/>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="23"/>
       <c r="B143" s="26">
         <v>2</v>
@@ -11542,7 +11911,7 @@
       <c r="L143" s="23"/>
       <c r="M143" s="23"/>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" s="23"/>
       <c r="B144" s="26">
         <v>3</v>
@@ -11565,7 +11934,7 @@
       <c r="L144" s="23"/>
       <c r="M144" s="23"/>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" s="23"/>
       <c r="B145" s="26">
         <v>4</v>
@@ -11588,7 +11957,7 @@
       <c r="L145" s="23"/>
       <c r="M145" s="23"/>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" s="23"/>
       <c r="B146" s="26">
         <v>5</v>
@@ -11611,7 +11980,7 @@
       <c r="L146" s="23"/>
       <c r="M146" s="23"/>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" s="23"/>
       <c r="B147" s="23"/>
       <c r="C147" s="23"/>
@@ -11626,7 +11995,7 @@
       <c r="L147" s="23"/>
       <c r="M147" s="23"/>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" s="23"/>
       <c r="B148" s="23"/>
       <c r="C148" s="23"/>
@@ -11641,7 +12010,7 @@
       <c r="L148" s="23"/>
       <c r="M148" s="23"/>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" s="23"/>
       <c r="B149" s="23"/>
       <c r="C149" s="23"/>
@@ -11656,7 +12025,7 @@
       <c r="L149" s="23"/>
       <c r="M149" s="23"/>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" s="23"/>
       <c r="B150" s="23"/>
       <c r="C150" s="23"/>
@@ -11671,7 +12040,7 @@
       <c r="L150" s="23"/>
       <c r="M150" s="23"/>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B151" s="23"/>
       <c r="C151" s="23"/>
       <c r="D151" s="23"/>
@@ -11681,7 +12050,7 @@
       <c r="H151" s="29"/>
       <c r="I151" s="29"/>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B152" s="23"/>
       <c r="C152" s="23"/>
       <c r="D152" s="23"/>
@@ -11691,7 +12060,7 @@
       <c r="H152" s="29"/>
       <c r="I152" s="29"/>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B153" s="23"/>
       <c r="C153" s="23"/>
       <c r="D153" s="23"/>
@@ -11701,7 +12070,7 @@
       <c r="H153" s="29"/>
       <c r="I153" s="29"/>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B154" s="23"/>
       <c r="C154" s="23"/>
       <c r="D154" s="23"/>
@@ -11713,13 +12082,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="K36:R36"/>
-    <mergeCell ref="C2:K4"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="K14:R14"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="K27:R27"/>
     <mergeCell ref="B140:I140"/>
     <mergeCell ref="B56:I56"/>
     <mergeCell ref="K53:R53"/>
@@ -11732,6 +12094,13 @@
     <mergeCell ref="B111:I111"/>
     <mergeCell ref="B118:I118"/>
     <mergeCell ref="B126:I126"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="K36:R36"/>
+    <mergeCell ref="C2:K4"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="K14:R14"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="K27:R27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11743,11 +12112,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -11755,7 +12124,7 @@
     <col min="4" max="4" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -11772,7 +12141,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="33">
+    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="40">
         <v>44054</v>
       </c>
@@ -11783,7 +12152,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="33">
+    <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="40">
         <v>44054</v>
       </c>
@@ -11794,7 +12163,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="40">
         <v>44054</v>
       </c>
@@ -11805,7 +12174,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="40">
         <v>44054</v>
       </c>
@@ -11819,7 +12188,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>44054</v>
       </c>
@@ -11833,13 +12202,13 @@
         <v>509</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>44054</v>
       </c>
@@ -11850,7 +12219,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>44054</v>
       </c>
@@ -11867,7 +12236,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>44054</v>
       </c>
@@ -11881,7 +12250,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="49.5">
+    <row r="17" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>44054</v>
       </c>
@@ -11892,7 +12261,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" t="s">
         <v>547</v>
@@ -11901,7 +12270,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>44054</v>
       </c>
@@ -11909,7 +12278,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>44054</v>
       </c>
@@ -11917,7 +12286,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>44054</v>
       </c>
@@ -11925,7 +12294,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>44054</v>
       </c>
@@ -11933,7 +12302,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>44054</v>
       </c>
@@ -11941,7 +12310,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>44054</v>
       </c>
@@ -11949,7 +12318,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>44054</v>
       </c>
@@ -11960,7 +12329,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>44054</v>
       </c>
@@ -11968,16 +12337,16 @@
         <v>539</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="57">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="42">
         <v>44054</v>
       </c>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="43" t="s">
         <v>542</v>
       </c>
-      <c r="C32" s="59"/>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="C32" s="44"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>44054</v>
       </c>
@@ -11988,7 +12357,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>44054</v>
       </c>
@@ -11999,7 +12368,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="49.5">
+    <row r="35" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>44054</v>
       </c>
@@ -12010,7 +12379,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>44054</v>
       </c>
@@ -12018,7 +12387,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>523</v>
       </c>
@@ -12026,7 +12395,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>529</v>
       </c>
@@ -12034,7 +12403,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>524</v>
       </c>
@@ -12042,7 +12411,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>530</v>
       </c>
@@ -12050,7 +12419,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>531</v>
       </c>
@@ -12058,7 +12427,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>525</v>
       </c>
@@ -12066,7 +12435,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>535</v>
       </c>
@@ -12074,7 +12443,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>536</v>
       </c>
@@ -12082,7 +12451,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>537</v>
       </c>
@@ -12090,7 +12459,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>526</v>
       </c>
@@ -12098,7 +12467,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>538</v>
       </c>
@@ -12106,7 +12475,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="58" spans="2:3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>527</v>
       </c>
@@ -12114,7 +12483,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="62" spans="2:3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>528</v>
       </c>
@@ -12122,7 +12491,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="64" spans="2:3">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>546</v>
       </c>
@@ -12134,4 +12503,618 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="17.625" style="60" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="62" customFormat="1" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="62" t="s">
+        <v>557</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>556</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>563</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>558</v>
+      </c>
+      <c r="F1" s="63" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1" s="62" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="51" t="s">
+        <v>555</v>
+      </c>
+      <c r="C3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D3" s="61">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>559</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>561</v>
+      </c>
+      <c r="H3" s="61">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="51"/>
+      <c r="D4" s="61"/>
+      <c r="E4" t="s">
+        <v>573</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>574</v>
+      </c>
+      <c r="H4" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="51"/>
+      <c r="D5" s="61"/>
+      <c r="E5" t="s">
+        <v>576</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>577</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>562</v>
+      </c>
+      <c r="C6" t="s">
+        <v>584</v>
+      </c>
+      <c r="D6" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>564</v>
+      </c>
+      <c r="C7" t="s">
+        <v>584</v>
+      </c>
+      <c r="D7" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="51" t="s">
+        <v>565</v>
+      </c>
+      <c r="C8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D8" s="61">
+        <v>1</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>568</v>
+      </c>
+      <c r="H8" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9" s="51"/>
+      <c r="D9" s="61"/>
+      <c r="F9" s="60" t="s">
+        <v>569</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>566</v>
+      </c>
+      <c r="C10" t="s">
+        <v>584</v>
+      </c>
+      <c r="D10" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="51" t="s">
+        <v>570</v>
+      </c>
+      <c r="C14" t="s">
+        <v>583</v>
+      </c>
+      <c r="D14" s="61">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>571</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="51"/>
+      <c r="E15" t="s">
+        <v>575</v>
+      </c>
+      <c r="F15" s="60" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="51"/>
+      <c r="E16" t="s">
+        <v>576</v>
+      </c>
+      <c r="F16" s="60" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>579</v>
+      </c>
+      <c r="C17" t="s">
+        <v>585</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>580</v>
+      </c>
+      <c r="C18" t="s">
+        <v>585</v>
+      </c>
+      <c r="D18" s="61">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>581</v>
+      </c>
+      <c r="C19" t="s">
+        <v>585</v>
+      </c>
+      <c r="D19" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>582</v>
+      </c>
+      <c r="C20" t="s">
+        <v>585</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>587</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>588</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>591</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="51" t="s">
+        <v>592</v>
+      </c>
+      <c r="C29" t="s">
+        <v>516</v>
+      </c>
+      <c r="D29" s="61">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>595</v>
+      </c>
+      <c r="H29" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="51"/>
+      <c r="E30" t="s">
+        <v>596</v>
+      </c>
+      <c r="H30" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="51"/>
+      <c r="E31" t="s">
+        <v>597</v>
+      </c>
+      <c r="H31" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="51"/>
+      <c r="E32" t="s">
+        <v>598</v>
+      </c>
+      <c r="H32" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="51" t="s">
+        <v>599</v>
+      </c>
+      <c r="C33" t="s">
+        <v>516</v>
+      </c>
+      <c r="D33" s="61">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>600</v>
+      </c>
+      <c r="H33" s="61">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B34" s="51"/>
+      <c r="E34" t="s">
+        <v>601</v>
+      </c>
+      <c r="F34" s="60" t="s">
+        <v>602</v>
+      </c>
+      <c r="H34" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B35" s="51"/>
+      <c r="E35" t="s">
+        <v>603</v>
+      </c>
+      <c r="F35" s="60" t="s">
+        <v>604</v>
+      </c>
+      <c r="H35" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="51"/>
+      <c r="E36" t="s">
+        <v>605</v>
+      </c>
+      <c r="F36" s="60" t="s">
+        <v>606</v>
+      </c>
+      <c r="H36" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="51"/>
+      <c r="E37" t="s">
+        <v>607</v>
+      </c>
+      <c r="H37" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H38" s="61"/>
+    </row>
+    <row r="39" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B39" s="51" t="s">
+        <v>593</v>
+      </c>
+      <c r="C39" t="s">
+        <v>594</v>
+      </c>
+      <c r="D39" s="61">
+        <v>0.9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>608</v>
+      </c>
+      <c r="F39" s="60" t="s">
+        <v>609</v>
+      </c>
+      <c r="H39" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B40" s="51"/>
+      <c r="E40" t="s">
+        <v>610</v>
+      </c>
+      <c r="F40" s="60" t="s">
+        <v>611</v>
+      </c>
+      <c r="H40" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="B41" s="51"/>
+      <c r="E41" t="s">
+        <v>612</v>
+      </c>
+      <c r="F41" s="60" t="s">
+        <v>613</v>
+      </c>
+      <c r="H41" s="61">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>614</v>
+      </c>
+      <c r="D42" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>616</v>
+      </c>
+      <c r="D44" s="61">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="51" t="s">
+        <v>623</v>
+      </c>
+      <c r="D47" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="51"/>
+      <c r="E48" t="s">
+        <v>625</v>
+      </c>
+      <c r="G48" t="s">
+        <v>516</v>
+      </c>
+      <c r="H48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="51"/>
+      <c r="E49" t="s">
+        <v>626</v>
+      </c>
+      <c r="G49" t="s">
+        <v>629</v>
+      </c>
+      <c r="H49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="51"/>
+      <c r="E50" t="s">
+        <v>627</v>
+      </c>
+      <c r="G50" t="s">
+        <v>516</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>635</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" t="s">
+        <v>516</v>
+      </c>
+      <c r="D53" t="s">
+        <v>632</v>
+      </c>
+      <c r="F53" s="60" t="s">
+        <v>633</v>
+      </c>
+      <c r="G53" t="s">
+        <v>516</v>
+      </c>
+      <c r="H53">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>630</v>
+      </c>
+      <c r="C54" t="s">
+        <v>583</v>
+      </c>
+      <c r="D54" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>634</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>618</v>
+      </c>
+      <c r="C61" t="s">
+        <v>583</v>
+      </c>
+      <c r="D61" s="61">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>619</v>
+      </c>
+      <c r="C63" t="s">
+        <v>516</v>
+      </c>
+      <c r="D63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>620</v>
+      </c>
+      <c r="C64" t="s">
+        <v>516</v>
+      </c>
+      <c r="D64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>621</v>
+      </c>
+      <c r="C65" t="s">
+        <v>516</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>622</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B8:B9"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/팀작업 테이블명세서.xlsx
+++ b/팀작업 테이블명세서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13845" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="4"/>
+    <workbookView xWindow="15000" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="636">
   <si>
     <t>Null허용</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2722,7 +2722,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3046,7 +3046,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3182,51 +3182,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3241,6 +3196,54 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3530,7 +3533,7 @@
       <selection activeCell="B11" sqref="B11:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.75" customWidth="1"/>
@@ -3546,29 +3549,29 @@
     <col min="14" max="14" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="52"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>124</v>
       </c>
@@ -3600,7 +3603,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -3629,7 +3632,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -3654,7 +3657,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -3681,7 +3684,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -3702,7 +3705,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -3721,7 +3724,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -3749,7 +3752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -3772,7 +3775,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -3795,7 +3798,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3818,7 +3821,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3835,7 +3838,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3854,7 +3857,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3873,7 +3876,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -3892,7 +3895,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -3911,7 +3914,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -3930,20 +3933,20 @@
       <c r="I18" t="s">
         <v>72</v>
       </c>
-      <c r="J18" s="45" t="s">
+      <c r="J18" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="47"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="52"/>
       <c r="Q18" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" s="4"/>
       <c r="J19" s="1" t="s">
         <v>134</v>
@@ -3967,16 +3970,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="51" t="s">
+    <row r="20" spans="1:17">
+      <c r="A20" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
       <c r="J20" s="2">
         <v>1</v>
       </c>
@@ -3997,7 +4000,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" s="4"/>
       <c r="J21" s="2">
         <v>2</v>
@@ -4019,16 +4022,16 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="45" t="s">
+    <row r="22" spans="1:17">
+      <c r="A22" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="47"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="52"/>
       <c r="J22" s="2">
         <v>3</v>
       </c>
@@ -4045,7 +4048,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
         <v>125</v>
       </c>
@@ -4081,7 +4084,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -4119,7 +4122,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="A25" s="2">
         <v>2</v>
       </c>
@@ -4145,7 +4148,7 @@
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="A26" s="2">
         <v>3</v>
       </c>
@@ -4163,20 +4166,20 @@
         <v>18</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="J26" s="48" t="s">
+      <c r="J26" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="50"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="56"/>
       <c r="Q26" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="A27" s="2">
         <v>4</v>
       </c>
@@ -4214,7 +4217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17">
       <c r="A28" s="2">
         <v>5</v>
       </c>
@@ -4250,7 +4253,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17">
       <c r="A29" s="2">
         <v>6</v>
       </c>
@@ -4286,7 +4289,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17">
       <c r="J30" s="2">
         <v>3</v>
       </c>
@@ -4303,30 +4306,30 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="45" t="s">
+    <row r="33" spans="1:17">
+      <c r="A33" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="47"/>
-      <c r="J33" s="45" t="s">
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="52"/>
+      <c r="J33" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="47"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="52"/>
       <c r="Q33" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
         <v>126</v>
       </c>
@@ -4370,7 +4373,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -4412,7 +4415,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17">
       <c r="A36" s="2">
         <v>2</v>
       </c>
@@ -4454,7 +4457,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17">
       <c r="A37" s="2">
         <v>3</v>
       </c>
@@ -4486,7 +4489,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17">
       <c r="A38" s="2">
         <v>4</v>
       </c>
@@ -4518,7 +4521,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17">
       <c r="A39" s="2">
         <v>5</v>
       </c>
@@ -4550,7 +4553,7 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17">
       <c r="A40" s="2">
         <v>6</v>
       </c>
@@ -4574,7 +4577,7 @@
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17">
       <c r="A41" s="2">
         <v>7</v>
       </c>
@@ -4591,7 +4594,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17">
       <c r="A42" s="5">
         <v>8</v>
       </c>
@@ -4608,7 +4611,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17">
       <c r="A43" s="5">
         <v>9</v>
       </c>
@@ -4625,23 +4628,23 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17">
       <c r="H45" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" s="45" t="s">
+    <row r="46" spans="1:17">
+      <c r="A46" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="47"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="52"/>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="1" t="s">
         <v>127</v>
       </c>
@@ -4664,7 +4667,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17">
       <c r="A48" s="2">
         <v>1</v>
       </c>
@@ -4687,7 +4690,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16">
       <c r="A49" s="2">
         <v>2</v>
       </c>
@@ -4704,7 +4707,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16">
       <c r="A50" s="2">
         <v>3</v>
       </c>
@@ -4721,7 +4724,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16">
       <c r="A51" s="2">
         <v>4</v>
       </c>
@@ -4738,7 +4741,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16">
       <c r="A52" s="2">
         <v>5</v>
       </c>
@@ -4755,36 +4758,36 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16">
       <c r="A54" s="4"/>
       <c r="M54" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="45" t="s">
+    <row r="55" spans="1:16">
+      <c r="A55" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="B55" s="46"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="47"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="52"/>
       <c r="H55" t="s">
         <v>136</v>
       </c>
-      <c r="J55" s="45" t="s">
+      <c r="J55" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="K55" s="46"/>
-      <c r="L55" s="46"/>
-      <c r="M55" s="46"/>
-      <c r="N55" s="46"/>
-      <c r="O55" s="46"/>
-      <c r="P55" s="47"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K55" s="51"/>
+      <c r="L55" s="51"/>
+      <c r="M55" s="51"/>
+      <c r="N55" s="51"/>
+      <c r="O55" s="51"/>
+      <c r="P55" s="52"/>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" s="1" t="s">
         <v>128</v>
       </c>
@@ -4828,7 +4831,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16">
       <c r="A57" s="2">
         <v>1</v>
       </c>
@@ -4872,7 +4875,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16">
       <c r="A58" s="2">
         <v>2</v>
       </c>
@@ -4908,7 +4911,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16">
       <c r="A59" s="2">
         <v>3</v>
       </c>
@@ -4948,7 +4951,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16">
       <c r="A60" s="2">
         <v>4</v>
       </c>
@@ -4980,7 +4983,7 @@
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16">
       <c r="A61" s="2">
         <v>5</v>
       </c>
@@ -5012,7 +5015,7 @@
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16">
       <c r="A62" s="2">
         <v>6</v>
       </c>
@@ -5029,45 +5032,45 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16">
       <c r="A63" s="4"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F65" s="51" t="s">
+    <row r="65" spans="1:16">
+      <c r="F65" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="G65" s="51"/>
-      <c r="H65" s="51"/>
-      <c r="I65" s="51"/>
-      <c r="J65" s="51"/>
-      <c r="K65" s="51"/>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G65" s="53"/>
+      <c r="H65" s="53"/>
+      <c r="I65" s="53"/>
+      <c r="J65" s="53"/>
+      <c r="K65" s="53"/>
+    </row>
+    <row r="66" spans="1:16">
       <c r="M66" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A67" s="45" t="s">
+    <row r="67" spans="1:16">
+      <c r="A67" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="B67" s="46"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="47"/>
-      <c r="J67" s="45" t="s">
+      <c r="B67" s="51"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="52"/>
+      <c r="J67" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="K67" s="46"/>
-      <c r="L67" s="46"/>
-      <c r="M67" s="46"/>
-      <c r="N67" s="46"/>
-      <c r="O67" s="46"/>
-      <c r="P67" s="47"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K67" s="51"/>
+      <c r="L67" s="51"/>
+      <c r="M67" s="51"/>
+      <c r="N67" s="51"/>
+      <c r="O67" s="51"/>
+      <c r="P67" s="52"/>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" s="1" t="s">
         <v>129</v>
       </c>
@@ -5111,7 +5114,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16">
       <c r="A69" s="2">
         <v>1</v>
       </c>
@@ -5155,7 +5158,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16">
       <c r="A70" s="2">
         <v>2</v>
       </c>
@@ -5193,7 +5196,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16">
       <c r="A71" s="2">
         <v>3</v>
       </c>
@@ -5229,7 +5232,7 @@
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16">
       <c r="A72" s="2">
         <v>4</v>
       </c>
@@ -5261,7 +5264,7 @@
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16">
       <c r="A73" s="5">
         <v>5</v>
       </c>
@@ -5293,7 +5296,7 @@
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16">
       <c r="J74" s="2">
         <v>6</v>
       </c>
@@ -5310,7 +5313,7 @@
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16">
       <c r="J75" s="2">
         <v>7</v>
       </c>
@@ -5327,7 +5330,7 @@
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16">
       <c r="J76" s="2">
         <v>8</v>
       </c>
@@ -5344,7 +5347,7 @@
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16">
       <c r="J77" s="2">
         <v>9</v>
       </c>
@@ -5363,11 +5366,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A33:G33"/>
     <mergeCell ref="J67:P67"/>
     <mergeCell ref="J55:P55"/>
     <mergeCell ref="J18:P18"/>
@@ -5377,6 +5375,11 @@
     <mergeCell ref="A55:G55"/>
     <mergeCell ref="A67:G67"/>
     <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A33:G33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5393,7 +5396,7 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="0.875" customWidth="1"/>
     <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
@@ -5415,42 +5418,42 @@
     <col min="18" max="18" width="11" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C2" s="51" t="s">
+    <row r="2" spans="2:18">
+      <c r="C2" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="2:18">
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="2:18">
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
@@ -5460,7 +5463,7 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:18" ht="17.25" thickBot="1">
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
@@ -5470,17 +5473,17 @@
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
     </row>
-    <row r="7" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="52" t="s">
+    <row r="7" spans="2:18" ht="17.25" thickBot="1">
+      <c r="B7" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="59"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -5490,7 +5493,7 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18">
       <c r="B8" s="11" t="s">
         <v>124</v>
       </c>
@@ -5524,7 +5527,7 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18">
       <c r="B9" s="2">
         <v>1</v>
       </c>
@@ -5556,7 +5559,7 @@
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18">
       <c r="B10" s="2">
         <v>2</v>
       </c>
@@ -5584,7 +5587,7 @@
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18">
       <c r="B11" s="2">
         <v>3</v>
       </c>
@@ -5610,7 +5613,7 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18">
       <c r="B12" s="2">
         <v>4</v>
       </c>
@@ -5640,7 +5643,7 @@
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18">
       <c r="B13" s="2">
         <v>5</v>
       </c>
@@ -5670,7 +5673,7 @@
       <c r="Q13" s="15"/>
       <c r="R13" s="15"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18">
       <c r="B14" s="2">
         <v>6</v>
       </c>
@@ -5687,18 +5690,18 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="K14" s="55" t="s">
+      <c r="K14" s="61" t="s">
         <v>235</v>
       </c>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+    </row>
+    <row r="15" spans="2:18">
       <c r="B15" s="2">
         <v>7</v>
       </c>
@@ -5724,7 +5727,7 @@
       <c r="Q15" s="15"/>
       <c r="R15" s="15"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18">
       <c r="B16" s="2">
         <v>8</v>
       </c>
@@ -5764,7 +5767,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18">
       <c r="B17" s="2">
         <v>9</v>
       </c>
@@ -5804,7 +5807,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18">
       <c r="B18" s="2">
         <v>10</v>
       </c>
@@ -5836,7 +5839,7 @@
       <c r="Q18" s="15"/>
       <c r="R18" s="15"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18">
       <c r="B19" s="2">
         <v>11</v>
       </c>
@@ -5868,7 +5871,7 @@
       <c r="Q19" s="15"/>
       <c r="R19" s="15"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -5892,7 +5895,7 @@
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18">
       <c r="K21" s="15"/>
       <c r="L21" s="17" t="s">
         <v>239</v>
@@ -5908,7 +5911,7 @@
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18">
       <c r="K22" s="8"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
@@ -5918,7 +5921,7 @@
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18">
       <c r="K23" s="8"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
@@ -5928,7 +5931,7 @@
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18">
       <c r="K24" s="8"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
@@ -5938,7 +5941,7 @@
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18">
       <c r="K25" s="8"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
@@ -5948,7 +5951,7 @@
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
     </row>
-    <row r="26" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:18" ht="17.25" thickBot="1">
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -5968,29 +5971,29 @@
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="55" t="s">
+    <row r="27" spans="2:18" ht="17.25" thickBot="1">
+      <c r="B27" s="61" t="s">
         <v>245</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="K27" s="52" t="s">
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="K27" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="54"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="59"/>
+    </row>
+    <row r="28" spans="2:18">
       <c r="B28" s="14"/>
       <c r="C28" s="14" t="s">
         <v>21</v>
@@ -6038,7 +6041,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:18">
       <c r="B29" s="15"/>
       <c r="C29" s="16" t="s">
         <v>246</v>
@@ -6080,7 +6083,7 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:18">
       <c r="B30" s="15"/>
       <c r="C30" s="16" t="s">
         <v>233</v>
@@ -6114,7 +6117,7 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:18">
       <c r="K31" s="8"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
@@ -6124,7 +6127,7 @@
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:18">
       <c r="K32" s="8"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
@@ -6134,7 +6137,7 @@
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:19">
       <c r="K33" s="8"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
@@ -6144,7 +6147,7 @@
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:19">
       <c r="K34" s="8"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
@@ -6154,7 +6157,7 @@
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
     </row>
-    <row r="35" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:19" ht="17.25" thickBot="1">
       <c r="K35" s="8"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
@@ -6164,29 +6167,29 @@
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
     </row>
-    <row r="36" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="52" t="s">
+    <row r="36" spans="2:19" ht="17.25" thickBot="1">
+      <c r="B36" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="54"/>
-      <c r="K36" s="52" t="s">
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="59"/>
+      <c r="K36" s="57" t="s">
         <v>299</v>
       </c>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="54"/>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="L36" s="58"/>
+      <c r="M36" s="58"/>
+      <c r="N36" s="58"/>
+      <c r="O36" s="58"/>
+      <c r="P36" s="58"/>
+      <c r="Q36" s="58"/>
+      <c r="R36" s="59"/>
+    </row>
+    <row r="37" spans="2:19">
       <c r="B37" s="11" t="s">
         <v>125</v>
       </c>
@@ -6236,7 +6239,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:19">
       <c r="B38" s="2">
         <v>1</v>
       </c>
@@ -6282,7 +6285,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:19">
       <c r="B39" s="2">
         <v>2</v>
       </c>
@@ -6330,7 +6333,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:19">
       <c r="B40" s="2">
         <v>3</v>
       </c>
@@ -6366,7 +6369,7 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:19">
       <c r="B41" s="2">
         <v>4</v>
       </c>
@@ -6404,7 +6407,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:19">
       <c r="B42" s="2">
         <v>5</v>
       </c>
@@ -6438,7 +6441,7 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:19">
       <c r="B43" s="2">
         <v>6</v>
       </c>
@@ -6472,7 +6475,7 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:19">
       <c r="B44" s="2">
         <v>7</v>
       </c>
@@ -6493,7 +6496,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:19">
       <c r="B45" s="2">
         <v>8</v>
       </c>
@@ -6511,7 +6514,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:19">
       <c r="B46" s="2">
         <v>9</v>
       </c>
@@ -6529,7 +6532,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:19">
       <c r="B47" s="2">
         <v>10</v>
       </c>
@@ -6547,7 +6550,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:19">
       <c r="B48" s="2">
         <v>11</v>
       </c>
@@ -6565,7 +6568,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:19">
       <c r="B49" s="2">
         <v>12</v>
       </c>
@@ -6583,7 +6586,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:19">
       <c r="B50" s="2">
         <v>13</v>
       </c>
@@ -6601,30 +6604,30 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="52" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="53" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="52" t="s">
+    <row r="52" spans="2:19" ht="17.25" thickBot="1"/>
+    <row r="53" spans="2:19" ht="17.25" thickBot="1">
+      <c r="B53" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="54"/>
-      <c r="K53" s="52" t="s">
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="59"/>
+      <c r="K53" s="57" t="s">
         <v>300</v>
       </c>
-      <c r="L53" s="53"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="53"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="53"/>
-      <c r="Q53" s="53"/>
-      <c r="R53" s="54"/>
-    </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="L53" s="58"/>
+      <c r="M53" s="58"/>
+      <c r="N53" s="58"/>
+      <c r="O53" s="58"/>
+      <c r="P53" s="58"/>
+      <c r="Q53" s="58"/>
+      <c r="R53" s="59"/>
+    </row>
+    <row r="54" spans="2:19">
       <c r="B54" s="11" t="s">
         <v>126</v>
       </c>
@@ -6674,7 +6677,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:19">
       <c r="B55" s="2">
         <v>1</v>
       </c>
@@ -6720,7 +6723,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:19">
       <c r="B56" s="2">
         <v>2</v>
       </c>
@@ -6768,7 +6771,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:19">
       <c r="B57" s="2">
         <v>3</v>
       </c>
@@ -6804,7 +6807,7 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:19">
       <c r="B58" s="2">
         <v>4</v>
       </c>
@@ -6844,7 +6847,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:19">
       <c r="B59" s="2">
         <v>5</v>
       </c>
@@ -6880,7 +6883,7 @@
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:19">
       <c r="B60" s="2">
         <v>6</v>
       </c>
@@ -6914,7 +6917,7 @@
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:19">
       <c r="B61" s="2">
         <v>7</v>
       </c>
@@ -6935,7 +6938,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:19">
       <c r="B62" s="2">
         <v>8</v>
       </c>
@@ -6953,7 +6956,7 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:19">
       <c r="B63" s="2">
         <v>9</v>
       </c>
@@ -6971,7 +6974,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:19">
       <c r="B64" s="2">
         <v>10</v>
       </c>
@@ -6989,7 +6992,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:19">
       <c r="B65" s="2">
         <v>11</v>
       </c>
@@ -7007,33 +7010,33 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="68" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="69" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="52" t="s">
+    <row r="68" spans="2:19" ht="17.25" thickBot="1"/>
+    <row r="69" spans="2:19" ht="17.25" thickBot="1">
+      <c r="B69" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="54"/>
-      <c r="K69" s="52" t="s">
+      <c r="C69" s="58"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="58"/>
+      <c r="F69" s="58"/>
+      <c r="G69" s="58"/>
+      <c r="H69" s="58"/>
+      <c r="I69" s="59"/>
+      <c r="K69" s="57" t="s">
         <v>286</v>
       </c>
-      <c r="L69" s="53"/>
-      <c r="M69" s="53"/>
-      <c r="N69" s="53"/>
-      <c r="O69" s="53"/>
-      <c r="P69" s="53"/>
-      <c r="Q69" s="53"/>
-      <c r="R69" s="54"/>
+      <c r="L69" s="58"/>
+      <c r="M69" s="58"/>
+      <c r="N69" s="58"/>
+      <c r="O69" s="58"/>
+      <c r="P69" s="58"/>
+      <c r="Q69" s="58"/>
+      <c r="R69" s="59"/>
       <c r="S69" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:19">
       <c r="B70" s="11" t="s">
         <v>127</v>
       </c>
@@ -7083,7 +7086,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:19">
       <c r="B71" s="2">
         <v>1</v>
       </c>
@@ -7129,7 +7132,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:19">
       <c r="B72" s="2">
         <v>2</v>
       </c>
@@ -7171,7 +7174,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:19">
       <c r="B73" s="2">
         <v>3</v>
       </c>
@@ -7211,7 +7214,7 @@
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
     </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:19">
       <c r="B74" s="2">
         <v>4</v>
       </c>
@@ -7251,7 +7254,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:19">
       <c r="B75" s="2">
         <v>5</v>
       </c>
@@ -7287,7 +7290,7 @@
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
     </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:19">
       <c r="B76" s="2">
         <v>6</v>
       </c>
@@ -7310,30 +7313,30 @@
         <v>358</v>
       </c>
     </row>
-    <row r="79" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="80" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="52" t="s">
+    <row r="79" spans="2:19" ht="17.25" thickBot="1"/>
+    <row r="80" spans="2:19" ht="17.25" thickBot="1">
+      <c r="B80" s="57" t="s">
         <v>372</v>
       </c>
-      <c r="C80" s="53"/>
-      <c r="D80" s="53"/>
-      <c r="E80" s="53"/>
-      <c r="F80" s="53"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="54"/>
-      <c r="K80" s="56" t="s">
+      <c r="C80" s="58"/>
+      <c r="D80" s="58"/>
+      <c r="E80" s="58"/>
+      <c r="F80" s="58"/>
+      <c r="G80" s="58"/>
+      <c r="H80" s="58"/>
+      <c r="I80" s="59"/>
+      <c r="K80" s="60" t="s">
         <v>311</v>
       </c>
-      <c r="L80" s="56"/>
-      <c r="M80" s="56"/>
-      <c r="N80" s="56"/>
-      <c r="O80" s="56"/>
-      <c r="P80" s="56"/>
-      <c r="Q80" s="56"/>
-      <c r="R80" s="56"/>
-    </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="L80" s="60"/>
+      <c r="M80" s="60"/>
+      <c r="N80" s="60"/>
+      <c r="O80" s="60"/>
+      <c r="P80" s="60"/>
+      <c r="Q80" s="60"/>
+      <c r="R80" s="60"/>
+    </row>
+    <row r="81" spans="2:18">
       <c r="B81" s="11" t="s">
         <v>377</v>
       </c>
@@ -7383,7 +7386,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:18">
       <c r="B82" s="2">
         <v>1</v>
       </c>
@@ -7425,7 +7428,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:18">
       <c r="B83" s="2">
         <v>2</v>
       </c>
@@ -7467,7 +7470,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:18">
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
@@ -7489,30 +7492,30 @@
       <c r="Q84" s="15"/>
       <c r="R84" s="15"/>
     </row>
-    <row r="87" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="88" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="52" t="s">
+    <row r="87" spans="2:18" ht="17.25" thickBot="1"/>
+    <row r="88" spans="2:18" ht="17.25" thickBot="1">
+      <c r="B88" s="57" t="s">
         <v>313</v>
       </c>
-      <c r="C88" s="53"/>
-      <c r="D88" s="53"/>
-      <c r="E88" s="53"/>
-      <c r="F88" s="53"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="54"/>
-      <c r="K88" s="52" t="s">
+      <c r="C88" s="58"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="58"/>
+      <c r="G88" s="58"/>
+      <c r="H88" s="58"/>
+      <c r="I88" s="59"/>
+      <c r="K88" s="57" t="s">
         <v>323</v>
       </c>
-      <c r="L88" s="53"/>
-      <c r="M88" s="53"/>
-      <c r="N88" s="53"/>
-      <c r="O88" s="53"/>
-      <c r="P88" s="53"/>
-      <c r="Q88" s="53"/>
-      <c r="R88" s="54"/>
-    </row>
-    <row r="89" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="L88" s="58"/>
+      <c r="M88" s="58"/>
+      <c r="N88" s="58"/>
+      <c r="O88" s="58"/>
+      <c r="P88" s="58"/>
+      <c r="Q88" s="58"/>
+      <c r="R88" s="59"/>
+    </row>
+    <row r="89" spans="2:18">
       <c r="B89" s="11" t="s">
         <v>380</v>
       </c>
@@ -7562,7 +7565,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="90" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:18">
       <c r="B90" s="2">
         <v>1</v>
       </c>
@@ -7606,7 +7609,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="91" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:18">
       <c r="B91" s="2">
         <v>2</v>
       </c>
@@ -7648,7 +7651,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="92" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:18">
       <c r="K92" s="2">
         <v>3</v>
       </c>
@@ -7666,7 +7669,7 @@
       <c r="Q92" s="2"/>
       <c r="R92" s="2"/>
     </row>
-    <row r="93" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:18" ht="17.25" thickBot="1">
       <c r="K93" s="2">
         <v>4</v>
       </c>
@@ -7684,17 +7687,17 @@
       <c r="Q93" s="2"/>
       <c r="R93" s="2"/>
     </row>
-    <row r="94" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="52" t="s">
+    <row r="94" spans="2:18" ht="17.25" thickBot="1">
+      <c r="B94" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="C94" s="53"/>
-      <c r="D94" s="53"/>
-      <c r="E94" s="53"/>
-      <c r="F94" s="53"/>
-      <c r="G94" s="53"/>
-      <c r="H94" s="53"/>
-      <c r="I94" s="54"/>
+      <c r="C94" s="58"/>
+      <c r="D94" s="58"/>
+      <c r="E94" s="58"/>
+      <c r="F94" s="58"/>
+      <c r="G94" s="58"/>
+      <c r="H94" s="58"/>
+      <c r="I94" s="59"/>
       <c r="K94" s="2">
         <v>5</v>
       </c>
@@ -7712,7 +7715,7 @@
       <c r="Q94" s="2"/>
       <c r="R94" s="2"/>
     </row>
-    <row r="95" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:18">
       <c r="B95" s="11" t="s">
         <v>381</v>
       </c>
@@ -7738,7 +7741,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="96" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:18">
       <c r="B96" s="2">
         <v>1</v>
       </c>
@@ -7760,7 +7763,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:9">
       <c r="B97" s="2">
         <v>2</v>
       </c>
@@ -7782,20 +7785,20 @@
         <v>319</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="100" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="52" t="s">
+    <row r="99" spans="2:9" ht="17.25" thickBot="1"/>
+    <row r="100" spans="2:9" ht="17.25" thickBot="1">
+      <c r="B100" s="57" t="s">
         <v>320</v>
       </c>
-      <c r="C100" s="53"/>
-      <c r="D100" s="53"/>
-      <c r="E100" s="53"/>
-      <c r="F100" s="53"/>
-      <c r="G100" s="53"/>
-      <c r="H100" s="53"/>
-      <c r="I100" s="54"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C100" s="58"/>
+      <c r="D100" s="58"/>
+      <c r="E100" s="58"/>
+      <c r="F100" s="58"/>
+      <c r="G100" s="58"/>
+      <c r="H100" s="58"/>
+      <c r="I100" s="59"/>
+    </row>
+    <row r="101" spans="2:9">
       <c r="B101" s="11" t="s">
         <v>382</v>
       </c>
@@ -7821,7 +7824,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:9">
       <c r="B102" s="2">
         <v>1</v>
       </c>
@@ -7843,7 +7846,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:9">
       <c r="B103" s="2">
         <v>2</v>
       </c>
@@ -7865,20 +7868,20 @@
         <v>322</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="108" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="52" t="s">
+    <row r="107" spans="2:9" ht="17.25" thickBot="1"/>
+    <row r="108" spans="2:9" ht="17.25" thickBot="1">
+      <c r="B108" s="57" t="s">
         <v>338</v>
       </c>
-      <c r="C108" s="53"/>
-      <c r="D108" s="53"/>
-      <c r="E108" s="53"/>
-      <c r="F108" s="53"/>
-      <c r="G108" s="53"/>
-      <c r="H108" s="53"/>
-      <c r="I108" s="54"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C108" s="58"/>
+      <c r="D108" s="58"/>
+      <c r="E108" s="58"/>
+      <c r="F108" s="58"/>
+      <c r="G108" s="58"/>
+      <c r="H108" s="58"/>
+      <c r="I108" s="59"/>
+    </row>
+    <row r="109" spans="2:9">
       <c r="B109" s="11" t="s">
         <v>124</v>
       </c>
@@ -7904,7 +7907,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:9">
       <c r="B110" s="2">
         <v>1</v>
       </c>
@@ -7930,7 +7933,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:9">
       <c r="B111" s="2">
         <v>2</v>
       </c>
@@ -7954,7 +7957,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:9">
       <c r="B112" s="2">
         <v>3</v>
       </c>
@@ -7972,7 +7975,7 @@
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:9">
       <c r="B113" s="2">
         <v>4</v>
       </c>
@@ -7990,7 +7993,7 @@
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:9">
       <c r="B114" s="2">
         <v>5</v>
       </c>
@@ -8008,7 +8011,7 @@
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:9">
       <c r="B115" s="2">
         <v>6</v>
       </c>
@@ -8026,7 +8029,7 @@
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:9">
       <c r="B116" s="2">
         <v>7</v>
       </c>
@@ -8044,7 +8047,7 @@
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:9">
       <c r="B117" s="2">
         <v>8</v>
       </c>
@@ -8062,20 +8065,20 @@
       <c r="H117" s="3"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="121" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="122" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="52" t="s">
+    <row r="121" spans="2:9" ht="17.25" thickBot="1"/>
+    <row r="122" spans="2:9" ht="17.25" thickBot="1">
+      <c r="B122" s="57" t="s">
         <v>386</v>
       </c>
-      <c r="C122" s="53"/>
-      <c r="D122" s="53"/>
-      <c r="E122" s="53"/>
-      <c r="F122" s="53"/>
-      <c r="G122" s="53"/>
-      <c r="H122" s="53"/>
-      <c r="I122" s="54"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C122" s="58"/>
+      <c r="D122" s="58"/>
+      <c r="E122" s="58"/>
+      <c r="F122" s="58"/>
+      <c r="G122" s="58"/>
+      <c r="H122" s="58"/>
+      <c r="I122" s="59"/>
+    </row>
+    <row r="123" spans="2:9">
       <c r="B123" s="11" t="s">
         <v>379</v>
       </c>
@@ -8101,7 +8104,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:9">
       <c r="B124" s="2">
         <v>1</v>
       </c>
@@ -8127,7 +8130,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:9">
       <c r="B125" s="2">
         <v>2</v>
       </c>
@@ -8145,7 +8148,7 @@
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:9">
       <c r="B126" s="2">
         <v>3</v>
       </c>
@@ -8163,7 +8166,7 @@
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:9">
       <c r="B127" s="2">
         <v>4</v>
       </c>
@@ -8181,7 +8184,7 @@
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:9">
       <c r="B128" s="2">
         <v>5</v>
       </c>
@@ -8201,6 +8204,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B88:I88"/>
+    <mergeCell ref="K69:R69"/>
+    <mergeCell ref="K53:R53"/>
     <mergeCell ref="K36:R36"/>
     <mergeCell ref="K80:R80"/>
     <mergeCell ref="B80:I80"/>
@@ -8217,9 +8223,6 @@
     <mergeCell ref="K27:R27"/>
     <mergeCell ref="B53:I53"/>
     <mergeCell ref="B69:I69"/>
-    <mergeCell ref="B88:I88"/>
-    <mergeCell ref="K69:R69"/>
-    <mergeCell ref="K53:R53"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8235,7 +8238,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="0.875" customWidth="1"/>
     <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
@@ -8257,42 +8260,42 @@
     <col min="18" max="18" width="11" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C2" s="51" t="s">
+    <row r="2" spans="2:18">
+      <c r="C2" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="2:18">
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="2:18">
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
@@ -8302,7 +8305,7 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:18" ht="17.25" thickBot="1">
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
@@ -8312,17 +8315,17 @@
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
     </row>
-    <row r="7" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="52" t="s">
+    <row r="7" spans="2:18" ht="17.25" thickBot="1">
+      <c r="B7" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="59"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -8332,7 +8335,7 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18">
       <c r="B8" s="11" t="s">
         <v>124</v>
       </c>
@@ -8366,7 +8369,7 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18">
       <c r="B9" s="2">
         <v>1</v>
       </c>
@@ -8398,7 +8401,7 @@
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18">
       <c r="B10" s="2">
         <v>2</v>
       </c>
@@ -8426,7 +8429,7 @@
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18">
       <c r="B11" s="2">
         <v>3</v>
       </c>
@@ -8452,7 +8455,7 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18">
       <c r="B12" s="2">
         <v>4</v>
       </c>
@@ -8482,7 +8485,7 @@
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18">
       <c r="B13" s="2">
         <v>5</v>
       </c>
@@ -8512,7 +8515,7 @@
       <c r="Q13" s="19"/>
       <c r="R13" s="19"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18">
       <c r="B14" s="2">
         <v>6</v>
       </c>
@@ -8529,18 +8532,18 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="K14" s="55" t="s">
+      <c r="K14" s="61" t="s">
         <v>235</v>
       </c>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+    </row>
+    <row r="15" spans="2:18">
       <c r="B15" s="2">
         <v>7</v>
       </c>
@@ -8566,7 +8569,7 @@
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18">
       <c r="B16" s="2">
         <v>8</v>
       </c>
@@ -8606,7 +8609,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18">
       <c r="B17" s="2">
         <v>9</v>
       </c>
@@ -8646,7 +8649,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18">
       <c r="B18" s="2">
         <v>10</v>
       </c>
@@ -8678,7 +8681,7 @@
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18">
       <c r="B19" s="2">
         <v>11</v>
       </c>
@@ -8710,7 +8713,7 @@
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -8734,7 +8737,7 @@
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18">
       <c r="K21" s="19"/>
       <c r="L21" s="17" t="s">
         <v>239</v>
@@ -8750,7 +8753,7 @@
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18">
       <c r="K22" s="8"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
@@ -8760,7 +8763,7 @@
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18">
       <c r="K23" s="8"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
@@ -8770,7 +8773,7 @@
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18">
       <c r="K24" s="8"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
@@ -8780,7 +8783,7 @@
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18">
       <c r="K25" s="8"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
@@ -8790,7 +8793,7 @@
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
     </row>
-    <row r="26" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:18" ht="17.25" thickBot="1">
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -8810,29 +8813,29 @@
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="55" t="s">
+    <row r="27" spans="2:18" ht="17.25" thickBot="1">
+      <c r="B27" s="61" t="s">
         <v>245</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="K27" s="52" t="s">
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="K27" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="54"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="59"/>
+    </row>
+    <row r="28" spans="2:18">
       <c r="B28" s="14"/>
       <c r="C28" s="14" t="s">
         <v>21</v>
@@ -8880,7 +8883,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:18">
       <c r="B29" s="19"/>
       <c r="C29" s="16" t="s">
         <v>246</v>
@@ -8926,7 +8929,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:18">
       <c r="B30" s="19"/>
       <c r="C30" s="16" t="s">
         <v>233</v>
@@ -8962,7 +8965,7 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:18">
       <c r="K31" s="2">
         <v>3</v>
       </c>
@@ -8980,7 +8983,7 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:18">
       <c r="K32" s="8"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
@@ -8990,7 +8993,7 @@
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:19">
       <c r="K33" s="8"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
@@ -9000,7 +9003,7 @@
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:19">
       <c r="K34" s="8"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
@@ -9010,7 +9013,7 @@
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
     </row>
-    <row r="35" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:19" ht="17.25" thickBot="1">
       <c r="K35" s="8"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
@@ -9020,29 +9023,29 @@
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
     </row>
-    <row r="36" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="52" t="s">
+    <row r="36" spans="2:19" ht="17.25" thickBot="1">
+      <c r="B36" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="54"/>
-      <c r="K36" s="52" t="s">
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="59"/>
+      <c r="K36" s="57" t="s">
         <v>299</v>
       </c>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="54"/>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="L36" s="58"/>
+      <c r="M36" s="58"/>
+      <c r="N36" s="58"/>
+      <c r="O36" s="58"/>
+      <c r="P36" s="58"/>
+      <c r="Q36" s="58"/>
+      <c r="R36" s="59"/>
+    </row>
+    <row r="37" spans="2:19">
       <c r="B37" s="11" t="s">
         <v>125</v>
       </c>
@@ -9092,7 +9095,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:19">
       <c r="B38" s="2">
         <v>1</v>
       </c>
@@ -9138,7 +9141,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:19">
       <c r="B39" s="31">
         <v>2</v>
       </c>
@@ -9188,7 +9191,7 @@
       </c>
       <c r="S39" s="28"/>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:19">
       <c r="B40" s="31">
         <v>3</v>
       </c>
@@ -9226,7 +9229,7 @@
       <c r="R40" s="31"/>
       <c r="S40" s="28"/>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:19">
       <c r="B41" s="31">
         <v>4</v>
       </c>
@@ -9266,7 +9269,7 @@
       </c>
       <c r="S41" s="28"/>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:19">
       <c r="B42" s="31">
         <v>5</v>
       </c>
@@ -9302,7 +9305,7 @@
       <c r="R42" s="31"/>
       <c r="S42" s="28"/>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:19">
       <c r="B43" s="31">
         <v>6</v>
       </c>
@@ -9338,7 +9341,7 @@
       <c r="R43" s="31"/>
       <c r="S43" s="28"/>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:19">
       <c r="B44" s="31">
         <v>7</v>
       </c>
@@ -9376,7 +9379,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:19">
       <c r="B45" s="31">
         <v>8</v>
       </c>
@@ -9404,7 +9407,7 @@
       <c r="R45" s="29"/>
       <c r="S45" s="28"/>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:19">
       <c r="B46" s="31">
         <v>9</v>
       </c>
@@ -9432,7 +9435,7 @@
       <c r="R46" s="29"/>
       <c r="S46" s="28"/>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:19">
       <c r="B47" s="31">
         <v>10</v>
       </c>
@@ -9460,7 +9463,7 @@
       <c r="R47" s="29"/>
       <c r="S47" s="28"/>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:19">
       <c r="B48" s="31">
         <v>11</v>
       </c>
@@ -9488,7 +9491,7 @@
       <c r="R48" s="29"/>
       <c r="S48" s="28"/>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:19">
       <c r="B49" s="20">
         <v>12</v>
       </c>
@@ -9516,7 +9519,7 @@
       <c r="R49" s="29"/>
       <c r="S49" s="28"/>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:19">
       <c r="B50" s="20">
         <v>13</v>
       </c>
@@ -9544,7 +9547,7 @@
       <c r="R50" s="29"/>
       <c r="S50" s="28"/>
     </row>
-    <row r="51" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:19" ht="18" customHeight="1">
       <c r="B51" s="20">
         <v>14</v>
       </c>
@@ -9572,7 +9575,7 @@
       <c r="R51" s="29"/>
       <c r="S51" s="28"/>
     </row>
-    <row r="52" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:19" ht="17.25" thickBot="1">
       <c r="B52" s="31">
         <v>15</v>
       </c>
@@ -9600,7 +9603,7 @@
       <c r="R52" s="29"/>
       <c r="S52" s="28"/>
     </row>
-    <row r="53" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:19" ht="17.25" thickBot="1">
       <c r="B53" s="31">
         <v>16</v>
       </c>
@@ -9618,19 +9621,19 @@
       <c r="H53" s="31"/>
       <c r="I53" s="31"/>
       <c r="J53" s="28"/>
-      <c r="K53" s="57" t="s">
+      <c r="K53" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="L53" s="58"/>
-      <c r="M53" s="58"/>
-      <c r="N53" s="58"/>
-      <c r="O53" s="58"/>
-      <c r="P53" s="58"/>
-      <c r="Q53" s="58"/>
-      <c r="R53" s="59"/>
+      <c r="L53" s="63"/>
+      <c r="M53" s="63"/>
+      <c r="N53" s="63"/>
+      <c r="O53" s="63"/>
+      <c r="P53" s="63"/>
+      <c r="Q53" s="63"/>
+      <c r="R53" s="64"/>
       <c r="S53" s="28"/>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:19">
       <c r="B54" s="28"/>
       <c r="C54" s="28"/>
       <c r="D54" s="28"/>
@@ -9666,7 +9669,7 @@
       </c>
       <c r="S54" s="28"/>
     </row>
-    <row r="55" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:19" ht="17.25" thickBot="1">
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
       <c r="D55" s="28"/>
@@ -9698,17 +9701,17 @@
       </c>
       <c r="S55" s="28"/>
     </row>
-    <row r="56" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="57" t="s">
+    <row r="56" spans="2:19" ht="17.25" thickBot="1">
+      <c r="B56" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="C56" s="58"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="58"/>
-      <c r="I56" s="59"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="64"/>
       <c r="J56" s="28"/>
       <c r="K56" s="31">
         <v>2</v>
@@ -9736,7 +9739,7 @@
       </c>
       <c r="S56" s="28"/>
     </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:19">
       <c r="B57" s="25" t="s">
         <v>126</v>
       </c>
@@ -9780,7 +9783,7 @@
       <c r="R57" s="31"/>
       <c r="S57" s="28"/>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:19">
       <c r="B58" s="26">
         <v>1</v>
       </c>
@@ -9828,7 +9831,7 @@
       </c>
       <c r="S58" s="28"/>
     </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:19">
       <c r="B59" s="26">
         <v>2</v>
       </c>
@@ -9870,7 +9873,7 @@
       <c r="R59" s="26"/>
       <c r="S59" s="28"/>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:19">
       <c r="B60" s="22">
         <v>3</v>
       </c>
@@ -9906,7 +9909,7 @@
       <c r="R60" s="26"/>
       <c r="S60" s="28"/>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:19">
       <c r="B61" s="26">
         <v>4</v>
       </c>
@@ -9946,7 +9949,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:19">
       <c r="B62" s="26">
         <v>5</v>
       </c>
@@ -9976,7 +9979,7 @@
       <c r="R62" s="29"/>
       <c r="S62" s="28"/>
     </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:19">
       <c r="B63" s="26">
         <v>6</v>
       </c>
@@ -10006,7 +10009,7 @@
       <c r="R63" s="29"/>
       <c r="S63" s="28"/>
     </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:19">
       <c r="B64" s="26">
         <v>7</v>
       </c>
@@ -10036,7 +10039,7 @@
       <c r="R64" s="29"/>
       <c r="S64" s="28"/>
     </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:19">
       <c r="B65" s="22">
         <v>8</v>
       </c>
@@ -10066,7 +10069,7 @@
       <c r="R65" s="29"/>
       <c r="S65" s="28"/>
     </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:19">
       <c r="B66" s="26">
         <v>9</v>
       </c>
@@ -10096,7 +10099,7 @@
       <c r="R66" s="29"/>
       <c r="S66" s="28"/>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:19">
       <c r="B67" s="26">
         <v>10</v>
       </c>
@@ -10126,7 +10129,7 @@
       <c r="R67" s="29"/>
       <c r="S67" s="28"/>
     </row>
-    <row r="68" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:19" ht="17.25" thickBot="1">
       <c r="B68" s="26">
         <v>11</v>
       </c>
@@ -10156,7 +10159,7 @@
       <c r="R68" s="29"/>
       <c r="S68" s="28"/>
     </row>
-    <row r="69" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:19" ht="17.25" thickBot="1">
       <c r="B69" s="26">
         <v>12</v>
       </c>
@@ -10176,21 +10179,21 @@
       <c r="H69" s="26"/>
       <c r="I69" s="26"/>
       <c r="J69" s="28"/>
-      <c r="K69" s="57" t="s">
+      <c r="K69" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="L69" s="58"/>
-      <c r="M69" s="58"/>
-      <c r="N69" s="58"/>
-      <c r="O69" s="58"/>
-      <c r="P69" s="58"/>
-      <c r="Q69" s="58"/>
-      <c r="R69" s="59"/>
+      <c r="L69" s="63"/>
+      <c r="M69" s="63"/>
+      <c r="N69" s="63"/>
+      <c r="O69" s="63"/>
+      <c r="P69" s="63"/>
+      <c r="Q69" s="63"/>
+      <c r="R69" s="64"/>
       <c r="S69" s="28" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:19">
       <c r="B70" s="26">
         <v>13</v>
       </c>
@@ -10236,7 +10239,7 @@
       </c>
       <c r="S70" s="28"/>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:19">
       <c r="B71" s="26">
         <v>15</v>
       </c>
@@ -10276,7 +10279,7 @@
       </c>
       <c r="S71" s="28"/>
     </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:19">
       <c r="B72" s="26">
         <v>16</v>
       </c>
@@ -10322,7 +10325,7 @@
       </c>
       <c r="S72" s="28"/>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:19">
       <c r="B73" s="26">
         <v>17</v>
       </c>
@@ -10358,7 +10361,7 @@
       <c r="R73" s="26"/>
       <c r="S73" s="28"/>
     </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:19">
       <c r="B74" s="22">
         <v>18</v>
       </c>
@@ -10400,7 +10403,7 @@
       </c>
       <c r="S74" s="28"/>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:19">
       <c r="B75" s="22">
         <v>19</v>
       </c>
@@ -10438,7 +10441,7 @@
       <c r="R75" s="26"/>
       <c r="S75" s="28"/>
     </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:19">
       <c r="B76" s="28"/>
       <c r="C76" s="33" t="s">
         <v>461</v>
@@ -10470,7 +10473,7 @@
       </c>
       <c r="S76" s="28"/>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:19">
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
       <c r="D77" s="28"/>
@@ -10500,7 +10503,7 @@
       </c>
       <c r="S77" s="28"/>
     </row>
-    <row r="78" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:19" ht="17.25" thickBot="1">
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
       <c r="D78" s="28"/>
@@ -10520,17 +10523,17 @@
       <c r="R78" s="29"/>
       <c r="S78" s="28"/>
     </row>
-    <row r="79" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="57" t="s">
+    <row r="79" spans="2:19" ht="17.25" thickBot="1">
+      <c r="B79" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="C79" s="58"/>
-      <c r="D79" s="58"/>
-      <c r="E79" s="58"/>
-      <c r="F79" s="58"/>
-      <c r="G79" s="58"/>
-      <c r="H79" s="58"/>
-      <c r="I79" s="59"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="63"/>
+      <c r="G79" s="63"/>
+      <c r="H79" s="63"/>
+      <c r="I79" s="64"/>
       <c r="J79" s="28"/>
       <c r="K79" s="28"/>
       <c r="L79" s="28"/>
@@ -10542,7 +10545,7 @@
       <c r="R79" s="29"/>
       <c r="S79" s="28"/>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:19">
       <c r="B80" s="25" t="s">
         <v>127</v>
       </c>
@@ -10568,7 +10571,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:18">
       <c r="B81" s="26">
         <v>1</v>
       </c>
@@ -10594,7 +10597,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:18">
       <c r="B82" s="26">
         <v>2</v>
       </c>
@@ -10614,7 +10617,7 @@
       <c r="H82" s="26"/>
       <c r="I82" s="26"/>
     </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:18">
       <c r="B83" s="26">
         <v>3</v>
       </c>
@@ -10636,7 +10639,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:18">
       <c r="B84" s="26">
         <v>4</v>
       </c>
@@ -10654,7 +10657,7 @@
       <c r="H84" s="26"/>
       <c r="I84" s="26"/>
     </row>
-    <row r="85" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:18">
       <c r="B85" s="26">
         <v>5</v>
       </c>
@@ -10672,7 +10675,7 @@
       <c r="H85" s="26"/>
       <c r="I85" s="26"/>
     </row>
-    <row r="86" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:18">
       <c r="B86" s="26">
         <v>6</v>
       </c>
@@ -10689,18 +10692,18 @@
       <c r="G86" s="26"/>
       <c r="H86" s="26"/>
       <c r="I86" s="26"/>
-      <c r="K86" s="56" t="s">
+      <c r="K86" s="60" t="s">
         <v>311</v>
       </c>
-      <c r="L86" s="56"/>
-      <c r="M86" s="56"/>
-      <c r="N86" s="56"/>
-      <c r="O86" s="56"/>
-      <c r="P86" s="56"/>
-      <c r="Q86" s="56"/>
-      <c r="R86" s="56"/>
-    </row>
-    <row r="87" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="L86" s="60"/>
+      <c r="M86" s="60"/>
+      <c r="N86" s="60"/>
+      <c r="O86" s="60"/>
+      <c r="P86" s="60"/>
+      <c r="Q86" s="60"/>
+      <c r="R86" s="60"/>
+    </row>
+    <row r="87" spans="2:18">
       <c r="B87" s="26">
         <v>7</v>
       </c>
@@ -10742,7 +10745,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="88" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:18">
       <c r="B88" s="26">
         <v>8</v>
       </c>
@@ -10780,7 +10783,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="89" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:18">
       <c r="B89" s="26">
         <v>9</v>
       </c>
@@ -10818,7 +10821,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="90" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:18">
       <c r="B90" s="26">
         <v>10</v>
       </c>
@@ -10852,7 +10855,7 @@
       <c r="Q90" s="19"/>
       <c r="R90" s="19"/>
     </row>
-    <row r="91" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:18">
       <c r="B91" s="26">
         <v>11</v>
       </c>
@@ -10870,7 +10873,7 @@
       <c r="H91" s="26"/>
       <c r="I91" s="26"/>
     </row>
-    <row r="92" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:18">
       <c r="B92" s="26">
         <v>12</v>
       </c>
@@ -10888,7 +10891,7 @@
       <c r="H92" s="26"/>
       <c r="I92" s="26"/>
     </row>
-    <row r="93" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:18" ht="17.25" thickBot="1">
       <c r="B93" s="23"/>
       <c r="C93" s="23"/>
       <c r="D93" s="23"/>
@@ -10898,7 +10901,7 @@
       <c r="H93" s="24"/>
       <c r="I93" s="24"/>
     </row>
-    <row r="94" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:18" ht="17.25" thickBot="1">
       <c r="B94" s="23"/>
       <c r="C94" s="23"/>
       <c r="D94" s="23"/>
@@ -10907,18 +10910,18 @@
       <c r="G94" s="24"/>
       <c r="H94" s="24"/>
       <c r="I94" s="24"/>
-      <c r="K94" s="52" t="s">
+      <c r="K94" s="57" t="s">
         <v>323</v>
       </c>
-      <c r="L94" s="53"/>
-      <c r="M94" s="53"/>
-      <c r="N94" s="53"/>
-      <c r="O94" s="53"/>
-      <c r="P94" s="53"/>
-      <c r="Q94" s="53"/>
-      <c r="R94" s="54"/>
-    </row>
-    <row r="95" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L94" s="58"/>
+      <c r="M94" s="58"/>
+      <c r="N94" s="58"/>
+      <c r="O94" s="58"/>
+      <c r="P94" s="58"/>
+      <c r="Q94" s="58"/>
+      <c r="R94" s="59"/>
+    </row>
+    <row r="95" spans="2:18" ht="17.25" thickBot="1">
       <c r="K95" s="11" t="s">
         <v>379</v>
       </c>
@@ -10944,17 +10947,17 @@
         <v>225</v>
       </c>
     </row>
-    <row r="96" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="52" t="s">
+    <row r="96" spans="2:18" ht="17.25" thickBot="1">
+      <c r="B96" s="57" t="s">
         <v>372</v>
       </c>
-      <c r="C96" s="53"/>
-      <c r="D96" s="53"/>
-      <c r="E96" s="53"/>
-      <c r="F96" s="53"/>
-      <c r="G96" s="53"/>
-      <c r="H96" s="53"/>
-      <c r="I96" s="54"/>
+      <c r="C96" s="58"/>
+      <c r="D96" s="58"/>
+      <c r="E96" s="58"/>
+      <c r="F96" s="58"/>
+      <c r="G96" s="58"/>
+      <c r="H96" s="58"/>
+      <c r="I96" s="59"/>
       <c r="K96" s="20">
         <v>1</v>
       </c>
@@ -10976,7 +10979,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="97" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:18">
       <c r="B97" s="11" t="s">
         <v>377</v>
       </c>
@@ -11018,7 +11021,7 @@
       <c r="Q97" s="22"/>
       <c r="R97" s="22"/>
     </row>
-    <row r="98" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:18">
       <c r="B98" s="20">
         <v>1</v>
       </c>
@@ -11062,7 +11065,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="99" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:18">
       <c r="B99" s="2">
         <v>2</v>
       </c>
@@ -11104,7 +11107,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:18">
       <c r="B100" s="2">
         <v>3</v>
       </c>
@@ -11142,7 +11145,7 @@
       <c r="Q100" s="2"/>
       <c r="R100" s="2"/>
     </row>
-    <row r="101" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:18">
       <c r="B101" s="20">
         <v>4</v>
       </c>
@@ -11176,7 +11179,7 @@
       <c r="Q101" s="2"/>
       <c r="R101" s="2"/>
     </row>
-    <row r="102" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:18">
       <c r="K102" s="2">
         <v>7</v>
       </c>
@@ -11194,20 +11197,20 @@
       <c r="Q102" s="2"/>
       <c r="R102" s="2"/>
     </row>
-    <row r="103" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="104" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="52" t="s">
+    <row r="103" spans="2:18" ht="17.25" thickBot="1"/>
+    <row r="104" spans="2:18" ht="17.25" thickBot="1">
+      <c r="B104" s="57" t="s">
         <v>313</v>
       </c>
-      <c r="C104" s="53"/>
-      <c r="D104" s="53"/>
-      <c r="E104" s="53"/>
-      <c r="F104" s="53"/>
-      <c r="G104" s="53"/>
-      <c r="H104" s="53"/>
-      <c r="I104" s="54"/>
-    </row>
-    <row r="105" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C104" s="58"/>
+      <c r="D104" s="58"/>
+      <c r="E104" s="58"/>
+      <c r="F104" s="58"/>
+      <c r="G104" s="58"/>
+      <c r="H104" s="58"/>
+      <c r="I104" s="59"/>
+    </row>
+    <row r="105" spans="2:18">
       <c r="B105" s="11" t="s">
         <v>380</v>
       </c>
@@ -11233,7 +11236,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="106" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:18">
       <c r="B106" s="20">
         <v>1</v>
       </c>
@@ -11255,7 +11258,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="107" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:18">
       <c r="B107" s="2">
         <v>2</v>
       </c>
@@ -11277,7 +11280,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="108" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:18">
       <c r="B108" s="2">
         <v>3</v>
       </c>
@@ -11303,20 +11306,20 @@
       <c r="Q108" s="36"/>
       <c r="R108" s="36"/>
     </row>
-    <row r="110" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="111" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="52" t="s">
+    <row r="110" spans="2:18" ht="17.25" thickBot="1"/>
+    <row r="111" spans="2:18" ht="17.25" thickBot="1">
+      <c r="B111" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="C111" s="53"/>
-      <c r="D111" s="53"/>
-      <c r="E111" s="53"/>
-      <c r="F111" s="53"/>
-      <c r="G111" s="53"/>
-      <c r="H111" s="53"/>
-      <c r="I111" s="54"/>
-    </row>
-    <row r="112" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C111" s="58"/>
+      <c r="D111" s="58"/>
+      <c r="E111" s="58"/>
+      <c r="F111" s="58"/>
+      <c r="G111" s="58"/>
+      <c r="H111" s="58"/>
+      <c r="I111" s="59"/>
+    </row>
+    <row r="112" spans="2:18">
       <c r="B112" s="11" t="s">
         <v>381</v>
       </c>
@@ -11342,7 +11345,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="113" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:18">
       <c r="B113" s="20">
         <v>1</v>
       </c>
@@ -11364,7 +11367,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="114" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:18">
       <c r="B114" s="2">
         <v>2</v>
       </c>
@@ -11386,7 +11389,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="115" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:18">
       <c r="B115" s="2">
         <v>3</v>
       </c>
@@ -11412,20 +11415,20 @@
       <c r="Q115" s="36"/>
       <c r="R115" s="36"/>
     </row>
-    <row r="117" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="118" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B118" s="52" t="s">
+    <row r="117" spans="2:18" ht="17.25" thickBot="1"/>
+    <row r="118" spans="2:18" ht="17.25" thickBot="1">
+      <c r="B118" s="57" t="s">
         <v>320</v>
       </c>
-      <c r="C118" s="53"/>
-      <c r="D118" s="53"/>
-      <c r="E118" s="53"/>
-      <c r="F118" s="53"/>
-      <c r="G118" s="53"/>
-      <c r="H118" s="53"/>
-      <c r="I118" s="54"/>
-    </row>
-    <row r="119" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C118" s="58"/>
+      <c r="D118" s="58"/>
+      <c r="E118" s="58"/>
+      <c r="F118" s="58"/>
+      <c r="G118" s="58"/>
+      <c r="H118" s="58"/>
+      <c r="I118" s="59"/>
+    </row>
+    <row r="119" spans="2:18">
       <c r="B119" s="11" t="s">
         <v>382</v>
       </c>
@@ -11451,7 +11454,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="120" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:18">
       <c r="B120" s="20">
         <v>1</v>
       </c>
@@ -11473,7 +11476,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="121" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:18">
       <c r="B121" s="2">
         <v>2</v>
       </c>
@@ -11495,7 +11498,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="122" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:18">
       <c r="B122" s="2">
         <v>3</v>
       </c>
@@ -11517,20 +11520,20 @@
         <v>290</v>
       </c>
     </row>
-    <row r="125" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="126" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="52" t="s">
+    <row r="125" spans="2:18" ht="17.25" thickBot="1"/>
+    <row r="126" spans="2:18" ht="17.25" thickBot="1">
+      <c r="B126" s="57" t="s">
         <v>338</v>
       </c>
-      <c r="C126" s="53"/>
-      <c r="D126" s="53"/>
-      <c r="E126" s="53"/>
-      <c r="F126" s="53"/>
-      <c r="G126" s="53"/>
-      <c r="H126" s="53"/>
-      <c r="I126" s="54"/>
-    </row>
-    <row r="127" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C126" s="58"/>
+      <c r="D126" s="58"/>
+      <c r="E126" s="58"/>
+      <c r="F126" s="58"/>
+      <c r="G126" s="58"/>
+      <c r="H126" s="58"/>
+      <c r="I126" s="59"/>
+    </row>
+    <row r="127" spans="2:18">
       <c r="B127" s="11" t="s">
         <v>124</v>
       </c>
@@ -11556,7 +11559,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="128" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:18">
       <c r="B128" s="2">
         <v>1</v>
       </c>
@@ -11582,7 +11585,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13">
       <c r="A129" s="23"/>
       <c r="B129" s="2">
         <v>2</v>
@@ -11611,7 +11614,7 @@
       <c r="L129" s="23"/>
       <c r="M129" s="23"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13">
       <c r="A130" s="23"/>
       <c r="B130" s="2">
         <v>3</v>
@@ -11634,7 +11637,7 @@
       <c r="L130" s="23"/>
       <c r="M130" s="23"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13">
       <c r="A131" s="23"/>
       <c r="B131" s="2">
         <v>4</v>
@@ -11657,7 +11660,7 @@
       <c r="L131" s="23"/>
       <c r="M131" s="23"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13">
       <c r="A132" s="23"/>
       <c r="B132" s="2">
         <v>5</v>
@@ -11680,7 +11683,7 @@
       <c r="L132" s="23"/>
       <c r="M132" s="23"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13">
       <c r="A133" s="23"/>
       <c r="B133" s="31">
         <v>6</v>
@@ -11703,7 +11706,7 @@
       <c r="L133" s="23"/>
       <c r="M133" s="23"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13">
       <c r="A134" s="23"/>
       <c r="B134" s="31">
         <v>7</v>
@@ -11726,7 +11729,7 @@
       <c r="L134" s="23"/>
       <c r="M134" s="23"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13">
       <c r="A135" s="23"/>
       <c r="B135" s="31">
         <v>8</v>
@@ -11749,7 +11752,7 @@
       <c r="L135" s="23"/>
       <c r="M135" s="23"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13">
       <c r="A136" s="23"/>
       <c r="B136" s="23"/>
       <c r="C136" s="23"/>
@@ -11764,7 +11767,7 @@
       <c r="L136" s="23"/>
       <c r="M136" s="23"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13">
       <c r="A137" s="23"/>
       <c r="B137" s="23"/>
       <c r="C137" s="23"/>
@@ -11779,7 +11782,7 @@
       <c r="L137" s="23"/>
       <c r="M137" s="23"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13">
       <c r="A138" s="23"/>
       <c r="B138" s="23"/>
       <c r="C138" s="23"/>
@@ -11794,7 +11797,7 @@
       <c r="L138" s="23"/>
       <c r="M138" s="23"/>
     </row>
-    <row r="139" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" ht="17.25" thickBot="1">
       <c r="A139" s="23"/>
       <c r="B139" s="23"/>
       <c r="C139" s="23"/>
@@ -11809,24 +11812,24 @@
       <c r="L139" s="23"/>
       <c r="M139" s="23"/>
     </row>
-    <row r="140" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" ht="17.25" thickBot="1">
       <c r="A140" s="23"/>
-      <c r="B140" s="57" t="s">
+      <c r="B140" s="62" t="s">
         <v>386</v>
       </c>
-      <c r="C140" s="58"/>
-      <c r="D140" s="58"/>
-      <c r="E140" s="58"/>
-      <c r="F140" s="58"/>
-      <c r="G140" s="58"/>
-      <c r="H140" s="58"/>
-      <c r="I140" s="59"/>
+      <c r="C140" s="63"/>
+      <c r="D140" s="63"/>
+      <c r="E140" s="63"/>
+      <c r="F140" s="63"/>
+      <c r="G140" s="63"/>
+      <c r="H140" s="63"/>
+      <c r="I140" s="64"/>
       <c r="J140" s="23"/>
       <c r="K140" s="23"/>
       <c r="L140" s="23"/>
       <c r="M140" s="23"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13">
       <c r="A141" s="23"/>
       <c r="B141" s="25" t="s">
         <v>379</v>
@@ -11857,7 +11860,7 @@
       <c r="L141" s="23"/>
       <c r="M141" s="23"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13">
       <c r="A142" s="23"/>
       <c r="B142" s="26">
         <v>1</v>
@@ -11888,7 +11891,7 @@
       <c r="L142" s="23"/>
       <c r="M142" s="23"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13">
       <c r="A143" s="23"/>
       <c r="B143" s="26">
         <v>2</v>
@@ -11911,7 +11914,7 @@
       <c r="L143" s="23"/>
       <c r="M143" s="23"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13">
       <c r="A144" s="23"/>
       <c r="B144" s="26">
         <v>3</v>
@@ -11934,7 +11937,7 @@
       <c r="L144" s="23"/>
       <c r="M144" s="23"/>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13">
       <c r="A145" s="23"/>
       <c r="B145" s="26">
         <v>4</v>
@@ -11957,7 +11960,7 @@
       <c r="L145" s="23"/>
       <c r="M145" s="23"/>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13">
       <c r="A146" s="23"/>
       <c r="B146" s="26">
         <v>5</v>
@@ -11980,7 +11983,7 @@
       <c r="L146" s="23"/>
       <c r="M146" s="23"/>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13">
       <c r="A147" s="23"/>
       <c r="B147" s="23"/>
       <c r="C147" s="23"/>
@@ -11995,7 +11998,7 @@
       <c r="L147" s="23"/>
       <c r="M147" s="23"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13">
       <c r="A148" s="23"/>
       <c r="B148" s="23"/>
       <c r="C148" s="23"/>
@@ -12010,7 +12013,7 @@
       <c r="L148" s="23"/>
       <c r="M148" s="23"/>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13">
       <c r="A149" s="23"/>
       <c r="B149" s="23"/>
       <c r="C149" s="23"/>
@@ -12025,7 +12028,7 @@
       <c r="L149" s="23"/>
       <c r="M149" s="23"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13">
       <c r="A150" s="23"/>
       <c r="B150" s="23"/>
       <c r="C150" s="23"/>
@@ -12040,7 +12043,7 @@
       <c r="L150" s="23"/>
       <c r="M150" s="23"/>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13">
       <c r="B151" s="23"/>
       <c r="C151" s="23"/>
       <c r="D151" s="23"/>
@@ -12050,7 +12053,7 @@
       <c r="H151" s="29"/>
       <c r="I151" s="29"/>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13">
       <c r="B152" s="23"/>
       <c r="C152" s="23"/>
       <c r="D152" s="23"/>
@@ -12060,7 +12063,7 @@
       <c r="H152" s="29"/>
       <c r="I152" s="29"/>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13">
       <c r="B153" s="23"/>
       <c r="C153" s="23"/>
       <c r="D153" s="23"/>
@@ -12070,7 +12073,7 @@
       <c r="H153" s="29"/>
       <c r="I153" s="29"/>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13">
       <c r="B154" s="23"/>
       <c r="C154" s="23"/>
       <c r="D154" s="23"/>
@@ -12082,6 +12085,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="K36:R36"/>
+    <mergeCell ref="C2:K4"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="K14:R14"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="K27:R27"/>
     <mergeCell ref="B140:I140"/>
     <mergeCell ref="B56:I56"/>
     <mergeCell ref="K53:R53"/>
@@ -12094,13 +12104,6 @@
     <mergeCell ref="B111:I111"/>
     <mergeCell ref="B118:I118"/>
     <mergeCell ref="B126:I126"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="K36:R36"/>
-    <mergeCell ref="C2:K4"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="K14:R14"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="K27:R27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12116,7 +12119,7 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -12124,7 +12127,7 @@
     <col min="4" max="4" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -12141,7 +12144,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="33">
       <c r="A7" s="40">
         <v>44054</v>
       </c>
@@ -12152,7 +12155,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="33">
       <c r="A8" s="40">
         <v>44054</v>
       </c>
@@ -12163,7 +12166,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="40">
         <v>44054</v>
       </c>
@@ -12174,7 +12177,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="40">
         <v>44054</v>
       </c>
@@ -12188,7 +12191,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="40">
         <v>44054</v>
       </c>
@@ -12202,13 +12205,13 @@
         <v>509</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="40"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="40"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="40">
         <v>44054</v>
       </c>
@@ -12219,7 +12222,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="40">
         <v>44054</v>
       </c>
@@ -12236,7 +12239,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="40">
         <v>44054</v>
       </c>
@@ -12250,7 +12253,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="49.5">
       <c r="A17" s="40">
         <v>44054</v>
       </c>
@@ -12261,7 +12264,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="40"/>
       <c r="B18" t="s">
         <v>547</v>
@@ -12270,7 +12273,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="40">
         <v>44054</v>
       </c>
@@ -12278,7 +12281,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="40">
         <v>44054</v>
       </c>
@@ -12286,7 +12289,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="40">
         <v>44054</v>
       </c>
@@ -12294,7 +12297,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="40">
         <v>44054</v>
       </c>
@@ -12302,7 +12305,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="40">
         <v>44054</v>
       </c>
@@ -12310,7 +12313,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="40">
         <v>44054</v>
       </c>
@@ -12318,7 +12321,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="40">
         <v>44054</v>
       </c>
@@ -12329,7 +12332,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="40">
         <v>44054</v>
       </c>
@@ -12337,7 +12340,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="42">
         <v>44054</v>
       </c>
@@ -12346,7 +12349,7 @@
       </c>
       <c r="C32" s="44"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="40">
         <v>44054</v>
       </c>
@@ -12357,7 +12360,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="40">
         <v>44054</v>
       </c>
@@ -12368,7 +12371,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="49.5">
       <c r="A35" s="40">
         <v>44054</v>
       </c>
@@ -12379,7 +12382,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="40">
         <v>44054</v>
       </c>
@@ -12387,7 +12390,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="B41" t="s">
         <v>523</v>
       </c>
@@ -12395,7 +12398,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="B42" t="s">
         <v>529</v>
       </c>
@@ -12403,7 +12406,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5">
       <c r="B45" t="s">
         <v>524</v>
       </c>
@@ -12411,7 +12414,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5">
       <c r="B46" t="s">
         <v>530</v>
       </c>
@@ -12419,7 +12422,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5">
       <c r="B47" t="s">
         <v>531</v>
       </c>
@@ -12427,7 +12430,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3">
       <c r="B50" t="s">
         <v>525</v>
       </c>
@@ -12435,7 +12438,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3">
       <c r="B51" t="s">
         <v>535</v>
       </c>
@@ -12443,7 +12446,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3">
       <c r="B52" t="s">
         <v>536</v>
       </c>
@@ -12451,7 +12454,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3">
       <c r="B53" t="s">
         <v>537</v>
       </c>
@@ -12459,7 +12462,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3">
       <c r="B55" t="s">
         <v>526</v>
       </c>
@@ -12467,7 +12470,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3">
       <c r="B56" t="s">
         <v>538</v>
       </c>
@@ -12475,7 +12478,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:3">
       <c r="B58" t="s">
         <v>527</v>
       </c>
@@ -12483,7 +12486,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:3">
       <c r="B62" t="s">
         <v>528</v>
       </c>
@@ -12491,7 +12494,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:3">
       <c r="B64" t="s">
         <v>546</v>
       </c>
@@ -12510,109 +12513,109 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="9.375" customWidth="1"/>
     <col min="4" max="4" width="6.5" customWidth="1"/>
     <col min="5" max="5" width="11.75" customWidth="1"/>
-    <col min="6" max="6" width="17.625" style="60" customWidth="1"/>
+    <col min="6" max="6" width="17.625" style="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="62" customFormat="1" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:8" s="47" customFormat="1" ht="50.25" thickBot="1">
+      <c r="A1" s="47" t="s">
         <v>557</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="47" t="s">
         <v>556</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="47" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="49" t="s">
         <v>563</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="47" t="s">
         <v>558</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="48" t="s">
         <v>560</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="47" t="s">
         <v>253</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="47" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="17.25" thickTop="1">
       <c r="A2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="51" t="s">
+    <row r="3" spans="1:8" ht="49.5">
+      <c r="B3" s="53" t="s">
         <v>555</v>
       </c>
       <c r="C3" t="s">
         <v>583</v>
       </c>
-      <c r="D3" s="61">
+      <c r="D3" s="46">
         <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>559</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="45" t="s">
         <v>561</v>
       </c>
-      <c r="H3" s="61">
+      <c r="H3" s="46">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="51"/>
-      <c r="D4" s="61"/>
+    <row r="4" spans="1:8">
+      <c r="B4" s="53"/>
+      <c r="D4" s="46"/>
       <c r="E4" t="s">
         <v>573</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="45" t="s">
         <v>574</v>
       </c>
-      <c r="H4" s="61">
+      <c r="H4" s="46">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="51"/>
-      <c r="D5" s="61"/>
+    <row r="5" spans="1:8">
+      <c r="B5" s="53"/>
+      <c r="D5" s="46"/>
       <c r="E5" t="s">
         <v>576</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="45" t="s">
         <v>577</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="B6" t="s">
         <v>562</v>
       </c>
       <c r="C6" t="s">
         <v>584</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="46">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="B7" t="s">
         <v>564</v>
       </c>
@@ -12623,85 +12626,85 @@
         <v>567</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="51" t="s">
+    <row r="8" spans="1:8">
+      <c r="B8" s="53" t="s">
         <v>565</v>
       </c>
       <c r="C8" t="s">
         <v>584</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="46">
         <v>1</v>
       </c>
-      <c r="F8" s="60" t="s">
+      <c r="F8" s="45" t="s">
         <v>568</v>
       </c>
-      <c r="H8" s="61">
+      <c r="H8" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="51"/>
-      <c r="D9" s="61"/>
-      <c r="F9" s="60" t="s">
+    <row r="9" spans="1:8" ht="33">
+      <c r="B9" s="53"/>
+      <c r="D9" s="46"/>
+      <c r="F9" s="45" t="s">
         <v>569</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="B10" t="s">
         <v>566</v>
       </c>
       <c r="C10" t="s">
         <v>584</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="46">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="51" t="s">
+    <row r="14" spans="1:8" ht="49.5">
+      <c r="B14" s="53" t="s">
         <v>570</v>
       </c>
       <c r="C14" t="s">
         <v>583</v>
       </c>
-      <c r="D14" s="61">
+      <c r="D14" s="46">
         <v>1</v>
       </c>
       <c r="E14" t="s">
         <v>571</v>
       </c>
-      <c r="F14" s="60" t="s">
+      <c r="F14" s="45" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="51"/>
+    <row r="15" spans="1:8">
+      <c r="B15" s="53"/>
       <c r="E15" t="s">
         <v>575</v>
       </c>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="45" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="51"/>
+    <row r="16" spans="1:8">
+      <c r="B16" s="53"/>
       <c r="E16" t="s">
         <v>576</v>
       </c>
-      <c r="F16" s="60" t="s">
+      <c r="F16" s="45" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="B17" t="s">
         <v>579</v>
       </c>
@@ -12712,29 +12715,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="B18" t="s">
         <v>580</v>
       </c>
       <c r="C18" t="s">
         <v>585</v>
       </c>
-      <c r="D18" s="61">
+      <c r="D18" s="46">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="B19" t="s">
         <v>581</v>
       </c>
       <c r="C19" t="s">
         <v>585</v>
       </c>
-      <c r="D19" s="61">
+      <c r="D19" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="B20" t="s">
         <v>582</v>
       </c>
@@ -12745,12 +12748,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="B24" t="s">
         <v>587</v>
       </c>
@@ -12758,7 +12761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="B25" t="s">
         <v>588</v>
       </c>
@@ -12769,12 +12772,12 @@
         <v>589</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="B28" t="s">
         <v>591</v>
       </c>
@@ -12782,160 +12785,178 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="51" t="s">
+    <row r="29" spans="1:8">
+      <c r="B29" s="53" t="s">
         <v>592</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="53" t="s">
         <v>516</v>
       </c>
-      <c r="D29" s="61">
+      <c r="D29" s="65">
         <v>1</v>
       </c>
       <c r="E29" t="s">
         <v>595</v>
       </c>
-      <c r="H29" s="61">
+      <c r="H29" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="51"/>
+    <row r="30" spans="1:8">
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="65"/>
       <c r="E30" t="s">
         <v>596</v>
       </c>
-      <c r="H30" s="61">
+      <c r="H30" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="51"/>
+    <row r="31" spans="1:8">
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="65"/>
       <c r="E31" t="s">
         <v>597</v>
       </c>
-      <c r="H31" s="61">
+      <c r="H31" s="46">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="51"/>
+    <row r="32" spans="1:8">
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="65"/>
       <c r="E32" t="s">
         <v>598</v>
       </c>
-      <c r="H32" s="61">
+      <c r="H32" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="51" t="s">
+    <row r="33" spans="1:8">
+      <c r="B33" s="53" t="s">
         <v>599</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="53" t="s">
         <v>516</v>
       </c>
-      <c r="D33" s="61">
+      <c r="D33" s="65">
         <v>1</v>
       </c>
       <c r="E33" t="s">
         <v>600</v>
       </c>
-      <c r="H33" s="61">
+      <c r="H33" s="46">
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B34" s="51"/>
+    <row r="34" spans="1:8" ht="33">
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="65"/>
       <c r="E34" t="s">
         <v>601</v>
       </c>
-      <c r="F34" s="60" t="s">
+      <c r="F34" s="45" t="s">
         <v>602</v>
       </c>
-      <c r="H34" s="61">
+      <c r="H34" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B35" s="51"/>
+    <row r="35" spans="1:8" ht="33">
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="65"/>
       <c r="E35" t="s">
         <v>603</v>
       </c>
-      <c r="F35" s="60" t="s">
+      <c r="F35" s="45" t="s">
         <v>604</v>
       </c>
-      <c r="H35" s="61">
+      <c r="H35" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="51"/>
+    <row r="36" spans="1:8">
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="65"/>
       <c r="E36" t="s">
         <v>605</v>
       </c>
-      <c r="F36" s="60" t="s">
+      <c r="F36" s="45" t="s">
         <v>606</v>
       </c>
-      <c r="H36" s="61">
+      <c r="H36" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="51"/>
+    <row r="37" spans="1:8">
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="65"/>
       <c r="E37" t="s">
         <v>607</v>
       </c>
-      <c r="H37" s="61">
+      <c r="H37" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H38" s="61"/>
-    </row>
-    <row r="39" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B39" s="51" t="s">
+    <row r="38" spans="1:8">
+      <c r="H38" s="46"/>
+    </row>
+    <row r="39" spans="1:8" ht="33">
+      <c r="B39" s="53" t="s">
         <v>593</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="53" t="s">
         <v>594</v>
       </c>
-      <c r="D39" s="61">
+      <c r="D39" s="65">
         <v>0.9</v>
       </c>
       <c r="E39" t="s">
         <v>608</v>
       </c>
-      <c r="F39" s="60" t="s">
+      <c r="F39" s="45" t="s">
         <v>609</v>
       </c>
-      <c r="H39" s="61">
+      <c r="H39" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B40" s="51"/>
+    <row r="40" spans="1:8" ht="33">
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="65"/>
       <c r="E40" t="s">
         <v>610</v>
       </c>
-      <c r="F40" s="60" t="s">
+      <c r="F40" s="45" t="s">
         <v>611</v>
       </c>
-      <c r="H40" s="61">
+      <c r="H40" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="B41" s="51"/>
+    <row r="41" spans="1:8" ht="66">
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="65"/>
       <c r="E41" t="s">
         <v>612</v>
       </c>
-      <c r="F41" s="60" t="s">
+      <c r="F41" s="45" t="s">
         <v>613</v>
       </c>
-      <c r="H41" s="61">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H41" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="B42" t="s">
         <v>614</v>
       </c>
@@ -12943,29 +12964,29 @@
         <v>615</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="B44" t="s">
         <v>616</v>
       </c>
-      <c r="D44" s="61">
+      <c r="D44" s="46">
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="51" t="s">
+    <row r="47" spans="1:8">
+      <c r="B47" s="53" t="s">
         <v>623</v>
       </c>
       <c r="D47" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="51"/>
+    <row r="48" spans="1:8">
+      <c r="B48" s="53"/>
       <c r="E48" t="s">
         <v>625</v>
       </c>
@@ -12976,8 +12997,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="51"/>
+    <row r="49" spans="1:8">
+      <c r="B49" s="53"/>
       <c r="E49" t="s">
         <v>626</v>
       </c>
@@ -12988,8 +13009,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="51"/>
+    <row r="50" spans="1:8">
+      <c r="B50" s="53"/>
       <c r="E50" t="s">
         <v>627</v>
       </c>
@@ -13000,7 +13021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="B52" t="s">
         <v>635</v>
       </c>
@@ -13008,17 +13029,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="66">
       <c r="B53" t="s">
         <v>135</v>
       </c>
-      <c r="C53" t="s">
-        <v>516</v>
-      </c>
       <c r="D53" t="s">
         <v>632</v>
       </c>
-      <c r="F53" s="60" t="s">
+      <c r="F53" s="45" t="s">
         <v>633</v>
       </c>
       <c r="G53" t="s">
@@ -13028,7 +13046,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8">
       <c r="B54" t="s">
         <v>630</v>
       </c>
@@ -13039,7 +13057,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8">
       <c r="B56" t="s">
         <v>634</v>
       </c>
@@ -13047,28 +13065,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="B59" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="B61" t="s">
         <v>618</v>
       </c>
       <c r="C61" t="s">
         <v>583</v>
       </c>
-      <c r="D61" s="61">
+      <c r="D61" s="46">
         <v>0.9</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8">
       <c r="B63" t="s">
         <v>619</v>
       </c>
@@ -13079,7 +13097,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8">
       <c r="B64" t="s">
         <v>620</v>
       </c>
@@ -13090,7 +13108,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5">
       <c r="B65" t="s">
         <v>621</v>
       </c>
@@ -13105,7 +13123,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="13">
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="B39:B41"/>

--- a/팀작업 테이블명세서.xlsx
+++ b/팀작업 테이블명세서.xlsx
@@ -12513,8 +12513,8 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12916,7 +12916,7 @@
         <v>594</v>
       </c>
       <c r="D39" s="65">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E39" t="s">
         <v>608</v>
@@ -12969,7 +12969,7 @@
         <v>616</v>
       </c>
       <c r="D44" s="46">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">

--- a/팀작업 테이블명세서.xlsx
+++ b/팀작업 테이블명세서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15000" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="4"/>
+    <workbookView xWindow="18465" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -167,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="702">
   <si>
     <t>Null허용</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2712,6 +2713,270 @@
   </si>
   <si>
     <t>데일리 헬스란(소개페이지)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>책임자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덱스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천 헬스, 트레이너 소개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지만 옮기고 끝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬스장 태그로 정렬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬스장 검색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬스장 찜한 횟수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬스장 코멘트 달린 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬스장 찜하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬스장 지도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담요청</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬스장 등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬스장 정보 보이기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬스장 개인 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트레이너 태그로 정렬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트레이너 검색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름, 지역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름, 지역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찜 많은 순, 별점 순</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트레이너 찜한 횟수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트레이너 코멘트 달린 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트레이너 찜하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬스장 코멘트 (문의사항, 후기, 별점)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담 요청</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로 등록하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트레이너 정보 보이기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트레이너 코멘트 (후기, 문의사항, 별점)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트레이너 개인 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모임 태그로 정렬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모임 검색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모임 찜한 횟수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모임 가입인원 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모임 찾기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찜하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입신청서로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스트 쓰기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스트 보이기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모임 메인 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새 소모임 생성하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모임 수정하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인원관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모임 개설/관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모임 관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폼 채우기 전 알람</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진 업로드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트레이너 등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트레이너 등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료 여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나에게 온 예약 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 CURD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 스타일 작업 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 스타일 작업 약간 더 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데일리 헬스란</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(소개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문가 등록이란</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">소모임이란 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지들만 ㅡㅡㅡㅡㅡㅡㅡ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모임 수정하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모임 관리하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사업 소개 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3046,7 +3311,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3197,6 +3462,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3206,9 +3474,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3216,6 +3481,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3550,26 +3818,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="53"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
@@ -3933,15 +4201,15 @@
       <c r="I18" t="s">
         <v>72</v>
       </c>
-      <c r="J18" s="50" t="s">
+      <c r="J18" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="53"/>
       <c r="Q18" t="s">
         <v>217</v>
       </c>
@@ -3971,15 +4239,15 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
       <c r="J20" s="2">
         <v>1</v>
       </c>
@@ -4023,15 +4291,15 @@
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="52"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="53"/>
       <c r="J22" s="2">
         <v>3</v>
       </c>
@@ -4307,24 +4575,24 @@
       <c r="P30" s="2"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="52"/>
-      <c r="J33" s="50" t="s">
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="53"/>
+      <c r="J33" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="53"/>
       <c r="Q33" t="s">
         <v>219</v>
       </c>
@@ -4634,15 +4902,15 @@
       </c>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="50" t="s">
+      <c r="A46" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="52"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="53"/>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="1" t="s">
@@ -4765,27 +5033,27 @@
       </c>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="50" t="s">
+      <c r="A55" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="52"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="53"/>
       <c r="H55" t="s">
         <v>136</v>
       </c>
-      <c r="J55" s="50" t="s">
+      <c r="J55" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="K55" s="51"/>
-      <c r="L55" s="51"/>
-      <c r="M55" s="51"/>
-      <c r="N55" s="51"/>
-      <c r="O55" s="51"/>
-      <c r="P55" s="52"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="52"/>
+      <c r="O55" s="52"/>
+      <c r="P55" s="53"/>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="1" t="s">
@@ -5036,14 +5304,14 @@
       <c r="A63" s="4"/>
     </row>
     <row r="65" spans="1:16">
-      <c r="F65" s="53" t="s">
+      <c r="F65" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="G65" s="53"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
-      <c r="K65" s="53"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="57"/>
+      <c r="K65" s="57"/>
     </row>
     <row r="66" spans="1:16">
       <c r="M66" t="s">
@@ -5051,24 +5319,24 @@
       </c>
     </row>
     <row r="67" spans="1:16">
-      <c r="A67" s="50" t="s">
+      <c r="A67" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="B67" s="51"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="51"/>
-      <c r="F67" s="51"/>
-      <c r="G67" s="52"/>
-      <c r="J67" s="50" t="s">
+      <c r="B67" s="52"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="52"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="53"/>
+      <c r="J67" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="K67" s="51"/>
-      <c r="L67" s="51"/>
-      <c r="M67" s="51"/>
-      <c r="N67" s="51"/>
-      <c r="O67" s="51"/>
-      <c r="P67" s="52"/>
+      <c r="K67" s="52"/>
+      <c r="L67" s="52"/>
+      <c r="M67" s="52"/>
+      <c r="N67" s="52"/>
+      <c r="O67" s="52"/>
+      <c r="P67" s="53"/>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="1" t="s">
@@ -5366,6 +5634,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A33:G33"/>
     <mergeCell ref="J67:P67"/>
     <mergeCell ref="J55:P55"/>
     <mergeCell ref="J18:P18"/>
@@ -5375,11 +5648,6 @@
     <mergeCell ref="A55:G55"/>
     <mergeCell ref="A67:G67"/>
     <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A33:G33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5419,39 +5687,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18">
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="2:18">
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="2:18">
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="2:18">
       <c r="K5" s="9"/>
@@ -5474,16 +5742,16 @@
       <c r="R6" s="8"/>
     </row>
     <row r="7" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="60"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -5690,16 +5958,16 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="K14" s="61" t="s">
+      <c r="K14" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
     </row>
     <row r="15" spans="2:18">
       <c r="B15" s="2">
@@ -5972,26 +6240,26 @@
       <c r="R26" s="8"/>
     </row>
     <row r="27" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="62" t="s">
         <v>245</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="K27" s="57" t="s">
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="K27" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="60"/>
     </row>
     <row r="28" spans="2:18">
       <c r="B28" s="14"/>
@@ -6168,26 +6436,26 @@
       <c r="R35" s="8"/>
     </row>
     <row r="36" spans="2:19" ht="17.25" thickBot="1">
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="58" t="s">
         <v>250</v>
       </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="59"/>
-      <c r="K36" s="57" t="s">
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="60"/>
+      <c r="K36" s="58" t="s">
         <v>299</v>
       </c>
-      <c r="L36" s="58"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="58"/>
-      <c r="P36" s="58"/>
-      <c r="Q36" s="58"/>
-      <c r="R36" s="59"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="59"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="60"/>
     </row>
     <row r="37" spans="2:19">
       <c r="B37" s="11" t="s">
@@ -6606,26 +6874,26 @@
     </row>
     <row r="52" spans="2:19" ht="17.25" thickBot="1"/>
     <row r="53" spans="2:19" ht="17.25" thickBot="1">
-      <c r="B53" s="57" t="s">
+      <c r="B53" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="59"/>
-      <c r="K53" s="57" t="s">
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="60"/>
+      <c r="K53" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="L53" s="58"/>
-      <c r="M53" s="58"/>
-      <c r="N53" s="58"/>
-      <c r="O53" s="58"/>
-      <c r="P53" s="58"/>
-      <c r="Q53" s="58"/>
-      <c r="R53" s="59"/>
+      <c r="L53" s="59"/>
+      <c r="M53" s="59"/>
+      <c r="N53" s="59"/>
+      <c r="O53" s="59"/>
+      <c r="P53" s="59"/>
+      <c r="Q53" s="59"/>
+      <c r="R53" s="60"/>
     </row>
     <row r="54" spans="2:19">
       <c r="B54" s="11" t="s">
@@ -7012,26 +7280,26 @@
     </row>
     <row r="68" spans="2:19" ht="17.25" thickBot="1"/>
     <row r="69" spans="2:19" ht="17.25" thickBot="1">
-      <c r="B69" s="57" t="s">
+      <c r="B69" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="C69" s="58"/>
-      <c r="D69" s="58"/>
-      <c r="E69" s="58"/>
-      <c r="F69" s="58"/>
-      <c r="G69" s="58"/>
-      <c r="H69" s="58"/>
-      <c r="I69" s="59"/>
-      <c r="K69" s="57" t="s">
+      <c r="C69" s="59"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="60"/>
+      <c r="K69" s="58" t="s">
         <v>286</v>
       </c>
-      <c r="L69" s="58"/>
-      <c r="M69" s="58"/>
-      <c r="N69" s="58"/>
-      <c r="O69" s="58"/>
-      <c r="P69" s="58"/>
-      <c r="Q69" s="58"/>
-      <c r="R69" s="59"/>
+      <c r="L69" s="59"/>
+      <c r="M69" s="59"/>
+      <c r="N69" s="59"/>
+      <c r="O69" s="59"/>
+      <c r="P69" s="59"/>
+      <c r="Q69" s="59"/>
+      <c r="R69" s="60"/>
       <c r="S69" t="s">
         <v>312</v>
       </c>
@@ -7315,26 +7583,26 @@
     </row>
     <row r="79" spans="2:19" ht="17.25" thickBot="1"/>
     <row r="80" spans="2:19" ht="17.25" thickBot="1">
-      <c r="B80" s="57" t="s">
+      <c r="B80" s="58" t="s">
         <v>372</v>
       </c>
-      <c r="C80" s="58"/>
-      <c r="D80" s="58"/>
-      <c r="E80" s="58"/>
-      <c r="F80" s="58"/>
-      <c r="G80" s="58"/>
-      <c r="H80" s="58"/>
-      <c r="I80" s="59"/>
-      <c r="K80" s="60" t="s">
+      <c r="C80" s="59"/>
+      <c r="D80" s="59"/>
+      <c r="E80" s="59"/>
+      <c r="F80" s="59"/>
+      <c r="G80" s="59"/>
+      <c r="H80" s="59"/>
+      <c r="I80" s="60"/>
+      <c r="K80" s="61" t="s">
         <v>311</v>
       </c>
-      <c r="L80" s="60"/>
-      <c r="M80" s="60"/>
-      <c r="N80" s="60"/>
-      <c r="O80" s="60"/>
-      <c r="P80" s="60"/>
-      <c r="Q80" s="60"/>
-      <c r="R80" s="60"/>
+      <c r="L80" s="61"/>
+      <c r="M80" s="61"/>
+      <c r="N80" s="61"/>
+      <c r="O80" s="61"/>
+      <c r="P80" s="61"/>
+      <c r="Q80" s="61"/>
+      <c r="R80" s="61"/>
     </row>
     <row r="81" spans="2:18">
       <c r="B81" s="11" t="s">
@@ -7494,26 +7762,26 @@
     </row>
     <row r="87" spans="2:18" ht="17.25" thickBot="1"/>
     <row r="88" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B88" s="57" t="s">
+      <c r="B88" s="58" t="s">
         <v>313</v>
       </c>
-      <c r="C88" s="58"/>
-      <c r="D88" s="58"/>
-      <c r="E88" s="58"/>
-      <c r="F88" s="58"/>
-      <c r="G88" s="58"/>
-      <c r="H88" s="58"/>
-      <c r="I88" s="59"/>
-      <c r="K88" s="57" t="s">
+      <c r="C88" s="59"/>
+      <c r="D88" s="59"/>
+      <c r="E88" s="59"/>
+      <c r="F88" s="59"/>
+      <c r="G88" s="59"/>
+      <c r="H88" s="59"/>
+      <c r="I88" s="60"/>
+      <c r="K88" s="58" t="s">
         <v>323</v>
       </c>
-      <c r="L88" s="58"/>
-      <c r="M88" s="58"/>
-      <c r="N88" s="58"/>
-      <c r="O88" s="58"/>
-      <c r="P88" s="58"/>
-      <c r="Q88" s="58"/>
-      <c r="R88" s="59"/>
+      <c r="L88" s="59"/>
+      <c r="M88" s="59"/>
+      <c r="N88" s="59"/>
+      <c r="O88" s="59"/>
+      <c r="P88" s="59"/>
+      <c r="Q88" s="59"/>
+      <c r="R88" s="60"/>
     </row>
     <row r="89" spans="2:18">
       <c r="B89" s="11" t="s">
@@ -7688,16 +7956,16 @@
       <c r="R93" s="2"/>
     </row>
     <row r="94" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B94" s="57" t="s">
+      <c r="B94" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="C94" s="58"/>
-      <c r="D94" s="58"/>
-      <c r="E94" s="58"/>
-      <c r="F94" s="58"/>
-      <c r="G94" s="58"/>
-      <c r="H94" s="58"/>
-      <c r="I94" s="59"/>
+      <c r="C94" s="59"/>
+      <c r="D94" s="59"/>
+      <c r="E94" s="59"/>
+      <c r="F94" s="59"/>
+      <c r="G94" s="59"/>
+      <c r="H94" s="59"/>
+      <c r="I94" s="60"/>
       <c r="K94" s="2">
         <v>5</v>
       </c>
@@ -7787,16 +8055,16 @@
     </row>
     <row r="99" spans="2:9" ht="17.25" thickBot="1"/>
     <row r="100" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B100" s="57" t="s">
+      <c r="B100" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="C100" s="58"/>
-      <c r="D100" s="58"/>
-      <c r="E100" s="58"/>
-      <c r="F100" s="58"/>
-      <c r="G100" s="58"/>
-      <c r="H100" s="58"/>
-      <c r="I100" s="59"/>
+      <c r="C100" s="59"/>
+      <c r="D100" s="59"/>
+      <c r="E100" s="59"/>
+      <c r="F100" s="59"/>
+      <c r="G100" s="59"/>
+      <c r="H100" s="59"/>
+      <c r="I100" s="60"/>
     </row>
     <row r="101" spans="2:9">
       <c r="B101" s="11" t="s">
@@ -7870,16 +8138,16 @@
     </row>
     <row r="107" spans="2:9" ht="17.25" thickBot="1"/>
     <row r="108" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B108" s="57" t="s">
+      <c r="B108" s="58" t="s">
         <v>338</v>
       </c>
-      <c r="C108" s="58"/>
-      <c r="D108" s="58"/>
-      <c r="E108" s="58"/>
-      <c r="F108" s="58"/>
-      <c r="G108" s="58"/>
-      <c r="H108" s="58"/>
-      <c r="I108" s="59"/>
+      <c r="C108" s="59"/>
+      <c r="D108" s="59"/>
+      <c r="E108" s="59"/>
+      <c r="F108" s="59"/>
+      <c r="G108" s="59"/>
+      <c r="H108" s="59"/>
+      <c r="I108" s="60"/>
     </row>
     <row r="109" spans="2:9">
       <c r="B109" s="11" t="s">
@@ -8067,16 +8335,16 @@
     </row>
     <row r="121" spans="2:9" ht="17.25" thickBot="1"/>
     <row r="122" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B122" s="57" t="s">
+      <c r="B122" s="58" t="s">
         <v>386</v>
       </c>
-      <c r="C122" s="58"/>
-      <c r="D122" s="58"/>
-      <c r="E122" s="58"/>
-      <c r="F122" s="58"/>
-      <c r="G122" s="58"/>
-      <c r="H122" s="58"/>
-      <c r="I122" s="59"/>
+      <c r="C122" s="59"/>
+      <c r="D122" s="59"/>
+      <c r="E122" s="59"/>
+      <c r="F122" s="59"/>
+      <c r="G122" s="59"/>
+      <c r="H122" s="59"/>
+      <c r="I122" s="60"/>
     </row>
     <row r="123" spans="2:9">
       <c r="B123" s="11" t="s">
@@ -8261,39 +8529,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18">
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="2:18">
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="2:18">
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="2:18">
       <c r="K5" s="9"/>
@@ -8316,16 +8584,16 @@
       <c r="R6" s="8"/>
     </row>
     <row r="7" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="60"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -8532,16 +8800,16 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="K14" s="61" t="s">
+      <c r="K14" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
     </row>
     <row r="15" spans="2:18">
       <c r="B15" s="2">
@@ -8814,26 +9082,26 @@
       <c r="R26" s="8"/>
     </row>
     <row r="27" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="62" t="s">
         <v>245</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="K27" s="57" t="s">
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="K27" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="60"/>
     </row>
     <row r="28" spans="2:18">
       <c r="B28" s="14"/>
@@ -9024,26 +9292,26 @@
       <c r="R35" s="8"/>
     </row>
     <row r="36" spans="2:19" ht="17.25" thickBot="1">
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="58" t="s">
         <v>250</v>
       </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="59"/>
-      <c r="K36" s="57" t="s">
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="60"/>
+      <c r="K36" s="58" t="s">
         <v>299</v>
       </c>
-      <c r="L36" s="58"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="58"/>
-      <c r="P36" s="58"/>
-      <c r="Q36" s="58"/>
-      <c r="R36" s="59"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="59"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="60"/>
     </row>
     <row r="37" spans="2:19">
       <c r="B37" s="11" t="s">
@@ -9621,16 +9889,16 @@
       <c r="H53" s="31"/>
       <c r="I53" s="31"/>
       <c r="J53" s="28"/>
-      <c r="K53" s="62" t="s">
+      <c r="K53" s="63" t="s">
         <v>300</v>
       </c>
-      <c r="L53" s="63"/>
-      <c r="M53" s="63"/>
-      <c r="N53" s="63"/>
-      <c r="O53" s="63"/>
-      <c r="P53" s="63"/>
-      <c r="Q53" s="63"/>
-      <c r="R53" s="64"/>
+      <c r="L53" s="64"/>
+      <c r="M53" s="64"/>
+      <c r="N53" s="64"/>
+      <c r="O53" s="64"/>
+      <c r="P53" s="64"/>
+      <c r="Q53" s="64"/>
+      <c r="R53" s="65"/>
       <c r="S53" s="28"/>
     </row>
     <row r="54" spans="2:19">
@@ -9702,16 +9970,16 @@
       <c r="S55" s="28"/>
     </row>
     <row r="56" spans="2:19" ht="17.25" thickBot="1">
-      <c r="B56" s="62" t="s">
+      <c r="B56" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="C56" s="63"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="63"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="64"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="65"/>
       <c r="J56" s="28"/>
       <c r="K56" s="31">
         <v>2</v>
@@ -10179,16 +10447,16 @@
       <c r="H69" s="26"/>
       <c r="I69" s="26"/>
       <c r="J69" s="28"/>
-      <c r="K69" s="62" t="s">
+      <c r="K69" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="L69" s="63"/>
-      <c r="M69" s="63"/>
-      <c r="N69" s="63"/>
-      <c r="O69" s="63"/>
-      <c r="P69" s="63"/>
-      <c r="Q69" s="63"/>
-      <c r="R69" s="64"/>
+      <c r="L69" s="64"/>
+      <c r="M69" s="64"/>
+      <c r="N69" s="64"/>
+      <c r="O69" s="64"/>
+      <c r="P69" s="64"/>
+      <c r="Q69" s="64"/>
+      <c r="R69" s="65"/>
       <c r="S69" s="28" t="s">
         <v>312</v>
       </c>
@@ -10524,16 +10792,16 @@
       <c r="S78" s="28"/>
     </row>
     <row r="79" spans="2:19" ht="17.25" thickBot="1">
-      <c r="B79" s="62" t="s">
+      <c r="B79" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="C79" s="63"/>
-      <c r="D79" s="63"/>
-      <c r="E79" s="63"/>
-      <c r="F79" s="63"/>
-      <c r="G79" s="63"/>
-      <c r="H79" s="63"/>
-      <c r="I79" s="64"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="64"/>
+      <c r="F79" s="64"/>
+      <c r="G79" s="64"/>
+      <c r="H79" s="64"/>
+      <c r="I79" s="65"/>
       <c r="J79" s="28"/>
       <c r="K79" s="28"/>
       <c r="L79" s="28"/>
@@ -10692,16 +10960,16 @@
       <c r="G86" s="26"/>
       <c r="H86" s="26"/>
       <c r="I86" s="26"/>
-      <c r="K86" s="60" t="s">
+      <c r="K86" s="61" t="s">
         <v>311</v>
       </c>
-      <c r="L86" s="60"/>
-      <c r="M86" s="60"/>
-      <c r="N86" s="60"/>
-      <c r="O86" s="60"/>
-      <c r="P86" s="60"/>
-      <c r="Q86" s="60"/>
-      <c r="R86" s="60"/>
+      <c r="L86" s="61"/>
+      <c r="M86" s="61"/>
+      <c r="N86" s="61"/>
+      <c r="O86" s="61"/>
+      <c r="P86" s="61"/>
+      <c r="Q86" s="61"/>
+      <c r="R86" s="61"/>
     </row>
     <row r="87" spans="2:18">
       <c r="B87" s="26">
@@ -10910,16 +11178,16 @@
       <c r="G94" s="24"/>
       <c r="H94" s="24"/>
       <c r="I94" s="24"/>
-      <c r="K94" s="57" t="s">
+      <c r="K94" s="58" t="s">
         <v>323</v>
       </c>
-      <c r="L94" s="58"/>
-      <c r="M94" s="58"/>
-      <c r="N94" s="58"/>
-      <c r="O94" s="58"/>
-      <c r="P94" s="58"/>
-      <c r="Q94" s="58"/>
-      <c r="R94" s="59"/>
+      <c r="L94" s="59"/>
+      <c r="M94" s="59"/>
+      <c r="N94" s="59"/>
+      <c r="O94" s="59"/>
+      <c r="P94" s="59"/>
+      <c r="Q94" s="59"/>
+      <c r="R94" s="60"/>
     </row>
     <row r="95" spans="2:18" ht="17.25" thickBot="1">
       <c r="K95" s="11" t="s">
@@ -10948,16 +11216,16 @@
       </c>
     </row>
     <row r="96" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B96" s="57" t="s">
+      <c r="B96" s="58" t="s">
         <v>372</v>
       </c>
-      <c r="C96" s="58"/>
-      <c r="D96" s="58"/>
-      <c r="E96" s="58"/>
-      <c r="F96" s="58"/>
-      <c r="G96" s="58"/>
-      <c r="H96" s="58"/>
-      <c r="I96" s="59"/>
+      <c r="C96" s="59"/>
+      <c r="D96" s="59"/>
+      <c r="E96" s="59"/>
+      <c r="F96" s="59"/>
+      <c r="G96" s="59"/>
+      <c r="H96" s="59"/>
+      <c r="I96" s="60"/>
       <c r="K96" s="20">
         <v>1</v>
       </c>
@@ -11199,16 +11467,16 @@
     </row>
     <row r="103" spans="2:18" ht="17.25" thickBot="1"/>
     <row r="104" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B104" s="57" t="s">
+      <c r="B104" s="58" t="s">
         <v>313</v>
       </c>
-      <c r="C104" s="58"/>
-      <c r="D104" s="58"/>
-      <c r="E104" s="58"/>
-      <c r="F104" s="58"/>
-      <c r="G104" s="58"/>
-      <c r="H104" s="58"/>
-      <c r="I104" s="59"/>
+      <c r="C104" s="59"/>
+      <c r="D104" s="59"/>
+      <c r="E104" s="59"/>
+      <c r="F104" s="59"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="59"/>
+      <c r="I104" s="60"/>
     </row>
     <row r="105" spans="2:18">
       <c r="B105" s="11" t="s">
@@ -11308,16 +11576,16 @@
     </row>
     <row r="110" spans="2:18" ht="17.25" thickBot="1"/>
     <row r="111" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B111" s="57" t="s">
+      <c r="B111" s="58" t="s">
         <v>318</v>
       </c>
-      <c r="C111" s="58"/>
-      <c r="D111" s="58"/>
-      <c r="E111" s="58"/>
-      <c r="F111" s="58"/>
-      <c r="G111" s="58"/>
-      <c r="H111" s="58"/>
-      <c r="I111" s="59"/>
+      <c r="C111" s="59"/>
+      <c r="D111" s="59"/>
+      <c r="E111" s="59"/>
+      <c r="F111" s="59"/>
+      <c r="G111" s="59"/>
+      <c r="H111" s="59"/>
+      <c r="I111" s="60"/>
     </row>
     <row r="112" spans="2:18">
       <c r="B112" s="11" t="s">
@@ -11417,16 +11685,16 @@
     </row>
     <row r="117" spans="2:18" ht="17.25" thickBot="1"/>
     <row r="118" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B118" s="57" t="s">
+      <c r="B118" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="C118" s="58"/>
-      <c r="D118" s="58"/>
-      <c r="E118" s="58"/>
-      <c r="F118" s="58"/>
-      <c r="G118" s="58"/>
-      <c r="H118" s="58"/>
-      <c r="I118" s="59"/>
+      <c r="C118" s="59"/>
+      <c r="D118" s="59"/>
+      <c r="E118" s="59"/>
+      <c r="F118" s="59"/>
+      <c r="G118" s="59"/>
+      <c r="H118" s="59"/>
+      <c r="I118" s="60"/>
     </row>
     <row r="119" spans="2:18">
       <c r="B119" s="11" t="s">
@@ -11522,16 +11790,16 @@
     </row>
     <row r="125" spans="2:18" ht="17.25" thickBot="1"/>
     <row r="126" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B126" s="57" t="s">
+      <c r="B126" s="58" t="s">
         <v>338</v>
       </c>
-      <c r="C126" s="58"/>
-      <c r="D126" s="58"/>
-      <c r="E126" s="58"/>
-      <c r="F126" s="58"/>
-      <c r="G126" s="58"/>
-      <c r="H126" s="58"/>
-      <c r="I126" s="59"/>
+      <c r="C126" s="59"/>
+      <c r="D126" s="59"/>
+      <c r="E126" s="59"/>
+      <c r="F126" s="59"/>
+      <c r="G126" s="59"/>
+      <c r="H126" s="59"/>
+      <c r="I126" s="60"/>
     </row>
     <row r="127" spans="2:18">
       <c r="B127" s="11" t="s">
@@ -11814,16 +12082,16 @@
     </row>
     <row r="140" spans="1:13" ht="17.25" thickBot="1">
       <c r="A140" s="23"/>
-      <c r="B140" s="62" t="s">
+      <c r="B140" s="63" t="s">
         <v>386</v>
       </c>
-      <c r="C140" s="63"/>
-      <c r="D140" s="63"/>
-      <c r="E140" s="63"/>
-      <c r="F140" s="63"/>
-      <c r="G140" s="63"/>
-      <c r="H140" s="63"/>
-      <c r="I140" s="64"/>
+      <c r="C140" s="64"/>
+      <c r="D140" s="64"/>
+      <c r="E140" s="64"/>
+      <c r="F140" s="64"/>
+      <c r="G140" s="64"/>
+      <c r="H140" s="64"/>
+      <c r="I140" s="65"/>
       <c r="J140" s="23"/>
       <c r="K140" s="23"/>
       <c r="L140" s="23"/>
@@ -12085,13 +12353,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="K36:R36"/>
-    <mergeCell ref="C2:K4"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="K14:R14"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="K27:R27"/>
     <mergeCell ref="B140:I140"/>
     <mergeCell ref="B56:I56"/>
     <mergeCell ref="K53:R53"/>
@@ -12104,6 +12365,13 @@
     <mergeCell ref="B111:I111"/>
     <mergeCell ref="B118:I118"/>
     <mergeCell ref="B126:I126"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="K36:R36"/>
+    <mergeCell ref="C2:K4"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="K14:R14"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="K27:R27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12512,9 +12780,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F53" sqref="F3:F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12559,7 +12827,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="49.5">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="57" t="s">
         <v>555</v>
       </c>
       <c r="C3" t="s">
@@ -12579,7 +12847,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="B4" s="53"/>
+      <c r="B4" s="57"/>
       <c r="D4" s="46"/>
       <c r="E4" t="s">
         <v>573</v>
@@ -12592,7 +12860,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="B5" s="53"/>
+      <c r="B5" s="57"/>
       <c r="D5" s="46"/>
       <c r="E5" t="s">
         <v>576</v>
@@ -12627,7 +12895,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="57" t="s">
         <v>565</v>
       </c>
       <c r="C8" t="s">
@@ -12644,7 +12912,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="33">
-      <c r="B9" s="53"/>
+      <c r="B9" s="57"/>
       <c r="D9" s="46"/>
       <c r="F9" s="45" t="s">
         <v>569</v>
@@ -12670,7 +12938,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="49.5">
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="57" t="s">
         <v>570</v>
       </c>
       <c r="C14" t="s">
@@ -12687,7 +12955,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="53"/>
+      <c r="B15" s="57"/>
       <c r="E15" t="s">
         <v>575</v>
       </c>
@@ -12696,7 +12964,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="53"/>
+      <c r="B16" s="57"/>
       <c r="E16" t="s">
         <v>576</v>
       </c>
@@ -12786,13 +13054,13 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="57" t="s">
         <v>592</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="57" t="s">
         <v>516</v>
       </c>
-      <c r="D29" s="65">
+      <c r="D29" s="66">
         <v>1</v>
       </c>
       <c r="E29" t="s">
@@ -12803,9 +13071,9 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="65"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="66"/>
       <c r="E30" t="s">
         <v>596</v>
       </c>
@@ -12814,9 +13082,9 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="65"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="66"/>
       <c r="E31" t="s">
         <v>597</v>
       </c>
@@ -12825,9 +13093,9 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="65"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="66"/>
       <c r="E32" t="s">
         <v>598</v>
       </c>
@@ -12836,13 +13104,13 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="57" t="s">
         <v>599</v>
       </c>
-      <c r="C33" s="53" t="s">
+      <c r="C33" s="57" t="s">
         <v>516</v>
       </c>
-      <c r="D33" s="65">
+      <c r="D33" s="66">
         <v>1</v>
       </c>
       <c r="E33" t="s">
@@ -12853,9 +13121,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="33">
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="65"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="66"/>
       <c r="E34" t="s">
         <v>601</v>
       </c>
@@ -12867,9 +13135,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="33">
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="65"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="66"/>
       <c r="E35" t="s">
         <v>603</v>
       </c>
@@ -12881,9 +13149,9 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="65"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="66"/>
       <c r="E36" t="s">
         <v>605</v>
       </c>
@@ -12895,9 +13163,9 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="65"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="66"/>
       <c r="E37" t="s">
         <v>607</v>
       </c>
@@ -12909,13 +13177,13 @@
       <c r="H38" s="46"/>
     </row>
     <row r="39" spans="1:8" ht="33">
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="57" t="s">
         <v>593</v>
       </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="57" t="s">
         <v>594</v>
       </c>
-      <c r="D39" s="65">
+      <c r="D39" s="66">
         <v>1</v>
       </c>
       <c r="E39" t="s">
@@ -12929,9 +13197,9 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="33">
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="65"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="66"/>
       <c r="E40" t="s">
         <v>610</v>
       </c>
@@ -12943,9 +13211,9 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="66">
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="65"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="66"/>
       <c r="E41" t="s">
         <v>612</v>
       </c>
@@ -12978,7 +13246,7 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="B47" s="53" t="s">
+      <c r="B47" s="57" t="s">
         <v>623</v>
       </c>
       <c r="D47" t="s">
@@ -12986,7 +13254,7 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="B48" s="53"/>
+      <c r="B48" s="57"/>
       <c r="E48" t="s">
         <v>625</v>
       </c>
@@ -12998,7 +13266,7 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="B49" s="53"/>
+      <c r="B49" s="57"/>
       <c r="E49" t="s">
         <v>626</v>
       </c>
@@ -13010,7 +13278,7 @@
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="B50" s="53"/>
+      <c r="B50" s="57"/>
       <c r="E50" t="s">
         <v>627</v>
       </c>
@@ -13124,12 +13392,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="B39:B41"/>
@@ -13137,8 +13399,679 @@
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:I81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="7.375" style="46" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="14.75" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9">
+      <c r="A3" s="46" t="s">
+        <v>686</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>558</v>
+      </c>
+      <c r="C3" t="s">
+        <v>636</v>
+      </c>
+      <c r="D3" t="s">
+        <v>637</v>
+      </c>
+      <c r="E3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A5" s="46">
+        <v>0</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>640</v>
+      </c>
+      <c r="C5" t="s">
+        <v>639</v>
+      </c>
+      <c r="I5" s="45" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A6" s="46">
+        <v>1</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>620</v>
+      </c>
+      <c r="C6" t="s">
+        <v>619</v>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A7" s="46">
+        <v>1</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>619</v>
+      </c>
+      <c r="C7" t="s">
+        <v>619</v>
+      </c>
+      <c r="I7" s="45" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A8" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>621</v>
+      </c>
+      <c r="C8" t="s">
+        <v>619</v>
+      </c>
+      <c r="D8" t="s">
+        <v>641</v>
+      </c>
+      <c r="I8" s="45"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" customHeight="1">
+      <c r="I9" s="45"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A10" s="46">
+        <v>0</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>642</v>
+      </c>
+      <c r="C10" t="s">
+        <v>555</v>
+      </c>
+      <c r="I10" s="45" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A11" s="46">
+        <v>0</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>643</v>
+      </c>
+      <c r="C11" t="s">
+        <v>555</v>
+      </c>
+      <c r="D11" t="s">
+        <v>655</v>
+      </c>
+      <c r="I11" s="45" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A12" s="46">
+        <v>0</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>654</v>
+      </c>
+      <c r="C12" t="s">
+        <v>555</v>
+      </c>
+      <c r="D12" t="s">
+        <v>657</v>
+      </c>
+      <c r="I12" s="45"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A13" s="46">
+        <v>0</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>644</v>
+      </c>
+      <c r="C13" t="s">
+        <v>555</v>
+      </c>
+      <c r="I13" s="45" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A14" s="46">
+        <v>0</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>645</v>
+      </c>
+      <c r="C14" t="s">
+        <v>555</v>
+      </c>
+      <c r="I14" s="45" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" customHeight="1">
+      <c r="I15" s="45" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" customHeight="1">
+      <c r="I16" s="45" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A17" s="46">
+        <v>1</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>646</v>
+      </c>
+      <c r="C17" t="s">
+        <v>651</v>
+      </c>
+      <c r="I17" s="45" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A18" s="46">
+        <v>0</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>648</v>
+      </c>
+      <c r="C18" t="s">
+        <v>651</v>
+      </c>
+      <c r="I18" s="45" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A19" s="46">
+        <v>0</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>690</v>
+      </c>
+      <c r="C19" t="s">
+        <v>651</v>
+      </c>
+      <c r="I19" s="45" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A20" s="46">
+        <v>0</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>647</v>
+      </c>
+      <c r="C20" t="s">
+        <v>651</v>
+      </c>
+      <c r="I20" s="45" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A21" s="46">
+        <v>1</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>650</v>
+      </c>
+      <c r="C21" t="s">
+        <v>651</v>
+      </c>
+      <c r="I21" s="45" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="32.25" customHeight="1">
+      <c r="A22" s="46">
+        <v>0.7</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>661</v>
+      </c>
+      <c r="C22" t="s">
+        <v>651</v>
+      </c>
+      <c r="I22" s="45" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="46">
+        <v>0</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>652</v>
+      </c>
+      <c r="C24" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="46">
+        <v>0</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>653</v>
+      </c>
+      <c r="C25" t="s">
+        <v>570</v>
+      </c>
+      <c r="D25" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="46">
+        <v>0</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>654</v>
+      </c>
+      <c r="C26" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="46">
+        <v>0</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>658</v>
+      </c>
+      <c r="C27" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="46">
+        <v>0</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>659</v>
+      </c>
+      <c r="C28" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="46">
+        <v>1</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="C31" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="46">
+        <v>0</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>662</v>
+      </c>
+      <c r="C32" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="46">
+        <v>0</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>663</v>
+      </c>
+      <c r="C33" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="46">
+        <v>1</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>664</v>
+      </c>
+      <c r="C34" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="33">
+      <c r="A35" s="46">
+        <v>0.7</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>665</v>
+      </c>
+      <c r="C35" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="46">
+        <v>1</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>667</v>
+      </c>
+      <c r="C38" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="46">
+        <v>0</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>668</v>
+      </c>
+      <c r="C39" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="46">
+        <v>0</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>654</v>
+      </c>
+      <c r="C40" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="46">
+        <v>1</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>669</v>
+      </c>
+      <c r="C41" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="46">
+        <v>1</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>670</v>
+      </c>
+      <c r="C42" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="46">
+        <v>1</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>672</v>
+      </c>
+      <c r="C45" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="46">
+        <v>1</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>673</v>
+      </c>
+      <c r="C46" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="46">
+        <v>1</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>601</v>
+      </c>
+      <c r="C47" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="46">
+        <v>1</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>674</v>
+      </c>
+      <c r="C48" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="46">
+        <v>1</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>675</v>
+      </c>
+      <c r="C49" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="46">
+        <v>1</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="C52" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>678</v>
+      </c>
+      <c r="C53" t="s">
+        <v>680</v>
+      </c>
+      <c r="D53" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="46">
+        <v>1</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>551</v>
+      </c>
+      <c r="C54" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="B55" s="41" t="s">
+        <v>679</v>
+      </c>
+      <c r="C55" t="s">
+        <v>681</v>
+      </c>
+      <c r="D55" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="46">
+        <v>0</v>
+      </c>
+      <c r="B58" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="C58" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="46">
+        <v>1</v>
+      </c>
+      <c r="B59" s="41" t="s">
+        <v>683</v>
+      </c>
+      <c r="C59" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="46">
+        <v>0</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="C60" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="46">
+        <v>1</v>
+      </c>
+      <c r="B61" s="41" t="s">
+        <v>683</v>
+      </c>
+      <c r="C61" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="46">
+        <v>0</v>
+      </c>
+      <c r="B64" s="41" t="s">
+        <v>688</v>
+      </c>
+      <c r="C64" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="46">
+        <v>1</v>
+      </c>
+      <c r="B67" s="41" t="s">
+        <v>689</v>
+      </c>
+      <c r="C67" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="B69" s="41" t="s">
+        <v>634</v>
+      </c>
+      <c r="C69" t="s">
+        <v>634</v>
+      </c>
+      <c r="D69" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="B74" s="41" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="B75" s="41" t="s">
+        <v>694</v>
+      </c>
+      <c r="C75" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="C76" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="C77" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="C78" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="C79" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="C80" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" t="s">
+        <v>701</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>